--- a/0_1_Output_Data/3_QoQ_Forecast_Tables/naive_qoq_forecasts_AVERAGE_2_9.xlsx
+++ b/0_1_Output_Data/3_QoQ_Forecast_Tables/naive_qoq_forecasts_AVERAGE_2_9.xlsx
@@ -369,4616 +369,6250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DQ130"/>
+  <dimension ref="A1:FH173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:121">
+    <row r="1" spans="1:164">
       <c r="B1" s="1">
+        <v>30956</v>
+      </c>
+      <c r="C1" s="1">
+        <v>31048</v>
+      </c>
+      <c r="D1" s="1">
+        <v>31138</v>
+      </c>
+      <c r="E1" s="1">
+        <v>31229</v>
+      </c>
+      <c r="F1" s="1">
+        <v>31321</v>
+      </c>
+      <c r="G1" s="1">
+        <v>31413</v>
+      </c>
+      <c r="H1" s="1">
+        <v>31503</v>
+      </c>
+      <c r="I1" s="1">
+        <v>31594</v>
+      </c>
+      <c r="J1" s="1">
+        <v>31686</v>
+      </c>
+      <c r="K1" s="1">
+        <v>31778</v>
+      </c>
+      <c r="L1" s="1">
+        <v>31868</v>
+      </c>
+      <c r="M1" s="1">
+        <v>31959</v>
+      </c>
+      <c r="N1" s="1">
+        <v>32051</v>
+      </c>
+      <c r="O1" s="1">
+        <v>32143</v>
+      </c>
+      <c r="P1" s="1">
+        <v>32234</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>32325</v>
+      </c>
+      <c r="R1" s="1">
+        <v>32417</v>
+      </c>
+      <c r="S1" s="1">
+        <v>32509</v>
+      </c>
+      <c r="T1" s="1">
+        <v>32599</v>
+      </c>
+      <c r="U1" s="1">
+        <v>32690</v>
+      </c>
+      <c r="V1" s="1">
+        <v>32782</v>
+      </c>
+      <c r="W1" s="1">
+        <v>32874</v>
+      </c>
+      <c r="X1" s="1">
+        <v>32964</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>33055</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>33147</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>33239</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>33329</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>33420</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>33512</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>33604</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>33695</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>33786</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>33878</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>33970</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>34060</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>34151</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>34243</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>34335</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>34425</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>34516</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>34608</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>34700</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>34790</v>
+      </c>
+      <c r="AS1" s="1">
         <v>34881</v>
       </c>
-      <c r="C1" s="1">
+      <c r="AT1" s="1">
         <v>34973</v>
       </c>
-      <c r="D1" s="1">
+      <c r="AU1" s="1">
         <v>35065</v>
       </c>
-      <c r="E1" s="1">
+      <c r="AV1" s="1">
         <v>35156</v>
       </c>
-      <c r="F1" s="1">
+      <c r="AW1" s="1">
         <v>35247</v>
       </c>
-      <c r="G1" s="1">
+      <c r="AX1" s="1">
         <v>35339</v>
       </c>
-      <c r="H1" s="1">
+      <c r="AY1" s="1">
         <v>35431</v>
       </c>
-      <c r="I1" s="1">
+      <c r="AZ1" s="1">
         <v>35521</v>
       </c>
-      <c r="J1" s="1">
+      <c r="BA1" s="1">
         <v>35612</v>
       </c>
-      <c r="K1" s="1">
+      <c r="BB1" s="1">
         <v>35704</v>
       </c>
-      <c r="L1" s="1">
+      <c r="BC1" s="1">
         <v>35796</v>
       </c>
-      <c r="M1" s="1">
+      <c r="BD1" s="1">
         <v>35886</v>
       </c>
-      <c r="N1" s="1">
+      <c r="BE1" s="1">
         <v>35977</v>
       </c>
-      <c r="O1" s="1">
+      <c r="BF1" s="1">
         <v>36069</v>
       </c>
-      <c r="P1" s="1">
+      <c r="BG1" s="1">
         <v>36161</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="BH1" s="1">
         <v>36251</v>
       </c>
-      <c r="R1" s="1">
+      <c r="BI1" s="1">
         <v>36342</v>
       </c>
-      <c r="S1" s="1">
+      <c r="BJ1" s="1">
         <v>36434</v>
       </c>
-      <c r="T1" s="1">
+      <c r="BK1" s="1">
         <v>36526</v>
       </c>
-      <c r="U1" s="1">
+      <c r="BL1" s="1">
         <v>36617</v>
       </c>
-      <c r="V1" s="1">
+      <c r="BM1" s="1">
         <v>36708</v>
       </c>
-      <c r="W1" s="1">
+      <c r="BN1" s="1">
         <v>36800</v>
       </c>
-      <c r="X1" s="1">
+      <c r="BO1" s="1">
         <v>36892</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="BP1" s="1">
         <v>36982</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="BQ1" s="1">
         <v>37073</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="BR1" s="1">
         <v>37165</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="BS1" s="1">
         <v>37257</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="BT1" s="1">
         <v>37347</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="BU1" s="1">
         <v>37438</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="BV1" s="1">
         <v>37530</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="BW1" s="1">
         <v>37622</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="BX1" s="1">
         <v>37712</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="BY1" s="1">
         <v>37803</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="BZ1" s="1">
         <v>37895</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="CA1" s="1">
         <v>37987</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="CB1" s="1">
         <v>38078</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="CC1" s="1">
         <v>38169</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="CD1" s="1">
         <v>38261</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="CE1" s="1">
         <v>38353</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="CF1" s="1">
         <v>38443</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="CG1" s="1">
         <v>38534</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="CH1" s="1">
         <v>38626</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="CI1" s="1">
         <v>38718</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="CJ1" s="1">
         <v>38808</v>
       </c>
-      <c r="AT1" s="1">
+      <c r="CK1" s="1">
         <v>38899</v>
       </c>
-      <c r="AU1" s="1">
+      <c r="CL1" s="1">
         <v>38991</v>
       </c>
-      <c r="AV1" s="1">
+      <c r="CM1" s="1">
         <v>39083</v>
       </c>
-      <c r="AW1" s="1">
+      <c r="CN1" s="1">
         <v>39173</v>
       </c>
-      <c r="AX1" s="1">
+      <c r="CO1" s="1">
         <v>39264</v>
       </c>
-      <c r="AY1" s="1">
+      <c r="CP1" s="1">
         <v>39356</v>
       </c>
-      <c r="AZ1" s="1">
+      <c r="CQ1" s="1">
         <v>39448</v>
       </c>
-      <c r="BA1" s="1">
+      <c r="CR1" s="1">
         <v>39539</v>
       </c>
-      <c r="BB1" s="1">
+      <c r="CS1" s="1">
         <v>39630</v>
       </c>
-      <c r="BC1" s="1">
+      <c r="CT1" s="1">
         <v>39722</v>
       </c>
-      <c r="BD1" s="1">
+      <c r="CU1" s="1">
         <v>39814</v>
       </c>
-      <c r="BE1" s="1">
+      <c r="CV1" s="1">
         <v>39904</v>
       </c>
-      <c r="BF1" s="1">
+      <c r="CW1" s="1">
         <v>39995</v>
       </c>
-      <c r="BG1" s="1">
+      <c r="CX1" s="1">
         <v>40087</v>
       </c>
-      <c r="BH1" s="1">
+      <c r="CY1" s="1">
         <v>40179</v>
       </c>
-      <c r="BI1" s="1">
+      <c r="CZ1" s="1">
         <v>40269</v>
       </c>
-      <c r="BJ1" s="1">
+      <c r="DA1" s="1">
         <v>40360</v>
       </c>
-      <c r="BK1" s="1">
+      <c r="DB1" s="1">
         <v>40452</v>
       </c>
-      <c r="BL1" s="1">
+      <c r="DC1" s="1">
         <v>40544</v>
       </c>
-      <c r="BM1" s="1">
+      <c r="DD1" s="1">
         <v>40634</v>
       </c>
-      <c r="BN1" s="1">
+      <c r="DE1" s="1">
         <v>40725</v>
       </c>
-      <c r="BO1" s="1">
+      <c r="DF1" s="1">
         <v>40817</v>
       </c>
-      <c r="BP1" s="1">
+      <c r="DG1" s="1">
         <v>40909</v>
       </c>
-      <c r="BQ1" s="1">
+      <c r="DH1" s="1">
         <v>41000</v>
       </c>
-      <c r="BR1" s="1">
+      <c r="DI1" s="1">
         <v>41091</v>
       </c>
-      <c r="BS1" s="1">
+      <c r="DJ1" s="1">
         <v>41183</v>
       </c>
-      <c r="BT1" s="1">
+      <c r="DK1" s="1">
         <v>41275</v>
       </c>
-      <c r="BU1" s="1">
+      <c r="DL1" s="1">
         <v>41365</v>
       </c>
-      <c r="BV1" s="1">
+      <c r="DM1" s="1">
         <v>41456</v>
       </c>
-      <c r="BW1" s="1">
+      <c r="DN1" s="1">
         <v>41548</v>
       </c>
-      <c r="BX1" s="1">
+      <c r="DO1" s="1">
         <v>41640</v>
       </c>
-      <c r="BY1" s="1">
+      <c r="DP1" s="1">
         <v>41730</v>
       </c>
-      <c r="BZ1" s="1">
+      <c r="DQ1" s="1">
         <v>41821</v>
       </c>
-      <c r="CA1" s="1">
+      <c r="DR1" s="1">
         <v>41913</v>
       </c>
-      <c r="CB1" s="1">
+      <c r="DS1" s="1">
         <v>42005</v>
       </c>
-      <c r="CC1" s="1">
+      <c r="DT1" s="1">
         <v>42095</v>
       </c>
-      <c r="CD1" s="1">
+      <c r="DU1" s="1">
         <v>42186</v>
       </c>
-      <c r="CE1" s="1">
+      <c r="DV1" s="1">
         <v>42278</v>
       </c>
-      <c r="CF1" s="1">
+      <c r="DW1" s="1">
         <v>42370</v>
       </c>
-      <c r="CG1" s="1">
+      <c r="DX1" s="1">
         <v>42461</v>
       </c>
-      <c r="CH1" s="1">
+      <c r="DY1" s="1">
         <v>42552</v>
       </c>
-      <c r="CI1" s="1">
+      <c r="DZ1" s="1">
         <v>42644</v>
       </c>
-      <c r="CJ1" s="1">
+      <c r="EA1" s="1">
         <v>42736</v>
       </c>
-      <c r="CK1" s="1">
+      <c r="EB1" s="1">
         <v>42826</v>
       </c>
-      <c r="CL1" s="1">
+      <c r="EC1" s="1">
         <v>42917</v>
       </c>
-      <c r="CM1" s="1">
+      <c r="ED1" s="1">
         <v>43009</v>
       </c>
-      <c r="CN1" s="1">
+      <c r="EE1" s="1">
         <v>43101</v>
       </c>
-      <c r="CO1" s="1">
+      <c r="EF1" s="1">
         <v>43191</v>
       </c>
-      <c r="CP1" s="1">
+      <c r="EG1" s="1">
         <v>43282</v>
       </c>
-      <c r="CQ1" s="1">
+      <c r="EH1" s="1">
         <v>43374</v>
       </c>
-      <c r="CR1" s="1">
+      <c r="EI1" s="1">
         <v>43466</v>
       </c>
-      <c r="CS1" s="1">
+      <c r="EJ1" s="1">
         <v>43556</v>
       </c>
-      <c r="CT1" s="1">
+      <c r="EK1" s="1">
         <v>43647</v>
       </c>
-      <c r="CU1" s="1">
+      <c r="EL1" s="1">
         <v>43739</v>
       </c>
-      <c r="CV1" s="1">
+      <c r="EM1" s="1">
         <v>43831</v>
       </c>
-      <c r="CW1" s="1">
+      <c r="EN1" s="1">
         <v>43922</v>
       </c>
-      <c r="CX1" s="1">
+      <c r="EO1" s="1">
         <v>44013</v>
       </c>
-      <c r="CY1" s="1">
+      <c r="EP1" s="1">
         <v>44105</v>
       </c>
-      <c r="CZ1" s="1">
+      <c r="EQ1" s="1">
         <v>44197</v>
       </c>
-      <c r="DA1" s="1">
+      <c r="ER1" s="1">
         <v>44287</v>
       </c>
-      <c r="DB1" s="1">
+      <c r="ES1" s="1">
         <v>44378</v>
       </c>
-      <c r="DC1" s="1">
+      <c r="ET1" s="1">
         <v>44470</v>
       </c>
-      <c r="DD1" s="1">
+      <c r="EU1" s="1">
         <v>44562</v>
       </c>
-      <c r="DE1" s="1">
+      <c r="EV1" s="1">
         <v>44652</v>
       </c>
-      <c r="DF1" s="1">
+      <c r="EW1" s="1">
         <v>44743</v>
       </c>
-      <c r="DG1" s="1">
+      <c r="EX1" s="1">
         <v>44835</v>
       </c>
-      <c r="DH1" s="1">
+      <c r="EY1" s="1">
         <v>44927</v>
       </c>
-      <c r="DI1" s="1">
+      <c r="EZ1" s="1">
         <v>45017</v>
       </c>
-      <c r="DJ1" s="1">
+      <c r="FA1" s="1">
         <v>45108</v>
       </c>
-      <c r="DK1" s="1">
+      <c r="FB1" s="1">
         <v>45200</v>
       </c>
-      <c r="DL1" s="1">
+      <c r="FC1" s="1">
         <v>45292</v>
       </c>
-      <c r="DM1" s="1">
+      <c r="FD1" s="1">
         <v>45383</v>
       </c>
-      <c r="DN1" s="1">
+      <c r="FE1" s="1">
         <v>45474</v>
       </c>
-      <c r="DO1" s="1">
+      <c r="FF1" s="1">
         <v>45566</v>
       </c>
-      <c r="DP1" s="1">
+      <c r="FG1" s="1">
         <v>45658</v>
       </c>
-      <c r="DQ1" s="1">
+      <c r="FH1" s="1">
         <v>45748</v>
       </c>
     </row>
-    <row r="2" spans="1:121">
+    <row r="2" spans="1:164">
       <c r="A2" s="1">
-        <v>34881</v>
+        <v>30956</v>
       </c>
       <c r="B2">
-        <v>0.6401426592241428</v>
-      </c>
-    </row>
-    <row r="3" spans="1:121">
+        <v>0.5800442104986655</v>
+      </c>
+    </row>
+    <row r="3" spans="1:164">
       <c r="A3" s="1">
-        <v>34973</v>
+        <v>31048</v>
       </c>
       <c r="B3">
-        <v>0.6401426592241428</v>
+        <v>0.5800442104986655</v>
       </c>
       <c r="C3">
-        <v>0.5266667957441251</v>
-      </c>
-    </row>
-    <row r="4" spans="1:121">
+        <v>1.782789416692813</v>
+      </c>
+    </row>
+    <row r="4" spans="1:164">
       <c r="A4" s="1">
-        <v>35065</v>
+        <v>31138</v>
       </c>
       <c r="B4">
-        <v>0.6401426592241428</v>
+        <v>0.5800442104986655</v>
       </c>
       <c r="C4">
-        <v>0.5266667957441251</v>
+        <v>1.782789416692813</v>
       </c>
       <c r="D4">
-        <v>-0.1513997253654748</v>
-      </c>
-    </row>
-    <row r="5" spans="1:121">
+        <v>0.1537088278912822</v>
+      </c>
+    </row>
+    <row r="5" spans="1:164">
       <c r="A5" s="1">
-        <v>35156</v>
+        <v>31229</v>
       </c>
       <c r="B5">
-        <v>0.6401426592241428</v>
+        <v>0.5800442104986655</v>
       </c>
       <c r="C5">
-        <v>0.5266667957441251</v>
+        <v>1.782789416692813</v>
       </c>
       <c r="D5">
-        <v>-0.1513997253654748</v>
+        <v>0.1537088278912822</v>
       </c>
       <c r="E5">
-        <v>-0.2640753477522876</v>
-      </c>
-    </row>
-    <row r="6" spans="1:121">
+        <v>0.2235169403701076</v>
+      </c>
+    </row>
+    <row r="6" spans="1:164">
       <c r="A6" s="1">
-        <v>35247</v>
+        <v>31321</v>
       </c>
       <c r="B6">
-        <v>0.6401426592241428</v>
+        <v>0.5800442104986655</v>
       </c>
       <c r="C6">
-        <v>0.5266667957441251</v>
+        <v>1.782789416692813</v>
       </c>
       <c r="D6">
-        <v>-0.1513997253654748</v>
+        <v>0.1537088278912822</v>
       </c>
       <c r="E6">
-        <v>-0.2640753477522876</v>
+        <v>0.2235169403701076</v>
       </c>
       <c r="F6">
-        <v>0.504844752474134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:121">
+        <v>1.139692865703407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:164">
       <c r="A7" s="1">
-        <v>35339</v>
+        <v>31413</v>
       </c>
       <c r="B7">
-        <v>0.6401426592241428</v>
+        <v>0.5800442104986655</v>
       </c>
       <c r="C7">
-        <v>0.5266667957441251</v>
+        <v>1.782789416692813</v>
       </c>
       <c r="D7">
-        <v>-0.1513997253654748</v>
+        <v>0.1537088278912822</v>
       </c>
       <c r="E7">
-        <v>-0.2640753477522876</v>
+        <v>0.2235169403701076</v>
       </c>
       <c r="F7">
-        <v>0.504844752474134</v>
+        <v>1.139692865703407</v>
       </c>
       <c r="G7">
-        <v>1.133475278544638</v>
-      </c>
-    </row>
-    <row r="8" spans="1:121">
+        <v>0.9550423447653338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:164">
       <c r="A8" s="1">
-        <v>35431</v>
+        <v>31503</v>
       </c>
       <c r="B8">
-        <v>0.6401426592241428</v>
+        <v>0.5800442104986655</v>
       </c>
       <c r="C8">
-        <v>0.5266667957441251</v>
+        <v>1.782789416692813</v>
       </c>
       <c r="D8">
-        <v>-0.1513997253654748</v>
+        <v>0.1537088278912822</v>
       </c>
       <c r="E8">
-        <v>-0.2640753477522876</v>
+        <v>0.2235169403701076</v>
       </c>
       <c r="F8">
-        <v>0.504844752474134</v>
+        <v>1.139692865703407</v>
       </c>
       <c r="G8">
-        <v>1.133475278544638</v>
+        <v>0.9550423447653338</v>
       </c>
       <c r="H8">
-        <v>0.4109914905100568</v>
-      </c>
-    </row>
-    <row r="9" spans="1:121">
+        <v>0.01910207558994503</v>
+      </c>
+    </row>
+    <row r="9" spans="1:164">
       <c r="A9" s="1">
-        <v>35521</v>
+        <v>31594</v>
       </c>
       <c r="B9">
-        <v>0.6401426592241428</v>
+        <v>0.5800442104986655</v>
       </c>
       <c r="C9">
-        <v>0.5266667957441251</v>
+        <v>1.782789416692813</v>
       </c>
       <c r="D9">
-        <v>-0.1513997253654748</v>
+        <v>0.1537088278912822</v>
       </c>
       <c r="E9">
-        <v>-0.2640753477522876</v>
+        <v>0.2235169403701076</v>
       </c>
       <c r="F9">
-        <v>0.504844752474134</v>
+        <v>1.139692865703407</v>
       </c>
       <c r="G9">
-        <v>1.133475278544638</v>
+        <v>0.9550423447653338</v>
       </c>
       <c r="H9">
-        <v>0.4109914905100568</v>
+        <v>0.01910207558994503</v>
       </c>
       <c r="I9">
-        <v>0.2590304689838107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:121">
+        <v>0.2968225208873098</v>
+      </c>
+    </row>
+    <row r="10" spans="1:164">
       <c r="A10" s="1">
-        <v>35612</v>
+        <v>31686</v>
       </c>
       <c r="B10">
-        <v>0.6401426592241428</v>
+        <v>0.5800442104986655</v>
       </c>
       <c r="C10">
-        <v>0.5266667957441251</v>
+        <v>1.782789416692813</v>
       </c>
       <c r="D10">
-        <v>-0.1513997253654748</v>
+        <v>0.1537088278912822</v>
       </c>
       <c r="E10">
-        <v>-0.2640753477522876</v>
+        <v>0.2235169403701076</v>
       </c>
       <c r="F10">
-        <v>0.504844752474134</v>
+        <v>1.139692865703407</v>
       </c>
       <c r="G10">
-        <v>1.133475278544638</v>
+        <v>0.9550423447653338</v>
       </c>
       <c r="H10">
-        <v>0.4109914905100568</v>
+        <v>0.01910207558994503</v>
       </c>
       <c r="I10">
-        <v>0.2590304689838107</v>
+        <v>0.2968225208873098</v>
       </c>
       <c r="J10">
-        <v>0.6546750680543985</v>
-      </c>
-    </row>
-    <row r="11" spans="1:121">
+        <v>0.950733570231741</v>
+      </c>
+    </row>
+    <row r="11" spans="1:164">
       <c r="A11" s="1">
-        <v>35704</v>
+        <v>31778</v>
       </c>
       <c r="B11">
-        <v>0.6401426592241428</v>
+        <v>0.5800442104986655</v>
       </c>
       <c r="C11">
-        <v>0.5266667957441251</v>
+        <v>1.782789416692813</v>
       </c>
       <c r="D11">
-        <v>-0.1513997253654748</v>
+        <v>0.1537088278912822</v>
       </c>
       <c r="E11">
-        <v>-0.2640753477522876</v>
+        <v>0.2235169403701076</v>
       </c>
       <c r="F11">
-        <v>0.504844752474134</v>
+        <v>1.139692865703407</v>
       </c>
       <c r="G11">
-        <v>1.133475278544638</v>
+        <v>0.9550423447653338</v>
       </c>
       <c r="H11">
-        <v>0.4109914905100568</v>
+        <v>0.01910207558994503</v>
       </c>
       <c r="I11">
-        <v>0.2590304689838107</v>
+        <v>0.2968225208873098</v>
       </c>
       <c r="J11">
-        <v>0.6546750680543985</v>
+        <v>0.950733570231741</v>
       </c>
       <c r="K11">
-        <v>0.8963072768758295</v>
-      </c>
-    </row>
-    <row r="12" spans="1:121">
+        <v>0.8631570148961837</v>
+      </c>
+    </row>
+    <row r="12" spans="1:164">
       <c r="A12" s="1">
-        <v>35796</v>
+        <v>31868</v>
       </c>
       <c r="C12">
-        <v>0.5266667957441251</v>
+        <v>1.782789416692813</v>
       </c>
       <c r="D12">
-        <v>-0.1513997253654748</v>
+        <v>0.1537088278912822</v>
       </c>
       <c r="E12">
-        <v>-0.2640753477522876</v>
+        <v>0.2235169403701076</v>
       </c>
       <c r="F12">
-        <v>0.504844752474134</v>
+        <v>1.139692865703407</v>
       </c>
       <c r="G12">
-        <v>1.133475278544638</v>
+        <v>0.9550423447653338</v>
       </c>
       <c r="H12">
-        <v>0.4109914905100568</v>
+        <v>0.01910207558994503</v>
       </c>
       <c r="I12">
-        <v>0.2590304689838107</v>
+        <v>0.2968225208873098</v>
       </c>
       <c r="J12">
-        <v>0.6546750680543985</v>
+        <v>0.950733570231741</v>
       </c>
       <c r="K12">
-        <v>0.8963072768758295</v>
+        <v>0.8631570148961837</v>
       </c>
       <c r="L12">
-        <v>0.4927914526996163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:121">
+        <v>-0.7628380198992291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:164">
       <c r="A13" s="1">
-        <v>35886</v>
+        <v>31959</v>
       </c>
       <c r="D13">
-        <v>-0.1513997253654748</v>
+        <v>0.1537088278912822</v>
       </c>
       <c r="E13">
-        <v>-0.2640753477522876</v>
+        <v>0.2235169403701076</v>
       </c>
       <c r="F13">
-        <v>0.504844752474134</v>
+        <v>1.139692865703407</v>
       </c>
       <c r="G13">
-        <v>1.133475278544638</v>
+        <v>0.9550423447653338</v>
       </c>
       <c r="H13">
-        <v>0.4109914905100568</v>
+        <v>0.01910207558994503</v>
       </c>
       <c r="I13">
-        <v>0.2590304689838107</v>
+        <v>0.2968225208873098</v>
       </c>
       <c r="J13">
-        <v>0.6546750680543985</v>
+        <v>0.950733570231741</v>
       </c>
       <c r="K13">
-        <v>0.8963072768758295</v>
+        <v>0.8631570148961837</v>
       </c>
       <c r="L13">
-        <v>0.4927914526996163</v>
+        <v>-0.7628380198992291</v>
       </c>
       <c r="M13">
-        <v>0.6289573203813391</v>
-      </c>
-    </row>
-    <row r="14" spans="1:121">
+        <v>-0.1320029436253474</v>
+      </c>
+    </row>
+    <row r="14" spans="1:164">
       <c r="A14" s="1">
-        <v>35977</v>
+        <v>32051</v>
       </c>
       <c r="E14">
-        <v>-0.2640753477522876</v>
+        <v>0.2235169403701076</v>
       </c>
       <c r="F14">
-        <v>0.504844752474134</v>
+        <v>1.139692865703407</v>
       </c>
       <c r="G14">
-        <v>1.133475278544638</v>
+        <v>0.9550423447653338</v>
       </c>
       <c r="H14">
-        <v>0.4109914905100568</v>
+        <v>0.01910207558994503</v>
       </c>
       <c r="I14">
-        <v>0.2590304689838107</v>
+        <v>0.2968225208873098</v>
       </c>
       <c r="J14">
-        <v>0.6546750680543985</v>
+        <v>0.950733570231741</v>
       </c>
       <c r="K14">
-        <v>0.8963072768758295</v>
+        <v>0.8631570148961837</v>
       </c>
       <c r="L14">
-        <v>0.4927914526996163</v>
+        <v>-0.7628380198992291</v>
       </c>
       <c r="M14">
-        <v>0.6289573203813391</v>
+        <v>-0.1320029436253474</v>
       </c>
       <c r="N14">
-        <v>0.7727312346850435</v>
-      </c>
-    </row>
-    <row r="15" spans="1:121">
+        <v>1.480406969400192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:164">
       <c r="A15" s="1">
-        <v>36069</v>
+        <v>32143</v>
       </c>
       <c r="F15">
-        <v>0.504844752474134</v>
+        <v>1.139692865703407</v>
       </c>
       <c r="G15">
-        <v>1.133475278544638</v>
+        <v>0.9550423447653338</v>
       </c>
       <c r="H15">
-        <v>0.4109914905100568</v>
+        <v>0.01910207558994503</v>
       </c>
       <c r="I15">
-        <v>0.2590304689838107</v>
+        <v>0.2968225208873098</v>
       </c>
       <c r="J15">
-        <v>0.6546750680543985</v>
+        <v>0.950733570231741</v>
       </c>
       <c r="K15">
-        <v>0.8963072768758295</v>
+        <v>0.8631570148961837</v>
       </c>
       <c r="L15">
-        <v>0.4927914526996163</v>
+        <v>-0.7628380198992291</v>
       </c>
       <c r="M15">
-        <v>0.6289573203813391</v>
+        <v>-0.1320029436253474</v>
       </c>
       <c r="N15">
-        <v>0.7727312346850435</v>
+        <v>1.480406969400192</v>
       </c>
       <c r="O15">
-        <v>0.4535218834435705</v>
-      </c>
-    </row>
-    <row r="16" spans="1:121">
+        <v>1.145366203353378</v>
+      </c>
+    </row>
+    <row r="16" spans="1:164">
       <c r="A16" s="1">
-        <v>36161</v>
+        <v>32234</v>
       </c>
       <c r="G16">
-        <v>1.133475278544638</v>
+        <v>0.9550423447653338</v>
       </c>
       <c r="H16">
-        <v>0.4109914905100568</v>
+        <v>0.01910207558994503</v>
       </c>
       <c r="I16">
-        <v>0.2590304689838107</v>
+        <v>0.2968225208873098</v>
       </c>
       <c r="J16">
-        <v>0.6546750680543985</v>
+        <v>0.950733570231741</v>
       </c>
       <c r="K16">
-        <v>0.8963072768758295</v>
+        <v>0.8631570148961837</v>
       </c>
       <c r="L16">
-        <v>0.4927914526996163</v>
+        <v>-0.7628380198992291</v>
       </c>
       <c r="M16">
-        <v>0.6289573203813391</v>
+        <v>-0.1320029436253474</v>
       </c>
       <c r="N16">
-        <v>0.7727312346850435</v>
+        <v>1.480406969400192</v>
       </c>
       <c r="O16">
-        <v>0.4535218834435705</v>
+        <v>1.145366203353378</v>
       </c>
       <c r="P16">
-        <v>0.2537974936422204</v>
+        <v>0.3431919425612713</v>
       </c>
     </row>
     <row r="17" spans="1:32">
       <c r="A17" s="1">
-        <v>36251</v>
+        <v>32325</v>
       </c>
       <c r="H17">
-        <v>0.4109914905100568</v>
+        <v>0.01910207558994503</v>
       </c>
       <c r="I17">
-        <v>0.2590304689838107</v>
+        <v>0.2968225208873098</v>
       </c>
       <c r="J17">
-        <v>0.6546750680543985</v>
+        <v>0.950733570231741</v>
       </c>
       <c r="K17">
-        <v>0.8963072768758295</v>
+        <v>0.8631570148961837</v>
       </c>
       <c r="L17">
-        <v>0.4927914526996163</v>
+        <v>-0.7628380198992291</v>
       </c>
       <c r="M17">
-        <v>0.6289573203813391</v>
+        <v>-0.1320029436253474</v>
       </c>
       <c r="N17">
-        <v>0.7727312346850435</v>
+        <v>1.480406969400192</v>
       </c>
       <c r="O17">
-        <v>0.4535218834435705</v>
+        <v>1.145366203353378</v>
       </c>
       <c r="P17">
-        <v>0.2537974936422204</v>
+        <v>0.3431919425612713</v>
       </c>
       <c r="Q17">
-        <v>0.1493575413061861</v>
+        <v>0.4631257257573588</v>
       </c>
     </row>
     <row r="18" spans="1:32">
       <c r="A18" s="1">
-        <v>36342</v>
+        <v>32417</v>
       </c>
       <c r="I18">
-        <v>0.2590304689838107</v>
+        <v>0.2968225208873098</v>
       </c>
       <c r="J18">
-        <v>0.6546750680543985</v>
+        <v>0.950733570231741</v>
       </c>
       <c r="K18">
-        <v>0.8963072768758295</v>
+        <v>0.8631570148961837</v>
       </c>
       <c r="L18">
-        <v>0.4927914526996163</v>
+        <v>-0.7628380198992291</v>
       </c>
       <c r="M18">
-        <v>0.6289573203813391</v>
+        <v>-0.1320029436253474</v>
       </c>
       <c r="N18">
-        <v>0.7727312346850435</v>
+        <v>1.480406969400192</v>
       </c>
       <c r="O18">
-        <v>0.4535218834435705</v>
+        <v>1.145366203353378</v>
       </c>
       <c r="P18">
-        <v>0.2537974936422204</v>
+        <v>0.3431919425612713</v>
       </c>
       <c r="Q18">
-        <v>0.1493575413061861</v>
+        <v>0.4631257257573588</v>
       </c>
       <c r="R18">
-        <v>0.2478976165325543</v>
+        <v>1.459120121774803</v>
       </c>
     </row>
     <row r="19" spans="1:32">
       <c r="A19" s="1">
-        <v>36434</v>
+        <v>32509</v>
       </c>
       <c r="J19">
-        <v>0.6546750680543985</v>
+        <v>0.950733570231741</v>
       </c>
       <c r="K19">
-        <v>0.8963072768758295</v>
+        <v>0.8631570148961837</v>
       </c>
       <c r="L19">
-        <v>0.4927914526996163</v>
+        <v>-0.7628380198992291</v>
       </c>
       <c r="M19">
-        <v>0.6289573203813391</v>
+        <v>-0.1320029436253474</v>
       </c>
       <c r="N19">
-        <v>0.7727312346850435</v>
+        <v>1.480406969400192</v>
       </c>
       <c r="O19">
-        <v>0.4535218834435705</v>
+        <v>1.145366203353378</v>
       </c>
       <c r="P19">
-        <v>0.2537974936422204</v>
+        <v>0.3431919425612713</v>
       </c>
       <c r="Q19">
-        <v>0.1493575413061861</v>
+        <v>0.4631257257573588</v>
       </c>
       <c r="R19">
-        <v>0.2478976165325543</v>
+        <v>1.459120121774803</v>
       </c>
       <c r="S19">
-        <v>0.4120567045008888</v>
+        <v>1.149335244070199</v>
       </c>
     </row>
     <row r="20" spans="1:32">
       <c r="A20" s="1">
-        <v>36526</v>
+        <v>32599</v>
       </c>
       <c r="K20">
-        <v>0.8963072768758295</v>
+        <v>0.8631570148961837</v>
       </c>
       <c r="L20">
-        <v>0.4927914526996163</v>
+        <v>-0.7628380198992291</v>
       </c>
       <c r="M20">
-        <v>0.6289573203813391</v>
+        <v>-0.1320029436253474</v>
       </c>
       <c r="N20">
-        <v>0.7727312346850435</v>
+        <v>1.480406969400192</v>
       </c>
       <c r="O20">
-        <v>0.4535218834435705</v>
+        <v>1.145366203353378</v>
       </c>
       <c r="P20">
-        <v>0.2537974936422204</v>
+        <v>0.3431919425612713</v>
       </c>
       <c r="Q20">
-        <v>0.1493575413061861</v>
+        <v>0.4631257257573588</v>
       </c>
       <c r="R20">
-        <v>0.2478976165325543</v>
+        <v>1.459120121774803</v>
       </c>
       <c r="S20">
-        <v>0.4120567045008888</v>
+        <v>1.149335244070199</v>
       </c>
       <c r="T20">
-        <v>0.7785873385578803</v>
+        <v>1.112885384698548</v>
       </c>
     </row>
     <row r="21" spans="1:32">
       <c r="A21" s="1">
-        <v>36617</v>
+        <v>32690</v>
       </c>
       <c r="L21">
-        <v>0.4927914526996163</v>
+        <v>-0.7628380198992291</v>
       </c>
       <c r="M21">
-        <v>0.6289573203813391</v>
+        <v>-0.1320029436253474</v>
       </c>
       <c r="N21">
-        <v>0.7727312346850435</v>
+        <v>1.480406969400192</v>
       </c>
       <c r="O21">
-        <v>0.4535218834435705</v>
+        <v>1.145366203353378</v>
       </c>
       <c r="P21">
-        <v>0.2537974936422204</v>
+        <v>0.3431919425612713</v>
       </c>
       <c r="Q21">
-        <v>0.1493575413061861</v>
+        <v>0.4631257257573588</v>
       </c>
       <c r="R21">
-        <v>0.2478976165325543</v>
+        <v>1.459120121774803</v>
       </c>
       <c r="S21">
-        <v>0.4120567045008888</v>
+        <v>1.149335244070199</v>
       </c>
       <c r="T21">
-        <v>0.7785873385578803</v>
+        <v>1.112885384698548</v>
       </c>
       <c r="U21">
-        <v>0.683959016830631</v>
+        <v>0.7190387869321904</v>
       </c>
     </row>
     <row r="22" spans="1:32">
       <c r="A22" s="1">
-        <v>36708</v>
+        <v>32782</v>
       </c>
       <c r="M22">
-        <v>0.6289573203813391</v>
+        <v>-0.1320029436253474</v>
       </c>
       <c r="N22">
-        <v>0.7727312346850435</v>
+        <v>1.480406969400192</v>
       </c>
       <c r="O22">
-        <v>0.4535218834435705</v>
+        <v>1.145366203353378</v>
       </c>
       <c r="P22">
-        <v>0.2537974936422204</v>
+        <v>0.3431919425612713</v>
       </c>
       <c r="Q22">
-        <v>0.1493575413061861</v>
+        <v>0.4631257257573588</v>
       </c>
       <c r="R22">
-        <v>0.2478976165325543</v>
+        <v>1.459120121774803</v>
       </c>
       <c r="S22">
-        <v>0.4120567045008888</v>
+        <v>1.149335244070199</v>
       </c>
       <c r="T22">
-        <v>0.7785873385578803</v>
+        <v>1.112885384698548</v>
       </c>
       <c r="U22">
-        <v>0.683959016830631</v>
+        <v>0.7190387869321904</v>
       </c>
       <c r="V22">
-        <v>0.9602071422528702</v>
+        <v>0.656455240936323</v>
       </c>
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="1">
-        <v>36800</v>
+        <v>32874</v>
       </c>
       <c r="N23">
-        <v>0.7727312346850435</v>
+        <v>1.480406969400192</v>
       </c>
       <c r="O23">
-        <v>0.4535218834435705</v>
+        <v>1.145366203353378</v>
       </c>
       <c r="P23">
-        <v>0.2537974936422204</v>
+        <v>0.3431919425612713</v>
       </c>
       <c r="Q23">
-        <v>0.1493575413061861</v>
+        <v>0.4631257257573588</v>
       </c>
       <c r="R23">
-        <v>0.2478976165325543</v>
+        <v>1.459120121774803</v>
       </c>
       <c r="S23">
-        <v>0.4120567045008888</v>
+        <v>1.149335244070199</v>
       </c>
       <c r="T23">
-        <v>0.7785873385578803</v>
+        <v>1.112885384698548</v>
       </c>
       <c r="U23">
-        <v>0.683959016830631</v>
+        <v>0.7190387869321904</v>
       </c>
       <c r="V23">
-        <v>0.9602071422528702</v>
+        <v>0.656455240936323</v>
       </c>
       <c r="W23">
-        <v>0.8526959775178222</v>
+        <v>1.037367074856591</v>
       </c>
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="1">
-        <v>36892</v>
+        <v>32964</v>
       </c>
       <c r="O24">
-        <v>0.4535218834435705</v>
+        <v>1.145366203353378</v>
       </c>
       <c r="P24">
-        <v>0.2537974936422204</v>
+        <v>0.3431919425612713</v>
       </c>
       <c r="Q24">
-        <v>0.1493575413061861</v>
+        <v>0.4631257257573588</v>
       </c>
       <c r="R24">
-        <v>0.2478976165325543</v>
+        <v>1.459120121774803</v>
       </c>
       <c r="S24">
-        <v>0.4120567045008888</v>
+        <v>1.149335244070199</v>
       </c>
       <c r="T24">
-        <v>0.7785873385578803</v>
+        <v>1.112885384698548</v>
       </c>
       <c r="U24">
-        <v>0.683959016830631</v>
+        <v>0.7190387869321904</v>
       </c>
       <c r="V24">
-        <v>0.9602071422528702</v>
+        <v>0.656455240936323</v>
       </c>
       <c r="W24">
-        <v>0.8526959775178222</v>
+        <v>1.037367074856591</v>
       </c>
       <c r="X24">
-        <v>0.244003832487703</v>
+        <v>1.6239608106008</v>
       </c>
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="1">
-        <v>36982</v>
+        <v>33055</v>
       </c>
       <c r="P25">
-        <v>0.2537974936422204</v>
+        <v>0.3431919425612713</v>
       </c>
       <c r="Q25">
-        <v>0.1493575413061861</v>
+        <v>0.4631257257573588</v>
       </c>
       <c r="R25">
-        <v>0.2478976165325543</v>
+        <v>1.459120121774803</v>
       </c>
       <c r="S25">
-        <v>0.4120567045008888</v>
+        <v>1.149335244070199</v>
       </c>
       <c r="T25">
-        <v>0.7785873385578803</v>
+        <v>1.112885384698548</v>
       </c>
       <c r="U25">
-        <v>0.683959016830631</v>
+        <v>0.7190387869321904</v>
       </c>
       <c r="V25">
-        <v>0.9602071422528702</v>
+        <v>0.656455240936323</v>
       </c>
       <c r="W25">
-        <v>0.8526959775178222</v>
+        <v>1.037367074856591</v>
       </c>
       <c r="X25">
-        <v>0.244003832487703</v>
+        <v>1.6239608106008</v>
       </c>
       <c r="Y25">
-        <v>0.2889033955290484</v>
+        <v>1.279401957875106</v>
       </c>
     </row>
     <row r="26" spans="1:32">
       <c r="A26" s="1">
-        <v>37073</v>
+        <v>33147</v>
       </c>
       <c r="Q26">
-        <v>0.1493575413061861</v>
+        <v>0.4631257257573588</v>
       </c>
       <c r="R26">
-        <v>0.2478976165325543</v>
+        <v>1.459120121774803</v>
       </c>
       <c r="S26">
-        <v>0.4120567045008888</v>
+        <v>1.149335244070199</v>
       </c>
       <c r="T26">
-        <v>0.7785873385578803</v>
+        <v>1.112885384698548</v>
       </c>
       <c r="U26">
-        <v>0.683959016830631</v>
+        <v>0.7190387869321904</v>
       </c>
       <c r="V26">
-        <v>0.9602071422528702</v>
+        <v>0.656455240936323</v>
       </c>
       <c r="W26">
-        <v>0.8526959775178222</v>
+        <v>1.037367074856591</v>
       </c>
       <c r="X26">
-        <v>0.244003832487703</v>
+        <v>1.6239608106008</v>
       </c>
       <c r="Y26">
-        <v>0.2889033955290484</v>
+        <v>1.279401957875106</v>
       </c>
       <c r="Z26">
-        <v>0.1841664103337133</v>
+        <v>1.29869678336902</v>
       </c>
     </row>
     <row r="27" spans="1:32">
       <c r="A27" s="1">
-        <v>37165</v>
+        <v>33239</v>
       </c>
       <c r="R27">
-        <v>0.2478976165325543</v>
+        <v>1.459120121774803</v>
       </c>
       <c r="S27">
-        <v>0.4120567045008888</v>
+        <v>1.149335244070199</v>
       </c>
       <c r="T27">
-        <v>0.7785873385578803</v>
+        <v>1.112885384698548</v>
       </c>
       <c r="U27">
-        <v>0.683959016830631</v>
+        <v>0.7190387869321904</v>
       </c>
       <c r="V27">
-        <v>0.9602071422528702</v>
+        <v>0.656455240936323</v>
       </c>
       <c r="W27">
-        <v>0.8526959775178222</v>
+        <v>1.037367074856591</v>
       </c>
       <c r="X27">
-        <v>0.244003832487703</v>
+        <v>1.6239608106008</v>
       </c>
       <c r="Y27">
-        <v>0.2889033955290484</v>
+        <v>1.279401957875106</v>
       </c>
       <c r="Z27">
-        <v>0.1841664103337133</v>
+        <v>1.29869678336902</v>
       </c>
       <c r="AA27">
-        <v>-0.08566364240572692</v>
+        <v>1.942650350757789</v>
       </c>
     </row>
     <row r="28" spans="1:32">
       <c r="A28" s="1">
-        <v>37257</v>
+        <v>33329</v>
       </c>
       <c r="S28">
-        <v>0.4120567045008888</v>
+        <v>1.149335244070199</v>
       </c>
       <c r="T28">
-        <v>0.7785873385578803</v>
+        <v>1.112885384698548</v>
       </c>
       <c r="U28">
-        <v>0.683959016830631</v>
+        <v>0.7190387869321904</v>
       </c>
       <c r="V28">
-        <v>0.9602071422528702</v>
+        <v>0.656455240936323</v>
       </c>
       <c r="W28">
-        <v>0.8526959775178222</v>
+        <v>1.037367074856591</v>
       </c>
       <c r="X28">
-        <v>0.244003832487703</v>
+        <v>1.6239608106008</v>
       </c>
       <c r="Y28">
-        <v>0.2889033955290484</v>
+        <v>1.279401957875106</v>
       </c>
       <c r="Z28">
-        <v>0.1841664103337133</v>
+        <v>1.29869678336902</v>
       </c>
       <c r="AA28">
-        <v>-0.08566364240572692</v>
+        <v>1.942650350757789</v>
       </c>
       <c r="AB28">
-        <v>-0.2107155258033867</v>
+        <v>2.26573504336867</v>
       </c>
     </row>
     <row r="29" spans="1:32">
       <c r="A29" s="1">
-        <v>37347</v>
+        <v>33420</v>
       </c>
       <c r="T29">
-        <v>0.7785873385578803</v>
+        <v>1.112885384698548</v>
       </c>
       <c r="U29">
-        <v>0.683959016830631</v>
+        <v>0.7190387869321904</v>
       </c>
       <c r="V29">
-        <v>0.9602071422528702</v>
+        <v>0.656455240936323</v>
       </c>
       <c r="W29">
-        <v>0.8526959775178222</v>
+        <v>1.037367074856591</v>
       </c>
       <c r="X29">
-        <v>0.244003832487703</v>
+        <v>1.6239608106008</v>
       </c>
       <c r="Y29">
-        <v>0.2889033955290484</v>
+        <v>1.279401957875106</v>
       </c>
       <c r="Z29">
-        <v>0.1841664103337133</v>
+        <v>1.29869678336902</v>
       </c>
       <c r="AA29">
-        <v>-0.08566364240572692</v>
+        <v>1.942650350757789</v>
       </c>
       <c r="AB29">
-        <v>-0.2107155258033867</v>
+        <v>2.26573504336867</v>
       </c>
       <c r="AC29">
-        <v>-0.04215687686304349</v>
+        <v>1.93601879129671</v>
       </c>
     </row>
     <row r="30" spans="1:32">
       <c r="A30" s="1">
-        <v>37438</v>
+        <v>33512</v>
       </c>
       <c r="U30">
-        <v>0.683959016830631</v>
+        <v>0.7190387869321904</v>
       </c>
       <c r="V30">
-        <v>0.9602071422528702</v>
+        <v>0.656455240936323</v>
       </c>
       <c r="W30">
-        <v>0.8526959775178222</v>
+        <v>1.037367074856591</v>
       </c>
       <c r="X30">
-        <v>0.244003832487703</v>
+        <v>1.6239608106008</v>
       </c>
       <c r="Y30">
-        <v>0.2889033955290484</v>
+        <v>1.279401957875106</v>
       </c>
       <c r="Z30">
-        <v>0.1841664103337133</v>
+        <v>1.29869678336902</v>
       </c>
       <c r="AA30">
-        <v>-0.08566364240572692</v>
+        <v>1.942650350757789</v>
       </c>
       <c r="AB30">
-        <v>-0.2107155258033867</v>
+        <v>2.26573504336867</v>
       </c>
       <c r="AC30">
-        <v>-0.04215687686304349</v>
+        <v>1.93601879129671</v>
       </c>
       <c r="AD30">
-        <v>0.2778303786338436</v>
+        <v>0.2570734528201862</v>
       </c>
     </row>
     <row r="31" spans="1:32">
       <c r="A31" s="1">
-        <v>37530</v>
+        <v>33604</v>
       </c>
       <c r="V31">
-        <v>0.9602071422528702</v>
+        <v>0.656455240936323</v>
       </c>
       <c r="W31">
-        <v>0.8526959775178222</v>
+        <v>1.037367074856591</v>
       </c>
       <c r="X31">
-        <v>0.244003832487703</v>
+        <v>1.6239608106008</v>
       </c>
       <c r="Y31">
-        <v>0.2889033955290484</v>
+        <v>1.279401957875106</v>
       </c>
       <c r="Z31">
-        <v>0.1841664103337133</v>
+        <v>1.29869678336902</v>
       </c>
       <c r="AA31">
-        <v>-0.08566364240572692</v>
+        <v>1.942650350757789</v>
       </c>
       <c r="AB31">
-        <v>-0.2107155258033867</v>
+        <v>2.26573504336867</v>
       </c>
       <c r="AC31">
-        <v>-0.04215687686304349</v>
+        <v>1.93601879129671</v>
       </c>
       <c r="AD31">
-        <v>0.2778303786338436</v>
+        <v>0.2570734528201862</v>
       </c>
       <c r="AE31">
-        <v>0.2096354475585487</v>
+        <v>0.1350474908927764</v>
       </c>
     </row>
     <row r="32" spans="1:32">
       <c r="A32" s="1">
-        <v>37622</v>
+        <v>33695</v>
       </c>
       <c r="W32">
-        <v>0.8526959775178222</v>
+        <v>1.037367074856591</v>
       </c>
       <c r="X32">
-        <v>0.244003832487703</v>
+        <v>1.6239608106008</v>
       </c>
       <c r="Y32">
-        <v>0.2889033955290484</v>
+        <v>1.279401957875106</v>
       </c>
       <c r="Z32">
-        <v>0.1841664103337133</v>
+        <v>1.29869678336902</v>
       </c>
       <c r="AA32">
-        <v>-0.08566364240572692</v>
+        <v>1.942650350757789</v>
       </c>
       <c r="AB32">
-        <v>-0.2107155258033867</v>
+        <v>2.26573504336867</v>
       </c>
       <c r="AC32">
-        <v>-0.04215687686304349</v>
+        <v>1.93601879129671</v>
       </c>
       <c r="AD32">
-        <v>0.2778303786338436</v>
+        <v>0.2570734528201862</v>
       </c>
       <c r="AE32">
-        <v>0.2096354475585487</v>
+        <v>0.1350474908927764</v>
       </c>
       <c r="AF32">
-        <v>0.1370272145569384</v>
+        <v>1.109143009140589</v>
       </c>
     </row>
     <row r="33" spans="1:48">
       <c r="A33" s="1">
-        <v>37712</v>
+        <v>33786</v>
       </c>
       <c r="X33">
-        <v>0.244003832487703</v>
+        <v>1.6239608106008</v>
       </c>
       <c r="Y33">
-        <v>0.2889033955290484</v>
+        <v>1.279401957875106</v>
       </c>
       <c r="Z33">
-        <v>0.1841664103337133</v>
+        <v>1.29869678336902</v>
       </c>
       <c r="AA33">
-        <v>-0.08566364240572692</v>
+        <v>1.942650350757789</v>
       </c>
       <c r="AB33">
-        <v>-0.2107155258033867</v>
+        <v>2.26573504336867</v>
       </c>
       <c r="AC33">
-        <v>-0.04215687686304349</v>
+        <v>1.93601879129671</v>
       </c>
       <c r="AD33">
-        <v>0.2778303786338436</v>
+        <v>0.2570734528201862</v>
       </c>
       <c r="AE33">
-        <v>0.2096354475585487</v>
+        <v>0.1350474908927764</v>
       </c>
       <c r="AF33">
-        <v>0.1370272145569384</v>
+        <v>1.109143009140589</v>
       </c>
       <c r="AG33">
-        <v>-0.1295675474814465</v>
+        <v>0.6537814458558288</v>
       </c>
     </row>
     <row r="34" spans="1:48">
       <c r="A34" s="1">
-        <v>37803</v>
+        <v>33878</v>
       </c>
       <c r="Y34">
-        <v>0.2889033955290484</v>
+        <v>1.279401957875106</v>
       </c>
       <c r="Z34">
-        <v>0.1841664103337133</v>
+        <v>1.29869678336902</v>
       </c>
       <c r="AA34">
-        <v>-0.08566364240572692</v>
+        <v>1.942650350757789</v>
       </c>
       <c r="AB34">
-        <v>-0.2107155258033867</v>
+        <v>2.26573504336867</v>
       </c>
       <c r="AC34">
-        <v>-0.04215687686304349</v>
+        <v>1.93601879129671</v>
       </c>
       <c r="AD34">
-        <v>0.2778303786338436</v>
+        <v>0.2570734528201862</v>
       </c>
       <c r="AE34">
-        <v>0.2096354475585487</v>
+        <v>0.1350474908927764</v>
       </c>
       <c r="AF34">
-        <v>0.1370272145569384</v>
+        <v>1.109143009140589</v>
       </c>
       <c r="AG34">
-        <v>-0.1295675474814465</v>
+        <v>0.6537814458558288</v>
       </c>
       <c r="AH34">
-        <v>-0.1514837876116187</v>
+        <v>-0.09606619038377322</v>
       </c>
     </row>
     <row r="35" spans="1:48">
       <c r="A35" s="1">
-        <v>37895</v>
+        <v>33970</v>
       </c>
       <c r="Z35">
-        <v>0.1841664103337133</v>
+        <v>1.29869678336902</v>
       </c>
       <c r="AA35">
-        <v>-0.08566364240572692</v>
+        <v>1.942650350757789</v>
       </c>
       <c r="AB35">
-        <v>-0.2107155258033867</v>
+        <v>2.26573504336867</v>
       </c>
       <c r="AC35">
-        <v>-0.04215687686304349</v>
+        <v>1.93601879129671</v>
       </c>
       <c r="AD35">
-        <v>0.2778303786338436</v>
+        <v>0.2570734528201862</v>
       </c>
       <c r="AE35">
-        <v>0.2096354475585487</v>
+        <v>0.1350474908927764</v>
       </c>
       <c r="AF35">
-        <v>0.1370272145569384</v>
+        <v>1.109143009140589</v>
       </c>
       <c r="AG35">
-        <v>-0.1295675474814465</v>
+        <v>0.6537814458558288</v>
       </c>
       <c r="AH35">
-        <v>-0.1514837876116187</v>
+        <v>-0.09606619038377322</v>
       </c>
       <c r="AI35">
-        <v>0.02832221795719639</v>
+        <v>-0.1442157581314463</v>
       </c>
     </row>
     <row r="36" spans="1:48">
       <c r="A36" s="1">
-        <v>37987</v>
+        <v>34060</v>
       </c>
       <c r="AA36">
-        <v>-0.08566364240572692</v>
+        <v>1.942650350757789</v>
       </c>
       <c r="AB36">
-        <v>-0.2107155258033867</v>
+        <v>2.26573504336867</v>
       </c>
       <c r="AC36">
-        <v>-0.04215687686304349</v>
+        <v>1.93601879129671</v>
       </c>
       <c r="AD36">
-        <v>0.2778303786338436</v>
+        <v>0.2570734528201862</v>
       </c>
       <c r="AE36">
-        <v>0.2096354475585487</v>
+        <v>0.1350474908927764</v>
       </c>
       <c r="AF36">
-        <v>0.1370272145569384</v>
+        <v>1.109143009140589</v>
       </c>
       <c r="AG36">
-        <v>-0.1295675474814465</v>
+        <v>0.6537814458558288</v>
       </c>
       <c r="AH36">
-        <v>-0.1514837876116187</v>
+        <v>-0.09606619038377322</v>
       </c>
       <c r="AI36">
-        <v>0.02832221795719639</v>
+        <v>-0.1442157581314463</v>
       </c>
       <c r="AJ36">
-        <v>0.2071793764104207</v>
+        <v>-0.9634291417448934</v>
       </c>
     </row>
     <row r="37" spans="1:48">
       <c r="A37" s="1">
-        <v>38078</v>
+        <v>34151</v>
       </c>
       <c r="AB37">
-        <v>-0.2107155258033867</v>
+        <v>2.26573504336867</v>
       </c>
       <c r="AC37">
-        <v>-0.04215687686304349</v>
+        <v>1.93601879129671</v>
       </c>
       <c r="AD37">
-        <v>0.2778303786338436</v>
+        <v>0.2570734528201862</v>
       </c>
       <c r="AE37">
-        <v>0.2096354475585487</v>
+        <v>0.1350474908927764</v>
       </c>
       <c r="AF37">
-        <v>0.1370272145569384</v>
+        <v>1.109143009140589</v>
       </c>
       <c r="AG37">
-        <v>-0.1295675474814465</v>
+        <v>0.6537814458558288</v>
       </c>
       <c r="AH37">
-        <v>-0.1514837876116187</v>
+        <v>-0.09606619038377322</v>
       </c>
       <c r="AI37">
-        <v>0.02832221795719639</v>
+        <v>-0.1442157581314463</v>
       </c>
       <c r="AJ37">
-        <v>0.2071793764104207</v>
+        <v>-0.9634291417448934</v>
       </c>
       <c r="AK37">
-        <v>0.3511455218491039</v>
+        <v>-0.5793537378383853</v>
       </c>
     </row>
     <row r="38" spans="1:48">
       <c r="A38" s="1">
-        <v>38169</v>
+        <v>34243</v>
       </c>
       <c r="AC38">
-        <v>-0.04215687686304349</v>
+        <v>1.93601879129671</v>
       </c>
       <c r="AD38">
-        <v>0.2778303786338436</v>
+        <v>0.2570734528201862</v>
       </c>
       <c r="AE38">
-        <v>0.2096354475585487</v>
+        <v>0.1350474908927764</v>
       </c>
       <c r="AF38">
-        <v>0.1370272145569384</v>
+        <v>1.109143009140589</v>
       </c>
       <c r="AG38">
-        <v>-0.1295675474814465</v>
+        <v>0.6537814458558288</v>
       </c>
       <c r="AH38">
-        <v>-0.1514837876116187</v>
+        <v>-0.09606619038377322</v>
       </c>
       <c r="AI38">
-        <v>0.02832221795719639</v>
+        <v>-0.1442157581314463</v>
       </c>
       <c r="AJ38">
-        <v>0.2071793764104207</v>
+        <v>-0.9634291417448934</v>
       </c>
       <c r="AK38">
-        <v>0.3511455218491039</v>
+        <v>-0.5793537378383853</v>
       </c>
       <c r="AL38">
-        <v>0.4523940095631491</v>
+        <v>0.6774638732131766</v>
       </c>
     </row>
     <row r="39" spans="1:48">
       <c r="A39" s="1">
-        <v>38261</v>
+        <v>34335</v>
       </c>
       <c r="AD39">
-        <v>0.2778303786338436</v>
+        <v>0.2570734528201862</v>
       </c>
       <c r="AE39">
-        <v>0.2096354475585487</v>
+        <v>0.1350474908927764</v>
       </c>
       <c r="AF39">
-        <v>0.1370272145569384</v>
+        <v>1.109143009140589</v>
       </c>
       <c r="AG39">
-        <v>-0.1295675474814465</v>
+        <v>0.6537814458558288</v>
       </c>
       <c r="AH39">
-        <v>-0.1514837876116187</v>
+        <v>-0.09606619038377322</v>
       </c>
       <c r="AI39">
-        <v>0.02832221795719639</v>
+        <v>-0.1442157581314463</v>
       </c>
       <c r="AJ39">
-        <v>0.2071793764104207</v>
+        <v>-0.9634291417448934</v>
       </c>
       <c r="AK39">
-        <v>0.3511455218491039</v>
+        <v>-0.5793537378383853</v>
       </c>
       <c r="AL39">
-        <v>0.4523940095631491</v>
+        <v>0.6774638732131766</v>
       </c>
       <c r="AM39">
-        <v>0.2564965553118657</v>
+        <v>0.2653249562452161</v>
       </c>
     </row>
     <row r="40" spans="1:48">
       <c r="A40" s="1">
-        <v>38353</v>
+        <v>34425</v>
       </c>
       <c r="AE40">
-        <v>0.2096354475585487</v>
+        <v>0.1350474908927764</v>
       </c>
       <c r="AF40">
-        <v>0.1370272145569384</v>
+        <v>1.109143009140589</v>
       </c>
       <c r="AG40">
-        <v>-0.1295675474814465</v>
+        <v>0.6537814458558288</v>
       </c>
       <c r="AH40">
-        <v>-0.1514837876116187</v>
+        <v>-0.09606619038377322</v>
       </c>
       <c r="AI40">
-        <v>0.02832221795719639</v>
+        <v>-0.1442157581314463</v>
       </c>
       <c r="AJ40">
-        <v>0.2071793764104207</v>
+        <v>-0.9634291417448934</v>
       </c>
       <c r="AK40">
-        <v>0.3511455218491039</v>
+        <v>-0.5793537378383853</v>
       </c>
       <c r="AL40">
-        <v>0.4523940095631491</v>
+        <v>0.6774638732131766</v>
       </c>
       <c r="AM40">
-        <v>0.2564965553118657</v>
+        <v>0.2653249562452161</v>
       </c>
       <c r="AN40">
-        <v>-0.1054136014542132</v>
+        <v>0.4920137279711237</v>
       </c>
     </row>
     <row r="41" spans="1:48">
       <c r="A41" s="1">
-        <v>38443</v>
+        <v>34516</v>
       </c>
       <c r="AF41">
-        <v>0.1370272145569384</v>
+        <v>1.109143009140589</v>
       </c>
       <c r="AG41">
-        <v>-0.1295675474814465</v>
+        <v>0.6537814458558288</v>
       </c>
       <c r="AH41">
-        <v>-0.1514837876116187</v>
+        <v>-0.09606619038377322</v>
       </c>
       <c r="AI41">
-        <v>0.02832221795719639</v>
+        <v>-0.1442157581314463</v>
       </c>
       <c r="AJ41">
-        <v>0.2071793764104207</v>
+        <v>-0.9634291417448934</v>
       </c>
       <c r="AK41">
-        <v>0.3511455218491039</v>
+        <v>-0.5793537378383853</v>
       </c>
       <c r="AL41">
-        <v>0.4523940095631491</v>
+        <v>0.6774638732131766</v>
       </c>
       <c r="AM41">
-        <v>0.2564965553118657</v>
+        <v>0.2653249562452161</v>
       </c>
       <c r="AN41">
-        <v>-0.1054136014542132</v>
+        <v>0.4920137279711237</v>
       </c>
       <c r="AO41">
-        <v>0.4538402595175757</v>
+        <v>1.204990892768237</v>
       </c>
     </row>
     <row r="42" spans="1:48">
       <c r="A42" s="1">
-        <v>38534</v>
+        <v>34608</v>
       </c>
       <c r="AG42">
-        <v>-0.1295675474814465</v>
+        <v>0.6537814458558288</v>
       </c>
       <c r="AH42">
-        <v>-0.1514837876116187</v>
+        <v>-0.09606619038377322</v>
       </c>
       <c r="AI42">
-        <v>0.02832221795719639</v>
+        <v>-0.1442157581314463</v>
       </c>
       <c r="AJ42">
-        <v>0.2071793764104207</v>
+        <v>-0.9634291417448934</v>
       </c>
       <c r="AK42">
-        <v>0.3511455218491039</v>
+        <v>-0.5793537378383853</v>
       </c>
       <c r="AL42">
-        <v>0.4523940095631491</v>
+        <v>0.6774638732131766</v>
       </c>
       <c r="AM42">
-        <v>0.2564965553118657</v>
+        <v>0.2653249562452161</v>
       </c>
       <c r="AN42">
-        <v>-0.1054136014542132</v>
+        <v>0.4920137279711237</v>
       </c>
       <c r="AO42">
-        <v>0.4538402595175757</v>
+        <v>1.204990892768237</v>
       </c>
       <c r="AP42">
-        <v>0.3811579028136509</v>
+        <v>0.9272902288172465</v>
       </c>
     </row>
     <row r="43" spans="1:48">
       <c r="A43" s="1">
-        <v>38626</v>
+        <v>34700</v>
       </c>
       <c r="AH43">
-        <v>-0.1514837876116187</v>
+        <v>-0.09606619038377322</v>
       </c>
       <c r="AI43">
-        <v>0.02832221795719639</v>
+        <v>-0.1442157581314463</v>
       </c>
       <c r="AJ43">
-        <v>0.2071793764104207</v>
+        <v>-0.9634291417448934</v>
       </c>
       <c r="AK43">
-        <v>0.3511455218491039</v>
+        <v>-0.5793537378383853</v>
       </c>
       <c r="AL43">
-        <v>0.4523940095631491</v>
+        <v>0.6774638732131766</v>
       </c>
       <c r="AM43">
-        <v>0.2564965553118657</v>
+        <v>0.2653249562452161</v>
       </c>
       <c r="AN43">
-        <v>-0.1054136014542132</v>
+        <v>0.4920137279711237</v>
       </c>
       <c r="AO43">
-        <v>0.4538402595175757</v>
+        <v>1.204990892768237</v>
       </c>
       <c r="AP43">
-        <v>0.3811579028136509</v>
+        <v>0.9272902288172465</v>
       </c>
       <c r="AQ43">
-        <v>0.4219650952252419</v>
+        <v>0.6202864409965388</v>
       </c>
     </row>
     <row r="44" spans="1:48">
       <c r="A44" s="1">
-        <v>38718</v>
+        <v>34790</v>
       </c>
       <c r="AI44">
-        <v>0.02832221795719639</v>
+        <v>-0.1442157581314463</v>
       </c>
       <c r="AJ44">
-        <v>0.2071793764104207</v>
+        <v>-0.9634291417448934</v>
       </c>
       <c r="AK44">
-        <v>0.3511455218491039</v>
+        <v>-0.5793537378383853</v>
       </c>
       <c r="AL44">
-        <v>0.4523940095631491</v>
+        <v>0.6774638732131766</v>
       </c>
       <c r="AM44">
-        <v>0.2564965553118657</v>
+        <v>0.2653249562452161</v>
       </c>
       <c r="AN44">
-        <v>-0.1054136014542132</v>
+        <v>0.4920137279711237</v>
       </c>
       <c r="AO44">
-        <v>0.4538402595175757</v>
+        <v>1.204990892768237</v>
       </c>
       <c r="AP44">
-        <v>0.3811579028136509</v>
+        <v>0.9272902288172465</v>
       </c>
       <c r="AQ44">
-        <v>0.4219650952252419</v>
+        <v>0.6202864409965388</v>
       </c>
       <c r="AR44">
-        <v>0.3147401435258078</v>
+        <v>0.4160617690998817</v>
       </c>
     </row>
     <row r="45" spans="1:48">
       <c r="A45" s="1">
-        <v>38808</v>
+        <v>34881</v>
       </c>
       <c r="AJ45">
-        <v>0.2071793764104207</v>
+        <v>-0.9634291417448934</v>
       </c>
       <c r="AK45">
-        <v>0.3511455218491039</v>
+        <v>-0.5793537378383853</v>
       </c>
       <c r="AL45">
-        <v>0.4523940095631491</v>
+        <v>0.6774638732131766</v>
       </c>
       <c r="AM45">
-        <v>0.2564965553118657</v>
+        <v>0.2653249562452161</v>
       </c>
       <c r="AN45">
-        <v>-0.1054136014542132</v>
+        <v>0.4920137279711237</v>
       </c>
       <c r="AO45">
-        <v>0.4538402595175757</v>
+        <v>1.204990892768237</v>
       </c>
       <c r="AP45">
-        <v>0.3811579028136509</v>
+        <v>0.9272902288172465</v>
       </c>
       <c r="AQ45">
-        <v>0.4219650952252419</v>
+        <v>0.6202864409965388</v>
       </c>
       <c r="AR45">
-        <v>0.3147401435258078</v>
+        <v>0.4160617690998817</v>
       </c>
       <c r="AS45">
-        <v>0.1874824351208836</v>
+        <v>0.6401426592241428</v>
       </c>
     </row>
     <row r="46" spans="1:48">
       <c r="A46" s="1">
-        <v>38899</v>
+        <v>34973</v>
       </c>
       <c r="AK46">
-        <v>0.3511455218491039</v>
+        <v>-0.5793537378383853</v>
       </c>
       <c r="AL46">
-        <v>0.4523940095631491</v>
+        <v>0.6774638732131766</v>
       </c>
       <c r="AM46">
-        <v>0.2564965553118657</v>
+        <v>0.2653249562452161</v>
       </c>
       <c r="AN46">
-        <v>-0.1054136014542132</v>
+        <v>0.4920137279711237</v>
       </c>
       <c r="AO46">
-        <v>0.4538402595175757</v>
+        <v>1.204990892768237</v>
       </c>
       <c r="AP46">
-        <v>0.3811579028136509</v>
+        <v>0.9272902288172465</v>
       </c>
       <c r="AQ46">
-        <v>0.4219650952252419</v>
+        <v>0.6202864409965388</v>
       </c>
       <c r="AR46">
-        <v>0.3147401435258078</v>
+        <v>0.4160617690998817</v>
       </c>
       <c r="AS46">
-        <v>0.1874824351208836</v>
+        <v>0.6401426592241428</v>
       </c>
       <c r="AT46">
-        <v>0.7883094405822125</v>
+        <v>0.5266667957441251</v>
       </c>
     </row>
     <row r="47" spans="1:48">
       <c r="A47" s="1">
-        <v>38991</v>
+        <v>35065</v>
       </c>
       <c r="AL47">
-        <v>0.4523940095631491</v>
+        <v>0.6774638732131766</v>
       </c>
       <c r="AM47">
-        <v>0.2564965553118657</v>
+        <v>0.2653249562452161</v>
       </c>
       <c r="AN47">
-        <v>-0.1054136014542132</v>
+        <v>0.4920137279711237</v>
       </c>
       <c r="AO47">
-        <v>0.4538402595175757</v>
+        <v>1.204990892768237</v>
       </c>
       <c r="AP47">
-        <v>0.3811579028136509</v>
+        <v>0.9272902288172465</v>
       </c>
       <c r="AQ47">
-        <v>0.4219650952252419</v>
+        <v>0.6202864409965388</v>
       </c>
       <c r="AR47">
-        <v>0.3147401435258078</v>
+        <v>0.4160617690998817</v>
       </c>
       <c r="AS47">
-        <v>0.1874824351208836</v>
+        <v>0.6401426592241428</v>
       </c>
       <c r="AT47">
-        <v>0.7883094405822125</v>
+        <v>0.5266667957441251</v>
       </c>
       <c r="AU47">
-        <v>0.8534666922226123</v>
+        <v>-0.1513997253654748</v>
       </c>
     </row>
     <row r="48" spans="1:48">
       <c r="A48" s="1">
-        <v>39083</v>
+        <v>35156</v>
       </c>
       <c r="AM48">
-        <v>0.2564965553118657</v>
+        <v>0.2653249562452161</v>
       </c>
       <c r="AN48">
-        <v>-0.1054136014542132</v>
+        <v>0.4920137279711237</v>
       </c>
       <c r="AO48">
-        <v>0.4538402595175757</v>
+        <v>1.204990892768237</v>
       </c>
       <c r="AP48">
-        <v>0.3811579028136509</v>
+        <v>0.9272902288172465</v>
       </c>
       <c r="AQ48">
-        <v>0.4219650952252419</v>
+        <v>0.6202864409965388</v>
       </c>
       <c r="AR48">
-        <v>0.3147401435258078</v>
+        <v>0.4160617690998817</v>
       </c>
       <c r="AS48">
-        <v>0.1874824351208836</v>
+        <v>0.6401426592241428</v>
       </c>
       <c r="AT48">
-        <v>0.7883094405822125</v>
+        <v>0.5266667957441251</v>
       </c>
       <c r="AU48">
-        <v>0.8534666922226123</v>
+        <v>-0.1513997253654748</v>
       </c>
       <c r="AV48">
-        <v>0.8289611775649219</v>
+        <v>-0.2640753477522876</v>
       </c>
     </row>
     <row r="49" spans="1:64">
       <c r="A49" s="1">
-        <v>39173</v>
+        <v>35247</v>
       </c>
       <c r="AN49">
-        <v>-0.1054136014542132</v>
+        <v>0.4920137279711237</v>
       </c>
       <c r="AO49">
-        <v>0.4538402595175757</v>
+        <v>1.204990892768237</v>
       </c>
       <c r="AP49">
-        <v>0.3811579028136509</v>
+        <v>0.9272902288172465</v>
       </c>
       <c r="AQ49">
-        <v>0.4219650952252419</v>
+        <v>0.6202864409965388</v>
       </c>
       <c r="AR49">
-        <v>0.3147401435258078</v>
+        <v>0.4160617690998817</v>
       </c>
       <c r="AS49">
-        <v>0.1874824351208836</v>
+        <v>0.6401426592241428</v>
       </c>
       <c r="AT49">
-        <v>0.7883094405822125</v>
+        <v>0.5266667957441251</v>
       </c>
       <c r="AU49">
-        <v>0.8534666922226123</v>
+        <v>-0.1513997253654748</v>
       </c>
       <c r="AV49">
-        <v>0.8289611775649219</v>
+        <v>-0.2640753477522876</v>
       </c>
       <c r="AW49">
-        <v>0.7476033206790205</v>
+        <v>0.504844752474134</v>
       </c>
     </row>
     <row r="50" spans="1:64">
       <c r="A50" s="1">
-        <v>39264</v>
+        <v>35339</v>
       </c>
       <c r="AO50">
-        <v>0.4538402595175757</v>
+        <v>1.204990892768237</v>
       </c>
       <c r="AP50">
-        <v>0.3811579028136509</v>
+        <v>0.9272902288172465</v>
       </c>
       <c r="AQ50">
-        <v>0.4219650952252419</v>
+        <v>0.6202864409965388</v>
       </c>
       <c r="AR50">
-        <v>0.3147401435258078</v>
+        <v>0.4160617690998817</v>
       </c>
       <c r="AS50">
-        <v>0.1874824351208836</v>
+        <v>0.6401426592241428</v>
       </c>
       <c r="AT50">
-        <v>0.7883094405822125</v>
+        <v>0.5266667957441251</v>
       </c>
       <c r="AU50">
-        <v>0.8534666922226123</v>
+        <v>-0.1513997253654748</v>
       </c>
       <c r="AV50">
-        <v>0.8289611775649219</v>
+        <v>-0.2640753477522876</v>
       </c>
       <c r="AW50">
-        <v>0.7476033206790205</v>
+        <v>0.504844752474134</v>
       </c>
       <c r="AX50">
-        <v>0.3996351164005113</v>
+        <v>1.133475278544638</v>
       </c>
     </row>
     <row r="51" spans="1:64">
       <c r="A51" s="1">
-        <v>39356</v>
+        <v>35431</v>
       </c>
       <c r="AP51">
-        <v>0.3811579028136509</v>
+        <v>0.9272902288172465</v>
       </c>
       <c r="AQ51">
-        <v>0.4219650952252419</v>
+        <v>0.6202864409965388</v>
       </c>
       <c r="AR51">
-        <v>0.3147401435258078</v>
+        <v>0.4160617690998817</v>
       </c>
       <c r="AS51">
-        <v>0.1874824351208836</v>
+        <v>0.6401426592241428</v>
       </c>
       <c r="AT51">
-        <v>0.7883094405822125</v>
+        <v>0.5266667957441251</v>
       </c>
       <c r="AU51">
-        <v>0.8534666922226123</v>
+        <v>-0.1513997253654748</v>
       </c>
       <c r="AV51">
-        <v>0.8289611775649219</v>
+        <v>-0.2640753477522876</v>
       </c>
       <c r="AW51">
-        <v>0.7476033206790205</v>
+        <v>0.504844752474134</v>
       </c>
       <c r="AX51">
-        <v>0.3996351164005113</v>
+        <v>1.133475278544638</v>
       </c>
       <c r="AY51">
-        <v>0.4713798804597414</v>
+        <v>0.4109914905100568</v>
       </c>
     </row>
     <row r="52" spans="1:64">
       <c r="A52" s="1">
-        <v>39448</v>
+        <v>35521</v>
       </c>
       <c r="AQ52">
-        <v>0.4219650952252419</v>
+        <v>0.6202864409965388</v>
       </c>
       <c r="AR52">
-        <v>0.3147401435258078</v>
+        <v>0.4160617690998817</v>
       </c>
       <c r="AS52">
-        <v>0.1874824351208836</v>
+        <v>0.6401426592241428</v>
       </c>
       <c r="AT52">
-        <v>0.7883094405822125</v>
+        <v>0.5266667957441251</v>
       </c>
       <c r="AU52">
-        <v>0.8534666922226123</v>
+        <v>-0.1513997253654748</v>
       </c>
       <c r="AV52">
-        <v>0.8289611775649219</v>
+        <v>-0.2640753477522876</v>
       </c>
       <c r="AW52">
-        <v>0.7476033206790205</v>
+        <v>0.504844752474134</v>
       </c>
       <c r="AX52">
-        <v>0.3996351164005113</v>
+        <v>1.133475278544638</v>
       </c>
       <c r="AY52">
-        <v>0.4713798804597414</v>
+        <v>0.4109914905100568</v>
       </c>
       <c r="AZ52">
-        <v>0.465498893456654</v>
+        <v>0.2590304689838107</v>
       </c>
     </row>
     <row r="53" spans="1:64">
       <c r="A53" s="1">
-        <v>39539</v>
+        <v>35612</v>
       </c>
       <c r="AR53">
-        <v>0.3147401435258078</v>
+        <v>0.4160617690998817</v>
       </c>
       <c r="AS53">
-        <v>0.1874824351208836</v>
+        <v>0.6401426592241428</v>
       </c>
       <c r="AT53">
-        <v>0.7883094405822125</v>
+        <v>0.5266667957441251</v>
       </c>
       <c r="AU53">
-        <v>0.8534666922226123</v>
+        <v>-0.1513997253654748</v>
       </c>
       <c r="AV53">
-        <v>0.8289611775649219</v>
+        <v>-0.2640753477522876</v>
       </c>
       <c r="AW53">
-        <v>0.7476033206790205</v>
+        <v>0.504844752474134</v>
       </c>
       <c r="AX53">
-        <v>0.3996351164005113</v>
+        <v>1.133475278544638</v>
       </c>
       <c r="AY53">
-        <v>0.4713798804597414</v>
+        <v>0.4109914905100568</v>
       </c>
       <c r="AZ53">
-        <v>0.465498893456654</v>
+        <v>0.2590304689838107</v>
       </c>
       <c r="BA53">
-        <v>0.8970498488576362</v>
+        <v>0.6546750680543985</v>
       </c>
     </row>
     <row r="54" spans="1:64">
       <c r="A54" s="1">
-        <v>39630</v>
+        <v>35704</v>
       </c>
       <c r="AS54">
-        <v>0.1874824351208836</v>
+        <v>0.6401426592241428</v>
       </c>
       <c r="AT54">
-        <v>0.7883094405822125</v>
+        <v>0.5266667957441251</v>
       </c>
       <c r="AU54">
-        <v>0.8534666922226123</v>
+        <v>-0.1513997253654748</v>
       </c>
       <c r="AV54">
-        <v>0.8289611775649219</v>
+        <v>-0.2640753477522876</v>
       </c>
       <c r="AW54">
-        <v>0.7476033206790205</v>
+        <v>0.504844752474134</v>
       </c>
       <c r="AX54">
-        <v>0.3996351164005113</v>
+        <v>1.133475278544638</v>
       </c>
       <c r="AY54">
-        <v>0.4713798804597414</v>
+        <v>0.4109914905100568</v>
       </c>
       <c r="AZ54">
-        <v>0.465498893456654</v>
+        <v>0.2590304689838107</v>
       </c>
       <c r="BA54">
-        <v>0.8970498488576362</v>
+        <v>0.6546750680543985</v>
       </c>
       <c r="BB54">
-        <v>0.3865317719365428</v>
+        <v>0.8963072768758295</v>
       </c>
     </row>
     <row r="55" spans="1:64">
       <c r="A55" s="1">
-        <v>39722</v>
+        <v>35796</v>
       </c>
       <c r="AT55">
-        <v>0.7883094405822125</v>
+        <v>0.5266667957441251</v>
       </c>
       <c r="AU55">
-        <v>0.8534666922226123</v>
+        <v>-0.1513997253654748</v>
       </c>
       <c r="AV55">
-        <v>0.8289611775649219</v>
+        <v>-0.2640753477522876</v>
       </c>
       <c r="AW55">
-        <v>0.7476033206790205</v>
+        <v>0.504844752474134</v>
       </c>
       <c r="AX55">
-        <v>0.3996351164005113</v>
+        <v>1.133475278544638</v>
       </c>
       <c r="AY55">
-        <v>0.4713798804597414</v>
+        <v>0.4109914905100568</v>
       </c>
       <c r="AZ55">
-        <v>0.465498893456654</v>
+        <v>0.2590304689838107</v>
       </c>
       <c r="BA55">
-        <v>0.8970498488576362</v>
+        <v>0.6546750680543985</v>
       </c>
       <c r="BB55">
-        <v>0.3865317719365428</v>
+        <v>0.8963072768758295</v>
       </c>
       <c r="BC55">
-        <v>-0.4737844322471635</v>
+        <v>0.4927914526996163</v>
       </c>
     </row>
     <row r="56" spans="1:64">
       <c r="A56" s="1">
-        <v>39814</v>
+        <v>35886</v>
       </c>
       <c r="AU56">
-        <v>0.8534666922226123</v>
+        <v>-0.1513997253654748</v>
       </c>
       <c r="AV56">
-        <v>0.8289611775649219</v>
+        <v>-0.2640753477522876</v>
       </c>
       <c r="AW56">
-        <v>0.7476033206790205</v>
+        <v>0.504844752474134</v>
       </c>
       <c r="AX56">
-        <v>0.3996351164005113</v>
+        <v>1.133475278544638</v>
       </c>
       <c r="AY56">
-        <v>0.4713798804597414</v>
+        <v>0.4109914905100568</v>
       </c>
       <c r="AZ56">
-        <v>0.465498893456654</v>
+        <v>0.2590304689838107</v>
       </c>
       <c r="BA56">
-        <v>0.8970498488576362</v>
+        <v>0.6546750680543985</v>
       </c>
       <c r="BB56">
-        <v>0.3865317719365428</v>
+        <v>0.8963072768758295</v>
       </c>
       <c r="BC56">
-        <v>-0.4737844322471635</v>
+        <v>0.4927914526996163</v>
       </c>
       <c r="BD56">
-        <v>-1.325071230226886</v>
+        <v>0.6289573203813391</v>
       </c>
     </row>
     <row r="57" spans="1:64">
       <c r="A57" s="1">
-        <v>39904</v>
+        <v>35977</v>
       </c>
       <c r="AV57">
-        <v>0.8289611775649219</v>
+        <v>-0.2640753477522876</v>
       </c>
       <c r="AW57">
-        <v>0.7476033206790205</v>
+        <v>0.504844752474134</v>
       </c>
       <c r="AX57">
-        <v>0.3996351164005113</v>
+        <v>1.133475278544638</v>
       </c>
       <c r="AY57">
-        <v>0.4713798804597414</v>
+        <v>0.4109914905100568</v>
       </c>
       <c r="AZ57">
-        <v>0.465498893456654</v>
+        <v>0.2590304689838107</v>
       </c>
       <c r="BA57">
-        <v>0.8970498488576362</v>
+        <v>0.6546750680543985</v>
       </c>
       <c r="BB57">
-        <v>0.3865317719365428</v>
+        <v>0.8963072768758295</v>
       </c>
       <c r="BC57">
-        <v>-0.4737844322471635</v>
+        <v>0.4927914526996163</v>
       </c>
       <c r="BD57">
-        <v>-1.325071230226886</v>
+        <v>0.6289573203813391</v>
       </c>
       <c r="BE57">
-        <v>-3.0134102622518</v>
+        <v>0.7727312346850435</v>
       </c>
     </row>
     <row r="58" spans="1:64">
       <c r="A58" s="1">
-        <v>39995</v>
+        <v>36069</v>
       </c>
       <c r="AW58">
-        <v>0.7476033206790205</v>
+        <v>0.504844752474134</v>
       </c>
       <c r="AX58">
-        <v>0.3996351164005113</v>
+        <v>1.133475278544638</v>
       </c>
       <c r="AY58">
-        <v>0.4713798804597414</v>
+        <v>0.4109914905100568</v>
       </c>
       <c r="AZ58">
-        <v>0.465498893456654</v>
+        <v>0.2590304689838107</v>
       </c>
       <c r="BA58">
-        <v>0.8970498488576362</v>
+        <v>0.6546750680543985</v>
       </c>
       <c r="BB58">
-        <v>0.3865317719365428</v>
+        <v>0.8963072768758295</v>
       </c>
       <c r="BC58">
-        <v>-0.4737844322471635</v>
+        <v>0.4927914526996163</v>
       </c>
       <c r="BD58">
-        <v>-1.325071230226886</v>
+        <v>0.6289573203813391</v>
       </c>
       <c r="BE58">
-        <v>-3.0134102622518</v>
+        <v>0.7727312346850435</v>
       </c>
       <c r="BF58">
-        <v>-1.609384831228322</v>
+        <v>0.4535218834435705</v>
       </c>
     </row>
     <row r="59" spans="1:64">
       <c r="A59" s="1">
-        <v>40087</v>
+        <v>36161</v>
       </c>
       <c r="AX59">
-        <v>0.3996351164005113</v>
+        <v>1.133475278544638</v>
       </c>
       <c r="AY59">
-        <v>0.4713798804597414</v>
+        <v>0.4109914905100568</v>
       </c>
       <c r="AZ59">
-        <v>0.465498893456654</v>
+        <v>0.2590304689838107</v>
       </c>
       <c r="BA59">
-        <v>0.8970498488576362</v>
+        <v>0.6546750680543985</v>
       </c>
       <c r="BB59">
-        <v>0.3865317719365428</v>
+        <v>0.8963072768758295</v>
       </c>
       <c r="BC59">
-        <v>-0.4737844322471635</v>
+        <v>0.4927914526996163</v>
       </c>
       <c r="BD59">
-        <v>-1.325071230226886</v>
+        <v>0.6289573203813391</v>
       </c>
       <c r="BE59">
-        <v>-3.0134102622518</v>
+        <v>0.7727312346850435</v>
       </c>
       <c r="BF59">
-        <v>-1.609384831228322</v>
+        <v>0.4535218834435705</v>
       </c>
       <c r="BG59">
-        <v>0.585322342063246</v>
+        <v>0.2537974936422204</v>
       </c>
     </row>
     <row r="60" spans="1:64">
       <c r="A60" s="1">
-        <v>40179</v>
+        <v>36251</v>
       </c>
       <c r="AY60">
-        <v>0.4713798804597414</v>
+        <v>0.4109914905100568</v>
       </c>
       <c r="AZ60">
-        <v>0.465498893456654</v>
+        <v>0.2590304689838107</v>
       </c>
       <c r="BA60">
-        <v>0.8970498488576362</v>
+        <v>0.6546750680543985</v>
       </c>
       <c r="BB60">
-        <v>0.3865317719365428</v>
+        <v>0.8963072768758295</v>
       </c>
       <c r="BC60">
-        <v>-0.4737844322471635</v>
+        <v>0.4927914526996163</v>
       </c>
       <c r="BD60">
-        <v>-1.325071230226886</v>
+        <v>0.6289573203813391</v>
       </c>
       <c r="BE60">
-        <v>-3.0134102622518</v>
+        <v>0.7727312346850435</v>
       </c>
       <c r="BF60">
-        <v>-1.609384831228322</v>
+        <v>0.4535218834435705</v>
       </c>
       <c r="BG60">
-        <v>0.585322342063246</v>
+        <v>0.2537974936422204</v>
       </c>
       <c r="BH60">
-        <v>0.3687040207098991</v>
+        <v>0.1493575413061861</v>
       </c>
     </row>
     <row r="61" spans="1:64">
       <c r="A61" s="1">
-        <v>40269</v>
+        <v>36342</v>
       </c>
       <c r="AZ61">
-        <v>0.465498893456654</v>
+        <v>0.2590304689838107</v>
       </c>
       <c r="BA61">
-        <v>0.8970498488576362</v>
+        <v>0.6546750680543985</v>
       </c>
       <c r="BB61">
-        <v>0.3865317719365428</v>
+        <v>0.8963072768758295</v>
       </c>
       <c r="BC61">
-        <v>-0.4737844322471635</v>
+        <v>0.4927914526996163</v>
       </c>
       <c r="BD61">
-        <v>-1.325071230226886</v>
+        <v>0.6289573203813391</v>
       </c>
       <c r="BE61">
-        <v>-3.0134102622518</v>
+        <v>0.7727312346850435</v>
       </c>
       <c r="BF61">
-        <v>-1.609384831228322</v>
+        <v>0.4535218834435705</v>
       </c>
       <c r="BG61">
-        <v>0.585322342063246</v>
+        <v>0.2537974936422204</v>
       </c>
       <c r="BH61">
-        <v>0.3687040207098991</v>
+        <v>0.1493575413061861</v>
       </c>
       <c r="BI61">
-        <v>0.1710057202826473</v>
+        <v>0.2478976165325543</v>
       </c>
     </row>
     <row r="62" spans="1:64">
       <c r="A62" s="1">
-        <v>40360</v>
+        <v>36434</v>
       </c>
       <c r="BA62">
-        <v>0.8970498488576362</v>
+        <v>0.6546750680543985</v>
       </c>
       <c r="BB62">
-        <v>0.3865317719365428</v>
+        <v>0.8963072768758295</v>
       </c>
       <c r="BC62">
-        <v>-0.4737844322471635</v>
+        <v>0.4927914526996163</v>
       </c>
       <c r="BD62">
-        <v>-1.325071230226886</v>
+        <v>0.6289573203813391</v>
       </c>
       <c r="BE62">
-        <v>-3.0134102622518</v>
+        <v>0.7727312346850435</v>
       </c>
       <c r="BF62">
-        <v>-1.609384831228322</v>
+        <v>0.4535218834435705</v>
       </c>
       <c r="BG62">
-        <v>0.585322342063246</v>
+        <v>0.2537974936422204</v>
       </c>
       <c r="BH62">
-        <v>0.3687040207098991</v>
+        <v>0.1493575413061861</v>
       </c>
       <c r="BI62">
-        <v>0.1710057202826473</v>
+        <v>0.2478976165325543</v>
       </c>
       <c r="BJ62">
-        <v>1.322549253608671</v>
+        <v>0.4120567045008888</v>
       </c>
     </row>
     <row r="63" spans="1:64">
       <c r="A63" s="1">
-        <v>40452</v>
+        <v>36526</v>
       </c>
       <c r="BB63">
-        <v>0.3865317719365428</v>
+        <v>0.8963072768758295</v>
       </c>
       <c r="BC63">
-        <v>-0.4737844322471635</v>
+        <v>0.4927914526996163</v>
       </c>
       <c r="BD63">
-        <v>-1.325071230226886</v>
+        <v>0.6289573203813391</v>
       </c>
       <c r="BE63">
-        <v>-3.0134102622518</v>
+        <v>0.7727312346850435</v>
       </c>
       <c r="BF63">
-        <v>-1.609384831228322</v>
+        <v>0.4535218834435705</v>
       </c>
       <c r="BG63">
-        <v>0.585322342063246</v>
+        <v>0.2537974936422204</v>
       </c>
       <c r="BH63">
-        <v>0.3687040207098991</v>
+        <v>0.1493575413061861</v>
       </c>
       <c r="BI63">
-        <v>0.1710057202826473</v>
+        <v>0.2478976165325543</v>
       </c>
       <c r="BJ63">
-        <v>1.322549253608671</v>
+        <v>0.4120567045008888</v>
       </c>
       <c r="BK63">
-        <v>1.499999344154686</v>
+        <v>0.7785873385578803</v>
       </c>
     </row>
     <row r="64" spans="1:64">
       <c r="A64" s="1">
-        <v>40544</v>
+        <v>36617</v>
       </c>
       <c r="BC64">
-        <v>-0.4737844322471635</v>
+        <v>0.4927914526996163</v>
       </c>
       <c r="BD64">
-        <v>-1.325071230226886</v>
+        <v>0.6289573203813391</v>
       </c>
       <c r="BE64">
-        <v>-3.0134102622518</v>
+        <v>0.7727312346850435</v>
       </c>
       <c r="BF64">
-        <v>-1.609384831228322</v>
+        <v>0.4535218834435705</v>
       </c>
       <c r="BG64">
-        <v>0.585322342063246</v>
+        <v>0.2537974936422204</v>
       </c>
       <c r="BH64">
-        <v>0.3687040207098991</v>
+        <v>0.1493575413061861</v>
       </c>
       <c r="BI64">
-        <v>0.1710057202826473</v>
+        <v>0.2478976165325543</v>
       </c>
       <c r="BJ64">
-        <v>1.322549253608671</v>
+        <v>0.4120567045008888</v>
       </c>
       <c r="BK64">
-        <v>1.499999344154686</v>
+        <v>0.7785873385578803</v>
       </c>
       <c r="BL64">
-        <v>0.5313745716684999</v>
+        <v>0.683959016830631</v>
       </c>
     </row>
     <row r="65" spans="1:80">
       <c r="A65" s="1">
-        <v>40634</v>
+        <v>36708</v>
       </c>
       <c r="BD65">
-        <v>-1.325071230226886</v>
+        <v>0.6289573203813391</v>
       </c>
       <c r="BE65">
-        <v>-3.0134102622518</v>
+        <v>0.7727312346850435</v>
       </c>
       <c r="BF65">
-        <v>-1.609384831228322</v>
+        <v>0.4535218834435705</v>
       </c>
       <c r="BG65">
-        <v>0.585322342063246</v>
+        <v>0.2537974936422204</v>
       </c>
       <c r="BH65">
-        <v>0.3687040207098991</v>
+        <v>0.1493575413061861</v>
       </c>
       <c r="BI65">
-        <v>0.1710057202826473</v>
+        <v>0.2478976165325543</v>
       </c>
       <c r="BJ65">
-        <v>1.322549253608671</v>
+        <v>0.4120567045008888</v>
       </c>
       <c r="BK65">
-        <v>1.499999344154686</v>
+        <v>0.7785873385578803</v>
       </c>
       <c r="BL65">
-        <v>0.5313745716684999</v>
+        <v>0.683959016830631</v>
       </c>
       <c r="BM65">
-        <v>0.9319730398245117</v>
+        <v>0.9602071422528702</v>
       </c>
     </row>
     <row r="66" spans="1:80">
       <c r="A66" s="1">
-        <v>40725</v>
+        <v>36800</v>
       </c>
       <c r="BE66">
-        <v>-3.0134102622518</v>
+        <v>0.7727312346850435</v>
       </c>
       <c r="BF66">
-        <v>-1.609384831228322</v>
+        <v>0.4535218834435705</v>
       </c>
       <c r="BG66">
-        <v>0.585322342063246</v>
+        <v>0.2537974936422204</v>
       </c>
       <c r="BH66">
-        <v>0.3687040207098991</v>
+        <v>0.1493575413061861</v>
       </c>
       <c r="BI66">
-        <v>0.1710057202826473</v>
+        <v>0.2478976165325543</v>
       </c>
       <c r="BJ66">
-        <v>1.322549253608671</v>
+        <v>0.4120567045008888</v>
       </c>
       <c r="BK66">
-        <v>1.499999344154686</v>
+        <v>0.7785873385578803</v>
       </c>
       <c r="BL66">
-        <v>0.5313745716684999</v>
+        <v>0.683959016830631</v>
       </c>
       <c r="BM66">
-        <v>0.9319730398245117</v>
+        <v>0.9602071422528702</v>
       </c>
       <c r="BN66">
-        <v>0.7334655993102255</v>
+        <v>0.8526959775178222</v>
       </c>
     </row>
     <row r="67" spans="1:80">
       <c r="A67" s="1">
-        <v>40817</v>
+        <v>36892</v>
       </c>
       <c r="BF67">
-        <v>-1.609384831228322</v>
+        <v>0.4535218834435705</v>
       </c>
       <c r="BG67">
-        <v>0.585322342063246</v>
+        <v>0.2537974936422204</v>
       </c>
       <c r="BH67">
-        <v>0.3687040207098991</v>
+        <v>0.1493575413061861</v>
       </c>
       <c r="BI67">
-        <v>0.1710057202826473</v>
+        <v>0.2478976165325543</v>
       </c>
       <c r="BJ67">
-        <v>1.322549253608671</v>
+        <v>0.4120567045008888</v>
       </c>
       <c r="BK67">
-        <v>1.499999344154686</v>
+        <v>0.7785873385578803</v>
       </c>
       <c r="BL67">
-        <v>0.5313745716684999</v>
+        <v>0.683959016830631</v>
       </c>
       <c r="BM67">
-        <v>0.9319730398245117</v>
+        <v>0.9602071422528702</v>
       </c>
       <c r="BN67">
-        <v>0.7334655993102255</v>
+        <v>0.8526959775178222</v>
       </c>
       <c r="BO67">
-        <v>0.3890732509510448</v>
+        <v>0.244003832487703</v>
       </c>
     </row>
     <row r="68" spans="1:80">
       <c r="A68" s="1">
-        <v>40909</v>
+        <v>36982</v>
       </c>
       <c r="BG68">
-        <v>0.585322342063246</v>
+        <v>0.2537974936422204</v>
       </c>
       <c r="BH68">
-        <v>0.3687040207098991</v>
+        <v>0.1493575413061861</v>
       </c>
       <c r="BI68">
-        <v>0.1710057202826473</v>
+        <v>0.2478976165325543</v>
       </c>
       <c r="BJ68">
-        <v>1.322549253608671</v>
+        <v>0.4120567045008888</v>
       </c>
       <c r="BK68">
-        <v>1.499999344154686</v>
+        <v>0.7785873385578803</v>
       </c>
       <c r="BL68">
-        <v>0.5313745716684999</v>
+        <v>0.683959016830631</v>
       </c>
       <c r="BM68">
-        <v>0.9319730398245117</v>
+        <v>0.9602071422528702</v>
       </c>
       <c r="BN68">
-        <v>0.7334655993102255</v>
+        <v>0.8526959775178222</v>
       </c>
       <c r="BO68">
-        <v>0.3890732509510448</v>
+        <v>0.244003832487703</v>
       </c>
       <c r="BP68">
-        <v>0.1971582984394383</v>
+        <v>0.2889033955290484</v>
       </c>
     </row>
     <row r="69" spans="1:80">
       <c r="A69" s="1">
-        <v>41000</v>
+        <v>37073</v>
       </c>
       <c r="BH69">
-        <v>0.3687040207098991</v>
+        <v>0.1493575413061861</v>
       </c>
       <c r="BI69">
-        <v>0.1710057202826473</v>
+        <v>0.2478976165325543</v>
       </c>
       <c r="BJ69">
-        <v>1.322549253608671</v>
+        <v>0.4120567045008888</v>
       </c>
       <c r="BK69">
-        <v>1.499999344154686</v>
+        <v>0.7785873385578803</v>
       </c>
       <c r="BL69">
-        <v>0.5313745716684999</v>
+        <v>0.683959016830631</v>
       </c>
       <c r="BM69">
-        <v>0.9319730398245117</v>
+        <v>0.9602071422528702</v>
       </c>
       <c r="BN69">
-        <v>0.7334655993102255</v>
+        <v>0.8526959775178222</v>
       </c>
       <c r="BO69">
-        <v>0.3890732509510448</v>
+        <v>0.244003832487703</v>
       </c>
       <c r="BP69">
-        <v>0.1971582984394383</v>
+        <v>0.2889033955290484</v>
       </c>
       <c r="BQ69">
-        <v>0.164144910068436</v>
+        <v>0.1841664103337133</v>
       </c>
     </row>
     <row r="70" spans="1:80">
       <c r="A70" s="1">
-        <v>41091</v>
+        <v>37165</v>
       </c>
       <c r="BI70">
-        <v>0.1710057202826473</v>
+        <v>0.2478976165325543</v>
       </c>
       <c r="BJ70">
-        <v>1.322549253608671</v>
+        <v>0.4120567045008888</v>
       </c>
       <c r="BK70">
-        <v>1.499999344154686</v>
+        <v>0.7785873385578803</v>
       </c>
       <c r="BL70">
-        <v>0.5313745716684999</v>
+        <v>0.683959016830631</v>
       </c>
       <c r="BM70">
-        <v>0.9319730398245117</v>
+        <v>0.9602071422528702</v>
       </c>
       <c r="BN70">
-        <v>0.7334655993102255</v>
+        <v>0.8526959775178222</v>
       </c>
       <c r="BO70">
-        <v>0.3890732509510448</v>
+        <v>0.244003832487703</v>
       </c>
       <c r="BP70">
-        <v>0.1971582984394383</v>
+        <v>0.2889033955290484</v>
       </c>
       <c r="BQ70">
-        <v>0.164144910068436</v>
+        <v>0.1841664103337133</v>
       </c>
       <c r="BR70">
-        <v>0.3847424952750509</v>
+        <v>-0.08566364240572692</v>
       </c>
     </row>
     <row r="71" spans="1:80">
       <c r="A71" s="1">
-        <v>41183</v>
+        <v>37257</v>
       </c>
       <c r="BJ71">
-        <v>1.322549253608671</v>
+        <v>0.4120567045008888</v>
       </c>
       <c r="BK71">
-        <v>1.499999344154686</v>
+        <v>0.7785873385578803</v>
       </c>
       <c r="BL71">
-        <v>0.5313745716684999</v>
+        <v>0.683959016830631</v>
       </c>
       <c r="BM71">
-        <v>0.9319730398245117</v>
+        <v>0.9602071422528702</v>
       </c>
       <c r="BN71">
-        <v>0.7334655993102255</v>
+        <v>0.8526959775178222</v>
       </c>
       <c r="BO71">
-        <v>0.3890732509510448</v>
+        <v>0.244003832487703</v>
       </c>
       <c r="BP71">
-        <v>0.1971582984394383</v>
+        <v>0.2889033955290484</v>
       </c>
       <c r="BQ71">
-        <v>0.164144910068436</v>
+        <v>0.1841664103337133</v>
       </c>
       <c r="BR71">
-        <v>0.3847424952750509</v>
+        <v>-0.08566364240572692</v>
       </c>
       <c r="BS71">
-        <v>0.2523452698770574</v>
+        <v>-0.2107155258033867</v>
       </c>
     </row>
     <row r="72" spans="1:80">
       <c r="A72" s="1">
-        <v>41275</v>
+        <v>37347</v>
       </c>
       <c r="BK72">
-        <v>1.499999344154686</v>
+        <v>0.7785873385578803</v>
       </c>
       <c r="BL72">
-        <v>0.5313745716684999</v>
+        <v>0.683959016830631</v>
       </c>
       <c r="BM72">
-        <v>0.9319730398245117</v>
+        <v>0.9602071422528702</v>
       </c>
       <c r="BN72">
-        <v>0.7334655993102255</v>
+        <v>0.8526959775178222</v>
       </c>
       <c r="BO72">
-        <v>0.3890732509510448</v>
+        <v>0.244003832487703</v>
       </c>
       <c r="BP72">
-        <v>0.1971582984394383</v>
+        <v>0.2889033955290484</v>
       </c>
       <c r="BQ72">
-        <v>0.164144910068436</v>
+        <v>0.1841664103337133</v>
       </c>
       <c r="BR72">
-        <v>0.3847424952750509</v>
+        <v>-0.08566364240572692</v>
       </c>
       <c r="BS72">
-        <v>0.2523452698770574</v>
+        <v>-0.2107155258033867</v>
       </c>
       <c r="BT72">
-        <v>-0.1792762830641941</v>
+        <v>-0.04215687686304349</v>
       </c>
     </row>
     <row r="73" spans="1:80">
       <c r="A73" s="1">
-        <v>41365</v>
+        <v>37438</v>
       </c>
       <c r="BL73">
-        <v>0.5313745716684999</v>
+        <v>0.683959016830631</v>
       </c>
       <c r="BM73">
-        <v>0.9319730398245117</v>
+        <v>0.9602071422528702</v>
       </c>
       <c r="BN73">
-        <v>0.7334655993102255</v>
+        <v>0.8526959775178222</v>
       </c>
       <c r="BO73">
-        <v>0.3890732509510448</v>
+        <v>0.244003832487703</v>
       </c>
       <c r="BP73">
-        <v>0.1971582984394383</v>
+        <v>0.2889033955290484</v>
       </c>
       <c r="BQ73">
-        <v>0.164144910068436</v>
+        <v>0.1841664103337133</v>
       </c>
       <c r="BR73">
-        <v>0.3847424952750509</v>
+        <v>-0.08566364240572692</v>
       </c>
       <c r="BS73">
-        <v>0.2523452698770574</v>
+        <v>-0.2107155258033867</v>
       </c>
       <c r="BT73">
-        <v>-0.1792762830641941</v>
+        <v>-0.04215687686304349</v>
       </c>
       <c r="BU73">
-        <v>-0.3140207857278257</v>
+        <v>0.2778303786338436</v>
       </c>
     </row>
     <row r="74" spans="1:80">
       <c r="A74" s="1">
-        <v>41456</v>
+        <v>37530</v>
       </c>
       <c r="BM74">
-        <v>0.9319730398245117</v>
+        <v>0.9602071422528702</v>
       </c>
       <c r="BN74">
-        <v>0.7334655993102255</v>
+        <v>0.8526959775178222</v>
       </c>
       <c r="BO74">
-        <v>0.3890732509510448</v>
+        <v>0.244003832487703</v>
       </c>
       <c r="BP74">
-        <v>0.1971582984394383</v>
+        <v>0.2889033955290484</v>
       </c>
       <c r="BQ74">
-        <v>0.164144910068436</v>
+        <v>0.1841664103337133</v>
       </c>
       <c r="BR74">
-        <v>0.3847424952750509</v>
+        <v>-0.08566364240572692</v>
       </c>
       <c r="BS74">
-        <v>0.2523452698770574</v>
+        <v>-0.2107155258033867</v>
       </c>
       <c r="BT74">
-        <v>-0.1792762830641941</v>
+        <v>-0.04215687686304349</v>
       </c>
       <c r="BU74">
-        <v>-0.3140207857278257</v>
+        <v>0.2778303786338436</v>
       </c>
       <c r="BV74">
-        <v>0.3607178284786713</v>
+        <v>0.2096354475585487</v>
       </c>
     </row>
     <row r="75" spans="1:80">
       <c r="A75" s="1">
-        <v>41548</v>
+        <v>37622</v>
       </c>
       <c r="BN75">
-        <v>0.7334655993102255</v>
+        <v>0.8526959775178222</v>
       </c>
       <c r="BO75">
-        <v>0.3890732509510448</v>
+        <v>0.244003832487703</v>
       </c>
       <c r="BP75">
-        <v>0.1971582984394383</v>
+        <v>0.2889033955290484</v>
       </c>
       <c r="BQ75">
-        <v>0.164144910068436</v>
+        <v>0.1841664103337133</v>
       </c>
       <c r="BR75">
-        <v>0.3847424952750509</v>
+        <v>-0.08566364240572692</v>
       </c>
       <c r="BS75">
-        <v>0.2523452698770574</v>
+        <v>-0.2107155258033867</v>
       </c>
       <c r="BT75">
-        <v>-0.1792762830641941</v>
+        <v>-0.04215687686304349</v>
       </c>
       <c r="BU75">
-        <v>-0.3140207857278257</v>
+        <v>0.2778303786338436</v>
       </c>
       <c r="BV75">
-        <v>0.3607178284786713</v>
+        <v>0.2096354475585487</v>
       </c>
       <c r="BW75">
-        <v>0.5218781830314511</v>
+        <v>0.1370272145569384</v>
       </c>
     </row>
     <row r="76" spans="1:80">
       <c r="A76" s="1">
-        <v>41640</v>
+        <v>37712</v>
       </c>
       <c r="BO76">
-        <v>0.3890732509510448</v>
+        <v>0.244003832487703</v>
       </c>
       <c r="BP76">
-        <v>0.1971582984394383</v>
+        <v>0.2889033955290484</v>
       </c>
       <c r="BQ76">
-        <v>0.164144910068436</v>
+        <v>0.1841664103337133</v>
       </c>
       <c r="BR76">
-        <v>0.3847424952750509</v>
+        <v>-0.08566364240572692</v>
       </c>
       <c r="BS76">
-        <v>0.2523452698770574</v>
+        <v>-0.2107155258033867</v>
       </c>
       <c r="BT76">
-        <v>-0.1792762830641941</v>
+        <v>-0.04215687686304349</v>
       </c>
       <c r="BU76">
-        <v>-0.3140207857278257</v>
+        <v>0.2778303786338436</v>
       </c>
       <c r="BV76">
-        <v>0.3607178284786713</v>
+        <v>0.2096354475585487</v>
       </c>
       <c r="BW76">
-        <v>0.5218781830314511</v>
+        <v>0.1370272145569384</v>
       </c>
       <c r="BX76">
-        <v>0.3530389801663482</v>
+        <v>-0.1295675474814465</v>
       </c>
     </row>
     <row r="77" spans="1:80">
       <c r="A77" s="1">
-        <v>41730</v>
+        <v>37803</v>
       </c>
       <c r="BP77">
-        <v>0.1971582984394383</v>
+        <v>0.2889033955290484</v>
       </c>
       <c r="BQ77">
-        <v>0.164144910068436</v>
+        <v>0.1841664103337133</v>
       </c>
       <c r="BR77">
-        <v>0.3847424952750509</v>
+        <v>-0.08566364240572692</v>
       </c>
       <c r="BS77">
-        <v>0.2523452698770574</v>
+        <v>-0.2107155258033867</v>
       </c>
       <c r="BT77">
-        <v>-0.1792762830641941</v>
+        <v>-0.04215687686304349</v>
       </c>
       <c r="BU77">
-        <v>-0.3140207857278257</v>
+        <v>0.2778303786338436</v>
       </c>
       <c r="BV77">
-        <v>0.3607178284786713</v>
+        <v>0.2096354475585487</v>
       </c>
       <c r="BW77">
-        <v>0.5218781830314511</v>
+        <v>0.1370272145569384</v>
       </c>
       <c r="BX77">
-        <v>0.3530389801663482</v>
+        <v>-0.1295675474814465</v>
       </c>
       <c r="BY77">
-        <v>0.6008402187856887</v>
+        <v>-0.1514837876116187</v>
       </c>
     </row>
     <row r="78" spans="1:80">
       <c r="A78" s="1">
-        <v>41821</v>
+        <v>37895</v>
       </c>
       <c r="BQ78">
-        <v>0.164144910068436</v>
+        <v>0.1841664103337133</v>
       </c>
       <c r="BR78">
-        <v>0.3847424952750509</v>
+        <v>-0.08566364240572692</v>
       </c>
       <c r="BS78">
-        <v>0.2523452698770574</v>
+        <v>-0.2107155258033867</v>
       </c>
       <c r="BT78">
-        <v>-0.1792762830641941</v>
+        <v>-0.04215687686304349</v>
       </c>
       <c r="BU78">
-        <v>-0.3140207857278257</v>
+        <v>0.2778303786338436</v>
       </c>
       <c r="BV78">
-        <v>0.3607178284786713</v>
+        <v>0.2096354475585487</v>
       </c>
       <c r="BW78">
-        <v>0.5218781830314511</v>
+        <v>0.1370272145569384</v>
       </c>
       <c r="BX78">
-        <v>0.3530389801663482</v>
+        <v>-0.1295675474814465</v>
       </c>
       <c r="BY78">
-        <v>0.6008402187856887</v>
+        <v>-0.1514837876116187</v>
       </c>
       <c r="BZ78">
-        <v>0.2529894957798157</v>
+        <v>0.02832221795719639</v>
       </c>
     </row>
     <row r="79" spans="1:80">
       <c r="A79" s="1">
-        <v>41913</v>
+        <v>37987</v>
       </c>
       <c r="BR79">
-        <v>0.3847424952750509</v>
+        <v>-0.08566364240572692</v>
       </c>
       <c r="BS79">
-        <v>0.2523452698770574</v>
+        <v>-0.2107155258033867</v>
       </c>
       <c r="BT79">
-        <v>-0.1792762830641941</v>
+        <v>-0.04215687686304349</v>
       </c>
       <c r="BU79">
-        <v>-0.3140207857278257</v>
+        <v>0.2778303786338436</v>
       </c>
       <c r="BV79">
-        <v>0.3607178284786713</v>
+        <v>0.2096354475585487</v>
       </c>
       <c r="BW79">
-        <v>0.5218781830314511</v>
+        <v>0.1370272145569384</v>
       </c>
       <c r="BX79">
-        <v>0.3530389801663482</v>
+        <v>-0.1295675474814465</v>
       </c>
       <c r="BY79">
-        <v>0.6008402187856887</v>
+        <v>-0.1514837876116187</v>
       </c>
       <c r="BZ79">
-        <v>0.2529894957798157</v>
+        <v>0.02832221795719639</v>
       </c>
       <c r="CA79">
-        <v>-0.009426295769667317</v>
+        <v>0.2071793764104207</v>
       </c>
     </row>
     <row r="80" spans="1:80">
       <c r="A80" s="1">
-        <v>42005</v>
+        <v>38078</v>
       </c>
       <c r="BS80">
-        <v>0.2523452698770574</v>
+        <v>-0.2107155258033867</v>
       </c>
       <c r="BT80">
-        <v>-0.1792762830641941</v>
+        <v>-0.04215687686304349</v>
       </c>
       <c r="BU80">
-        <v>-0.3140207857278257</v>
+        <v>0.2778303786338436</v>
       </c>
       <c r="BV80">
-        <v>0.3607178284786713</v>
+        <v>0.2096354475585487</v>
       </c>
       <c r="BW80">
-        <v>0.5218781830314511</v>
+        <v>0.1370272145569384</v>
       </c>
       <c r="BX80">
-        <v>0.3530389801663482</v>
+        <v>-0.1295675474814465</v>
       </c>
       <c r="BY80">
-        <v>0.6008402187856887</v>
+        <v>-0.1514837876116187</v>
       </c>
       <c r="BZ80">
-        <v>0.2529894957798157</v>
+        <v>0.02832221795719639</v>
       </c>
       <c r="CA80">
-        <v>-0.009426295769667317</v>
+        <v>0.2071793764104207</v>
       </c>
       <c r="CB80">
-        <v>0.382964429842135</v>
+        <v>0.3511455218491039</v>
       </c>
     </row>
     <row r="81" spans="1:96">
       <c r="A81" s="1">
-        <v>42095</v>
+        <v>38169</v>
       </c>
       <c r="BT81">
-        <v>-0.1792762830641941</v>
+        <v>-0.04215687686304349</v>
       </c>
       <c r="BU81">
-        <v>-0.3140207857278257</v>
+        <v>0.2778303786338436</v>
       </c>
       <c r="BV81">
-        <v>0.3607178284786713</v>
+        <v>0.2096354475585487</v>
       </c>
       <c r="BW81">
-        <v>0.5218781830314511</v>
+        <v>0.1370272145569384</v>
       </c>
       <c r="BX81">
-        <v>0.3530389801663482</v>
+        <v>-0.1295675474814465</v>
       </c>
       <c r="BY81">
-        <v>0.6008402187856887</v>
+        <v>-0.1514837876116187</v>
       </c>
       <c r="BZ81">
-        <v>0.2529894957798157</v>
+        <v>0.02832221795719639</v>
       </c>
       <c r="CA81">
-        <v>-0.009426295769667317</v>
+        <v>0.2071793764104207</v>
       </c>
       <c r="CB81">
-        <v>0.382964429842135</v>
+        <v>0.3511455218491039</v>
       </c>
       <c r="CC81">
-        <v>0.4859989488113761</v>
+        <v>0.4523940095631491</v>
       </c>
     </row>
     <row r="82" spans="1:96">
       <c r="A82" s="1">
-        <v>42186</v>
+        <v>38261</v>
       </c>
       <c r="BU82">
-        <v>-0.3140207857278257</v>
+        <v>0.2778303786338436</v>
       </c>
       <c r="BV82">
-        <v>0.3607178284786713</v>
+        <v>0.2096354475585487</v>
       </c>
       <c r="BW82">
-        <v>0.5218781830314511</v>
+        <v>0.1370272145569384</v>
       </c>
       <c r="BX82">
-        <v>0.3530389801663482</v>
+        <v>-0.1295675474814465</v>
       </c>
       <c r="BY82">
-        <v>0.6008402187856887</v>
+        <v>-0.1514837876116187</v>
       </c>
       <c r="BZ82">
-        <v>0.2529894957798157</v>
+        <v>0.02832221795719639</v>
       </c>
       <c r="CA82">
-        <v>-0.009426295769667317</v>
+        <v>0.2071793764104207</v>
       </c>
       <c r="CB82">
-        <v>0.382964429842135</v>
+        <v>0.3511455218491039</v>
       </c>
       <c r="CC82">
-        <v>0.4859989488113761</v>
+        <v>0.4523940095631491</v>
       </c>
       <c r="CD82">
-        <v>0.3925721303289792</v>
+        <v>0.2564965553118657</v>
       </c>
     </row>
     <row r="83" spans="1:96">
       <c r="A83" s="1">
-        <v>42278</v>
+        <v>38353</v>
       </c>
       <c r="BV83">
-        <v>0.3607178284786713</v>
+        <v>0.2096354475585487</v>
       </c>
       <c r="BW83">
-        <v>0.5218781830314511</v>
+        <v>0.1370272145569384</v>
       </c>
       <c r="BX83">
-        <v>0.3530389801663482</v>
+        <v>-0.1295675474814465</v>
       </c>
       <c r="BY83">
-        <v>0.6008402187856887</v>
+        <v>-0.1514837876116187</v>
       </c>
       <c r="BZ83">
-        <v>0.2529894957798157</v>
+        <v>0.02832221795719639</v>
       </c>
       <c r="CA83">
-        <v>-0.009426295769667317</v>
+        <v>0.2071793764104207</v>
       </c>
       <c r="CB83">
-        <v>0.382964429842135</v>
+        <v>0.3511455218491039</v>
       </c>
       <c r="CC83">
-        <v>0.4859989488113761</v>
+        <v>0.4523940095631491</v>
       </c>
       <c r="CD83">
-        <v>0.3925721303289792</v>
+        <v>0.2564965553118657</v>
       </c>
       <c r="CE83">
-        <v>0.3772819159513079</v>
+        <v>-0.1054136014542132</v>
       </c>
     </row>
     <row r="84" spans="1:96">
       <c r="A84" s="1">
-        <v>42370</v>
+        <v>38443</v>
       </c>
       <c r="BW84">
-        <v>0.5218781830314511</v>
+        <v>0.1370272145569384</v>
       </c>
       <c r="BX84">
-        <v>0.3530389801663482</v>
+        <v>-0.1295675474814465</v>
       </c>
       <c r="BY84">
-        <v>0.6008402187856887</v>
+        <v>-0.1514837876116187</v>
       </c>
       <c r="BZ84">
-        <v>0.2529894957798157</v>
+        <v>0.02832221795719639</v>
       </c>
       <c r="CA84">
-        <v>-0.009426295769667317</v>
+        <v>0.2071793764104207</v>
       </c>
       <c r="CB84">
-        <v>0.382964429842135</v>
+        <v>0.3511455218491039</v>
       </c>
       <c r="CC84">
-        <v>0.4859989488113761</v>
+        <v>0.4523940095631491</v>
       </c>
       <c r="CD84">
-        <v>0.3925721303289792</v>
+        <v>0.2564965553118657</v>
       </c>
       <c r="CE84">
-        <v>0.3772819159513079</v>
+        <v>-0.1054136014542132</v>
       </c>
       <c r="CF84">
-        <v>0.2737126832604646</v>
+        <v>0.4538402595175757</v>
       </c>
     </row>
     <row r="85" spans="1:96">
       <c r="A85" s="1">
-        <v>42461</v>
+        <v>38534</v>
       </c>
       <c r="BX85">
-        <v>0.3530389801663482</v>
+        <v>-0.1295675474814465</v>
       </c>
       <c r="BY85">
-        <v>0.6008402187856887</v>
+        <v>-0.1514837876116187</v>
       </c>
       <c r="BZ85">
-        <v>0.2529894957798157</v>
+        <v>0.02832221795719639</v>
       </c>
       <c r="CA85">
-        <v>-0.009426295769667317</v>
+        <v>0.2071793764104207</v>
       </c>
       <c r="CB85">
-        <v>0.382964429842135</v>
+        <v>0.3511455218491039</v>
       </c>
       <c r="CC85">
-        <v>0.4859989488113761</v>
+        <v>0.4523940095631491</v>
       </c>
       <c r="CD85">
-        <v>0.3925721303289792</v>
+        <v>0.2564965553118657</v>
       </c>
       <c r="CE85">
-        <v>0.3772819159513079</v>
+        <v>-0.1054136014542132</v>
       </c>
       <c r="CF85">
-        <v>0.2737126832604646</v>
+        <v>0.4538402595175757</v>
       </c>
       <c r="CG85">
-        <v>0.4670020369369805</v>
+        <v>0.3811579028136509</v>
       </c>
     </row>
     <row r="86" spans="1:96">
       <c r="A86" s="1">
-        <v>42552</v>
+        <v>38626</v>
       </c>
       <c r="BY86">
-        <v>0.6008402187856887</v>
+        <v>-0.1514837876116187</v>
       </c>
       <c r="BZ86">
-        <v>0.2529894957798157</v>
+        <v>0.02832221795719639</v>
       </c>
       <c r="CA86">
-        <v>-0.009426295769667317</v>
+        <v>0.2071793764104207</v>
       </c>
       <c r="CB86">
-        <v>0.382964429842135</v>
+        <v>0.3511455218491039</v>
       </c>
       <c r="CC86">
-        <v>0.4859989488113761</v>
+        <v>0.4523940095631491</v>
       </c>
       <c r="CD86">
-        <v>0.3925721303289792</v>
+        <v>0.2564965553118657</v>
       </c>
       <c r="CE86">
-        <v>0.3772819159513079</v>
+        <v>-0.1054136014542132</v>
       </c>
       <c r="CF86">
-        <v>0.2737126832604646</v>
+        <v>0.4538402595175757</v>
       </c>
       <c r="CG86">
-        <v>0.4670020369369805</v>
+        <v>0.3811579028136509</v>
       </c>
       <c r="CH86">
-        <v>0.5599785102943742</v>
+        <v>0.4219650952252419</v>
       </c>
     </row>
     <row r="87" spans="1:96">
       <c r="A87" s="1">
-        <v>42644</v>
+        <v>38718</v>
       </c>
       <c r="BZ87">
-        <v>0.2529894957798157</v>
+        <v>0.02832221795719639</v>
       </c>
       <c r="CA87">
-        <v>-0.009426295769667317</v>
+        <v>0.2071793764104207</v>
       </c>
       <c r="CB87">
-        <v>0.382964429842135</v>
+        <v>0.3511455218491039</v>
       </c>
       <c r="CC87">
-        <v>0.4859989488113761</v>
+        <v>0.4523940095631491</v>
       </c>
       <c r="CD87">
-        <v>0.3925721303289792</v>
+        <v>0.2564965553118657</v>
       </c>
       <c r="CE87">
-        <v>0.3772819159513079</v>
+        <v>-0.1054136014542132</v>
       </c>
       <c r="CF87">
-        <v>0.2737126832604646</v>
+        <v>0.4538402595175757</v>
       </c>
       <c r="CG87">
-        <v>0.4670020369369805</v>
+        <v>0.3811579028136509</v>
       </c>
       <c r="CH87">
-        <v>0.5599785102943742</v>
+        <v>0.4219650952252419</v>
       </c>
       <c r="CI87">
-        <v>0.3011971726376999</v>
+        <v>0.3147401435258078</v>
       </c>
     </row>
     <row r="88" spans="1:96">
       <c r="A88" s="1">
-        <v>42736</v>
+        <v>38808</v>
       </c>
       <c r="CA88">
-        <v>-0.009426295769667317</v>
+        <v>0.2071793764104207</v>
       </c>
       <c r="CB88">
-        <v>0.382964429842135</v>
+        <v>0.3511455218491039</v>
       </c>
       <c r="CC88">
-        <v>0.4859989488113761</v>
+        <v>0.4523940095631491</v>
       </c>
       <c r="CD88">
-        <v>0.3925721303289792</v>
+        <v>0.2564965553118657</v>
       </c>
       <c r="CE88">
-        <v>0.3772819159513079</v>
+        <v>-0.1054136014542132</v>
       </c>
       <c r="CF88">
-        <v>0.2737126832604646</v>
+        <v>0.4538402595175757</v>
       </c>
       <c r="CG88">
-        <v>0.4670020369369805</v>
+        <v>0.3811579028136509</v>
       </c>
       <c r="CH88">
-        <v>0.5599785102943742</v>
+        <v>0.4219650952252419</v>
       </c>
       <c r="CI88">
-        <v>0.3011971726376999</v>
+        <v>0.3147401435258078</v>
       </c>
       <c r="CJ88">
-        <v>0.2816807417048267</v>
+        <v>0.1874824351208836</v>
       </c>
     </row>
     <row r="89" spans="1:96">
       <c r="A89" s="1">
-        <v>42826</v>
+        <v>38899</v>
       </c>
       <c r="CB89">
-        <v>0.382964429842135</v>
+        <v>0.3511455218491039</v>
       </c>
       <c r="CC89">
-        <v>0.4859989488113761</v>
+        <v>0.4523940095631491</v>
       </c>
       <c r="CD89">
-        <v>0.3925721303289792</v>
+        <v>0.2564965553118657</v>
       </c>
       <c r="CE89">
-        <v>0.3772819159513079</v>
+        <v>-0.1054136014542132</v>
       </c>
       <c r="CF89">
-        <v>0.2737126832604646</v>
+        <v>0.4538402595175757</v>
       </c>
       <c r="CG89">
-        <v>0.4670020369369805</v>
+        <v>0.3811579028136509</v>
       </c>
       <c r="CH89">
-        <v>0.5599785102943742</v>
+        <v>0.4219650952252419</v>
       </c>
       <c r="CI89">
-        <v>0.3011971726376999</v>
+        <v>0.3147401435258078</v>
       </c>
       <c r="CJ89">
-        <v>0.2816807417048267</v>
+        <v>0.1874824351208836</v>
       </c>
       <c r="CK89">
-        <v>0.5118111503608368</v>
+        <v>0.7883094405822125</v>
       </c>
     </row>
     <row r="90" spans="1:96">
       <c r="A90" s="1">
-        <v>42917</v>
+        <v>38991</v>
       </c>
       <c r="CC90">
-        <v>0.4859989488113761</v>
+        <v>0.4523940095631491</v>
       </c>
       <c r="CD90">
-        <v>0.3925721303289792</v>
+        <v>0.2564965553118657</v>
       </c>
       <c r="CE90">
-        <v>0.3772819159513079</v>
+        <v>-0.1054136014542132</v>
       </c>
       <c r="CF90">
-        <v>0.2737126832604646</v>
+        <v>0.4538402595175757</v>
       </c>
       <c r="CG90">
-        <v>0.4670020369369805</v>
+        <v>0.3811579028136509</v>
       </c>
       <c r="CH90">
-        <v>0.5599785102943742</v>
+        <v>0.4219650952252419</v>
       </c>
       <c r="CI90">
-        <v>0.3011971726376999</v>
+        <v>0.3147401435258078</v>
       </c>
       <c r="CJ90">
-        <v>0.2816807417048267</v>
+        <v>0.1874824351208836</v>
       </c>
       <c r="CK90">
-        <v>0.5118111503608368</v>
+        <v>0.7883094405822125</v>
       </c>
       <c r="CL90">
-        <v>0.6636359510343999</v>
+        <v>0.8534666922226123</v>
       </c>
     </row>
     <row r="91" spans="1:96">
       <c r="A91" s="1">
-        <v>43009</v>
+        <v>39083</v>
       </c>
       <c r="CD91">
-        <v>0.3925721303289792</v>
+        <v>0.2564965553118657</v>
       </c>
       <c r="CE91">
-        <v>0.3772819159513079</v>
+        <v>-0.1054136014542132</v>
       </c>
       <c r="CF91">
-        <v>0.2737126832604646</v>
+        <v>0.4538402595175757</v>
       </c>
       <c r="CG91">
-        <v>0.4670020369369805</v>
+        <v>0.3811579028136509</v>
       </c>
       <c r="CH91">
-        <v>0.5599785102943742</v>
+        <v>0.4219650952252419</v>
       </c>
       <c r="CI91">
-        <v>0.3011971726376999</v>
+        <v>0.3147401435258078</v>
       </c>
       <c r="CJ91">
-        <v>0.2816807417048267</v>
+        <v>0.1874824351208836</v>
       </c>
       <c r="CK91">
-        <v>0.5118111503608368</v>
+        <v>0.7883094405822125</v>
       </c>
       <c r="CL91">
-        <v>0.6636359510343999</v>
+        <v>0.8534666922226123</v>
       </c>
       <c r="CM91">
-        <v>0.7286847193651798</v>
+        <v>0.8289611775649219</v>
       </c>
     </row>
     <row r="92" spans="1:96">
       <c r="A92" s="1">
-        <v>43101</v>
+        <v>39173</v>
       </c>
       <c r="CE92">
-        <v>0.3772819159513079</v>
+        <v>-0.1054136014542132</v>
       </c>
       <c r="CF92">
-        <v>0.2737126832604646</v>
+        <v>0.4538402595175757</v>
       </c>
       <c r="CG92">
-        <v>0.4670020369369805</v>
+        <v>0.3811579028136509</v>
       </c>
       <c r="CH92">
-        <v>0.5599785102943742</v>
+        <v>0.4219650952252419</v>
       </c>
       <c r="CI92">
-        <v>0.3011971726376999</v>
+        <v>0.3147401435258078</v>
       </c>
       <c r="CJ92">
-        <v>0.2816807417048267</v>
+        <v>0.1874824351208836</v>
       </c>
       <c r="CK92">
-        <v>0.5118111503608368</v>
+        <v>0.7883094405822125</v>
       </c>
       <c r="CL92">
-        <v>0.6636359510343999</v>
+        <v>0.8534666922226123</v>
       </c>
       <c r="CM92">
-        <v>0.7286847193651798</v>
+        <v>0.8289611775649219</v>
       </c>
       <c r="CN92">
-        <v>0.6712282563247641</v>
+        <v>0.7476033206790205</v>
       </c>
     </row>
     <row r="93" spans="1:96">
       <c r="A93" s="1">
-        <v>43191</v>
+        <v>39264</v>
       </c>
       <c r="CF93">
-        <v>0.2737126832604646</v>
+        <v>0.4538402595175757</v>
       </c>
       <c r="CG93">
-        <v>0.4670020369369805</v>
+        <v>0.3811579028136509</v>
       </c>
       <c r="CH93">
-        <v>0.5599785102943742</v>
+        <v>0.4219650952252419</v>
       </c>
       <c r="CI93">
-        <v>0.3011971726376999</v>
+        <v>0.3147401435258078</v>
       </c>
       <c r="CJ93">
-        <v>0.2816807417048267</v>
+        <v>0.1874824351208836</v>
       </c>
       <c r="CK93">
-        <v>0.5118111503608368</v>
+        <v>0.7883094405822125</v>
       </c>
       <c r="CL93">
-        <v>0.6636359510343999</v>
+        <v>0.8534666922226123</v>
       </c>
       <c r="CM93">
-        <v>0.7286847193651798</v>
+        <v>0.8289611775649219</v>
       </c>
       <c r="CN93">
-        <v>0.6712282563247641</v>
+        <v>0.7476033206790205</v>
       </c>
       <c r="CO93">
-        <v>0.4521238400718821</v>
+        <v>0.3996351164005113</v>
       </c>
     </row>
     <row r="94" spans="1:96">
       <c r="A94" s="1">
-        <v>43282</v>
+        <v>39356</v>
       </c>
       <c r="CG94">
-        <v>0.4670020369369805</v>
+        <v>0.3811579028136509</v>
       </c>
       <c r="CH94">
-        <v>0.5599785102943742</v>
+        <v>0.4219650952252419</v>
       </c>
       <c r="CI94">
-        <v>0.3011971726376999</v>
+        <v>0.3147401435258078</v>
       </c>
       <c r="CJ94">
-        <v>0.2816807417048267</v>
+        <v>0.1874824351208836</v>
       </c>
       <c r="CK94">
-        <v>0.5118111503608368</v>
+        <v>0.7883094405822125</v>
       </c>
       <c r="CL94">
-        <v>0.6636359510343999</v>
+        <v>0.8534666922226123</v>
       </c>
       <c r="CM94">
-        <v>0.7286847193651798</v>
+        <v>0.8289611775649219</v>
       </c>
       <c r="CN94">
-        <v>0.6712282563247641</v>
+        <v>0.7476033206790205</v>
       </c>
       <c r="CO94">
-        <v>0.4521238400718821</v>
+        <v>0.3996351164005113</v>
       </c>
       <c r="CP94">
-        <v>0.4088308827094236</v>
+        <v>0.4713798804597414</v>
       </c>
     </row>
     <row r="95" spans="1:96">
       <c r="A95" s="1">
-        <v>43374</v>
+        <v>39448</v>
       </c>
       <c r="CH95">
-        <v>0.5599785102943742</v>
+        <v>0.4219650952252419</v>
       </c>
       <c r="CI95">
-        <v>0.3011971726376999</v>
+        <v>0.3147401435258078</v>
       </c>
       <c r="CJ95">
-        <v>0.2816807417048267</v>
+        <v>0.1874824351208836</v>
       </c>
       <c r="CK95">
-        <v>0.5118111503608368</v>
+        <v>0.7883094405822125</v>
       </c>
       <c r="CL95">
-        <v>0.6636359510343999</v>
+        <v>0.8534666922226123</v>
       </c>
       <c r="CM95">
-        <v>0.7286847193651798</v>
+        <v>0.8289611775649219</v>
       </c>
       <c r="CN95">
-        <v>0.6712282563247641</v>
+        <v>0.7476033206790205</v>
       </c>
       <c r="CO95">
-        <v>0.4521238400718821</v>
+        <v>0.3996351164005113</v>
       </c>
       <c r="CP95">
-        <v>0.4088308827094236</v>
+        <v>0.4713798804597414</v>
       </c>
       <c r="CQ95">
-        <v>0.1263716786652638</v>
+        <v>0.465498893456654</v>
       </c>
     </row>
     <row r="96" spans="1:96">
       <c r="A96" s="1">
-        <v>43466</v>
+        <v>39539</v>
       </c>
       <c r="CI96">
-        <v>0.3011971726376999</v>
+        <v>0.3147401435258078</v>
       </c>
       <c r="CJ96">
-        <v>0.2816807417048267</v>
+        <v>0.1874824351208836</v>
       </c>
       <c r="CK96">
-        <v>0.5118111503608368</v>
+        <v>0.7883094405822125</v>
       </c>
       <c r="CL96">
-        <v>0.6636359510343999</v>
+        <v>0.8534666922226123</v>
       </c>
       <c r="CM96">
-        <v>0.7286847193651798</v>
+        <v>0.8289611775649219</v>
       </c>
       <c r="CN96">
-        <v>0.6712282563247641</v>
+        <v>0.7476033206790205</v>
       </c>
       <c r="CO96">
-        <v>0.4521238400718821</v>
+        <v>0.3996351164005113</v>
       </c>
       <c r="CP96">
-        <v>0.4088308827094236</v>
+        <v>0.4713798804597414</v>
       </c>
       <c r="CQ96">
-        <v>0.1263716786652638</v>
+        <v>0.465498893456654</v>
       </c>
       <c r="CR96">
-        <v>-0.09075041317066823</v>
+        <v>0.8970498488576362</v>
       </c>
     </row>
     <row r="97" spans="1:112">
       <c r="A97" s="1">
-        <v>43556</v>
+        <v>39630</v>
       </c>
       <c r="CJ97">
-        <v>0.2816807417048267</v>
+        <v>0.1874824351208836</v>
       </c>
       <c r="CK97">
-        <v>0.5118111503608368</v>
+        <v>0.7883094405822125</v>
       </c>
       <c r="CL97">
-        <v>0.6636359510343999</v>
+        <v>0.8534666922226123</v>
       </c>
       <c r="CM97">
-        <v>0.7286847193651798</v>
+        <v>0.8289611775649219</v>
       </c>
       <c r="CN97">
-        <v>0.6712282563247641</v>
+        <v>0.7476033206790205</v>
       </c>
       <c r="CO97">
-        <v>0.4521238400718821</v>
+        <v>0.3996351164005113</v>
       </c>
       <c r="CP97">
-        <v>0.4088308827094236</v>
+        <v>0.4713798804597414</v>
       </c>
       <c r="CQ97">
-        <v>0.1263716786652638</v>
+        <v>0.465498893456654</v>
       </c>
       <c r="CR97">
-        <v>-0.09075041317066823</v>
+        <v>0.8970498488576362</v>
       </c>
       <c r="CS97">
-        <v>0.2208380811913595</v>
+        <v>0.3865317719365428</v>
       </c>
     </row>
     <row r="98" spans="1:112">
       <c r="A98" s="1">
-        <v>43647</v>
+        <v>39722</v>
       </c>
       <c r="CK98">
-        <v>0.5118111503608368</v>
+        <v>0.7883094405822125</v>
       </c>
       <c r="CL98">
-        <v>0.6636359510343999</v>
+        <v>0.8534666922226123</v>
       </c>
       <c r="CM98">
-        <v>0.7286847193651798</v>
+        <v>0.8289611775649219</v>
       </c>
       <c r="CN98">
-        <v>0.6712282563247641</v>
+        <v>0.7476033206790205</v>
       </c>
       <c r="CO98">
-        <v>0.4521238400718821</v>
+        <v>0.3996351164005113</v>
       </c>
       <c r="CP98">
-        <v>0.4088308827094236</v>
+        <v>0.4713798804597414</v>
       </c>
       <c r="CQ98">
-        <v>0.1263716786652638</v>
+        <v>0.465498893456654</v>
       </c>
       <c r="CR98">
-        <v>-0.09075041317066823</v>
+        <v>0.8970498488576362</v>
       </c>
       <c r="CS98">
-        <v>0.2208380811913595</v>
+        <v>0.3865317719365428</v>
       </c>
       <c r="CT98">
-        <v>0.1547826744344046</v>
+        <v>-0.4737844322471635</v>
       </c>
     </row>
     <row r="99" spans="1:112">
       <c r="A99" s="1">
-        <v>43739</v>
+        <v>39814</v>
       </c>
       <c r="CL99">
-        <v>0.6636359510343999</v>
+        <v>0.8534666922226123</v>
       </c>
       <c r="CM99">
-        <v>0.7286847193651798</v>
+        <v>0.8289611775649219</v>
       </c>
       <c r="CN99">
-        <v>0.6712282563247641</v>
+        <v>0.7476033206790205</v>
       </c>
       <c r="CO99">
-        <v>0.4521238400718821</v>
+        <v>0.3996351164005113</v>
       </c>
       <c r="CP99">
-        <v>0.4088308827094236</v>
+        <v>0.4713798804597414</v>
       </c>
       <c r="CQ99">
-        <v>0.1263716786652638</v>
+        <v>0.465498893456654</v>
       </c>
       <c r="CR99">
-        <v>-0.09075041317066823</v>
+        <v>0.8970498488576362</v>
       </c>
       <c r="CS99">
-        <v>0.2208380811913595</v>
+        <v>0.3865317719365428</v>
       </c>
       <c r="CT99">
-        <v>0.1547826744344046</v>
+        <v>-0.4737844322471635</v>
       </c>
       <c r="CU99">
-        <v>-0.07918898587295509</v>
+        <v>-1.325071230226886</v>
       </c>
     </row>
     <row r="100" spans="1:112">
       <c r="A100" s="1">
-        <v>43831</v>
+        <v>39904</v>
       </c>
       <c r="CM100">
-        <v>0.7286847193651798</v>
+        <v>0.8289611775649219</v>
       </c>
       <c r="CN100">
-        <v>0.6712282563247641</v>
+        <v>0.7476033206790205</v>
       </c>
       <c r="CO100">
-        <v>0.4521238400718821</v>
+        <v>0.3996351164005113</v>
       </c>
       <c r="CP100">
-        <v>0.4088308827094236</v>
+        <v>0.4713798804597414</v>
       </c>
       <c r="CQ100">
-        <v>0.1263716786652638</v>
+        <v>0.465498893456654</v>
       </c>
       <c r="CR100">
-        <v>-0.09075041317066823</v>
+        <v>0.8970498488576362</v>
       </c>
       <c r="CS100">
-        <v>0.2208380811913595</v>
+        <v>0.3865317719365428</v>
       </c>
       <c r="CT100">
-        <v>0.1547826744344046</v>
+        <v>-0.4737844322471635</v>
       </c>
       <c r="CU100">
-        <v>-0.07918898587295509</v>
+        <v>-1.325071230226886</v>
       </c>
       <c r="CV100">
-        <v>0.1121744784509069</v>
+        <v>-3.0134102622518</v>
       </c>
     </row>
     <row r="101" spans="1:112">
       <c r="A101" s="1">
-        <v>43922</v>
+        <v>39995</v>
       </c>
       <c r="CN101">
-        <v>0.6712282563247641</v>
+        <v>0.7476033206790205</v>
       </c>
       <c r="CO101">
-        <v>0.4521238400718821</v>
+        <v>0.3996351164005113</v>
       </c>
       <c r="CP101">
-        <v>0.4088308827094236</v>
+        <v>0.4713798804597414</v>
       </c>
       <c r="CQ101">
-        <v>0.1263716786652638</v>
+        <v>0.465498893456654</v>
       </c>
       <c r="CR101">
-        <v>-0.09075041317066823</v>
+        <v>0.8970498488576362</v>
       </c>
       <c r="CS101">
-        <v>0.2208380811913595</v>
+        <v>0.3865317719365428</v>
       </c>
       <c r="CT101">
-        <v>0.1547826744344046</v>
+        <v>-0.4737844322471635</v>
       </c>
       <c r="CU101">
-        <v>-0.07918898587295509</v>
+        <v>-1.325071230226886</v>
       </c>
       <c r="CV101">
-        <v>0.1121744784509069</v>
+        <v>-3.0134102622518</v>
       </c>
       <c r="CW101">
-        <v>-1.162195275599549</v>
+        <v>-1.609384831228322</v>
       </c>
     </row>
     <row r="102" spans="1:112">
       <c r="A102" s="1">
-        <v>44013</v>
+        <v>40087</v>
       </c>
       <c r="CO102">
-        <v>0.4521238400718821</v>
+        <v>0.3996351164005113</v>
       </c>
       <c r="CP102">
-        <v>0.4088308827094236</v>
+        <v>0.4713798804597414</v>
       </c>
       <c r="CQ102">
-        <v>0.1263716786652638</v>
+        <v>0.465498893456654</v>
       </c>
       <c r="CR102">
-        <v>-0.09075041317066823</v>
+        <v>0.8970498488576362</v>
       </c>
       <c r="CS102">
-        <v>0.2208380811913595</v>
+        <v>0.3865317719365428</v>
       </c>
       <c r="CT102">
-        <v>0.1547826744344046</v>
+        <v>-0.4737844322471635</v>
       </c>
       <c r="CU102">
-        <v>-0.07918898587295509</v>
+        <v>-1.325071230226886</v>
       </c>
       <c r="CV102">
-        <v>0.1121744784509069</v>
+        <v>-3.0134102622518</v>
       </c>
       <c r="CW102">
-        <v>-1.162195275599549</v>
+        <v>-1.609384831228322</v>
       </c>
       <c r="CX102">
-        <v>-5.854824619268521</v>
+        <v>0.585322342063246</v>
       </c>
     </row>
     <row r="103" spans="1:112">
       <c r="A103" s="1">
-        <v>44105</v>
+        <v>40179</v>
       </c>
       <c r="CP103">
-        <v>0.4088308827094236</v>
+        <v>0.4713798804597414</v>
       </c>
       <c r="CQ103">
-        <v>0.1263716786652638</v>
+        <v>0.465498893456654</v>
       </c>
       <c r="CR103">
-        <v>-0.09075041317066823</v>
+        <v>0.8970498488576362</v>
       </c>
       <c r="CS103">
-        <v>0.2208380811913595</v>
+        <v>0.3865317719365428</v>
       </c>
       <c r="CT103">
-        <v>0.1547826744344046</v>
+        <v>-0.4737844322471635</v>
       </c>
       <c r="CU103">
-        <v>-0.07918898587295509</v>
+        <v>-1.325071230226886</v>
       </c>
       <c r="CV103">
-        <v>0.1121744784509069</v>
+        <v>-3.0134102622518</v>
       </c>
       <c r="CW103">
-        <v>-1.162195275599549</v>
+        <v>-1.609384831228322</v>
       </c>
       <c r="CX103">
-        <v>-5.854824619268521</v>
+        <v>0.585322342063246</v>
       </c>
       <c r="CY103">
-        <v>-0.6564850592266236</v>
+        <v>0.3687040207098991</v>
       </c>
     </row>
     <row r="104" spans="1:112">
       <c r="A104" s="1">
-        <v>44197</v>
+        <v>40269</v>
       </c>
       <c r="CQ104">
-        <v>0.1263716786652638</v>
+        <v>0.465498893456654</v>
       </c>
       <c r="CR104">
-        <v>-0.09075041317066823</v>
+        <v>0.8970498488576362</v>
       </c>
       <c r="CS104">
-        <v>0.2208380811913595</v>
+        <v>0.3865317719365428</v>
       </c>
       <c r="CT104">
-        <v>0.1547826744344046</v>
+        <v>-0.4737844322471635</v>
       </c>
       <c r="CU104">
-        <v>-0.07918898587295509</v>
+        <v>-1.325071230226886</v>
       </c>
       <c r="CV104">
-        <v>0.1121744784509069</v>
+        <v>-3.0134102622518</v>
       </c>
       <c r="CW104">
-        <v>-1.162195275599549</v>
+        <v>-1.609384831228322</v>
       </c>
       <c r="CX104">
-        <v>-5.854824619268521</v>
+        <v>0.585322342063246</v>
       </c>
       <c r="CY104">
-        <v>-0.6564850592266236</v>
+        <v>0.3687040207098991</v>
       </c>
       <c r="CZ104">
-        <v>4.426309542805707</v>
+        <v>0.1710057202826473</v>
       </c>
     </row>
     <row r="105" spans="1:112">
       <c r="A105" s="1">
-        <v>44287</v>
+        <v>40360</v>
       </c>
       <c r="CR105">
-        <v>-0.09075041317066823</v>
+        <v>0.8970498488576362</v>
       </c>
       <c r="CS105">
-        <v>0.2208380811913595</v>
+        <v>0.3865317719365428</v>
       </c>
       <c r="CT105">
-        <v>0.1547826744344046</v>
+        <v>-0.4737844322471635</v>
       </c>
       <c r="CU105">
-        <v>-0.07918898587295509</v>
+        <v>-1.325071230226886</v>
       </c>
       <c r="CV105">
-        <v>0.1121744784509069</v>
+        <v>-3.0134102622518</v>
       </c>
       <c r="CW105">
-        <v>-1.162195275599549</v>
+        <v>-1.609384831228322</v>
       </c>
       <c r="CX105">
-        <v>-5.854824619268521</v>
+        <v>0.585322342063246</v>
       </c>
       <c r="CY105">
-        <v>-0.6564850592266236</v>
+        <v>0.3687040207098991</v>
       </c>
       <c r="CZ105">
-        <v>4.426309542805707</v>
+        <v>0.1710057202826473</v>
       </c>
       <c r="DA105">
-        <v>-0.6363230239575632</v>
+        <v>1.322549253608671</v>
       </c>
     </row>
     <row r="106" spans="1:112">
       <c r="A106" s="1">
-        <v>44378</v>
+        <v>40452</v>
       </c>
       <c r="CS106">
-        <v>0.2208380811913595</v>
+        <v>0.3865317719365428</v>
       </c>
       <c r="CT106">
-        <v>0.1547826744344046</v>
+        <v>-0.4737844322471635</v>
       </c>
       <c r="CU106">
-        <v>-0.07918898587295509</v>
+        <v>-1.325071230226886</v>
       </c>
       <c r="CV106">
-        <v>0.1121744784509069</v>
+        <v>-3.0134102622518</v>
       </c>
       <c r="CW106">
-        <v>-1.162195275599549</v>
+        <v>-1.609384831228322</v>
       </c>
       <c r="CX106">
-        <v>-5.854824619268521</v>
+        <v>0.585322342063246</v>
       </c>
       <c r="CY106">
-        <v>-0.6564850592266236</v>
+        <v>0.3687040207098991</v>
       </c>
       <c r="CZ106">
-        <v>4.426309542805707</v>
+        <v>0.1710057202826473</v>
       </c>
       <c r="DA106">
-        <v>-0.6363230239575632</v>
+        <v>1.322549253608671</v>
       </c>
       <c r="DB106">
-        <v>-0.184891410987573</v>
+        <v>1.499999344154686</v>
       </c>
     </row>
     <row r="107" spans="1:112">
       <c r="A107" s="1">
-        <v>44470</v>
+        <v>40544</v>
       </c>
       <c r="CT107">
-        <v>0.1547826744344046</v>
+        <v>-0.4737844322471635</v>
       </c>
       <c r="CU107">
-        <v>-0.07918898587295509</v>
+        <v>-1.325071230226886</v>
       </c>
       <c r="CV107">
-        <v>0.1121744784509069</v>
+        <v>-3.0134102622518</v>
       </c>
       <c r="CW107">
-        <v>-1.162195275599549</v>
+        <v>-1.609384831228322</v>
       </c>
       <c r="CX107">
-        <v>-5.854824619268521</v>
+        <v>0.585322342063246</v>
       </c>
       <c r="CY107">
-        <v>-0.6564850592266236</v>
+        <v>0.3687040207098991</v>
       </c>
       <c r="CZ107">
-        <v>4.426309542805707</v>
+        <v>0.1710057202826473</v>
       </c>
       <c r="DA107">
-        <v>-0.6363230239575632</v>
+        <v>1.322549253608671</v>
       </c>
       <c r="DB107">
-        <v>-0.184891410987573</v>
+        <v>1.499999344154686</v>
       </c>
       <c r="DC107">
-        <v>1.857875335772226</v>
+        <v>0.5313745716684999</v>
       </c>
     </row>
     <row r="108" spans="1:112">
       <c r="A108" s="1">
-        <v>44562</v>
+        <v>40634</v>
       </c>
       <c r="CU108">
-        <v>-0.07918898587295509</v>
+        <v>-1.325071230226886</v>
       </c>
       <c r="CV108">
-        <v>0.1121744784509069</v>
+        <v>-3.0134102622518</v>
       </c>
       <c r="CW108">
-        <v>-1.162195275599549</v>
+        <v>-1.609384831228322</v>
       </c>
       <c r="CX108">
-        <v>-5.854824619268521</v>
+        <v>0.585322342063246</v>
       </c>
       <c r="CY108">
-        <v>-0.6564850592266236</v>
+        <v>0.3687040207098991</v>
       </c>
       <c r="CZ108">
-        <v>4.426309542805707</v>
+        <v>0.1710057202826473</v>
       </c>
       <c r="DA108">
-        <v>-0.6363230239575632</v>
+        <v>1.322549253608671</v>
       </c>
       <c r="DB108">
-        <v>-0.184891410987573</v>
+        <v>1.499999344154686</v>
       </c>
       <c r="DC108">
-        <v>1.857875335772226</v>
+        <v>0.5313745716684999</v>
       </c>
       <c r="DD108">
-        <v>0.6611695376410593</v>
+        <v>0.9319730398245117</v>
       </c>
     </row>
     <row r="109" spans="1:112">
       <c r="A109" s="1">
-        <v>44652</v>
+        <v>40725</v>
       </c>
       <c r="CV109">
-        <v>0.1121744784509069</v>
+        <v>-3.0134102622518</v>
       </c>
       <c r="CW109">
-        <v>-1.162195275599549</v>
+        <v>-1.609384831228322</v>
       </c>
       <c r="CX109">
-        <v>-5.854824619268521</v>
+        <v>0.585322342063246</v>
       </c>
       <c r="CY109">
-        <v>-0.6564850592266236</v>
+        <v>0.3687040207098991</v>
       </c>
       <c r="CZ109">
-        <v>4.426309542805707</v>
+        <v>0.1710057202826473</v>
       </c>
       <c r="DA109">
-        <v>-0.6363230239575632</v>
+        <v>1.322549253608671</v>
       </c>
       <c r="DB109">
-        <v>-0.184891410987573</v>
+        <v>1.499999344154686</v>
       </c>
       <c r="DC109">
-        <v>1.857875335772226</v>
+        <v>0.5313745716684999</v>
       </c>
       <c r="DD109">
-        <v>0.6611695376410593</v>
+        <v>0.9319730398245117</v>
       </c>
       <c r="DE109">
-        <v>-0.05589237209497491</v>
+        <v>0.7334655993102255</v>
       </c>
     </row>
     <row r="110" spans="1:112">
       <c r="A110" s="1">
-        <v>44743</v>
+        <v>40817</v>
       </c>
       <c r="CW110">
-        <v>-1.162195275599549</v>
+        <v>-1.609384831228322</v>
       </c>
       <c r="CX110">
-        <v>-5.854824619268521</v>
+        <v>0.585322342063246</v>
       </c>
       <c r="CY110">
-        <v>-0.6564850592266236</v>
+        <v>0.3687040207098991</v>
       </c>
       <c r="CZ110">
-        <v>4.426309542805707</v>
+        <v>0.1710057202826473</v>
       </c>
       <c r="DA110">
-        <v>-0.6363230239575632</v>
+        <v>1.322549253608671</v>
       </c>
       <c r="DB110">
-        <v>-0.184891410987573</v>
+        <v>1.499999344154686</v>
       </c>
       <c r="DC110">
-        <v>1.857875335772226</v>
+        <v>0.5313745716684999</v>
       </c>
       <c r="DD110">
-        <v>0.6611695376410593</v>
+        <v>0.9319730398245117</v>
       </c>
       <c r="DE110">
-        <v>-0.05589237209497491</v>
+        <v>0.7334655993102255</v>
       </c>
       <c r="DF110">
-        <v>0.468925960670091</v>
+        <v>0.3890732509510448</v>
       </c>
     </row>
     <row r="111" spans="1:112">
       <c r="A111" s="1">
-        <v>44835</v>
+        <v>40909</v>
       </c>
       <c r="CX111">
-        <v>-5.854824619268521</v>
+        <v>0.585322342063246</v>
       </c>
       <c r="CY111">
-        <v>-0.6564850592266236</v>
+        <v>0.3687040207098991</v>
       </c>
       <c r="CZ111">
-        <v>4.426309542805707</v>
+        <v>0.1710057202826473</v>
       </c>
       <c r="DA111">
-        <v>-0.6363230239575632</v>
+        <v>1.322549253608671</v>
       </c>
       <c r="DB111">
-        <v>-0.184891410987573</v>
+        <v>1.499999344154686</v>
       </c>
       <c r="DC111">
-        <v>1.857875335772226</v>
+        <v>0.5313745716684999</v>
       </c>
       <c r="DD111">
-        <v>0.6611695376410593</v>
+        <v>0.9319730398245117</v>
       </c>
       <c r="DE111">
-        <v>-0.05589237209497491</v>
+        <v>0.7334655993102255</v>
       </c>
       <c r="DF111">
-        <v>0.468925960670091</v>
+        <v>0.3890732509510448</v>
       </c>
       <c r="DG111">
-        <v>0.2513087266968487</v>
+        <v>0.1971582984394383</v>
       </c>
     </row>
     <row r="112" spans="1:112">
       <c r="A112" s="1">
+        <v>41000</v>
+      </c>
+      <c r="CY112">
+        <v>0.3687040207098991</v>
+      </c>
+      <c r="CZ112">
+        <v>0.1710057202826473</v>
+      </c>
+      <c r="DA112">
+        <v>1.322549253608671</v>
+      </c>
+      <c r="DB112">
+        <v>1.499999344154686</v>
+      </c>
+      <c r="DC112">
+        <v>0.5313745716684999</v>
+      </c>
+      <c r="DD112">
+        <v>0.9319730398245117</v>
+      </c>
+      <c r="DE112">
+        <v>0.7334655993102255</v>
+      </c>
+      <c r="DF112">
+        <v>0.3890732509510448</v>
+      </c>
+      <c r="DG112">
+        <v>0.1971582984394383</v>
+      </c>
+      <c r="DH112">
+        <v>0.164144910068436</v>
+      </c>
+    </row>
+    <row r="113" spans="1:128">
+      <c r="A113" s="1">
+        <v>41091</v>
+      </c>
+      <c r="CZ113">
+        <v>0.1710057202826473</v>
+      </c>
+      <c r="DA113">
+        <v>1.322549253608671</v>
+      </c>
+      <c r="DB113">
+        <v>1.499999344154686</v>
+      </c>
+      <c r="DC113">
+        <v>0.5313745716684999</v>
+      </c>
+      <c r="DD113">
+        <v>0.9319730398245117</v>
+      </c>
+      <c r="DE113">
+        <v>0.7334655993102255</v>
+      </c>
+      <c r="DF113">
+        <v>0.3890732509510448</v>
+      </c>
+      <c r="DG113">
+        <v>0.1971582984394383</v>
+      </c>
+      <c r="DH113">
+        <v>0.164144910068436</v>
+      </c>
+      <c r="DI113">
+        <v>0.3847424952750509</v>
+      </c>
+    </row>
+    <row r="114" spans="1:128">
+      <c r="A114" s="1">
+        <v>41183</v>
+      </c>
+      <c r="DA114">
+        <v>1.322549253608671</v>
+      </c>
+      <c r="DB114">
+        <v>1.499999344154686</v>
+      </c>
+      <c r="DC114">
+        <v>0.5313745716684999</v>
+      </c>
+      <c r="DD114">
+        <v>0.9319730398245117</v>
+      </c>
+      <c r="DE114">
+        <v>0.7334655993102255</v>
+      </c>
+      <c r="DF114">
+        <v>0.3890732509510448</v>
+      </c>
+      <c r="DG114">
+        <v>0.1971582984394383</v>
+      </c>
+      <c r="DH114">
+        <v>0.164144910068436</v>
+      </c>
+      <c r="DI114">
+        <v>0.3847424952750509</v>
+      </c>
+      <c r="DJ114">
+        <v>0.2523452698770574</v>
+      </c>
+    </row>
+    <row r="115" spans="1:128">
+      <c r="A115" s="1">
+        <v>41275</v>
+      </c>
+      <c r="DB115">
+        <v>1.499999344154686</v>
+      </c>
+      <c r="DC115">
+        <v>0.5313745716684999</v>
+      </c>
+      <c r="DD115">
+        <v>0.9319730398245117</v>
+      </c>
+      <c r="DE115">
+        <v>0.7334655993102255</v>
+      </c>
+      <c r="DF115">
+        <v>0.3890732509510448</v>
+      </c>
+      <c r="DG115">
+        <v>0.1971582984394383</v>
+      </c>
+      <c r="DH115">
+        <v>0.164144910068436</v>
+      </c>
+      <c r="DI115">
+        <v>0.3847424952750509</v>
+      </c>
+      <c r="DJ115">
+        <v>0.2523452698770574</v>
+      </c>
+      <c r="DK115">
+        <v>-0.1792762830641941</v>
+      </c>
+    </row>
+    <row r="116" spans="1:128">
+      <c r="A116" s="1">
+        <v>41365</v>
+      </c>
+      <c r="DC116">
+        <v>0.5313745716684999</v>
+      </c>
+      <c r="DD116">
+        <v>0.9319730398245117</v>
+      </c>
+      <c r="DE116">
+        <v>0.7334655993102255</v>
+      </c>
+      <c r="DF116">
+        <v>0.3890732509510448</v>
+      </c>
+      <c r="DG116">
+        <v>0.1971582984394383</v>
+      </c>
+      <c r="DH116">
+        <v>0.164144910068436</v>
+      </c>
+      <c r="DI116">
+        <v>0.3847424952750509</v>
+      </c>
+      <c r="DJ116">
+        <v>0.2523452698770574</v>
+      </c>
+      <c r="DK116">
+        <v>-0.1792762830641941</v>
+      </c>
+      <c r="DL116">
+        <v>-0.3140207857278257</v>
+      </c>
+    </row>
+    <row r="117" spans="1:128">
+      <c r="A117" s="1">
+        <v>41456</v>
+      </c>
+      <c r="DD117">
+        <v>0.9319730398245117</v>
+      </c>
+      <c r="DE117">
+        <v>0.7334655993102255</v>
+      </c>
+      <c r="DF117">
+        <v>0.3890732509510448</v>
+      </c>
+      <c r="DG117">
+        <v>0.1971582984394383</v>
+      </c>
+      <c r="DH117">
+        <v>0.164144910068436</v>
+      </c>
+      <c r="DI117">
+        <v>0.3847424952750509</v>
+      </c>
+      <c r="DJ117">
+        <v>0.2523452698770574</v>
+      </c>
+      <c r="DK117">
+        <v>-0.1792762830641941</v>
+      </c>
+      <c r="DL117">
+        <v>-0.3140207857278257</v>
+      </c>
+      <c r="DM117">
+        <v>0.3607178284786713</v>
+      </c>
+    </row>
+    <row r="118" spans="1:128">
+      <c r="A118" s="1">
+        <v>41548</v>
+      </c>
+      <c r="DE118">
+        <v>0.7334655993102255</v>
+      </c>
+      <c r="DF118">
+        <v>0.3890732509510448</v>
+      </c>
+      <c r="DG118">
+        <v>0.1971582984394383</v>
+      </c>
+      <c r="DH118">
+        <v>0.164144910068436</v>
+      </c>
+      <c r="DI118">
+        <v>0.3847424952750509</v>
+      </c>
+      <c r="DJ118">
+        <v>0.2523452698770574</v>
+      </c>
+      <c r="DK118">
+        <v>-0.1792762830641941</v>
+      </c>
+      <c r="DL118">
+        <v>-0.3140207857278257</v>
+      </c>
+      <c r="DM118">
+        <v>0.3607178284786713</v>
+      </c>
+      <c r="DN118">
+        <v>0.5218781830314511</v>
+      </c>
+    </row>
+    <row r="119" spans="1:128">
+      <c r="A119" s="1">
+        <v>41640</v>
+      </c>
+      <c r="DF119">
+        <v>0.3890732509510448</v>
+      </c>
+      <c r="DG119">
+        <v>0.1971582984394383</v>
+      </c>
+      <c r="DH119">
+        <v>0.164144910068436</v>
+      </c>
+      <c r="DI119">
+        <v>0.3847424952750509</v>
+      </c>
+      <c r="DJ119">
+        <v>0.2523452698770574</v>
+      </c>
+      <c r="DK119">
+        <v>-0.1792762830641941</v>
+      </c>
+      <c r="DL119">
+        <v>-0.3140207857278257</v>
+      </c>
+      <c r="DM119">
+        <v>0.3607178284786713</v>
+      </c>
+      <c r="DN119">
+        <v>0.5218781830314511</v>
+      </c>
+      <c r="DO119">
+        <v>0.3530389801663482</v>
+      </c>
+    </row>
+    <row r="120" spans="1:128">
+      <c r="A120" s="1">
+        <v>41730</v>
+      </c>
+      <c r="DG120">
+        <v>0.1971582984394383</v>
+      </c>
+      <c r="DH120">
+        <v>0.164144910068436</v>
+      </c>
+      <c r="DI120">
+        <v>0.3847424952750509</v>
+      </c>
+      <c r="DJ120">
+        <v>0.2523452698770574</v>
+      </c>
+      <c r="DK120">
+        <v>-0.1792762830641941</v>
+      </c>
+      <c r="DL120">
+        <v>-0.3140207857278257</v>
+      </c>
+      <c r="DM120">
+        <v>0.3607178284786713</v>
+      </c>
+      <c r="DN120">
+        <v>0.5218781830314511</v>
+      </c>
+      <c r="DO120">
+        <v>0.3530389801663482</v>
+      </c>
+      <c r="DP120">
+        <v>0.6008402187856887</v>
+      </c>
+    </row>
+    <row r="121" spans="1:128">
+      <c r="A121" s="1">
+        <v>41821</v>
+      </c>
+      <c r="DH121">
+        <v>0.164144910068436</v>
+      </c>
+      <c r="DI121">
+        <v>0.3847424952750509</v>
+      </c>
+      <c r="DJ121">
+        <v>0.2523452698770574</v>
+      </c>
+      <c r="DK121">
+        <v>-0.1792762830641941</v>
+      </c>
+      <c r="DL121">
+        <v>-0.3140207857278257</v>
+      </c>
+      <c r="DM121">
+        <v>0.3607178284786713</v>
+      </c>
+      <c r="DN121">
+        <v>0.5218781830314511</v>
+      </c>
+      <c r="DO121">
+        <v>0.3530389801663482</v>
+      </c>
+      <c r="DP121">
+        <v>0.6008402187856887</v>
+      </c>
+      <c r="DQ121">
+        <v>0.2529894957798157</v>
+      </c>
+    </row>
+    <row r="122" spans="1:128">
+      <c r="A122" s="1">
+        <v>41913</v>
+      </c>
+      <c r="DI122">
+        <v>0.3847424952750509</v>
+      </c>
+      <c r="DJ122">
+        <v>0.2523452698770574</v>
+      </c>
+      <c r="DK122">
+        <v>-0.1792762830641941</v>
+      </c>
+      <c r="DL122">
+        <v>-0.3140207857278257</v>
+      </c>
+      <c r="DM122">
+        <v>0.3607178284786713</v>
+      </c>
+      <c r="DN122">
+        <v>0.5218781830314511</v>
+      </c>
+      <c r="DO122">
+        <v>0.3530389801663482</v>
+      </c>
+      <c r="DP122">
+        <v>0.6008402187856887</v>
+      </c>
+      <c r="DQ122">
+        <v>0.2529894957798157</v>
+      </c>
+      <c r="DR122">
+        <v>-0.009426295769667317</v>
+      </c>
+    </row>
+    <row r="123" spans="1:128">
+      <c r="A123" s="1">
+        <v>42005</v>
+      </c>
+      <c r="DJ123">
+        <v>0.2523452698770574</v>
+      </c>
+      <c r="DK123">
+        <v>-0.1792762830641941</v>
+      </c>
+      <c r="DL123">
+        <v>-0.3140207857278257</v>
+      </c>
+      <c r="DM123">
+        <v>0.3607178284786713</v>
+      </c>
+      <c r="DN123">
+        <v>0.5218781830314511</v>
+      </c>
+      <c r="DO123">
+        <v>0.3530389801663482</v>
+      </c>
+      <c r="DP123">
+        <v>0.6008402187856887</v>
+      </c>
+      <c r="DQ123">
+        <v>0.2529894957798157</v>
+      </c>
+      <c r="DR123">
+        <v>-0.009426295769667317</v>
+      </c>
+      <c r="DS123">
+        <v>0.382964429842135</v>
+      </c>
+    </row>
+    <row r="124" spans="1:128">
+      <c r="A124" s="1">
+        <v>42095</v>
+      </c>
+      <c r="DK124">
+        <v>-0.1792762830641941</v>
+      </c>
+      <c r="DL124">
+        <v>-0.3140207857278257</v>
+      </c>
+      <c r="DM124">
+        <v>0.3607178284786713</v>
+      </c>
+      <c r="DN124">
+        <v>0.5218781830314511</v>
+      </c>
+      <c r="DO124">
+        <v>0.3530389801663482</v>
+      </c>
+      <c r="DP124">
+        <v>0.6008402187856887</v>
+      </c>
+      <c r="DQ124">
+        <v>0.2529894957798157</v>
+      </c>
+      <c r="DR124">
+        <v>-0.009426295769667317</v>
+      </c>
+      <c r="DS124">
+        <v>0.382964429842135</v>
+      </c>
+      <c r="DT124">
+        <v>0.4859989488113761</v>
+      </c>
+    </row>
+    <row r="125" spans="1:128">
+      <c r="A125" s="1">
+        <v>42186</v>
+      </c>
+      <c r="DL125">
+        <v>-0.3140207857278257</v>
+      </c>
+      <c r="DM125">
+        <v>0.3607178284786713</v>
+      </c>
+      <c r="DN125">
+        <v>0.5218781830314511</v>
+      </c>
+      <c r="DO125">
+        <v>0.3530389801663482</v>
+      </c>
+      <c r="DP125">
+        <v>0.6008402187856887</v>
+      </c>
+      <c r="DQ125">
+        <v>0.2529894957798157</v>
+      </c>
+      <c r="DR125">
+        <v>-0.009426295769667317</v>
+      </c>
+      <c r="DS125">
+        <v>0.382964429842135</v>
+      </c>
+      <c r="DT125">
+        <v>0.4859989488113761</v>
+      </c>
+      <c r="DU125">
+        <v>0.3925721303289792</v>
+      </c>
+    </row>
+    <row r="126" spans="1:128">
+      <c r="A126" s="1">
+        <v>42278</v>
+      </c>
+      <c r="DM126">
+        <v>0.3607178284786713</v>
+      </c>
+      <c r="DN126">
+        <v>0.5218781830314511</v>
+      </c>
+      <c r="DO126">
+        <v>0.3530389801663482</v>
+      </c>
+      <c r="DP126">
+        <v>0.6008402187856887</v>
+      </c>
+      <c r="DQ126">
+        <v>0.2529894957798157</v>
+      </c>
+      <c r="DR126">
+        <v>-0.009426295769667317</v>
+      </c>
+      <c r="DS126">
+        <v>0.382964429842135</v>
+      </c>
+      <c r="DT126">
+        <v>0.4859989488113761</v>
+      </c>
+      <c r="DU126">
+        <v>0.3925721303289792</v>
+      </c>
+      <c r="DV126">
+        <v>0.3772819159513079</v>
+      </c>
+    </row>
+    <row r="127" spans="1:128">
+      <c r="A127" s="1">
+        <v>42370</v>
+      </c>
+      <c r="DN127">
+        <v>0.5218781830314511</v>
+      </c>
+      <c r="DO127">
+        <v>0.3530389801663482</v>
+      </c>
+      <c r="DP127">
+        <v>0.6008402187856887</v>
+      </c>
+      <c r="DQ127">
+        <v>0.2529894957798157</v>
+      </c>
+      <c r="DR127">
+        <v>-0.009426295769667317</v>
+      </c>
+      <c r="DS127">
+        <v>0.382964429842135</v>
+      </c>
+      <c r="DT127">
+        <v>0.4859989488113761</v>
+      </c>
+      <c r="DU127">
+        <v>0.3925721303289792</v>
+      </c>
+      <c r="DV127">
+        <v>0.3772819159513079</v>
+      </c>
+      <c r="DW127">
+        <v>0.2737126832604646</v>
+      </c>
+    </row>
+    <row r="128" spans="1:128">
+      <c r="A128" s="1">
+        <v>42461</v>
+      </c>
+      <c r="DO128">
+        <v>0.3530389801663482</v>
+      </c>
+      <c r="DP128">
+        <v>0.6008402187856887</v>
+      </c>
+      <c r="DQ128">
+        <v>0.2529894957798157</v>
+      </c>
+      <c r="DR128">
+        <v>-0.009426295769667317</v>
+      </c>
+      <c r="DS128">
+        <v>0.382964429842135</v>
+      </c>
+      <c r="DT128">
+        <v>0.4859989488113761</v>
+      </c>
+      <c r="DU128">
+        <v>0.3925721303289792</v>
+      </c>
+      <c r="DV128">
+        <v>0.3772819159513079</v>
+      </c>
+      <c r="DW128">
+        <v>0.2737126832604646</v>
+      </c>
+      <c r="DX128">
+        <v>0.4670020369369805</v>
+      </c>
+    </row>
+    <row r="129" spans="1:144">
+      <c r="A129" s="1">
+        <v>42552</v>
+      </c>
+      <c r="DP129">
+        <v>0.6008402187856887</v>
+      </c>
+      <c r="DQ129">
+        <v>0.2529894957798157</v>
+      </c>
+      <c r="DR129">
+        <v>-0.009426295769667317</v>
+      </c>
+      <c r="DS129">
+        <v>0.382964429842135</v>
+      </c>
+      <c r="DT129">
+        <v>0.4859989488113761</v>
+      </c>
+      <c r="DU129">
+        <v>0.3925721303289792</v>
+      </c>
+      <c r="DV129">
+        <v>0.3772819159513079</v>
+      </c>
+      <c r="DW129">
+        <v>0.2737126832604646</v>
+      </c>
+      <c r="DX129">
+        <v>0.4670020369369805</v>
+      </c>
+      <c r="DY129">
+        <v>0.5599785102943742</v>
+      </c>
+    </row>
+    <row r="130" spans="1:144">
+      <c r="A130" s="1">
+        <v>42644</v>
+      </c>
+      <c r="DQ130">
+        <v>0.2529894957798157</v>
+      </c>
+      <c r="DR130">
+        <v>-0.009426295769667317</v>
+      </c>
+      <c r="DS130">
+        <v>0.382964429842135</v>
+      </c>
+      <c r="DT130">
+        <v>0.4859989488113761</v>
+      </c>
+      <c r="DU130">
+        <v>0.3925721303289792</v>
+      </c>
+      <c r="DV130">
+        <v>0.3772819159513079</v>
+      </c>
+      <c r="DW130">
+        <v>0.2737126832604646</v>
+      </c>
+      <c r="DX130">
+        <v>0.4670020369369805</v>
+      </c>
+      <c r="DY130">
+        <v>0.5599785102943742</v>
+      </c>
+      <c r="DZ130">
+        <v>0.3011971726376999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:144">
+      <c r="A131" s="1">
+        <v>42736</v>
+      </c>
+      <c r="DR131">
+        <v>-0.009426295769667317</v>
+      </c>
+      <c r="DS131">
+        <v>0.382964429842135</v>
+      </c>
+      <c r="DT131">
+        <v>0.4859989488113761</v>
+      </c>
+      <c r="DU131">
+        <v>0.3925721303289792</v>
+      </c>
+      <c r="DV131">
+        <v>0.3772819159513079</v>
+      </c>
+      <c r="DW131">
+        <v>0.2737126832604646</v>
+      </c>
+      <c r="DX131">
+        <v>0.4670020369369805</v>
+      </c>
+      <c r="DY131">
+        <v>0.5599785102943742</v>
+      </c>
+      <c r="DZ131">
+        <v>0.3011971726376999</v>
+      </c>
+      <c r="EA131">
+        <v>0.2816807417048267</v>
+      </c>
+    </row>
+    <row r="132" spans="1:144">
+      <c r="A132" s="1">
+        <v>42826</v>
+      </c>
+      <c r="DS132">
+        <v>0.382964429842135</v>
+      </c>
+      <c r="DT132">
+        <v>0.4859989488113761</v>
+      </c>
+      <c r="DU132">
+        <v>0.3925721303289792</v>
+      </c>
+      <c r="DV132">
+        <v>0.3772819159513079</v>
+      </c>
+      <c r="DW132">
+        <v>0.2737126832604646</v>
+      </c>
+      <c r="DX132">
+        <v>0.4670020369369805</v>
+      </c>
+      <c r="DY132">
+        <v>0.5599785102943742</v>
+      </c>
+      <c r="DZ132">
+        <v>0.3011971726376999</v>
+      </c>
+      <c r="EA132">
+        <v>0.2816807417048267</v>
+      </c>
+      <c r="EB132">
+        <v>0.5118111503608368</v>
+      </c>
+    </row>
+    <row r="133" spans="1:144">
+      <c r="A133" s="1">
+        <v>42917</v>
+      </c>
+      <c r="DT133">
+        <v>0.4859989488113761</v>
+      </c>
+      <c r="DU133">
+        <v>0.3925721303289792</v>
+      </c>
+      <c r="DV133">
+        <v>0.3772819159513079</v>
+      </c>
+      <c r="DW133">
+        <v>0.2737126832604646</v>
+      </c>
+      <c r="DX133">
+        <v>0.4670020369369805</v>
+      </c>
+      <c r="DY133">
+        <v>0.5599785102943742</v>
+      </c>
+      <c r="DZ133">
+        <v>0.3011971726376999</v>
+      </c>
+      <c r="EA133">
+        <v>0.2816807417048267</v>
+      </c>
+      <c r="EB133">
+        <v>0.5118111503608368</v>
+      </c>
+      <c r="EC133">
+        <v>0.6636359510343999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:144">
+      <c r="A134" s="1">
+        <v>43009</v>
+      </c>
+      <c r="DU134">
+        <v>0.3925721303289792</v>
+      </c>
+      <c r="DV134">
+        <v>0.3772819159513079</v>
+      </c>
+      <c r="DW134">
+        <v>0.2737126832604646</v>
+      </c>
+      <c r="DX134">
+        <v>0.4670020369369805</v>
+      </c>
+      <c r="DY134">
+        <v>0.5599785102943742</v>
+      </c>
+      <c r="DZ134">
+        <v>0.3011971726376999</v>
+      </c>
+      <c r="EA134">
+        <v>0.2816807417048267</v>
+      </c>
+      <c r="EB134">
+        <v>0.5118111503608368</v>
+      </c>
+      <c r="EC134">
+        <v>0.6636359510343999</v>
+      </c>
+      <c r="ED134">
+        <v>0.7286847193651798</v>
+      </c>
+    </row>
+    <row r="135" spans="1:144">
+      <c r="A135" s="1">
+        <v>43101</v>
+      </c>
+      <c r="DV135">
+        <v>0.3772819159513079</v>
+      </c>
+      <c r="DW135">
+        <v>0.2737126832604646</v>
+      </c>
+      <c r="DX135">
+        <v>0.4670020369369805</v>
+      </c>
+      <c r="DY135">
+        <v>0.5599785102943742</v>
+      </c>
+      <c r="DZ135">
+        <v>0.3011971726376999</v>
+      </c>
+      <c r="EA135">
+        <v>0.2816807417048267</v>
+      </c>
+      <c r="EB135">
+        <v>0.5118111503608368</v>
+      </c>
+      <c r="EC135">
+        <v>0.6636359510343999</v>
+      </c>
+      <c r="ED135">
+        <v>0.7286847193651798</v>
+      </c>
+      <c r="EE135">
+        <v>0.6712282563247641</v>
+      </c>
+    </row>
+    <row r="136" spans="1:144">
+      <c r="A136" s="1">
+        <v>43191</v>
+      </c>
+      <c r="DW136">
+        <v>0.2737126832604646</v>
+      </c>
+      <c r="DX136">
+        <v>0.4670020369369805</v>
+      </c>
+      <c r="DY136">
+        <v>0.5599785102943742</v>
+      </c>
+      <c r="DZ136">
+        <v>0.3011971726376999</v>
+      </c>
+      <c r="EA136">
+        <v>0.2816807417048267</v>
+      </c>
+      <c r="EB136">
+        <v>0.5118111503608368</v>
+      </c>
+      <c r="EC136">
+        <v>0.6636359510343999</v>
+      </c>
+      <c r="ED136">
+        <v>0.7286847193651798</v>
+      </c>
+      <c r="EE136">
+        <v>0.6712282563247641</v>
+      </c>
+      <c r="EF136">
+        <v>0.4521238400718821</v>
+      </c>
+    </row>
+    <row r="137" spans="1:144">
+      <c r="A137" s="1">
+        <v>43282</v>
+      </c>
+      <c r="DX137">
+        <v>0.4670020369369805</v>
+      </c>
+      <c r="DY137">
+        <v>0.5599785102943742</v>
+      </c>
+      <c r="DZ137">
+        <v>0.3011971726376999</v>
+      </c>
+      <c r="EA137">
+        <v>0.2816807417048267</v>
+      </c>
+      <c r="EB137">
+        <v>0.5118111503608368</v>
+      </c>
+      <c r="EC137">
+        <v>0.6636359510343999</v>
+      </c>
+      <c r="ED137">
+        <v>0.7286847193651798</v>
+      </c>
+      <c r="EE137">
+        <v>0.6712282563247641</v>
+      </c>
+      <c r="EF137">
+        <v>0.4521238400718821</v>
+      </c>
+      <c r="EG137">
+        <v>0.4088308827094236</v>
+      </c>
+    </row>
+    <row r="138" spans="1:144">
+      <c r="A138" s="1">
+        <v>43374</v>
+      </c>
+      <c r="DY138">
+        <v>0.5599785102943742</v>
+      </c>
+      <c r="DZ138">
+        <v>0.3011971726376999</v>
+      </c>
+      <c r="EA138">
+        <v>0.2816807417048267</v>
+      </c>
+      <c r="EB138">
+        <v>0.5118111503608368</v>
+      </c>
+      <c r="EC138">
+        <v>0.6636359510343999</v>
+      </c>
+      <c r="ED138">
+        <v>0.7286847193651798</v>
+      </c>
+      <c r="EE138">
+        <v>0.6712282563247641</v>
+      </c>
+      <c r="EF138">
+        <v>0.4521238400718821</v>
+      </c>
+      <c r="EG138">
+        <v>0.4088308827094236</v>
+      </c>
+      <c r="EH138">
+        <v>0.1263716786652638</v>
+      </c>
+    </row>
+    <row r="139" spans="1:144">
+      <c r="A139" s="1">
+        <v>43466</v>
+      </c>
+      <c r="DZ139">
+        <v>0.3011971726376999</v>
+      </c>
+      <c r="EA139">
+        <v>0.2816807417048267</v>
+      </c>
+      <c r="EB139">
+        <v>0.5118111503608368</v>
+      </c>
+      <c r="EC139">
+        <v>0.6636359510343999</v>
+      </c>
+      <c r="ED139">
+        <v>0.7286847193651798</v>
+      </c>
+      <c r="EE139">
+        <v>0.6712282563247641</v>
+      </c>
+      <c r="EF139">
+        <v>0.4521238400718821</v>
+      </c>
+      <c r="EG139">
+        <v>0.4088308827094236</v>
+      </c>
+      <c r="EH139">
+        <v>0.1263716786652638</v>
+      </c>
+      <c r="EI139">
+        <v>-0.09075041317066823</v>
+      </c>
+    </row>
+    <row r="140" spans="1:144">
+      <c r="A140" s="1">
+        <v>43556</v>
+      </c>
+      <c r="EA140">
+        <v>0.2816807417048267</v>
+      </c>
+      <c r="EB140">
+        <v>0.5118111503608368</v>
+      </c>
+      <c r="EC140">
+        <v>0.6636359510343999</v>
+      </c>
+      <c r="ED140">
+        <v>0.7286847193651798</v>
+      </c>
+      <c r="EE140">
+        <v>0.6712282563247641</v>
+      </c>
+      <c r="EF140">
+        <v>0.4521238400718821</v>
+      </c>
+      <c r="EG140">
+        <v>0.4088308827094236</v>
+      </c>
+      <c r="EH140">
+        <v>0.1263716786652638</v>
+      </c>
+      <c r="EI140">
+        <v>-0.09075041317066823</v>
+      </c>
+      <c r="EJ140">
+        <v>0.2208380811913595</v>
+      </c>
+    </row>
+    <row r="141" spans="1:144">
+      <c r="A141" s="1">
+        <v>43647</v>
+      </c>
+      <c r="EB141">
+        <v>0.5118111503608368</v>
+      </c>
+      <c r="EC141">
+        <v>0.6636359510343999</v>
+      </c>
+      <c r="ED141">
+        <v>0.7286847193651798</v>
+      </c>
+      <c r="EE141">
+        <v>0.6712282563247641</v>
+      </c>
+      <c r="EF141">
+        <v>0.4521238400718821</v>
+      </c>
+      <c r="EG141">
+        <v>0.4088308827094236</v>
+      </c>
+      <c r="EH141">
+        <v>0.1263716786652638</v>
+      </c>
+      <c r="EI141">
+        <v>-0.09075041317066823</v>
+      </c>
+      <c r="EJ141">
+        <v>0.2208380811913595</v>
+      </c>
+      <c r="EK141">
+        <v>0.1547826744344046</v>
+      </c>
+    </row>
+    <row r="142" spans="1:144">
+      <c r="A142" s="1">
+        <v>43739</v>
+      </c>
+      <c r="EC142">
+        <v>0.6636359510343999</v>
+      </c>
+      <c r="ED142">
+        <v>0.7286847193651798</v>
+      </c>
+      <c r="EE142">
+        <v>0.6712282563247641</v>
+      </c>
+      <c r="EF142">
+        <v>0.4521238400718821</v>
+      </c>
+      <c r="EG142">
+        <v>0.4088308827094236</v>
+      </c>
+      <c r="EH142">
+        <v>0.1263716786652638</v>
+      </c>
+      <c r="EI142">
+        <v>-0.09075041317066823</v>
+      </c>
+      <c r="EJ142">
+        <v>0.2208380811913595</v>
+      </c>
+      <c r="EK142">
+        <v>0.1547826744344046</v>
+      </c>
+      <c r="EL142">
+        <v>-0.07918898587295509</v>
+      </c>
+    </row>
+    <row r="143" spans="1:144">
+      <c r="A143" s="1">
+        <v>43831</v>
+      </c>
+      <c r="ED143">
+        <v>0.7286847193651798</v>
+      </c>
+      <c r="EE143">
+        <v>0.6712282563247641</v>
+      </c>
+      <c r="EF143">
+        <v>0.4521238400718821</v>
+      </c>
+      <c r="EG143">
+        <v>0.4088308827094236</v>
+      </c>
+      <c r="EH143">
+        <v>0.1263716786652638</v>
+      </c>
+      <c r="EI143">
+        <v>-0.09075041317066823</v>
+      </c>
+      <c r="EJ143">
+        <v>0.2208380811913595</v>
+      </c>
+      <c r="EK143">
+        <v>0.1547826744344046</v>
+      </c>
+      <c r="EL143">
+        <v>-0.07918898587295509</v>
+      </c>
+      <c r="EM143">
+        <v>0.1121744784509069</v>
+      </c>
+    </row>
+    <row r="144" spans="1:144">
+      <c r="A144" s="1">
+        <v>43922</v>
+      </c>
+      <c r="EE144">
+        <v>0.6712282563247641</v>
+      </c>
+      <c r="EF144">
+        <v>0.4521238400718821</v>
+      </c>
+      <c r="EG144">
+        <v>0.4088308827094236</v>
+      </c>
+      <c r="EH144">
+        <v>0.1263716786652638</v>
+      </c>
+      <c r="EI144">
+        <v>-0.09075041317066823</v>
+      </c>
+      <c r="EJ144">
+        <v>0.2208380811913595</v>
+      </c>
+      <c r="EK144">
+        <v>0.1547826744344046</v>
+      </c>
+      <c r="EL144">
+        <v>-0.07918898587295509</v>
+      </c>
+      <c r="EM144">
+        <v>0.1121744784509069</v>
+      </c>
+      <c r="EN144">
+        <v>-1.162195275599549</v>
+      </c>
+    </row>
+    <row r="145" spans="1:160">
+      <c r="A145" s="1">
+        <v>44013</v>
+      </c>
+      <c r="EF145">
+        <v>0.4521238400718821</v>
+      </c>
+      <c r="EG145">
+        <v>0.4088308827094236</v>
+      </c>
+      <c r="EH145">
+        <v>0.1263716786652638</v>
+      </c>
+      <c r="EI145">
+        <v>-0.09075041317066823</v>
+      </c>
+      <c r="EJ145">
+        <v>0.2208380811913595</v>
+      </c>
+      <c r="EK145">
+        <v>0.1547826744344046</v>
+      </c>
+      <c r="EL145">
+        <v>-0.07918898587295509</v>
+      </c>
+      <c r="EM145">
+        <v>0.1121744784509069</v>
+      </c>
+      <c r="EN145">
+        <v>-1.162195275599549</v>
+      </c>
+      <c r="EO145">
+        <v>-5.854824619268521</v>
+      </c>
+    </row>
+    <row r="146" spans="1:160">
+      <c r="A146" s="1">
+        <v>44105</v>
+      </c>
+      <c r="EG146">
+        <v>0.4088308827094236</v>
+      </c>
+      <c r="EH146">
+        <v>0.1263716786652638</v>
+      </c>
+      <c r="EI146">
+        <v>-0.09075041317066823</v>
+      </c>
+      <c r="EJ146">
+        <v>0.2208380811913595</v>
+      </c>
+      <c r="EK146">
+        <v>0.1547826744344046</v>
+      </c>
+      <c r="EL146">
+        <v>-0.07918898587295509</v>
+      </c>
+      <c r="EM146">
+        <v>0.1121744784509069</v>
+      </c>
+      <c r="EN146">
+        <v>-1.162195275599549</v>
+      </c>
+      <c r="EO146">
+        <v>-5.854824619268521</v>
+      </c>
+      <c r="EP146">
+        <v>-0.6564850592266236</v>
+      </c>
+    </row>
+    <row r="147" spans="1:160">
+      <c r="A147" s="1">
+        <v>44197</v>
+      </c>
+      <c r="EH147">
+        <v>0.1263716786652638</v>
+      </c>
+      <c r="EI147">
+        <v>-0.09075041317066823</v>
+      </c>
+      <c r="EJ147">
+        <v>0.2208380811913595</v>
+      </c>
+      <c r="EK147">
+        <v>0.1547826744344046</v>
+      </c>
+      <c r="EL147">
+        <v>-0.07918898587295509</v>
+      </c>
+      <c r="EM147">
+        <v>0.1121744784509069</v>
+      </c>
+      <c r="EN147">
+        <v>-1.162195275599549</v>
+      </c>
+      <c r="EO147">
+        <v>-5.854824619268521</v>
+      </c>
+      <c r="EP147">
+        <v>-0.6564850592266236</v>
+      </c>
+      <c r="EQ147">
+        <v>4.426309542805707</v>
+      </c>
+    </row>
+    <row r="148" spans="1:160">
+      <c r="A148" s="1">
+        <v>44287</v>
+      </c>
+      <c r="EI148">
+        <v>-0.09075041317066823</v>
+      </c>
+      <c r="EJ148">
+        <v>0.2208380811913595</v>
+      </c>
+      <c r="EK148">
+        <v>0.1547826744344046</v>
+      </c>
+      <c r="EL148">
+        <v>-0.07918898587295509</v>
+      </c>
+      <c r="EM148">
+        <v>0.1121744784509069</v>
+      </c>
+      <c r="EN148">
+        <v>-1.162195275599549</v>
+      </c>
+      <c r="EO148">
+        <v>-5.854824619268521</v>
+      </c>
+      <c r="EP148">
+        <v>-0.6564850592266236</v>
+      </c>
+      <c r="EQ148">
+        <v>4.426309542805707</v>
+      </c>
+      <c r="ER148">
+        <v>-0.6363230239575632</v>
+      </c>
+    </row>
+    <row r="149" spans="1:160">
+      <c r="A149" s="1">
+        <v>44378</v>
+      </c>
+      <c r="EJ149">
+        <v>0.2208380811913595</v>
+      </c>
+      <c r="EK149">
+        <v>0.1547826744344046</v>
+      </c>
+      <c r="EL149">
+        <v>-0.07918898587295509</v>
+      </c>
+      <c r="EM149">
+        <v>0.1121744784509069</v>
+      </c>
+      <c r="EN149">
+        <v>-1.162195275599549</v>
+      </c>
+      <c r="EO149">
+        <v>-5.854824619268521</v>
+      </c>
+      <c r="EP149">
+        <v>-0.6564850592266236</v>
+      </c>
+      <c r="EQ149">
+        <v>4.426309542805707</v>
+      </c>
+      <c r="ER149">
+        <v>-0.6363230239575632</v>
+      </c>
+      <c r="ES149">
+        <v>-0.184891410987573</v>
+      </c>
+    </row>
+    <row r="150" spans="1:160">
+      <c r="A150" s="1">
+        <v>44470</v>
+      </c>
+      <c r="EK150">
+        <v>0.1547826744344046</v>
+      </c>
+      <c r="EL150">
+        <v>-0.07918898587295509</v>
+      </c>
+      <c r="EM150">
+        <v>0.1121744784509069</v>
+      </c>
+      <c r="EN150">
+        <v>-1.162195275599549</v>
+      </c>
+      <c r="EO150">
+        <v>-5.854824619268521</v>
+      </c>
+      <c r="EP150">
+        <v>-0.6564850592266236</v>
+      </c>
+      <c r="EQ150">
+        <v>4.426309542805707</v>
+      </c>
+      <c r="ER150">
+        <v>-0.6363230239575632</v>
+      </c>
+      <c r="ES150">
+        <v>-0.184891410987573</v>
+      </c>
+      <c r="ET150">
+        <v>1.857875335772226</v>
+      </c>
+    </row>
+    <row r="151" spans="1:160">
+      <c r="A151" s="1">
+        <v>44562</v>
+      </c>
+      <c r="EL151">
+        <v>-0.07918898587295509</v>
+      </c>
+      <c r="EM151">
+        <v>0.1121744784509069</v>
+      </c>
+      <c r="EN151">
+        <v>-1.162195275599549</v>
+      </c>
+      <c r="EO151">
+        <v>-5.854824619268521</v>
+      </c>
+      <c r="EP151">
+        <v>-0.6564850592266236</v>
+      </c>
+      <c r="EQ151">
+        <v>4.426309542805707</v>
+      </c>
+      <c r="ER151">
+        <v>-0.6363230239575632</v>
+      </c>
+      <c r="ES151">
+        <v>-0.184891410987573</v>
+      </c>
+      <c r="ET151">
+        <v>1.857875335772226</v>
+      </c>
+      <c r="EU151">
+        <v>0.6611695376410593</v>
+      </c>
+    </row>
+    <row r="152" spans="1:160">
+      <c r="A152" s="1">
+        <v>44652</v>
+      </c>
+      <c r="EM152">
+        <v>0.1121744784509069</v>
+      </c>
+      <c r="EN152">
+        <v>-1.162195275599549</v>
+      </c>
+      <c r="EO152">
+        <v>-5.854824619268521</v>
+      </c>
+      <c r="EP152">
+        <v>-0.6564850592266236</v>
+      </c>
+      <c r="EQ152">
+        <v>4.426309542805707</v>
+      </c>
+      <c r="ER152">
+        <v>-0.6363230239575632</v>
+      </c>
+      <c r="ES152">
+        <v>-0.184891410987573</v>
+      </c>
+      <c r="ET152">
+        <v>1.857875335772226</v>
+      </c>
+      <c r="EU152">
+        <v>0.6611695376410593</v>
+      </c>
+      <c r="EV152">
+        <v>-0.05589237209497491</v>
+      </c>
+    </row>
+    <row r="153" spans="1:160">
+      <c r="A153" s="1">
+        <v>44743</v>
+      </c>
+      <c r="EN153">
+        <v>-1.162195275599549</v>
+      </c>
+      <c r="EO153">
+        <v>-5.854824619268521</v>
+      </c>
+      <c r="EP153">
+        <v>-0.6564850592266236</v>
+      </c>
+      <c r="EQ153">
+        <v>4.426309542805707</v>
+      </c>
+      <c r="ER153">
+        <v>-0.6363230239575632</v>
+      </c>
+      <c r="ES153">
+        <v>-0.184891410987573</v>
+      </c>
+      <c r="ET153">
+        <v>1.857875335772226</v>
+      </c>
+      <c r="EU153">
+        <v>0.6611695376410593</v>
+      </c>
+      <c r="EV153">
+        <v>-0.05589237209497491</v>
+      </c>
+      <c r="EW153">
+        <v>0.468925960670091</v>
+      </c>
+    </row>
+    <row r="154" spans="1:160">
+      <c r="A154" s="1">
+        <v>44835</v>
+      </c>
+      <c r="EO154">
+        <v>-5.854824619268521</v>
+      </c>
+      <c r="EP154">
+        <v>-0.6564850592266236</v>
+      </c>
+      <c r="EQ154">
+        <v>4.426309542805707</v>
+      </c>
+      <c r="ER154">
+        <v>-0.6363230239575632</v>
+      </c>
+      <c r="ES154">
+        <v>-0.184891410987573</v>
+      </c>
+      <c r="ET154">
+        <v>1.857875335772226</v>
+      </c>
+      <c r="EU154">
+        <v>0.6611695376410593</v>
+      </c>
+      <c r="EV154">
+        <v>-0.05589237209497491</v>
+      </c>
+      <c r="EW154">
+        <v>0.468925960670091</v>
+      </c>
+      <c r="EX154">
+        <v>0.2513087266968487</v>
+      </c>
+    </row>
+    <row r="155" spans="1:160">
+      <c r="A155" s="1">
         <v>44927</v>
       </c>
-      <c r="CY112">
+      <c r="EP155">
         <v>-0.6564850592266236</v>
       </c>
-      <c r="CZ112">
+      <c r="EQ155">
         <v>4.426309542805707</v>
       </c>
-      <c r="DA112">
+      <c r="ER155">
         <v>-0.6363230239575632</v>
       </c>
-      <c r="DB112">
+      <c r="ES155">
         <v>-0.184891410987573</v>
       </c>
-      <c r="DC112">
+      <c r="ET155">
         <v>1.857875335772226</v>
       </c>
-      <c r="DD112">
+      <c r="EU155">
         <v>0.6611695376410593</v>
       </c>
-      <c r="DE112">
+      <c r="EV155">
         <v>-0.05589237209497491</v>
       </c>
-      <c r="DF112">
+      <c r="EW155">
         <v>0.468925960670091</v>
       </c>
-      <c r="DG112">
+      <c r="EX155">
         <v>0.2513087266968487</v>
       </c>
-      <c r="DH112">
+      <c r="EY155">
         <v>0.01964454733300644</v>
       </c>
     </row>
-    <row r="113" spans="1:121">
-      <c r="A113" s="1">
+    <row r="156" spans="1:160">
+      <c r="A156" s="1">
         <v>45017</v>
       </c>
-      <c r="CZ113">
+      <c r="EQ156">
         <v>4.426309542805707</v>
       </c>
-      <c r="DA113">
+      <c r="ER156">
         <v>-0.6363230239575632</v>
       </c>
-      <c r="DB113">
+      <c r="ES156">
         <v>-0.184891410987573</v>
       </c>
-      <c r="DC113">
+      <c r="ET156">
         <v>1.857875335772226</v>
       </c>
-      <c r="DD113">
+      <c r="EU156">
         <v>0.6611695376410593</v>
       </c>
-      <c r="DE113">
+      <c r="EV156">
         <v>-0.05589237209497491</v>
       </c>
-      <c r="DF113">
+      <c r="EW156">
         <v>0.468925960670091</v>
       </c>
-      <c r="DG113">
+      <c r="EX156">
         <v>0.2513087266968487</v>
       </c>
-      <c r="DH113">
+      <c r="EY156">
         <v>0.01964454733300644</v>
       </c>
-      <c r="DI113">
+      <c r="EZ156">
         <v>-0.4362064995429919</v>
       </c>
     </row>
-    <row r="114" spans="1:121">
-      <c r="A114" s="1">
+    <row r="157" spans="1:160">
+      <c r="A157" s="1">
         <v>45108</v>
       </c>
-      <c r="DA114">
+      <c r="ER157">
         <v>-0.6363230239575632</v>
       </c>
-      <c r="DB114">
+      <c r="ES157">
         <v>-0.184891410987573</v>
       </c>
-      <c r="DC114">
+      <c r="ET157">
         <v>1.857875335772226</v>
       </c>
-      <c r="DD114">
+      <c r="EU157">
         <v>0.6611695376410593</v>
       </c>
-      <c r="DE114">
+      <c r="EV157">
         <v>-0.05589237209497491</v>
       </c>
-      <c r="DF114">
+      <c r="EW157">
         <v>0.468925960670091</v>
       </c>
-      <c r="DG114">
+      <c r="EX157">
         <v>0.2513087266968487</v>
       </c>
-      <c r="DH114">
+      <c r="EY157">
         <v>0.01964454733300644</v>
       </c>
-      <c r="DI114">
+      <c r="EZ157">
         <v>-0.4362064995429919</v>
       </c>
-      <c r="DJ114">
+      <c r="FA157">
         <v>-0.03707650669273283</v>
       </c>
     </row>
-    <row r="115" spans="1:121">
-      <c r="A115" s="1">
+    <row r="158" spans="1:160">
+      <c r="A158" s="1">
         <v>45200</v>
       </c>
-      <c r="DB115">
+      <c r="ES158">
         <v>-0.184891410987573</v>
       </c>
-      <c r="DC115">
+      <c r="ET158">
         <v>1.857875335772226</v>
       </c>
-      <c r="DD115">
+      <c r="EU158">
         <v>0.6611695376410593</v>
       </c>
-      <c r="DE115">
+      <c r="EV158">
         <v>-0.05589237209497491</v>
       </c>
-      <c r="DF115">
+      <c r="EW158">
         <v>0.468925960670091</v>
       </c>
-      <c r="DG115">
+      <c r="EX158">
         <v>0.2513087266968487</v>
       </c>
-      <c r="DH115">
+      <c r="EY158">
         <v>0.01964454733300644</v>
       </c>
-      <c r="DI115">
+      <c r="EZ158">
         <v>-0.4362064995429919</v>
       </c>
-      <c r="DJ115">
+      <c r="FA158">
         <v>-0.03707650669273283</v>
       </c>
-      <c r="DK115">
+      <c r="FB158">
         <v>0.004725767866679595</v>
       </c>
     </row>
-    <row r="116" spans="1:121">
-      <c r="A116" s="1">
+    <row r="159" spans="1:160">
+      <c r="A159" s="1">
         <v>45292</v>
       </c>
-      <c r="DC116">
+      <c r="ET159">
         <v>1.857875335772226</v>
       </c>
-      <c r="DD116">
+      <c r="EU159">
         <v>0.6611695376410593</v>
       </c>
-      <c r="DE116">
+      <c r="EV159">
         <v>-0.05589237209497491</v>
       </c>
-      <c r="DF116">
+      <c r="EW159">
         <v>0.468925960670091</v>
       </c>
-      <c r="DG116">
+      <c r="EX159">
         <v>0.2513087266968487</v>
       </c>
-      <c r="DH116">
+      <c r="EY159">
         <v>0.01964454733300644</v>
       </c>
-      <c r="DI116">
+      <c r="EZ159">
         <v>-0.4362064995429919</v>
       </c>
-      <c r="DJ116">
+      <c r="FA159">
         <v>-0.03707650669273283</v>
       </c>
-      <c r="DK116">
+      <c r="FB159">
         <v>0.004725767866679595</v>
       </c>
-      <c r="DL116">
+      <c r="FC159">
         <v>-0.1481614381304136</v>
       </c>
     </row>
-    <row r="117" spans="1:121">
-      <c r="A117" s="1">
+    <row r="160" spans="1:160">
+      <c r="A160" s="1">
         <v>45383</v>
       </c>
-      <c r="DD117">
+      <c r="EU160">
         <v>0.6611695376410593</v>
       </c>
-      <c r="DE117">
+      <c r="EV160">
         <v>-0.05589237209497491</v>
       </c>
-      <c r="DF117">
+      <c r="EW160">
         <v>0.468925960670091</v>
       </c>
-      <c r="DG117">
+      <c r="EX160">
         <v>0.2513087266968487</v>
       </c>
-      <c r="DH117">
+      <c r="EY160">
         <v>0.01964454733300644</v>
       </c>
-      <c r="DI117">
+      <c r="EZ160">
         <v>-0.4362064995429919</v>
       </c>
-      <c r="DJ117">
+      <c r="FA160">
         <v>-0.03707650669273283</v>
       </c>
-      <c r="DK117">
+      <c r="FB160">
         <v>0.004725767866679595</v>
       </c>
-      <c r="DL117">
+      <c r="FC160">
         <v>-0.1481614381304136</v>
       </c>
-      <c r="DM117">
+      <c r="FD160">
         <v>-0.1426938562495702</v>
       </c>
     </row>
-    <row r="118" spans="1:121">
-      <c r="A118" s="1">
+    <row r="161" spans="1:164">
+      <c r="A161" s="1">
         <v>45474</v>
       </c>
-      <c r="DE118">
+      <c r="EV161">
         <v>-0.05589237209497491</v>
       </c>
-      <c r="DF118">
+      <c r="EW161">
         <v>0.468925960670091</v>
       </c>
-      <c r="DG118">
+      <c r="EX161">
         <v>0.2513087266968487</v>
       </c>
-      <c r="DH118">
+      <c r="EY161">
         <v>0.01964454733300644</v>
       </c>
-      <c r="DI118">
+      <c r="EZ161">
         <v>-0.4362064995429919</v>
       </c>
-      <c r="DJ118">
+      <c r="FA161">
         <v>-0.03707650669273283</v>
       </c>
-      <c r="DK118">
+      <c r="FB161">
         <v>0.004725767866679595</v>
       </c>
-      <c r="DL118">
+      <c r="FC161">
         <v>-0.1481614381304136</v>
       </c>
-      <c r="DM118">
+      <c r="FD161">
         <v>-0.1426938562495702</v>
       </c>
-      <c r="DN118">
+      <c r="FE161">
         <v>0.08133076613059367</v>
       </c>
     </row>
-    <row r="119" spans="1:121">
-      <c r="A119" s="1">
+    <row r="162" spans="1:164">
+      <c r="A162" s="1">
         <v>45566</v>
       </c>
-      <c r="DF119">
+      <c r="EW162">
         <v>0.468925960670091</v>
       </c>
-      <c r="DG119">
+      <c r="EX162">
         <v>0.2513087266968487</v>
       </c>
-      <c r="DH119">
+      <c r="EY162">
         <v>0.01964454733300644</v>
       </c>
-      <c r="DI119">
+      <c r="EZ162">
         <v>-0.4362064995429919</v>
       </c>
-      <c r="DJ119">
+      <c r="FA162">
         <v>-0.03707650669273283</v>
       </c>
-      <c r="DK119">
+      <c r="FB162">
         <v>0.004725767866679595</v>
       </c>
-      <c r="DL119">
+      <c r="FC162">
         <v>-0.1481614381304136</v>
       </c>
-      <c r="DM119">
+      <c r="FD162">
         <v>-0.1426938562495702</v>
       </c>
-      <c r="DN119">
+      <c r="FE162">
         <v>0.08133076613059367</v>
       </c>
-      <c r="DO119">
+      <c r="FF162">
         <v>-0.090455108035048</v>
       </c>
     </row>
-    <row r="120" spans="1:121">
-      <c r="A120" s="1">
+    <row r="163" spans="1:164">
+      <c r="A163" s="1">
         <v>45658</v>
       </c>
-      <c r="DG120">
+      <c r="EX163">
         <v>0.2513087266968487</v>
       </c>
-      <c r="DH120">
+      <c r="EY163">
         <v>0.01964454733300644</v>
       </c>
-      <c r="DI120">
+      <c r="EZ163">
         <v>-0.4362064995429919</v>
       </c>
-      <c r="DJ120">
+      <c r="FA163">
         <v>-0.03707650669273283</v>
       </c>
-      <c r="DK120">
+      <c r="FB163">
         <v>0.004725767866679595</v>
       </c>
-      <c r="DL120">
+      <c r="FC163">
         <v>-0.1481614381304136</v>
       </c>
-      <c r="DM120">
+      <c r="FD163">
         <v>-0.1426938562495702</v>
       </c>
-      <c r="DN120">
+      <c r="FE163">
         <v>0.08133076613059367</v>
       </c>
-      <c r="DO120">
+      <c r="FF163">
         <v>-0.090455108035048</v>
       </c>
-      <c r="DP120">
+      <c r="FG163">
         <v>-0.04771845303911565</v>
       </c>
     </row>
-    <row r="121" spans="1:121">
-      <c r="A121" s="1">
+    <row r="164" spans="1:164">
+      <c r="A164" s="1">
         <v>45748</v>
       </c>
-      <c r="DH121">
+      <c r="EY164">
         <v>0.01964454733300644</v>
       </c>
-      <c r="DI121">
+      <c r="EZ164">
         <v>-0.4362064995429919</v>
       </c>
-      <c r="DJ121">
+      <c r="FA164">
         <v>-0.03707650669273283</v>
       </c>
-      <c r="DK121">
+      <c r="FB164">
         <v>0.004725767866679595</v>
       </c>
-      <c r="DL121">
+      <c r="FC164">
         <v>-0.1481614381304136</v>
       </c>
-      <c r="DM121">
+      <c r="FD164">
         <v>-0.1426938562495702</v>
       </c>
-      <c r="DN121">
+      <c r="FE164">
         <v>0.08133076613059367</v>
       </c>
-      <c r="DO121">
+      <c r="FF164">
         <v>-0.090455108035048</v>
       </c>
-      <c r="DP121">
+      <c r="FG164">
         <v>-0.04771845303911565</v>
       </c>
-      <c r="DQ121">
+      <c r="FH164">
         <v>0.1055152534313617</v>
       </c>
     </row>
-    <row r="122" spans="1:121">
-      <c r="A122" s="1">
+    <row r="165" spans="1:164">
+      <c r="A165" s="1">
         <v>45839</v>
       </c>
-      <c r="DI122">
+      <c r="EZ165">
         <v>-0.4362064995429919</v>
       </c>
-      <c r="DJ122">
+      <c r="FA165">
         <v>-0.03707650669273283</v>
       </c>
-      <c r="DK122">
+      <c r="FB165">
         <v>0.004725767866679595</v>
       </c>
-      <c r="DL122">
+      <c r="FC165">
         <v>-0.1481614381304136</v>
       </c>
-      <c r="DM122">
+      <c r="FD165">
         <v>-0.1426938562495702</v>
       </c>
-      <c r="DN122">
+      <c r="FE165">
         <v>0.08133076613059367</v>
       </c>
-      <c r="DO122">
+      <c r="FF165">
         <v>-0.090455108035048</v>
       </c>
-      <c r="DP122">
+      <c r="FG165">
         <v>-0.04771845303911565</v>
       </c>
-      <c r="DQ122">
+      <c r="FH165">
         <v>0.1055152534313617</v>
       </c>
     </row>
-    <row r="123" spans="1:121">
-      <c r="A123" s="1">
+    <row r="166" spans="1:164">
+      <c r="A166" s="1">
         <v>45931</v>
       </c>
-      <c r="DJ123">
+      <c r="FA166">
         <v>-0.03707650669273283</v>
       </c>
-      <c r="DK123">
+      <c r="FB166">
         <v>0.004725767866679595</v>
       </c>
-      <c r="DL123">
+      <c r="FC166">
         <v>-0.1481614381304136</v>
       </c>
-      <c r="DM123">
+      <c r="FD166">
         <v>-0.1426938562495702</v>
       </c>
-      <c r="DN123">
+      <c r="FE166">
         <v>0.08133076613059367</v>
       </c>
-      <c r="DO123">
+      <c r="FF166">
         <v>-0.090455108035048</v>
       </c>
-      <c r="DP123">
+      <c r="FG166">
         <v>-0.04771845303911565</v>
       </c>
-      <c r="DQ123">
+      <c r="FH166">
         <v>0.1055152534313617</v>
       </c>
     </row>
-    <row r="124" spans="1:121">
-      <c r="A124" s="1">
+    <row r="167" spans="1:164">
+      <c r="A167" s="1">
         <v>46023</v>
       </c>
-      <c r="DK124">
+      <c r="FB167">
         <v>0.004725767866679595</v>
       </c>
-      <c r="DL124">
+      <c r="FC167">
         <v>-0.1481614381304136</v>
       </c>
-      <c r="DM124">
+      <c r="FD167">
         <v>-0.1426938562495702</v>
       </c>
-      <c r="DN124">
+      <c r="FE167">
         <v>0.08133076613059367</v>
       </c>
-      <c r="DO124">
+      <c r="FF167">
         <v>-0.090455108035048</v>
       </c>
-      <c r="DP124">
+      <c r="FG167">
         <v>-0.04771845303911565</v>
       </c>
-      <c r="DQ124">
+      <c r="FH167">
         <v>0.1055152534313617</v>
       </c>
     </row>
-    <row r="125" spans="1:121">
-      <c r="A125" s="1">
+    <row r="168" spans="1:164">
+      <c r="A168" s="1">
         <v>46113</v>
       </c>
-      <c r="DL125">
+      <c r="FC168">
         <v>-0.1481614381304136</v>
       </c>
-      <c r="DM125">
+      <c r="FD168">
         <v>-0.1426938562495702</v>
       </c>
-      <c r="DN125">
+      <c r="FE168">
         <v>0.08133076613059367</v>
       </c>
-      <c r="DO125">
+      <c r="FF168">
         <v>-0.090455108035048</v>
       </c>
-      <c r="DP125">
+      <c r="FG168">
         <v>-0.04771845303911565</v>
       </c>
-      <c r="DQ125">
+      <c r="FH168">
         <v>0.1055152534313617</v>
       </c>
     </row>
-    <row r="126" spans="1:121">
-      <c r="A126" s="1">
+    <row r="169" spans="1:164">
+      <c r="A169" s="1">
         <v>46204</v>
       </c>
-      <c r="DM126">
+      <c r="FD169">
         <v>-0.1426938562495702</v>
       </c>
-      <c r="DN126">
+      <c r="FE169">
         <v>0.08133076613059367</v>
       </c>
-      <c r="DO126">
+      <c r="FF169">
         <v>-0.090455108035048</v>
       </c>
-      <c r="DP126">
+      <c r="FG169">
         <v>-0.04771845303911565</v>
       </c>
-      <c r="DQ126">
+      <c r="FH169">
         <v>0.1055152534313617</v>
       </c>
     </row>
-    <row r="127" spans="1:121">
-      <c r="A127" s="1">
+    <row r="170" spans="1:164">
+      <c r="A170" s="1">
         <v>46296</v>
       </c>
-      <c r="DN127">
+      <c r="FE170">
         <v>0.08133076613059367</v>
       </c>
-      <c r="DO127">
+      <c r="FF170">
         <v>-0.090455108035048</v>
       </c>
-      <c r="DP127">
+      <c r="FG170">
         <v>-0.04771845303911565</v>
       </c>
-      <c r="DQ127">
+      <c r="FH170">
         <v>0.1055152534313617</v>
       </c>
     </row>
-    <row r="128" spans="1:121">
-      <c r="A128" s="1">
+    <row r="171" spans="1:164">
+      <c r="A171" s="1">
         <v>46388</v>
       </c>
-      <c r="DO128">
+      <c r="FF171">
         <v>-0.090455108035048</v>
       </c>
-      <c r="DP128">
+      <c r="FG171">
         <v>-0.04771845303911565</v>
       </c>
-      <c r="DQ128">
+      <c r="FH171">
         <v>0.1055152534313617</v>
       </c>
     </row>
-    <row r="129" spans="1:121">
-      <c r="A129" s="1">
+    <row r="172" spans="1:164">
+      <c r="A172" s="1">
         <v>46478</v>
       </c>
-      <c r="DP129">
+      <c r="FG172">
         <v>-0.04771845303911565</v>
       </c>
-      <c r="DQ129">
+      <c r="FH172">
         <v>0.1055152534313617</v>
       </c>
     </row>
-    <row r="130" spans="1:121">
-      <c r="A130" s="1">
+    <row r="173" spans="1:164">
+      <c r="A173" s="1">
         <v>46569</v>
       </c>
-      <c r="DQ130">
+      <c r="FH173">
         <v>0.1055152534313617</v>
       </c>
     </row>

--- a/0_1_Output_Data/3_QoQ_Forecast_Tables/naive_qoq_forecasts_AVERAGE_2_9.xlsx
+++ b/0_1_Output_Data/3_QoQ_Forecast_Tables/naive_qoq_forecasts_AVERAGE_2_9.xlsx
@@ -369,6250 +369,5642 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FH173"/>
+  <dimension ref="A1:ER157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:164">
+    <row r="1" spans="1:148">
       <c r="B1" s="1">
-        <v>30956</v>
+        <v>32417</v>
       </c>
       <c r="C1" s="1">
-        <v>31048</v>
+        <v>32509</v>
       </c>
       <c r="D1" s="1">
-        <v>31138</v>
+        <v>32599</v>
       </c>
       <c r="E1" s="1">
-        <v>31229</v>
+        <v>32690</v>
       </c>
       <c r="F1" s="1">
-        <v>31321</v>
+        <v>32782</v>
       </c>
       <c r="G1" s="1">
-        <v>31413</v>
+        <v>32874</v>
       </c>
       <c r="H1" s="1">
-        <v>31503</v>
+        <v>32964</v>
       </c>
       <c r="I1" s="1">
-        <v>31594</v>
+        <v>33055</v>
       </c>
       <c r="J1" s="1">
-        <v>31686</v>
+        <v>33147</v>
       </c>
       <c r="K1" s="1">
-        <v>31778</v>
+        <v>33239</v>
       </c>
       <c r="L1" s="1">
-        <v>31868</v>
+        <v>33329</v>
       </c>
       <c r="M1" s="1">
-        <v>31959</v>
+        <v>33420</v>
       </c>
       <c r="N1" s="1">
-        <v>32051</v>
+        <v>33512</v>
       </c>
       <c r="O1" s="1">
-        <v>32143</v>
+        <v>33604</v>
       </c>
       <c r="P1" s="1">
-        <v>32234</v>
+        <v>33695</v>
       </c>
       <c r="Q1" s="1">
-        <v>32325</v>
+        <v>33786</v>
       </c>
       <c r="R1" s="1">
+        <v>33878</v>
+      </c>
+      <c r="S1" s="1">
+        <v>33970</v>
+      </c>
+      <c r="T1" s="1">
+        <v>34060</v>
+      </c>
+      <c r="U1" s="1">
+        <v>34151</v>
+      </c>
+      <c r="V1" s="1">
+        <v>34243</v>
+      </c>
+      <c r="W1" s="1">
+        <v>34335</v>
+      </c>
+      <c r="X1" s="1">
+        <v>34425</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>34516</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>34608</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>34700</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>34790</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>34881</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>34973</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>35065</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>35156</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>35247</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>35339</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>35431</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>35521</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>35612</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>35704</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>35796</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>35886</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>35977</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>36069</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>36161</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>36251</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>36342</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>36434</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>36526</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>36617</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>36708</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>36800</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>36892</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>36982</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>37073</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>37165</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>37257</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>37347</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>37438</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>37530</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>37622</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>37712</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>37803</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>37895</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>37987</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>38078</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>38169</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>38261</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>38353</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>38443</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>38534</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>38626</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>38718</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>38808</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>38899</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>38991</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>39083</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>39173</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>39264</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>39356</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>39448</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>39539</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>39630</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>39722</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>39814</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>39904</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>39995</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>40087</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>40179</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>40269</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>40360</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>40452</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>40544</v>
+      </c>
+      <c r="CN1" s="1">
+        <v>40634</v>
+      </c>
+      <c r="CO1" s="1">
+        <v>40725</v>
+      </c>
+      <c r="CP1" s="1">
+        <v>40817</v>
+      </c>
+      <c r="CQ1" s="1">
+        <v>40909</v>
+      </c>
+      <c r="CR1" s="1">
+        <v>41000</v>
+      </c>
+      <c r="CS1" s="1">
+        <v>41091</v>
+      </c>
+      <c r="CT1" s="1">
+        <v>41183</v>
+      </c>
+      <c r="CU1" s="1">
+        <v>41275</v>
+      </c>
+      <c r="CV1" s="1">
+        <v>41365</v>
+      </c>
+      <c r="CW1" s="1">
+        <v>41456</v>
+      </c>
+      <c r="CX1" s="1">
+        <v>41548</v>
+      </c>
+      <c r="CY1" s="1">
+        <v>41640</v>
+      </c>
+      <c r="CZ1" s="1">
+        <v>41730</v>
+      </c>
+      <c r="DA1" s="1">
+        <v>41821</v>
+      </c>
+      <c r="DB1" s="1">
+        <v>41913</v>
+      </c>
+      <c r="DC1" s="1">
+        <v>42005</v>
+      </c>
+      <c r="DD1" s="1">
+        <v>42095</v>
+      </c>
+      <c r="DE1" s="1">
+        <v>42186</v>
+      </c>
+      <c r="DF1" s="1">
+        <v>42278</v>
+      </c>
+      <c r="DG1" s="1">
+        <v>42370</v>
+      </c>
+      <c r="DH1" s="1">
+        <v>42461</v>
+      </c>
+      <c r="DI1" s="1">
+        <v>42552</v>
+      </c>
+      <c r="DJ1" s="1">
+        <v>42644</v>
+      </c>
+      <c r="DK1" s="1">
+        <v>42736</v>
+      </c>
+      <c r="DL1" s="1">
+        <v>42826</v>
+      </c>
+      <c r="DM1" s="1">
+        <v>42917</v>
+      </c>
+      <c r="DN1" s="1">
+        <v>43009</v>
+      </c>
+      <c r="DO1" s="1">
+        <v>43101</v>
+      </c>
+      <c r="DP1" s="1">
+        <v>43191</v>
+      </c>
+      <c r="DQ1" s="1">
+        <v>43282</v>
+      </c>
+      <c r="DR1" s="1">
+        <v>43374</v>
+      </c>
+      <c r="DS1" s="1">
+        <v>43466</v>
+      </c>
+      <c r="DT1" s="1">
+        <v>43556</v>
+      </c>
+      <c r="DU1" s="1">
+        <v>43647</v>
+      </c>
+      <c r="DV1" s="1">
+        <v>43739</v>
+      </c>
+      <c r="DW1" s="1">
+        <v>43831</v>
+      </c>
+      <c r="DX1" s="1">
+        <v>43922</v>
+      </c>
+      <c r="DY1" s="1">
+        <v>44013</v>
+      </c>
+      <c r="DZ1" s="1">
+        <v>44105</v>
+      </c>
+      <c r="EA1" s="1">
+        <v>44197</v>
+      </c>
+      <c r="EB1" s="1">
+        <v>44287</v>
+      </c>
+      <c r="EC1" s="1">
+        <v>44378</v>
+      </c>
+      <c r="ED1" s="1">
+        <v>44470</v>
+      </c>
+      <c r="EE1" s="1">
+        <v>44562</v>
+      </c>
+      <c r="EF1" s="1">
+        <v>44652</v>
+      </c>
+      <c r="EG1" s="1">
+        <v>44743</v>
+      </c>
+      <c r="EH1" s="1">
+        <v>44835</v>
+      </c>
+      <c r="EI1" s="1">
+        <v>44927</v>
+      </c>
+      <c r="EJ1" s="1">
+        <v>45017</v>
+      </c>
+      <c r="EK1" s="1">
+        <v>45108</v>
+      </c>
+      <c r="EL1" s="1">
+        <v>45200</v>
+      </c>
+      <c r="EM1" s="1">
+        <v>45292</v>
+      </c>
+      <c r="EN1" s="1">
+        <v>45383</v>
+      </c>
+      <c r="EO1" s="1">
+        <v>45474</v>
+      </c>
+      <c r="EP1" s="1">
+        <v>45566</v>
+      </c>
+      <c r="EQ1" s="1">
+        <v>45658</v>
+      </c>
+      <c r="ER1" s="1">
+        <v>45748</v>
+      </c>
+    </row>
+    <row r="2" spans="1:148">
+      <c r="A2" s="1">
         <v>32417</v>
       </c>
-      <c r="S1" s="1">
+      <c r="B2">
+        <v>1.459120121774803</v>
+      </c>
+    </row>
+    <row r="3" spans="1:148">
+      <c r="A3" s="1">
         <v>32509</v>
       </c>
-      <c r="T1" s="1">
+      <c r="B3">
+        <v>1.459120121774803</v>
+      </c>
+      <c r="C3">
+        <v>1.149335244070199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:148">
+      <c r="A4" s="1">
         <v>32599</v>
       </c>
-      <c r="U1" s="1">
+      <c r="B4">
+        <v>1.459120121774803</v>
+      </c>
+      <c r="C4">
+        <v>1.149335244070199</v>
+      </c>
+      <c r="D4">
+        <v>1.112885384698548</v>
+      </c>
+    </row>
+    <row r="5" spans="1:148">
+      <c r="A5" s="1">
         <v>32690</v>
       </c>
-      <c r="V1" s="1">
+      <c r="B5">
+        <v>1.459120121774803</v>
+      </c>
+      <c r="C5">
+        <v>1.149335244070199</v>
+      </c>
+      <c r="D5">
+        <v>1.112885384698548</v>
+      </c>
+      <c r="E5">
+        <v>0.7190387869321904</v>
+      </c>
+    </row>
+    <row r="6" spans="1:148">
+      <c r="A6" s="1">
         <v>32782</v>
       </c>
-      <c r="W1" s="1">
+      <c r="B6">
+        <v>1.459120121774803</v>
+      </c>
+      <c r="C6">
+        <v>1.149335244070199</v>
+      </c>
+      <c r="D6">
+        <v>1.112885384698548</v>
+      </c>
+      <c r="E6">
+        <v>0.7190387869321904</v>
+      </c>
+      <c r="F6">
+        <v>0.656455240936323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:148">
+      <c r="A7" s="1">
         <v>32874</v>
       </c>
-      <c r="X1" s="1">
+      <c r="B7">
+        <v>1.459120121774803</v>
+      </c>
+      <c r="C7">
+        <v>1.149335244070199</v>
+      </c>
+      <c r="D7">
+        <v>1.112885384698548</v>
+      </c>
+      <c r="E7">
+        <v>0.7190387869321904</v>
+      </c>
+      <c r="F7">
+        <v>0.656455240936323</v>
+      </c>
+      <c r="G7">
+        <v>1.037367074856591</v>
+      </c>
+    </row>
+    <row r="8" spans="1:148">
+      <c r="A8" s="1">
         <v>32964</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="B8">
+        <v>1.459120121774803</v>
+      </c>
+      <c r="C8">
+        <v>1.149335244070199</v>
+      </c>
+      <c r="D8">
+        <v>1.112885384698548</v>
+      </c>
+      <c r="E8">
+        <v>0.7190387869321904</v>
+      </c>
+      <c r="F8">
+        <v>0.656455240936323</v>
+      </c>
+      <c r="G8">
+        <v>1.037367074856591</v>
+      </c>
+      <c r="H8">
+        <v>1.6239608106008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:148">
+      <c r="A9" s="1">
         <v>33055</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="B9">
+        <v>1.459120121774803</v>
+      </c>
+      <c r="C9">
+        <v>1.149335244070199</v>
+      </c>
+      <c r="D9">
+        <v>1.112885384698548</v>
+      </c>
+      <c r="E9">
+        <v>0.7190387869321904</v>
+      </c>
+      <c r="F9">
+        <v>0.656455240936323</v>
+      </c>
+      <c r="G9">
+        <v>1.037367074856591</v>
+      </c>
+      <c r="H9">
+        <v>1.6239608106008</v>
+      </c>
+      <c r="I9">
+        <v>1.279401957875106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:148">
+      <c r="A10" s="1">
         <v>33147</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="B10">
+        <v>1.459120121774803</v>
+      </c>
+      <c r="C10">
+        <v>1.149335244070199</v>
+      </c>
+      <c r="D10">
+        <v>1.112885384698548</v>
+      </c>
+      <c r="E10">
+        <v>0.7190387869321904</v>
+      </c>
+      <c r="F10">
+        <v>0.656455240936323</v>
+      </c>
+      <c r="G10">
+        <v>1.037367074856591</v>
+      </c>
+      <c r="H10">
+        <v>1.6239608106008</v>
+      </c>
+      <c r="I10">
+        <v>1.279401957875106</v>
+      </c>
+      <c r="J10">
+        <v>1.29869678336902</v>
+      </c>
+    </row>
+    <row r="11" spans="1:148">
+      <c r="A11" s="1">
         <v>33239</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="B11">
+        <v>1.459120121774803</v>
+      </c>
+      <c r="C11">
+        <v>1.149335244070199</v>
+      </c>
+      <c r="D11">
+        <v>1.112885384698548</v>
+      </c>
+      <c r="E11">
+        <v>0.7190387869321904</v>
+      </c>
+      <c r="F11">
+        <v>0.656455240936323</v>
+      </c>
+      <c r="G11">
+        <v>1.037367074856591</v>
+      </c>
+      <c r="H11">
+        <v>1.6239608106008</v>
+      </c>
+      <c r="I11">
+        <v>1.279401957875106</v>
+      </c>
+      <c r="J11">
+        <v>1.29869678336902</v>
+      </c>
+      <c r="K11">
+        <v>1.942650350757789</v>
+      </c>
+    </row>
+    <row r="12" spans="1:148">
+      <c r="A12" s="1">
         <v>33329</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="C12">
+        <v>1.149335244070199</v>
+      </c>
+      <c r="D12">
+        <v>1.112885384698548</v>
+      </c>
+      <c r="E12">
+        <v>0.7190387869321904</v>
+      </c>
+      <c r="F12">
+        <v>0.656455240936323</v>
+      </c>
+      <c r="G12">
+        <v>1.037367074856591</v>
+      </c>
+      <c r="H12">
+        <v>1.6239608106008</v>
+      </c>
+      <c r="I12">
+        <v>1.279401957875106</v>
+      </c>
+      <c r="J12">
+        <v>1.29869678336902</v>
+      </c>
+      <c r="K12">
+        <v>1.942650350757789</v>
+      </c>
+      <c r="L12">
+        <v>2.26573504336867</v>
+      </c>
+    </row>
+    <row r="13" spans="1:148">
+      <c r="A13" s="1">
         <v>33420</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="D13">
+        <v>1.112885384698548</v>
+      </c>
+      <c r="E13">
+        <v>0.7190387869321904</v>
+      </c>
+      <c r="F13">
+        <v>0.656455240936323</v>
+      </c>
+      <c r="G13">
+        <v>1.037367074856591</v>
+      </c>
+      <c r="H13">
+        <v>1.6239608106008</v>
+      </c>
+      <c r="I13">
+        <v>1.279401957875106</v>
+      </c>
+      <c r="J13">
+        <v>1.29869678336902</v>
+      </c>
+      <c r="K13">
+        <v>1.942650350757789</v>
+      </c>
+      <c r="L13">
+        <v>2.26573504336867</v>
+      </c>
+      <c r="M13">
+        <v>1.93601879129671</v>
+      </c>
+    </row>
+    <row r="14" spans="1:148">
+      <c r="A14" s="1">
         <v>33512</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="E14">
+        <v>0.7190387869321904</v>
+      </c>
+      <c r="F14">
+        <v>0.656455240936323</v>
+      </c>
+      <c r="G14">
+        <v>1.037367074856591</v>
+      </c>
+      <c r="H14">
+        <v>1.6239608106008</v>
+      </c>
+      <c r="I14">
+        <v>1.279401957875106</v>
+      </c>
+      <c r="J14">
+        <v>1.29869678336902</v>
+      </c>
+      <c r="K14">
+        <v>1.942650350757789</v>
+      </c>
+      <c r="L14">
+        <v>2.26573504336867</v>
+      </c>
+      <c r="M14">
+        <v>1.93601879129671</v>
+      </c>
+      <c r="N14">
+        <v>0.2570734528201862</v>
+      </c>
+    </row>
+    <row r="15" spans="1:148">
+      <c r="A15" s="1">
         <v>33604</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="F15">
+        <v>0.656455240936323</v>
+      </c>
+      <c r="G15">
+        <v>1.037367074856591</v>
+      </c>
+      <c r="H15">
+        <v>1.6239608106008</v>
+      </c>
+      <c r="I15">
+        <v>1.279401957875106</v>
+      </c>
+      <c r="J15">
+        <v>1.29869678336902</v>
+      </c>
+      <c r="K15">
+        <v>1.942650350757789</v>
+      </c>
+      <c r="L15">
+        <v>2.26573504336867</v>
+      </c>
+      <c r="M15">
+        <v>1.93601879129671</v>
+      </c>
+      <c r="N15">
+        <v>0.2570734528201862</v>
+      </c>
+      <c r="O15">
+        <v>0.1350474908927764</v>
+      </c>
+    </row>
+    <row r="16" spans="1:148">
+      <c r="A16" s="1">
         <v>33695</v>
       </c>
-      <c r="AG1" s="1">
-        <v>33786</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>33878</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33970</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34060</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>34151</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>34243</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>34335</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>34425</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>34516</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>34608</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>34700</v>
-      </c>
-      <c r="AR1" s="1">
-        <v>34790</v>
-      </c>
-      <c r="AS1" s="1">
-        <v>34881</v>
-      </c>
-      <c r="AT1" s="1">
-        <v>34973</v>
-      </c>
-      <c r="AU1" s="1">
-        <v>35065</v>
-      </c>
-      <c r="AV1" s="1">
-        <v>35156</v>
-      </c>
-      <c r="AW1" s="1">
-        <v>35247</v>
-      </c>
-      <c r="AX1" s="1">
-        <v>35339</v>
-      </c>
-      <c r="AY1" s="1">
-        <v>35431</v>
-      </c>
-      <c r="AZ1" s="1">
-        <v>35521</v>
-      </c>
-      <c r="BA1" s="1">
-        <v>35612</v>
-      </c>
-      <c r="BB1" s="1">
-        <v>35704</v>
-      </c>
-      <c r="BC1" s="1">
-        <v>35796</v>
-      </c>
-      <c r="BD1" s="1">
-        <v>35886</v>
-      </c>
-      <c r="BE1" s="1">
-        <v>35977</v>
-      </c>
-      <c r="BF1" s="1">
-        <v>36069</v>
-      </c>
-      <c r="BG1" s="1">
-        <v>36161</v>
-      </c>
-      <c r="BH1" s="1">
-        <v>36251</v>
-      </c>
-      <c r="BI1" s="1">
-        <v>36342</v>
-      </c>
-      <c r="BJ1" s="1">
-        <v>36434</v>
-      </c>
-      <c r="BK1" s="1">
-        <v>36526</v>
-      </c>
-      <c r="BL1" s="1">
-        <v>36617</v>
-      </c>
-      <c r="BM1" s="1">
-        <v>36708</v>
-      </c>
-      <c r="BN1" s="1">
-        <v>36800</v>
-      </c>
-      <c r="BO1" s="1">
-        <v>36892</v>
-      </c>
-      <c r="BP1" s="1">
-        <v>36982</v>
-      </c>
-      <c r="BQ1" s="1">
-        <v>37073</v>
-      </c>
-      <c r="BR1" s="1">
-        <v>37165</v>
-      </c>
-      <c r="BS1" s="1">
-        <v>37257</v>
-      </c>
-      <c r="BT1" s="1">
-        <v>37347</v>
-      </c>
-      <c r="BU1" s="1">
-        <v>37438</v>
-      </c>
-      <c r="BV1" s="1">
-        <v>37530</v>
-      </c>
-      <c r="BW1" s="1">
-        <v>37622</v>
-      </c>
-      <c r="BX1" s="1">
-        <v>37712</v>
-      </c>
-      <c r="BY1" s="1">
-        <v>37803</v>
-      </c>
-      <c r="BZ1" s="1">
-        <v>37895</v>
-      </c>
-      <c r="CA1" s="1">
-        <v>37987</v>
-      </c>
-      <c r="CB1" s="1">
-        <v>38078</v>
-      </c>
-      <c r="CC1" s="1">
-        <v>38169</v>
-      </c>
-      <c r="CD1" s="1">
-        <v>38261</v>
-      </c>
-      <c r="CE1" s="1">
-        <v>38353</v>
-      </c>
-      <c r="CF1" s="1">
-        <v>38443</v>
-      </c>
-      <c r="CG1" s="1">
-        <v>38534</v>
-      </c>
-      <c r="CH1" s="1">
-        <v>38626</v>
-      </c>
-      <c r="CI1" s="1">
-        <v>38718</v>
-      </c>
-      <c r="CJ1" s="1">
-        <v>38808</v>
-      </c>
-      <c r="CK1" s="1">
-        <v>38899</v>
-      </c>
-      <c r="CL1" s="1">
-        <v>38991</v>
-      </c>
-      <c r="CM1" s="1">
-        <v>39083</v>
-      </c>
-      <c r="CN1" s="1">
-        <v>39173</v>
-      </c>
-      <c r="CO1" s="1">
-        <v>39264</v>
-      </c>
-      <c r="CP1" s="1">
-        <v>39356</v>
-      </c>
-      <c r="CQ1" s="1">
-        <v>39448</v>
-      </c>
-      <c r="CR1" s="1">
-        <v>39539</v>
-      </c>
-      <c r="CS1" s="1">
-        <v>39630</v>
-      </c>
-      <c r="CT1" s="1">
-        <v>39722</v>
-      </c>
-      <c r="CU1" s="1">
-        <v>39814</v>
-      </c>
-      <c r="CV1" s="1">
-        <v>39904</v>
-      </c>
-      <c r="CW1" s="1">
-        <v>39995</v>
-      </c>
-      <c r="CX1" s="1">
-        <v>40087</v>
-      </c>
-      <c r="CY1" s="1">
-        <v>40179</v>
-      </c>
-      <c r="CZ1" s="1">
-        <v>40269</v>
-      </c>
-      <c r="DA1" s="1">
-        <v>40360</v>
-      </c>
-      <c r="DB1" s="1">
-        <v>40452</v>
-      </c>
-      <c r="DC1" s="1">
-        <v>40544</v>
-      </c>
-      <c r="DD1" s="1">
-        <v>40634</v>
-      </c>
-      <c r="DE1" s="1">
-        <v>40725</v>
-      </c>
-      <c r="DF1" s="1">
-        <v>40817</v>
-      </c>
-      <c r="DG1" s="1">
-        <v>40909</v>
-      </c>
-      <c r="DH1" s="1">
-        <v>41000</v>
-      </c>
-      <c r="DI1" s="1">
-        <v>41091</v>
-      </c>
-      <c r="DJ1" s="1">
-        <v>41183</v>
-      </c>
-      <c r="DK1" s="1">
-        <v>41275</v>
-      </c>
-      <c r="DL1" s="1">
-        <v>41365</v>
-      </c>
-      <c r="DM1" s="1">
-        <v>41456</v>
-      </c>
-      <c r="DN1" s="1">
-        <v>41548</v>
-      </c>
-      <c r="DO1" s="1">
-        <v>41640</v>
-      </c>
-      <c r="DP1" s="1">
-        <v>41730</v>
-      </c>
-      <c r="DQ1" s="1">
-        <v>41821</v>
-      </c>
-      <c r="DR1" s="1">
-        <v>41913</v>
-      </c>
-      <c r="DS1" s="1">
-        <v>42005</v>
-      </c>
-      <c r="DT1" s="1">
-        <v>42095</v>
-      </c>
-      <c r="DU1" s="1">
-        <v>42186</v>
-      </c>
-      <c r="DV1" s="1">
-        <v>42278</v>
-      </c>
-      <c r="DW1" s="1">
-        <v>42370</v>
-      </c>
-      <c r="DX1" s="1">
-        <v>42461</v>
-      </c>
-      <c r="DY1" s="1">
-        <v>42552</v>
-      </c>
-      <c r="DZ1" s="1">
-        <v>42644</v>
-      </c>
-      <c r="EA1" s="1">
-        <v>42736</v>
-      </c>
-      <c r="EB1" s="1">
-        <v>42826</v>
-      </c>
-      <c r="EC1" s="1">
-        <v>42917</v>
-      </c>
-      <c r="ED1" s="1">
-        <v>43009</v>
-      </c>
-      <c r="EE1" s="1">
-        <v>43101</v>
-      </c>
-      <c r="EF1" s="1">
-        <v>43191</v>
-      </c>
-      <c r="EG1" s="1">
-        <v>43282</v>
-      </c>
-      <c r="EH1" s="1">
-        <v>43374</v>
-      </c>
-      <c r="EI1" s="1">
-        <v>43466</v>
-      </c>
-      <c r="EJ1" s="1">
-        <v>43556</v>
-      </c>
-      <c r="EK1" s="1">
-        <v>43647</v>
-      </c>
-      <c r="EL1" s="1">
-        <v>43739</v>
-      </c>
-      <c r="EM1" s="1">
-        <v>43831</v>
-      </c>
-      <c r="EN1" s="1">
-        <v>43922</v>
-      </c>
-      <c r="EO1" s="1">
-        <v>44013</v>
-      </c>
-      <c r="EP1" s="1">
-        <v>44105</v>
-      </c>
-      <c r="EQ1" s="1">
-        <v>44197</v>
-      </c>
-      <c r="ER1" s="1">
-        <v>44287</v>
-      </c>
-      <c r="ES1" s="1">
-        <v>44378</v>
-      </c>
-      <c r="ET1" s="1">
-        <v>44470</v>
-      </c>
-      <c r="EU1" s="1">
-        <v>44562</v>
-      </c>
-      <c r="EV1" s="1">
-        <v>44652</v>
-      </c>
-      <c r="EW1" s="1">
-        <v>44743</v>
-      </c>
-      <c r="EX1" s="1">
-        <v>44835</v>
-      </c>
-      <c r="EY1" s="1">
-        <v>44927</v>
-      </c>
-      <c r="EZ1" s="1">
-        <v>45017</v>
-      </c>
-      <c r="FA1" s="1">
-        <v>45108</v>
-      </c>
-      <c r="FB1" s="1">
-        <v>45200</v>
-      </c>
-      <c r="FC1" s="1">
-        <v>45292</v>
-      </c>
-      <c r="FD1" s="1">
-        <v>45383</v>
-      </c>
-      <c r="FE1" s="1">
-        <v>45474</v>
-      </c>
-      <c r="FF1" s="1">
-        <v>45566</v>
-      </c>
-      <c r="FG1" s="1">
-        <v>45658</v>
-      </c>
-      <c r="FH1" s="1">
-        <v>45748</v>
-      </c>
-    </row>
-    <row r="2" spans="1:164">
-      <c r="A2" s="1">
-        <v>30956</v>
-      </c>
-      <c r="B2">
-        <v>0.5800442104986655</v>
-      </c>
-    </row>
-    <row r="3" spans="1:164">
-      <c r="A3" s="1">
-        <v>31048</v>
-      </c>
-      <c r="B3">
-        <v>0.5800442104986655</v>
-      </c>
-      <c r="C3">
-        <v>1.782789416692813</v>
-      </c>
-    </row>
-    <row r="4" spans="1:164">
-      <c r="A4" s="1">
-        <v>31138</v>
-      </c>
-      <c r="B4">
-        <v>0.5800442104986655</v>
-      </c>
-      <c r="C4">
-        <v>1.782789416692813</v>
-      </c>
-      <c r="D4">
-        <v>0.1537088278912822</v>
-      </c>
-    </row>
-    <row r="5" spans="1:164">
-      <c r="A5" s="1">
-        <v>31229</v>
-      </c>
-      <c r="B5">
-        <v>0.5800442104986655</v>
-      </c>
-      <c r="C5">
-        <v>1.782789416692813</v>
-      </c>
-      <c r="D5">
-        <v>0.1537088278912822</v>
-      </c>
-      <c r="E5">
-        <v>0.2235169403701076</v>
-      </c>
-    </row>
-    <row r="6" spans="1:164">
-      <c r="A6" s="1">
-        <v>31321</v>
-      </c>
-      <c r="B6">
-        <v>0.5800442104986655</v>
-      </c>
-      <c r="C6">
-        <v>1.782789416692813</v>
-      </c>
-      <c r="D6">
-        <v>0.1537088278912822</v>
-      </c>
-      <c r="E6">
-        <v>0.2235169403701076</v>
-      </c>
-      <c r="F6">
-        <v>1.139692865703407</v>
-      </c>
-    </row>
-    <row r="7" spans="1:164">
-      <c r="A7" s="1">
-        <v>31413</v>
-      </c>
-      <c r="B7">
-        <v>0.5800442104986655</v>
-      </c>
-      <c r="C7">
-        <v>1.782789416692813</v>
-      </c>
-      <c r="D7">
-        <v>0.1537088278912822</v>
-      </c>
-      <c r="E7">
-        <v>0.2235169403701076</v>
-      </c>
-      <c r="F7">
-        <v>1.139692865703407</v>
-      </c>
-      <c r="G7">
-        <v>0.9550423447653338</v>
-      </c>
-    </row>
-    <row r="8" spans="1:164">
-      <c r="A8" s="1">
-        <v>31503</v>
-      </c>
-      <c r="B8">
-        <v>0.5800442104986655</v>
-      </c>
-      <c r="C8">
-        <v>1.782789416692813</v>
-      </c>
-      <c r="D8">
-        <v>0.1537088278912822</v>
-      </c>
-      <c r="E8">
-        <v>0.2235169403701076</v>
-      </c>
-      <c r="F8">
-        <v>1.139692865703407</v>
-      </c>
-      <c r="G8">
-        <v>0.9550423447653338</v>
-      </c>
-      <c r="H8">
-        <v>0.01910207558994503</v>
-      </c>
-    </row>
-    <row r="9" spans="1:164">
-      <c r="A9" s="1">
-        <v>31594</v>
-      </c>
-      <c r="B9">
-        <v>0.5800442104986655</v>
-      </c>
-      <c r="C9">
-        <v>1.782789416692813</v>
-      </c>
-      <c r="D9">
-        <v>0.1537088278912822</v>
-      </c>
-      <c r="E9">
-        <v>0.2235169403701076</v>
-      </c>
-      <c r="F9">
-        <v>1.139692865703407</v>
-      </c>
-      <c r="G9">
-        <v>0.9550423447653338</v>
-      </c>
-      <c r="H9">
-        <v>0.01910207558994503</v>
-      </c>
-      <c r="I9">
-        <v>0.2968225208873098</v>
-      </c>
-    </row>
-    <row r="10" spans="1:164">
-      <c r="A10" s="1">
-        <v>31686</v>
-      </c>
-      <c r="B10">
-        <v>0.5800442104986655</v>
-      </c>
-      <c r="C10">
-        <v>1.782789416692813</v>
-      </c>
-      <c r="D10">
-        <v>0.1537088278912822</v>
-      </c>
-      <c r="E10">
-        <v>0.2235169403701076</v>
-      </c>
-      <c r="F10">
-        <v>1.139692865703407</v>
-      </c>
-      <c r="G10">
-        <v>0.9550423447653338</v>
-      </c>
-      <c r="H10">
-        <v>0.01910207558994503</v>
-      </c>
-      <c r="I10">
-        <v>0.2968225208873098</v>
-      </c>
-      <c r="J10">
-        <v>0.950733570231741</v>
-      </c>
-    </row>
-    <row r="11" spans="1:164">
-      <c r="A11" s="1">
-        <v>31778</v>
-      </c>
-      <c r="B11">
-        <v>0.5800442104986655</v>
-      </c>
-      <c r="C11">
-        <v>1.782789416692813</v>
-      </c>
-      <c r="D11">
-        <v>0.1537088278912822</v>
-      </c>
-      <c r="E11">
-        <v>0.2235169403701076</v>
-      </c>
-      <c r="F11">
-        <v>1.139692865703407</v>
-      </c>
-      <c r="G11">
-        <v>0.9550423447653338</v>
-      </c>
-      <c r="H11">
-        <v>0.01910207558994503</v>
-      </c>
-      <c r="I11">
-        <v>0.2968225208873098</v>
-      </c>
-      <c r="J11">
-        <v>0.950733570231741</v>
-      </c>
-      <c r="K11">
-        <v>0.8631570148961837</v>
-      </c>
-    </row>
-    <row r="12" spans="1:164">
-      <c r="A12" s="1">
-        <v>31868</v>
-      </c>
-      <c r="C12">
-        <v>1.782789416692813</v>
-      </c>
-      <c r="D12">
-        <v>0.1537088278912822</v>
-      </c>
-      <c r="E12">
-        <v>0.2235169403701076</v>
-      </c>
-      <c r="F12">
-        <v>1.139692865703407</v>
-      </c>
-      <c r="G12">
-        <v>0.9550423447653338</v>
-      </c>
-      <c r="H12">
-        <v>0.01910207558994503</v>
-      </c>
-      <c r="I12">
-        <v>0.2968225208873098</v>
-      </c>
-      <c r="J12">
-        <v>0.950733570231741</v>
-      </c>
-      <c r="K12">
-        <v>0.8631570148961837</v>
-      </c>
-      <c r="L12">
-        <v>-0.7628380198992291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:164">
-      <c r="A13" s="1">
-        <v>31959</v>
-      </c>
-      <c r="D13">
-        <v>0.1537088278912822</v>
-      </c>
-      <c r="E13">
-        <v>0.2235169403701076</v>
-      </c>
-      <c r="F13">
-        <v>1.139692865703407</v>
-      </c>
-      <c r="G13">
-        <v>0.9550423447653338</v>
-      </c>
-      <c r="H13">
-        <v>0.01910207558994503</v>
-      </c>
-      <c r="I13">
-        <v>0.2968225208873098</v>
-      </c>
-      <c r="J13">
-        <v>0.950733570231741</v>
-      </c>
-      <c r="K13">
-        <v>0.8631570148961837</v>
-      </c>
-      <c r="L13">
-        <v>-0.7628380198992291</v>
-      </c>
-      <c r="M13">
-        <v>-0.1320029436253474</v>
-      </c>
-    </row>
-    <row r="14" spans="1:164">
-      <c r="A14" s="1">
-        <v>32051</v>
-      </c>
-      <c r="E14">
-        <v>0.2235169403701076</v>
-      </c>
-      <c r="F14">
-        <v>1.139692865703407</v>
-      </c>
-      <c r="G14">
-        <v>0.9550423447653338</v>
-      </c>
-      <c r="H14">
-        <v>0.01910207558994503</v>
-      </c>
-      <c r="I14">
-        <v>0.2968225208873098</v>
-      </c>
-      <c r="J14">
-        <v>0.950733570231741</v>
-      </c>
-      <c r="K14">
-        <v>0.8631570148961837</v>
-      </c>
-      <c r="L14">
-        <v>-0.7628380198992291</v>
-      </c>
-      <c r="M14">
-        <v>-0.1320029436253474</v>
-      </c>
-      <c r="N14">
-        <v>1.480406969400192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:164">
-      <c r="A15" s="1">
-        <v>32143</v>
-      </c>
-      <c r="F15">
-        <v>1.139692865703407</v>
-      </c>
-      <c r="G15">
-        <v>0.9550423447653338</v>
-      </c>
-      <c r="H15">
-        <v>0.01910207558994503</v>
-      </c>
-      <c r="I15">
-        <v>0.2968225208873098</v>
-      </c>
-      <c r="J15">
-        <v>0.950733570231741</v>
-      </c>
-      <c r="K15">
-        <v>0.8631570148961837</v>
-      </c>
-      <c r="L15">
-        <v>-0.7628380198992291</v>
-      </c>
-      <c r="M15">
-        <v>-0.1320029436253474</v>
-      </c>
-      <c r="N15">
-        <v>1.480406969400192</v>
-      </c>
-      <c r="O15">
-        <v>1.145366203353378</v>
-      </c>
-    </row>
-    <row r="16" spans="1:164">
-      <c r="A16" s="1">
-        <v>32234</v>
-      </c>
       <c r="G16">
-        <v>0.9550423447653338</v>
+        <v>1.037367074856591</v>
       </c>
       <c r="H16">
-        <v>0.01910207558994503</v>
+        <v>1.6239608106008</v>
       </c>
       <c r="I16">
-        <v>0.2968225208873098</v>
+        <v>1.279401957875106</v>
       </c>
       <c r="J16">
-        <v>0.950733570231741</v>
+        <v>1.29869678336902</v>
       </c>
       <c r="K16">
-        <v>0.8631570148961837</v>
+        <v>1.942650350757789</v>
       </c>
       <c r="L16">
-        <v>-0.7628380198992291</v>
+        <v>2.26573504336867</v>
       </c>
       <c r="M16">
-        <v>-0.1320029436253474</v>
+        <v>1.93601879129671</v>
       </c>
       <c r="N16">
-        <v>1.480406969400192</v>
+        <v>0.2570734528201862</v>
       </c>
       <c r="O16">
-        <v>1.145366203353378</v>
+        <v>0.1350474908927764</v>
       </c>
       <c r="P16">
-        <v>0.3431919425612713</v>
+        <v>1.109143009140589</v>
       </c>
     </row>
     <row r="17" spans="1:32">
       <c r="A17" s="1">
-        <v>32325</v>
+        <v>33786</v>
       </c>
       <c r="H17">
-        <v>0.01910207558994503</v>
+        <v>1.6239608106008</v>
       </c>
       <c r="I17">
-        <v>0.2968225208873098</v>
+        <v>1.279401957875106</v>
       </c>
       <c r="J17">
-        <v>0.950733570231741</v>
+        <v>1.29869678336902</v>
       </c>
       <c r="K17">
-        <v>0.8631570148961837</v>
+        <v>1.942650350757789</v>
       </c>
       <c r="L17">
-        <v>-0.7628380198992291</v>
+        <v>2.26573504336867</v>
       </c>
       <c r="M17">
-        <v>-0.1320029436253474</v>
+        <v>1.93601879129671</v>
       </c>
       <c r="N17">
-        <v>1.480406969400192</v>
+        <v>0.2570734528201862</v>
       </c>
       <c r="O17">
-        <v>1.145366203353378</v>
+        <v>0.1350474908927764</v>
       </c>
       <c r="P17">
-        <v>0.3431919425612713</v>
+        <v>1.109143009140589</v>
       </c>
       <c r="Q17">
-        <v>0.4631257257573588</v>
+        <v>0.6537814458558288</v>
       </c>
     </row>
     <row r="18" spans="1:32">
       <c r="A18" s="1">
-        <v>32417</v>
+        <v>33878</v>
       </c>
       <c r="I18">
-        <v>0.2968225208873098</v>
+        <v>1.279401957875106</v>
       </c>
       <c r="J18">
-        <v>0.950733570231741</v>
+        <v>1.29869678336902</v>
       </c>
       <c r="K18">
-        <v>0.8631570148961837</v>
+        <v>1.942650350757789</v>
       </c>
       <c r="L18">
-        <v>-0.7628380198992291</v>
+        <v>2.26573504336867</v>
       </c>
       <c r="M18">
-        <v>-0.1320029436253474</v>
+        <v>1.93601879129671</v>
       </c>
       <c r="N18">
-        <v>1.480406969400192</v>
+        <v>0.2570734528201862</v>
       </c>
       <c r="O18">
-        <v>1.145366203353378</v>
+        <v>0.1350474908927764</v>
       </c>
       <c r="P18">
-        <v>0.3431919425612713</v>
+        <v>1.109143009140589</v>
       </c>
       <c r="Q18">
-        <v>0.4631257257573588</v>
+        <v>0.6537814458558288</v>
       </c>
       <c r="R18">
-        <v>1.459120121774803</v>
+        <v>-0.09606619038377322</v>
       </c>
     </row>
     <row r="19" spans="1:32">
       <c r="A19" s="1">
-        <v>32509</v>
+        <v>33970</v>
       </c>
       <c r="J19">
-        <v>0.950733570231741</v>
+        <v>1.29869678336902</v>
       </c>
       <c r="K19">
-        <v>0.8631570148961837</v>
+        <v>1.942650350757789</v>
       </c>
       <c r="L19">
-        <v>-0.7628380198992291</v>
+        <v>2.26573504336867</v>
       </c>
       <c r="M19">
-        <v>-0.1320029436253474</v>
+        <v>1.93601879129671</v>
       </c>
       <c r="N19">
-        <v>1.480406969400192</v>
+        <v>0.2570734528201862</v>
       </c>
       <c r="O19">
-        <v>1.145366203353378</v>
+        <v>0.1350474908927764</v>
       </c>
       <c r="P19">
-        <v>0.3431919425612713</v>
+        <v>1.109143009140589</v>
       </c>
       <c r="Q19">
-        <v>0.4631257257573588</v>
+        <v>0.6537814458558288</v>
       </c>
       <c r="R19">
-        <v>1.459120121774803</v>
+        <v>-0.09606619038377322</v>
       </c>
       <c r="S19">
-        <v>1.149335244070199</v>
+        <v>-0.1442157581314463</v>
       </c>
     </row>
     <row r="20" spans="1:32">
       <c r="A20" s="1">
-        <v>32599</v>
+        <v>34060</v>
       </c>
       <c r="K20">
-        <v>0.8631570148961837</v>
+        <v>1.942650350757789</v>
       </c>
       <c r="L20">
-        <v>-0.7628380198992291</v>
+        <v>2.26573504336867</v>
       </c>
       <c r="M20">
-        <v>-0.1320029436253474</v>
+        <v>1.93601879129671</v>
       </c>
       <c r="N20">
-        <v>1.480406969400192</v>
+        <v>0.2570734528201862</v>
       </c>
       <c r="O20">
-        <v>1.145366203353378</v>
+        <v>0.1350474908927764</v>
       </c>
       <c r="P20">
-        <v>0.3431919425612713</v>
+        <v>1.109143009140589</v>
       </c>
       <c r="Q20">
-        <v>0.4631257257573588</v>
+        <v>0.6537814458558288</v>
       </c>
       <c r="R20">
-        <v>1.459120121774803</v>
+        <v>-0.09606619038377322</v>
       </c>
       <c r="S20">
-        <v>1.149335244070199</v>
+        <v>-0.1442157581314463</v>
       </c>
       <c r="T20">
-        <v>1.112885384698548</v>
+        <v>-0.9634291417448934</v>
       </c>
     </row>
     <row r="21" spans="1:32">
       <c r="A21" s="1">
-        <v>32690</v>
+        <v>34151</v>
       </c>
       <c r="L21">
-        <v>-0.7628380198992291</v>
+        <v>2.26573504336867</v>
       </c>
       <c r="M21">
-        <v>-0.1320029436253474</v>
+        <v>1.93601879129671</v>
       </c>
       <c r="N21">
-        <v>1.480406969400192</v>
+        <v>0.2570734528201862</v>
       </c>
       <c r="O21">
-        <v>1.145366203353378</v>
+        <v>0.1350474908927764</v>
       </c>
       <c r="P21">
-        <v>0.3431919425612713</v>
+        <v>1.109143009140589</v>
       </c>
       <c r="Q21">
-        <v>0.4631257257573588</v>
+        <v>0.6537814458558288</v>
       </c>
       <c r="R21">
-        <v>1.459120121774803</v>
+        <v>-0.09606619038377322</v>
       </c>
       <c r="S21">
-        <v>1.149335244070199</v>
+        <v>-0.1442157581314463</v>
       </c>
       <c r="T21">
-        <v>1.112885384698548</v>
+        <v>-0.9634291417448934</v>
       </c>
       <c r="U21">
-        <v>0.7190387869321904</v>
+        <v>-0.5793537378383853</v>
       </c>
     </row>
     <row r="22" spans="1:32">
       <c r="A22" s="1">
-        <v>32782</v>
+        <v>34243</v>
       </c>
       <c r="M22">
-        <v>-0.1320029436253474</v>
+        <v>1.93601879129671</v>
       </c>
       <c r="N22">
-        <v>1.480406969400192</v>
+        <v>0.2570734528201862</v>
       </c>
       <c r="O22">
-        <v>1.145366203353378</v>
+        <v>0.1350474908927764</v>
       </c>
       <c r="P22">
-        <v>0.3431919425612713</v>
+        <v>1.109143009140589</v>
       </c>
       <c r="Q22">
-        <v>0.4631257257573588</v>
+        <v>0.6537814458558288</v>
       </c>
       <c r="R22">
-        <v>1.459120121774803</v>
+        <v>-0.09606619038377322</v>
       </c>
       <c r="S22">
-        <v>1.149335244070199</v>
+        <v>-0.1442157581314463</v>
       </c>
       <c r="T22">
-        <v>1.112885384698548</v>
+        <v>-0.9634291417448934</v>
       </c>
       <c r="U22">
-        <v>0.7190387869321904</v>
+        <v>-0.5793537378383853</v>
       </c>
       <c r="V22">
-        <v>0.656455240936323</v>
+        <v>0.6774638732131766</v>
       </c>
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="1">
-        <v>32874</v>
+        <v>34335</v>
       </c>
       <c r="N23">
-        <v>1.480406969400192</v>
+        <v>0.2570734528201862</v>
       </c>
       <c r="O23">
-        <v>1.145366203353378</v>
+        <v>0.1350474908927764</v>
       </c>
       <c r="P23">
-        <v>0.3431919425612713</v>
+        <v>1.109143009140589</v>
       </c>
       <c r="Q23">
-        <v>0.4631257257573588</v>
+        <v>0.6537814458558288</v>
       </c>
       <c r="R23">
-        <v>1.459120121774803</v>
+        <v>-0.09606619038377322</v>
       </c>
       <c r="S23">
-        <v>1.149335244070199</v>
+        <v>-0.1442157581314463</v>
       </c>
       <c r="T23">
-        <v>1.112885384698548</v>
+        <v>-0.9634291417448934</v>
       </c>
       <c r="U23">
-        <v>0.7190387869321904</v>
+        <v>-0.5793537378383853</v>
       </c>
       <c r="V23">
-        <v>0.656455240936323</v>
+        <v>0.6774638732131766</v>
       </c>
       <c r="W23">
-        <v>1.037367074856591</v>
+        <v>0.2653249562452161</v>
       </c>
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="1">
-        <v>32964</v>
+        <v>34425</v>
       </c>
       <c r="O24">
-        <v>1.145366203353378</v>
+        <v>0.1350474908927764</v>
       </c>
       <c r="P24">
-        <v>0.3431919425612713</v>
+        <v>1.109143009140589</v>
       </c>
       <c r="Q24">
-        <v>0.4631257257573588</v>
+        <v>0.6537814458558288</v>
       </c>
       <c r="R24">
-        <v>1.459120121774803</v>
+        <v>-0.09606619038377322</v>
       </c>
       <c r="S24">
-        <v>1.149335244070199</v>
+        <v>-0.1442157581314463</v>
       </c>
       <c r="T24">
-        <v>1.112885384698548</v>
+        <v>-0.9634291417448934</v>
       </c>
       <c r="U24">
-        <v>0.7190387869321904</v>
+        <v>-0.5793537378383853</v>
       </c>
       <c r="V24">
-        <v>0.656455240936323</v>
+        <v>0.6774638732131766</v>
       </c>
       <c r="W24">
-        <v>1.037367074856591</v>
+        <v>0.2653249562452161</v>
       </c>
       <c r="X24">
-        <v>1.6239608106008</v>
+        <v>0.4920137279711237</v>
       </c>
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="1">
-        <v>33055</v>
+        <v>34516</v>
       </c>
       <c r="P25">
-        <v>0.3431919425612713</v>
+        <v>1.109143009140589</v>
       </c>
       <c r="Q25">
-        <v>0.4631257257573588</v>
+        <v>0.6537814458558288</v>
       </c>
       <c r="R25">
-        <v>1.459120121774803</v>
+        <v>-0.09606619038377322</v>
       </c>
       <c r="S25">
-        <v>1.149335244070199</v>
+        <v>-0.1442157581314463</v>
       </c>
       <c r="T25">
-        <v>1.112885384698548</v>
+        <v>-0.9634291417448934</v>
       </c>
       <c r="U25">
-        <v>0.7190387869321904</v>
+        <v>-0.5793537378383853</v>
       </c>
       <c r="V25">
-        <v>0.656455240936323</v>
+        <v>0.6774638732131766</v>
       </c>
       <c r="W25">
-        <v>1.037367074856591</v>
+        <v>0.2653249562452161</v>
       </c>
       <c r="X25">
-        <v>1.6239608106008</v>
+        <v>0.4920137279711237</v>
       </c>
       <c r="Y25">
-        <v>1.279401957875106</v>
+        <v>1.204990892768237</v>
       </c>
     </row>
     <row r="26" spans="1:32">
       <c r="A26" s="1">
-        <v>33147</v>
+        <v>34608</v>
       </c>
       <c r="Q26">
-        <v>0.4631257257573588</v>
+        <v>0.6537814458558288</v>
       </c>
       <c r="R26">
-        <v>1.459120121774803</v>
+        <v>-0.09606619038377322</v>
       </c>
       <c r="S26">
-        <v>1.149335244070199</v>
+        <v>-0.1442157581314463</v>
       </c>
       <c r="T26">
-        <v>1.112885384698548</v>
+        <v>-0.9634291417448934</v>
       </c>
       <c r="U26">
-        <v>0.7190387869321904</v>
+        <v>-0.5793537378383853</v>
       </c>
       <c r="V26">
-        <v>0.656455240936323</v>
+        <v>0.6774638732131766</v>
       </c>
       <c r="W26">
-        <v>1.037367074856591</v>
+        <v>0.2653249562452161</v>
       </c>
       <c r="X26">
-        <v>1.6239608106008</v>
+        <v>0.4920137279711237</v>
       </c>
       <c r="Y26">
-        <v>1.279401957875106</v>
+        <v>1.204990892768237</v>
       </c>
       <c r="Z26">
-        <v>1.29869678336902</v>
+        <v>0.9272902288172465</v>
       </c>
     </row>
     <row r="27" spans="1:32">
       <c r="A27" s="1">
-        <v>33239</v>
+        <v>34700</v>
       </c>
       <c r="R27">
-        <v>1.459120121774803</v>
+        <v>-0.09606619038377322</v>
       </c>
       <c r="S27">
-        <v>1.149335244070199</v>
+        <v>-0.1442157581314463</v>
       </c>
       <c r="T27">
-        <v>1.112885384698548</v>
+        <v>-0.9634291417448934</v>
       </c>
       <c r="U27">
-        <v>0.7190387869321904</v>
+        <v>-0.5793537378383853</v>
       </c>
       <c r="V27">
-        <v>0.656455240936323</v>
+        <v>0.6774638732131766</v>
       </c>
       <c r="W27">
-        <v>1.037367074856591</v>
+        <v>0.2653249562452161</v>
       </c>
       <c r="X27">
-        <v>1.6239608106008</v>
+        <v>0.4920137279711237</v>
       </c>
       <c r="Y27">
-        <v>1.279401957875106</v>
+        <v>1.204990892768237</v>
       </c>
       <c r="Z27">
-        <v>1.29869678336902</v>
+        <v>0.9272902288172465</v>
       </c>
       <c r="AA27">
-        <v>1.942650350757789</v>
+        <v>0.6202864409965388</v>
       </c>
     </row>
     <row r="28" spans="1:32">
       <c r="A28" s="1">
-        <v>33329</v>
+        <v>34790</v>
       </c>
       <c r="S28">
-        <v>1.149335244070199</v>
+        <v>-0.1442157581314463</v>
       </c>
       <c r="T28">
-        <v>1.112885384698548</v>
+        <v>-0.9634291417448934</v>
       </c>
       <c r="U28">
-        <v>0.7190387869321904</v>
+        <v>-0.5793537378383853</v>
       </c>
       <c r="V28">
-        <v>0.656455240936323</v>
+        <v>0.6774638732131766</v>
       </c>
       <c r="W28">
-        <v>1.037367074856591</v>
+        <v>0.2653249562452161</v>
       </c>
       <c r="X28">
-        <v>1.6239608106008</v>
+        <v>0.4920137279711237</v>
       </c>
       <c r="Y28">
-        <v>1.279401957875106</v>
+        <v>1.204990892768237</v>
       </c>
       <c r="Z28">
-        <v>1.29869678336902</v>
+        <v>0.9272902288172465</v>
       </c>
       <c r="AA28">
-        <v>1.942650350757789</v>
+        <v>0.6202864409965388</v>
       </c>
       <c r="AB28">
-        <v>2.26573504336867</v>
+        <v>0.4160617690998817</v>
       </c>
     </row>
     <row r="29" spans="1:32">
       <c r="A29" s="1">
-        <v>33420</v>
+        <v>34881</v>
       </c>
       <c r="T29">
-        <v>1.112885384698548</v>
+        <v>-0.9634291417448934</v>
       </c>
       <c r="U29">
-        <v>0.7190387869321904</v>
+        <v>-0.5793537378383853</v>
       </c>
       <c r="V29">
-        <v>0.656455240936323</v>
+        <v>0.6774638732131766</v>
       </c>
       <c r="W29">
-        <v>1.037367074856591</v>
+        <v>0.2653249562452161</v>
       </c>
       <c r="X29">
-        <v>1.6239608106008</v>
+        <v>0.4920137279711237</v>
       </c>
       <c r="Y29">
-        <v>1.279401957875106</v>
+        <v>1.204990892768237</v>
       </c>
       <c r="Z29">
-        <v>1.29869678336902</v>
+        <v>0.9272902288172465</v>
       </c>
       <c r="AA29">
-        <v>1.942650350757789</v>
+        <v>0.6202864409965388</v>
       </c>
       <c r="AB29">
-        <v>2.26573504336867</v>
+        <v>0.4160617690998817</v>
       </c>
       <c r="AC29">
-        <v>1.93601879129671</v>
+        <v>0.6401426592241428</v>
       </c>
     </row>
     <row r="30" spans="1:32">
       <c r="A30" s="1">
-        <v>33512</v>
+        <v>34973</v>
       </c>
       <c r="U30">
-        <v>0.7190387869321904</v>
+        <v>-0.5793537378383853</v>
       </c>
       <c r="V30">
-        <v>0.656455240936323</v>
+        <v>0.6774638732131766</v>
       </c>
       <c r="W30">
-        <v>1.037367074856591</v>
+        <v>0.2653249562452161</v>
       </c>
       <c r="X30">
-        <v>1.6239608106008</v>
+        <v>0.4920137279711237</v>
       </c>
       <c r="Y30">
-        <v>1.279401957875106</v>
+        <v>1.204990892768237</v>
       </c>
       <c r="Z30">
-        <v>1.29869678336902</v>
+        <v>0.9272902288172465</v>
       </c>
       <c r="AA30">
-        <v>1.942650350757789</v>
+        <v>0.6202864409965388</v>
       </c>
       <c r="AB30">
-        <v>2.26573504336867</v>
+        <v>0.4160617690998817</v>
       </c>
       <c r="AC30">
-        <v>1.93601879129671</v>
+        <v>0.6401426592241428</v>
       </c>
       <c r="AD30">
-        <v>0.2570734528201862</v>
+        <v>0.5266667957441251</v>
       </c>
     </row>
     <row r="31" spans="1:32">
       <c r="A31" s="1">
-        <v>33604</v>
+        <v>35065</v>
       </c>
       <c r="V31">
-        <v>0.656455240936323</v>
+        <v>0.6774638732131766</v>
       </c>
       <c r="W31">
-        <v>1.037367074856591</v>
+        <v>0.2653249562452161</v>
       </c>
       <c r="X31">
-        <v>1.6239608106008</v>
+        <v>0.4920137279711237</v>
       </c>
       <c r="Y31">
-        <v>1.279401957875106</v>
+        <v>1.204990892768237</v>
       </c>
       <c r="Z31">
-        <v>1.29869678336902</v>
+        <v>0.9272902288172465</v>
       </c>
       <c r="AA31">
-        <v>1.942650350757789</v>
+        <v>0.6202864409965388</v>
       </c>
       <c r="AB31">
-        <v>2.26573504336867</v>
+        <v>0.4160617690998817</v>
       </c>
       <c r="AC31">
-        <v>1.93601879129671</v>
+        <v>0.6401426592241428</v>
       </c>
       <c r="AD31">
-        <v>0.2570734528201862</v>
+        <v>0.5266667957441251</v>
       </c>
       <c r="AE31">
-        <v>0.1350474908927764</v>
+        <v>-0.1513997253654748</v>
       </c>
     </row>
     <row r="32" spans="1:32">
       <c r="A32" s="1">
-        <v>33695</v>
+        <v>35156</v>
       </c>
       <c r="W32">
-        <v>1.037367074856591</v>
+        <v>0.2653249562452161</v>
       </c>
       <c r="X32">
-        <v>1.6239608106008</v>
+        <v>0.4920137279711237</v>
       </c>
       <c r="Y32">
-        <v>1.279401957875106</v>
+        <v>1.204990892768237</v>
       </c>
       <c r="Z32">
-        <v>1.29869678336902</v>
+        <v>0.9272902288172465</v>
       </c>
       <c r="AA32">
-        <v>1.942650350757789</v>
+        <v>0.6202864409965388</v>
       </c>
       <c r="AB32">
-        <v>2.26573504336867</v>
+        <v>0.4160617690998817</v>
       </c>
       <c r="AC32">
-        <v>1.93601879129671</v>
+        <v>0.6401426592241428</v>
       </c>
       <c r="AD32">
-        <v>0.2570734528201862</v>
+        <v>0.5266667957441251</v>
       </c>
       <c r="AE32">
-        <v>0.1350474908927764</v>
+        <v>-0.1513997253654748</v>
       </c>
       <c r="AF32">
-        <v>1.109143009140589</v>
+        <v>-0.2640753477522876</v>
       </c>
     </row>
     <row r="33" spans="1:48">
       <c r="A33" s="1">
-        <v>33786</v>
+        <v>35247</v>
       </c>
       <c r="X33">
-        <v>1.6239608106008</v>
+        <v>0.4920137279711237</v>
       </c>
       <c r="Y33">
-        <v>1.279401957875106</v>
+        <v>1.204990892768237</v>
       </c>
       <c r="Z33">
-        <v>1.29869678336902</v>
+        <v>0.9272902288172465</v>
       </c>
       <c r="AA33">
-        <v>1.942650350757789</v>
+        <v>0.6202864409965388</v>
       </c>
       <c r="AB33">
-        <v>2.26573504336867</v>
+        <v>0.4160617690998817</v>
       </c>
       <c r="AC33">
-        <v>1.93601879129671</v>
+        <v>0.6401426592241428</v>
       </c>
       <c r="AD33">
-        <v>0.2570734528201862</v>
+        <v>0.5266667957441251</v>
       </c>
       <c r="AE33">
-        <v>0.1350474908927764</v>
+        <v>-0.1513997253654748</v>
       </c>
       <c r="AF33">
-        <v>1.109143009140589</v>
+        <v>-0.2640753477522876</v>
       </c>
       <c r="AG33">
-        <v>0.6537814458558288</v>
+        <v>0.504844752474134</v>
       </c>
     </row>
     <row r="34" spans="1:48">
       <c r="A34" s="1">
-        <v>33878</v>
+        <v>35339</v>
       </c>
       <c r="Y34">
-        <v>1.279401957875106</v>
+        <v>1.204990892768237</v>
       </c>
       <c r="Z34">
-        <v>1.29869678336902</v>
+        <v>0.9272902288172465</v>
       </c>
       <c r="AA34">
-        <v>1.942650350757789</v>
+        <v>0.6202864409965388</v>
       </c>
       <c r="AB34">
-        <v>2.26573504336867</v>
+        <v>0.4160617690998817</v>
       </c>
       <c r="AC34">
-        <v>1.93601879129671</v>
+        <v>0.6401426592241428</v>
       </c>
       <c r="AD34">
-        <v>0.2570734528201862</v>
+        <v>0.5266667957441251</v>
       </c>
       <c r="AE34">
-        <v>0.1350474908927764</v>
+        <v>-0.1513997253654748</v>
       </c>
       <c r="AF34">
-        <v>1.109143009140589</v>
+        <v>-0.2640753477522876</v>
       </c>
       <c r="AG34">
-        <v>0.6537814458558288</v>
+        <v>0.504844752474134</v>
       </c>
       <c r="AH34">
-        <v>-0.09606619038377322</v>
+        <v>1.133475278544638</v>
       </c>
     </row>
     <row r="35" spans="1:48">
       <c r="A35" s="1">
-        <v>33970</v>
+        <v>35431</v>
       </c>
       <c r="Z35">
-        <v>1.29869678336902</v>
+        <v>0.9272902288172465</v>
       </c>
       <c r="AA35">
-        <v>1.942650350757789</v>
+        <v>0.6202864409965388</v>
       </c>
       <c r="AB35">
-        <v>2.26573504336867</v>
+        <v>0.4160617690998817</v>
       </c>
       <c r="AC35">
-        <v>1.93601879129671</v>
+        <v>0.6401426592241428</v>
       </c>
       <c r="AD35">
-        <v>0.2570734528201862</v>
+        <v>0.5266667957441251</v>
       </c>
       <c r="AE35">
-        <v>0.1350474908927764</v>
+        <v>-0.1513997253654748</v>
       </c>
       <c r="AF35">
-        <v>1.109143009140589</v>
+        <v>-0.2640753477522876</v>
       </c>
       <c r="AG35">
-        <v>0.6537814458558288</v>
+        <v>0.504844752474134</v>
       </c>
       <c r="AH35">
-        <v>-0.09606619038377322</v>
+        <v>1.133475278544638</v>
       </c>
       <c r="AI35">
-        <v>-0.1442157581314463</v>
+        <v>0.4109914905100568</v>
       </c>
     </row>
     <row r="36" spans="1:48">
       <c r="A36" s="1">
-        <v>34060</v>
+        <v>35521</v>
       </c>
       <c r="AA36">
-        <v>1.942650350757789</v>
+        <v>0.6202864409965388</v>
       </c>
       <c r="AB36">
-        <v>2.26573504336867</v>
+        <v>0.4160617690998817</v>
       </c>
       <c r="AC36">
-        <v>1.93601879129671</v>
+        <v>0.6401426592241428</v>
       </c>
       <c r="AD36">
-        <v>0.2570734528201862</v>
+        <v>0.5266667957441251</v>
       </c>
       <c r="AE36">
-        <v>0.1350474908927764</v>
+        <v>-0.1513997253654748</v>
       </c>
       <c r="AF36">
-        <v>1.109143009140589</v>
+        <v>-0.2640753477522876</v>
       </c>
       <c r="AG36">
-        <v>0.6537814458558288</v>
+        <v>0.504844752474134</v>
       </c>
       <c r="AH36">
-        <v>-0.09606619038377322</v>
+        <v>1.133475278544638</v>
       </c>
       <c r="AI36">
-        <v>-0.1442157581314463</v>
+        <v>0.4109914905100568</v>
       </c>
       <c r="AJ36">
-        <v>-0.9634291417448934</v>
+        <v>0.2590304689838107</v>
       </c>
     </row>
     <row r="37" spans="1:48">
       <c r="A37" s="1">
-        <v>34151</v>
+        <v>35612</v>
       </c>
       <c r="AB37">
-        <v>2.26573504336867</v>
+        <v>0.4160617690998817</v>
       </c>
       <c r="AC37">
-        <v>1.93601879129671</v>
+        <v>0.6401426592241428</v>
       </c>
       <c r="AD37">
-        <v>0.2570734528201862</v>
+        <v>0.5266667957441251</v>
       </c>
       <c r="AE37">
-        <v>0.1350474908927764</v>
+        <v>-0.1513997253654748</v>
       </c>
       <c r="AF37">
-        <v>1.109143009140589</v>
+        <v>-0.2640753477522876</v>
       </c>
       <c r="AG37">
-        <v>0.6537814458558288</v>
+        <v>0.504844752474134</v>
       </c>
       <c r="AH37">
-        <v>-0.09606619038377322</v>
+        <v>1.133475278544638</v>
       </c>
       <c r="AI37">
-        <v>-0.1442157581314463</v>
+        <v>0.4109914905100568</v>
       </c>
       <c r="AJ37">
-        <v>-0.9634291417448934</v>
+        <v>0.2590304689838107</v>
       </c>
       <c r="AK37">
-        <v>-0.5793537378383853</v>
+        <v>0.6546750680543985</v>
       </c>
     </row>
     <row r="38" spans="1:48">
       <c r="A38" s="1">
-        <v>34243</v>
+        <v>35704</v>
       </c>
       <c r="AC38">
-        <v>1.93601879129671</v>
+        <v>0.6401426592241428</v>
       </c>
       <c r="AD38">
-        <v>0.2570734528201862</v>
+        <v>0.5266667957441251</v>
       </c>
       <c r="AE38">
-        <v>0.1350474908927764</v>
+        <v>-0.1513997253654748</v>
       </c>
       <c r="AF38">
-        <v>1.109143009140589</v>
+        <v>-0.2640753477522876</v>
       </c>
       <c r="AG38">
-        <v>0.6537814458558288</v>
+        <v>0.504844752474134</v>
       </c>
       <c r="AH38">
-        <v>-0.09606619038377322</v>
+        <v>1.133475278544638</v>
       </c>
       <c r="AI38">
-        <v>-0.1442157581314463</v>
+        <v>0.4109914905100568</v>
       </c>
       <c r="AJ38">
-        <v>-0.9634291417448934</v>
+        <v>0.2590304689838107</v>
       </c>
       <c r="AK38">
-        <v>-0.5793537378383853</v>
+        <v>0.6546750680543985</v>
       </c>
       <c r="AL38">
-        <v>0.6774638732131766</v>
+        <v>0.8963072768758295</v>
       </c>
     </row>
     <row r="39" spans="1:48">
       <c r="A39" s="1">
-        <v>34335</v>
+        <v>35796</v>
       </c>
       <c r="AD39">
-        <v>0.2570734528201862</v>
+        <v>0.5266667957441251</v>
       </c>
       <c r="AE39">
-        <v>0.1350474908927764</v>
+        <v>-0.1513997253654748</v>
       </c>
       <c r="AF39">
-        <v>1.109143009140589</v>
+        <v>-0.2640753477522876</v>
       </c>
       <c r="AG39">
-        <v>0.6537814458558288</v>
+        <v>0.504844752474134</v>
       </c>
       <c r="AH39">
-        <v>-0.09606619038377322</v>
+        <v>1.133475278544638</v>
       </c>
       <c r="AI39">
-        <v>-0.1442157581314463</v>
+        <v>0.4109914905100568</v>
       </c>
       <c r="AJ39">
-        <v>-0.9634291417448934</v>
+        <v>0.2590304689838107</v>
       </c>
       <c r="AK39">
-        <v>-0.5793537378383853</v>
+        <v>0.6546750680543985</v>
       </c>
       <c r="AL39">
-        <v>0.6774638732131766</v>
+        <v>0.8963072768758295</v>
       </c>
       <c r="AM39">
-        <v>0.2653249562452161</v>
+        <v>0.4927914526996163</v>
       </c>
     </row>
     <row r="40" spans="1:48">
       <c r="A40" s="1">
-        <v>34425</v>
+        <v>35886</v>
       </c>
       <c r="AE40">
-        <v>0.1350474908927764</v>
+        <v>-0.1513997253654748</v>
       </c>
       <c r="AF40">
-        <v>1.109143009140589</v>
+        <v>-0.2640753477522876</v>
       </c>
       <c r="AG40">
-        <v>0.6537814458558288</v>
+        <v>0.504844752474134</v>
       </c>
       <c r="AH40">
-        <v>-0.09606619038377322</v>
+        <v>1.133475278544638</v>
       </c>
       <c r="AI40">
-        <v>-0.1442157581314463</v>
+        <v>0.4109914905100568</v>
       </c>
       <c r="AJ40">
-        <v>-0.9634291417448934</v>
+        <v>0.2590304689838107</v>
       </c>
       <c r="AK40">
-        <v>-0.5793537378383853</v>
+        <v>0.6546750680543985</v>
       </c>
       <c r="AL40">
-        <v>0.6774638732131766</v>
+        <v>0.8963072768758295</v>
       </c>
       <c r="AM40">
-        <v>0.2653249562452161</v>
+        <v>0.4927914526996163</v>
       </c>
       <c r="AN40">
-        <v>0.4920137279711237</v>
+        <v>0.6289573203813391</v>
       </c>
     </row>
     <row r="41" spans="1:48">
       <c r="A41" s="1">
-        <v>34516</v>
+        <v>35977</v>
       </c>
       <c r="AF41">
-        <v>1.109143009140589</v>
+        <v>-0.2640753477522876</v>
       </c>
       <c r="AG41">
-        <v>0.6537814458558288</v>
+        <v>0.504844752474134</v>
       </c>
       <c r="AH41">
-        <v>-0.09606619038377322</v>
+        <v>1.133475278544638</v>
       </c>
       <c r="AI41">
-        <v>-0.1442157581314463</v>
+        <v>0.4109914905100568</v>
       </c>
       <c r="AJ41">
-        <v>-0.9634291417448934</v>
+        <v>0.2590304689838107</v>
       </c>
       <c r="AK41">
-        <v>-0.5793537378383853</v>
+        <v>0.6546750680543985</v>
       </c>
       <c r="AL41">
-        <v>0.6774638732131766</v>
+        <v>0.8963072768758295</v>
       </c>
       <c r="AM41">
-        <v>0.2653249562452161</v>
+        <v>0.4927914526996163</v>
       </c>
       <c r="AN41">
-        <v>0.4920137279711237</v>
+        <v>0.6289573203813391</v>
       </c>
       <c r="AO41">
-        <v>1.204990892768237</v>
+        <v>0.7727312346850435</v>
       </c>
     </row>
     <row r="42" spans="1:48">
       <c r="A42" s="1">
-        <v>34608</v>
+        <v>36069</v>
       </c>
       <c r="AG42">
-        <v>0.6537814458558288</v>
+        <v>0.504844752474134</v>
       </c>
       <c r="AH42">
-        <v>-0.09606619038377322</v>
+        <v>1.133475278544638</v>
       </c>
       <c r="AI42">
-        <v>-0.1442157581314463</v>
+        <v>0.4109914905100568</v>
       </c>
       <c r="AJ42">
-        <v>-0.9634291417448934</v>
+        <v>0.2590304689838107</v>
       </c>
       <c r="AK42">
-        <v>-0.5793537378383853</v>
+        <v>0.6546750680543985</v>
       </c>
       <c r="AL42">
-        <v>0.6774638732131766</v>
+        <v>0.8963072768758295</v>
       </c>
       <c r="AM42">
-        <v>0.2653249562452161</v>
+        <v>0.4927914526996163</v>
       </c>
       <c r="AN42">
-        <v>0.4920137279711237</v>
+        <v>0.6289573203813391</v>
       </c>
       <c r="AO42">
-        <v>1.204990892768237</v>
+        <v>0.7727312346850435</v>
       </c>
       <c r="AP42">
-        <v>0.9272902288172465</v>
+        <v>0.4535218834435705</v>
       </c>
     </row>
     <row r="43" spans="1:48">
       <c r="A43" s="1">
-        <v>34700</v>
+        <v>36161</v>
       </c>
       <c r="AH43">
-        <v>-0.09606619038377322</v>
+        <v>1.133475278544638</v>
       </c>
       <c r="AI43">
-        <v>-0.1442157581314463</v>
+        <v>0.4109914905100568</v>
       </c>
       <c r="AJ43">
-        <v>-0.9634291417448934</v>
+        <v>0.2590304689838107</v>
       </c>
       <c r="AK43">
-        <v>-0.5793537378383853</v>
+        <v>0.6546750680543985</v>
       </c>
       <c r="AL43">
-        <v>0.6774638732131766</v>
+        <v>0.8963072768758295</v>
       </c>
       <c r="AM43">
-        <v>0.2653249562452161</v>
+        <v>0.4927914526996163</v>
       </c>
       <c r="AN43">
-        <v>0.4920137279711237</v>
+        <v>0.6289573203813391</v>
       </c>
       <c r="AO43">
-        <v>1.204990892768237</v>
+        <v>0.7727312346850435</v>
       </c>
       <c r="AP43">
-        <v>0.9272902288172465</v>
+        <v>0.4535218834435705</v>
       </c>
       <c r="AQ43">
-        <v>0.6202864409965388</v>
+        <v>0.2537974936422204</v>
       </c>
     </row>
     <row r="44" spans="1:48">
       <c r="A44" s="1">
-        <v>34790</v>
+        <v>36251</v>
       </c>
       <c r="AI44">
-        <v>-0.1442157581314463</v>
+        <v>0.4109914905100568</v>
       </c>
       <c r="AJ44">
-        <v>-0.9634291417448934</v>
+        <v>0.2590304689838107</v>
       </c>
       <c r="AK44">
-        <v>-0.5793537378383853</v>
+        <v>0.6546750680543985</v>
       </c>
       <c r="AL44">
-        <v>0.6774638732131766</v>
+        <v>0.8963072768758295</v>
       </c>
       <c r="AM44">
-        <v>0.2653249562452161</v>
+        <v>0.4927914526996163</v>
       </c>
       <c r="AN44">
-        <v>0.4920137279711237</v>
+        <v>0.6289573203813391</v>
       </c>
       <c r="AO44">
-        <v>1.204990892768237</v>
+        <v>0.7727312346850435</v>
       </c>
       <c r="AP44">
-        <v>0.9272902288172465</v>
+        <v>0.4535218834435705</v>
       </c>
       <c r="AQ44">
-        <v>0.6202864409965388</v>
+        <v>0.2537974936422204</v>
       </c>
       <c r="AR44">
-        <v>0.4160617690998817</v>
+        <v>0.1493575413061861</v>
       </c>
     </row>
     <row r="45" spans="1:48">
       <c r="A45" s="1">
-        <v>34881</v>
+        <v>36342</v>
       </c>
       <c r="AJ45">
-        <v>-0.9634291417448934</v>
+        <v>0.2590304689838107</v>
       </c>
       <c r="AK45">
-        <v>-0.5793537378383853</v>
+        <v>0.6546750680543985</v>
       </c>
       <c r="AL45">
-        <v>0.6774638732131766</v>
+        <v>0.8963072768758295</v>
       </c>
       <c r="AM45">
-        <v>0.2653249562452161</v>
+        <v>0.4927914526996163</v>
       </c>
       <c r="AN45">
-        <v>0.4920137279711237</v>
+        <v>0.6289573203813391</v>
       </c>
       <c r="AO45">
-        <v>1.204990892768237</v>
+        <v>0.7727312346850435</v>
       </c>
       <c r="AP45">
-        <v>0.9272902288172465</v>
+        <v>0.4535218834435705</v>
       </c>
       <c r="AQ45">
-        <v>0.6202864409965388</v>
+        <v>0.2537974936422204</v>
       </c>
       <c r="AR45">
-        <v>0.4160617690998817</v>
+        <v>0.1493575413061861</v>
       </c>
       <c r="AS45">
-        <v>0.6401426592241428</v>
+        <v>0.2478976165325543</v>
       </c>
     </row>
     <row r="46" spans="1:48">
       <c r="A46" s="1">
-        <v>34973</v>
+        <v>36434</v>
       </c>
       <c r="AK46">
-        <v>-0.5793537378383853</v>
+        <v>0.6546750680543985</v>
       </c>
       <c r="AL46">
-        <v>0.6774638732131766</v>
+        <v>0.8963072768758295</v>
       </c>
       <c r="AM46">
-        <v>0.2653249562452161</v>
+        <v>0.4927914526996163</v>
       </c>
       <c r="AN46">
-        <v>0.4920137279711237</v>
+        <v>0.6289573203813391</v>
       </c>
       <c r="AO46">
-        <v>1.204990892768237</v>
+        <v>0.7727312346850435</v>
       </c>
       <c r="AP46">
-        <v>0.9272902288172465</v>
+        <v>0.4535218834435705</v>
       </c>
       <c r="AQ46">
-        <v>0.6202864409965388</v>
+        <v>0.2537974936422204</v>
       </c>
       <c r="AR46">
-        <v>0.4160617690998817</v>
+        <v>0.1493575413061861</v>
       </c>
       <c r="AS46">
-        <v>0.6401426592241428</v>
+        <v>0.2478976165325543</v>
       </c>
       <c r="AT46">
-        <v>0.5266667957441251</v>
+        <v>0.4120567045008888</v>
       </c>
     </row>
     <row r="47" spans="1:48">
       <c r="A47" s="1">
-        <v>35065</v>
+        <v>36526</v>
       </c>
       <c r="AL47">
-        <v>0.6774638732131766</v>
+        <v>0.8963072768758295</v>
       </c>
       <c r="AM47">
-        <v>0.2653249562452161</v>
+        <v>0.4927914526996163</v>
       </c>
       <c r="AN47">
-        <v>0.4920137279711237</v>
+        <v>0.6289573203813391</v>
       </c>
       <c r="AO47">
-        <v>1.204990892768237</v>
+        <v>0.7727312346850435</v>
       </c>
       <c r="AP47">
-        <v>0.9272902288172465</v>
+        <v>0.4535218834435705</v>
       </c>
       <c r="AQ47">
-        <v>0.6202864409965388</v>
+        <v>0.2537974936422204</v>
       </c>
       <c r="AR47">
-        <v>0.4160617690998817</v>
+        <v>0.1493575413061861</v>
       </c>
       <c r="AS47">
-        <v>0.6401426592241428</v>
+        <v>0.2478976165325543</v>
       </c>
       <c r="AT47">
-        <v>0.5266667957441251</v>
+        <v>0.4120567045008888</v>
       </c>
       <c r="AU47">
-        <v>-0.1513997253654748</v>
+        <v>0.7785873385578803</v>
       </c>
     </row>
     <row r="48" spans="1:48">
       <c r="A48" s="1">
-        <v>35156</v>
+        <v>36617</v>
       </c>
       <c r="AM48">
-        <v>0.2653249562452161</v>
+        <v>0.4927914526996163</v>
       </c>
       <c r="AN48">
-        <v>0.4920137279711237</v>
+        <v>0.6289573203813391</v>
       </c>
       <c r="AO48">
-        <v>1.204990892768237</v>
+        <v>0.7727312346850435</v>
       </c>
       <c r="AP48">
-        <v>0.9272902288172465</v>
+        <v>0.4535218834435705</v>
       </c>
       <c r="AQ48">
-        <v>0.6202864409965388</v>
+        <v>0.2537974936422204</v>
       </c>
       <c r="AR48">
-        <v>0.4160617690998817</v>
+        <v>0.1493575413061861</v>
       </c>
       <c r="AS48">
-        <v>0.6401426592241428</v>
+        <v>0.2478976165325543</v>
       </c>
       <c r="AT48">
-        <v>0.5266667957441251</v>
+        <v>0.4120567045008888</v>
       </c>
       <c r="AU48">
-        <v>-0.1513997253654748</v>
+        <v>0.7785873385578803</v>
       </c>
       <c r="AV48">
-        <v>-0.2640753477522876</v>
+        <v>0.683959016830631</v>
       </c>
     </row>
     <row r="49" spans="1:64">
       <c r="A49" s="1">
-        <v>35247</v>
+        <v>36708</v>
       </c>
       <c r="AN49">
-        <v>0.4920137279711237</v>
+        <v>0.6289573203813391</v>
       </c>
       <c r="AO49">
-        <v>1.204990892768237</v>
+        <v>0.7727312346850435</v>
       </c>
       <c r="AP49">
-        <v>0.9272902288172465</v>
+        <v>0.4535218834435705</v>
       </c>
       <c r="AQ49">
-        <v>0.6202864409965388</v>
+        <v>0.2537974936422204</v>
       </c>
       <c r="AR49">
-        <v>0.4160617690998817</v>
+        <v>0.1493575413061861</v>
       </c>
       <c r="AS49">
-        <v>0.6401426592241428</v>
+        <v>0.2478976165325543</v>
       </c>
       <c r="AT49">
-        <v>0.5266667957441251</v>
+        <v>0.4120567045008888</v>
       </c>
       <c r="AU49">
-        <v>-0.1513997253654748</v>
+        <v>0.7785873385578803</v>
       </c>
       <c r="AV49">
-        <v>-0.2640753477522876</v>
+        <v>0.683959016830631</v>
       </c>
       <c r="AW49">
-        <v>0.504844752474134</v>
+        <v>0.9602071422528702</v>
       </c>
     </row>
     <row r="50" spans="1:64">
       <c r="A50" s="1">
-        <v>35339</v>
+        <v>36800</v>
       </c>
       <c r="AO50">
-        <v>1.204990892768237</v>
+        <v>0.7727312346850435</v>
       </c>
       <c r="AP50">
-        <v>0.9272902288172465</v>
+        <v>0.4535218834435705</v>
       </c>
       <c r="AQ50">
-        <v>0.6202864409965388</v>
+        <v>0.2537974936422204</v>
       </c>
       <c r="AR50">
-        <v>0.4160617690998817</v>
+        <v>0.1493575413061861</v>
       </c>
       <c r="AS50">
-        <v>0.6401426592241428</v>
+        <v>0.2478976165325543</v>
       </c>
       <c r="AT50">
-        <v>0.5266667957441251</v>
+        <v>0.4120567045008888</v>
       </c>
       <c r="AU50">
-        <v>-0.1513997253654748</v>
+        <v>0.7785873385578803</v>
       </c>
       <c r="AV50">
-        <v>-0.2640753477522876</v>
+        <v>0.683959016830631</v>
       </c>
       <c r="AW50">
-        <v>0.504844752474134</v>
+        <v>0.9602071422528702</v>
       </c>
       <c r="AX50">
-        <v>1.133475278544638</v>
+        <v>0.8526959775178222</v>
       </c>
     </row>
     <row r="51" spans="1:64">
       <c r="A51" s="1">
-        <v>35431</v>
+        <v>36892</v>
       </c>
       <c r="AP51">
-        <v>0.9272902288172465</v>
+        <v>0.4535218834435705</v>
       </c>
       <c r="AQ51">
-        <v>0.6202864409965388</v>
+        <v>0.2537974936422204</v>
       </c>
       <c r="AR51">
-        <v>0.4160617690998817</v>
+        <v>0.1493575413061861</v>
       </c>
       <c r="AS51">
-        <v>0.6401426592241428</v>
+        <v>0.2478976165325543</v>
       </c>
       <c r="AT51">
-        <v>0.5266667957441251</v>
+        <v>0.4120567045008888</v>
       </c>
       <c r="AU51">
-        <v>-0.1513997253654748</v>
+        <v>0.7785873385578803</v>
       </c>
       <c r="AV51">
-        <v>-0.2640753477522876</v>
+        <v>0.683959016830631</v>
       </c>
       <c r="AW51">
-        <v>0.504844752474134</v>
+        <v>0.9602071422528702</v>
       </c>
       <c r="AX51">
-        <v>1.133475278544638</v>
+        <v>0.8526959775178222</v>
       </c>
       <c r="AY51">
-        <v>0.4109914905100568</v>
+        <v>0.244003832487703</v>
       </c>
     </row>
     <row r="52" spans="1:64">
       <c r="A52" s="1">
-        <v>35521</v>
+        <v>36982</v>
       </c>
       <c r="AQ52">
-        <v>0.6202864409965388</v>
+        <v>0.2537974936422204</v>
       </c>
       <c r="AR52">
-        <v>0.4160617690998817</v>
+        <v>0.1493575413061861</v>
       </c>
       <c r="AS52">
-        <v>0.6401426592241428</v>
+        <v>0.2478976165325543</v>
       </c>
       <c r="AT52">
-        <v>0.5266667957441251</v>
+        <v>0.4120567045008888</v>
       </c>
       <c r="AU52">
-        <v>-0.1513997253654748</v>
+        <v>0.7785873385578803</v>
       </c>
       <c r="AV52">
-        <v>-0.2640753477522876</v>
+        <v>0.683959016830631</v>
       </c>
       <c r="AW52">
-        <v>0.504844752474134</v>
+        <v>0.9602071422528702</v>
       </c>
       <c r="AX52">
-        <v>1.133475278544638</v>
+        <v>0.8526959775178222</v>
       </c>
       <c r="AY52">
-        <v>0.4109914905100568</v>
+        <v>0.244003832487703</v>
       </c>
       <c r="AZ52">
-        <v>0.2590304689838107</v>
+        <v>0.2889033955290484</v>
       </c>
     </row>
     <row r="53" spans="1:64">
       <c r="A53" s="1">
-        <v>35612</v>
+        <v>37073</v>
       </c>
       <c r="AR53">
-        <v>0.4160617690998817</v>
+        <v>0.1493575413061861</v>
       </c>
       <c r="AS53">
-        <v>0.6401426592241428</v>
+        <v>0.2478976165325543</v>
       </c>
       <c r="AT53">
-        <v>0.5266667957441251</v>
+        <v>0.4120567045008888</v>
       </c>
       <c r="AU53">
-        <v>-0.1513997253654748</v>
+        <v>0.7785873385578803</v>
       </c>
       <c r="AV53">
-        <v>-0.2640753477522876</v>
+        <v>0.683959016830631</v>
       </c>
       <c r="AW53">
-        <v>0.504844752474134</v>
+        <v>0.9602071422528702</v>
       </c>
       <c r="AX53">
-        <v>1.133475278544638</v>
+        <v>0.8526959775178222</v>
       </c>
       <c r="AY53">
-        <v>0.4109914905100568</v>
+        <v>0.244003832487703</v>
       </c>
       <c r="AZ53">
-        <v>0.2590304689838107</v>
+        <v>0.2889033955290484</v>
       </c>
       <c r="BA53">
-        <v>0.6546750680543985</v>
+        <v>0.1841664103337133</v>
       </c>
     </row>
     <row r="54" spans="1:64">
       <c r="A54" s="1">
-        <v>35704</v>
+        <v>37165</v>
       </c>
       <c r="AS54">
-        <v>0.6401426592241428</v>
+        <v>0.2478976165325543</v>
       </c>
       <c r="AT54">
-        <v>0.5266667957441251</v>
+        <v>0.4120567045008888</v>
       </c>
       <c r="AU54">
-        <v>-0.1513997253654748</v>
+        <v>0.7785873385578803</v>
       </c>
       <c r="AV54">
-        <v>-0.2640753477522876</v>
+        <v>0.683959016830631</v>
       </c>
       <c r="AW54">
-        <v>0.504844752474134</v>
+        <v>0.9602071422528702</v>
       </c>
       <c r="AX54">
-        <v>1.133475278544638</v>
+        <v>0.8526959775178222</v>
       </c>
       <c r="AY54">
-        <v>0.4109914905100568</v>
+        <v>0.244003832487703</v>
       </c>
       <c r="AZ54">
-        <v>0.2590304689838107</v>
+        <v>0.2889033955290484</v>
       </c>
       <c r="BA54">
-        <v>0.6546750680543985</v>
+        <v>0.1841664103337133</v>
       </c>
       <c r="BB54">
-        <v>0.8963072768758295</v>
+        <v>-0.08566364240572692</v>
       </c>
     </row>
     <row r="55" spans="1:64">
       <c r="A55" s="1">
-        <v>35796</v>
+        <v>37257</v>
       </c>
       <c r="AT55">
-        <v>0.5266667957441251</v>
+        <v>0.4120567045008888</v>
       </c>
       <c r="AU55">
-        <v>-0.1513997253654748</v>
+        <v>0.7785873385578803</v>
       </c>
       <c r="AV55">
-        <v>-0.2640753477522876</v>
+        <v>0.683959016830631</v>
       </c>
       <c r="AW55">
-        <v>0.504844752474134</v>
+        <v>0.9602071422528702</v>
       </c>
       <c r="AX55">
-        <v>1.133475278544638</v>
+        <v>0.8526959775178222</v>
       </c>
       <c r="AY55">
-        <v>0.4109914905100568</v>
+        <v>0.244003832487703</v>
       </c>
       <c r="AZ55">
-        <v>0.2590304689838107</v>
+        <v>0.2889033955290484</v>
       </c>
       <c r="BA55">
-        <v>0.6546750680543985</v>
+        <v>0.1841664103337133</v>
       </c>
       <c r="BB55">
-        <v>0.8963072768758295</v>
+        <v>-0.08566364240572692</v>
       </c>
       <c r="BC55">
-        <v>0.4927914526996163</v>
+        <v>-0.2107155258033867</v>
       </c>
     </row>
     <row r="56" spans="1:64">
       <c r="A56" s="1">
-        <v>35886</v>
+        <v>37347</v>
       </c>
       <c r="AU56">
-        <v>-0.1513997253654748</v>
+        <v>0.7785873385578803</v>
       </c>
       <c r="AV56">
-        <v>-0.2640753477522876</v>
+        <v>0.683959016830631</v>
       </c>
       <c r="AW56">
-        <v>0.504844752474134</v>
+        <v>0.9602071422528702</v>
       </c>
       <c r="AX56">
-        <v>1.133475278544638</v>
+        <v>0.8526959775178222</v>
       </c>
       <c r="AY56">
-        <v>0.4109914905100568</v>
+        <v>0.244003832487703</v>
       </c>
       <c r="AZ56">
-        <v>0.2590304689838107</v>
+        <v>0.2889033955290484</v>
       </c>
       <c r="BA56">
-        <v>0.6546750680543985</v>
+        <v>0.1841664103337133</v>
       </c>
       <c r="BB56">
-        <v>0.8963072768758295</v>
+        <v>-0.08566364240572692</v>
       </c>
       <c r="BC56">
-        <v>0.4927914526996163</v>
+        <v>-0.2107155258033867</v>
       </c>
       <c r="BD56">
-        <v>0.6289573203813391</v>
+        <v>-0.04215687686304349</v>
       </c>
     </row>
     <row r="57" spans="1:64">
       <c r="A57" s="1">
-        <v>35977</v>
+        <v>37438</v>
       </c>
       <c r="AV57">
-        <v>-0.2640753477522876</v>
+        <v>0.683959016830631</v>
       </c>
       <c r="AW57">
-        <v>0.504844752474134</v>
+        <v>0.9602071422528702</v>
       </c>
       <c r="AX57">
-        <v>1.133475278544638</v>
+        <v>0.8526959775178222</v>
       </c>
       <c r="AY57">
-        <v>0.4109914905100568</v>
+        <v>0.244003832487703</v>
       </c>
       <c r="AZ57">
-        <v>0.2590304689838107</v>
+        <v>0.2889033955290484</v>
       </c>
       <c r="BA57">
-        <v>0.6546750680543985</v>
+        <v>0.1841664103337133</v>
       </c>
       <c r="BB57">
-        <v>0.8963072768758295</v>
+        <v>-0.08566364240572692</v>
       </c>
       <c r="BC57">
-        <v>0.4927914526996163</v>
+        <v>-0.2107155258033867</v>
       </c>
       <c r="BD57">
-        <v>0.6289573203813391</v>
+        <v>-0.04215687686304349</v>
       </c>
       <c r="BE57">
-        <v>0.7727312346850435</v>
+        <v>0.2778303786338436</v>
       </c>
     </row>
     <row r="58" spans="1:64">
       <c r="A58" s="1">
-        <v>36069</v>
+        <v>37530</v>
       </c>
       <c r="AW58">
-        <v>0.504844752474134</v>
+        <v>0.9602071422528702</v>
       </c>
       <c r="AX58">
-        <v>1.133475278544638</v>
+        <v>0.8526959775178222</v>
       </c>
       <c r="AY58">
-        <v>0.4109914905100568</v>
+        <v>0.244003832487703</v>
       </c>
       <c r="AZ58">
-        <v>0.2590304689838107</v>
+        <v>0.2889033955290484</v>
       </c>
       <c r="BA58">
-        <v>0.6546750680543985</v>
+        <v>0.1841664103337133</v>
       </c>
       <c r="BB58">
-        <v>0.8963072768758295</v>
+        <v>-0.08566364240572692</v>
       </c>
       <c r="BC58">
-        <v>0.4927914526996163</v>
+        <v>-0.2107155258033867</v>
       </c>
       <c r="BD58">
-        <v>0.6289573203813391</v>
+        <v>-0.04215687686304349</v>
       </c>
       <c r="BE58">
-        <v>0.7727312346850435</v>
+        <v>0.2778303786338436</v>
       </c>
       <c r="BF58">
-        <v>0.4535218834435705</v>
+        <v>0.2096354475585487</v>
       </c>
     </row>
     <row r="59" spans="1:64">
       <c r="A59" s="1">
-        <v>36161</v>
+        <v>37622</v>
       </c>
       <c r="AX59">
-        <v>1.133475278544638</v>
+        <v>0.8526959775178222</v>
       </c>
       <c r="AY59">
-        <v>0.4109914905100568</v>
+        <v>0.244003832487703</v>
       </c>
       <c r="AZ59">
-        <v>0.2590304689838107</v>
+        <v>0.2889033955290484</v>
       </c>
       <c r="BA59">
-        <v>0.6546750680543985</v>
+        <v>0.1841664103337133</v>
       </c>
       <c r="BB59">
-        <v>0.8963072768758295</v>
+        <v>-0.08566364240572692</v>
       </c>
       <c r="BC59">
-        <v>0.4927914526996163</v>
+        <v>-0.2107155258033867</v>
       </c>
       <c r="BD59">
-        <v>0.6289573203813391</v>
+        <v>-0.04215687686304349</v>
       </c>
       <c r="BE59">
-        <v>0.7727312346850435</v>
+        <v>0.2778303786338436</v>
       </c>
       <c r="BF59">
-        <v>0.4535218834435705</v>
+        <v>0.2096354475585487</v>
       </c>
       <c r="BG59">
-        <v>0.2537974936422204</v>
+        <v>0.1370272145569384</v>
       </c>
     </row>
     <row r="60" spans="1:64">
       <c r="A60" s="1">
-        <v>36251</v>
+        <v>37712</v>
       </c>
       <c r="AY60">
-        <v>0.4109914905100568</v>
+        <v>0.244003832487703</v>
       </c>
       <c r="AZ60">
-        <v>0.2590304689838107</v>
+        <v>0.2889033955290484</v>
       </c>
       <c r="BA60">
-        <v>0.6546750680543985</v>
+        <v>0.1841664103337133</v>
       </c>
       <c r="BB60">
-        <v>0.8963072768758295</v>
+        <v>-0.08566364240572692</v>
       </c>
       <c r="BC60">
-        <v>0.4927914526996163</v>
+        <v>-0.2107155258033867</v>
       </c>
       <c r="BD60">
-        <v>0.6289573203813391</v>
+        <v>-0.04215687686304349</v>
       </c>
       <c r="BE60">
-        <v>0.7727312346850435</v>
+        <v>0.2778303786338436</v>
       </c>
       <c r="BF60">
-        <v>0.4535218834435705</v>
+        <v>0.2096354475585487</v>
       </c>
       <c r="BG60">
-        <v>0.2537974936422204</v>
+        <v>0.1370272145569384</v>
       </c>
       <c r="BH60">
-        <v>0.1493575413061861</v>
+        <v>-0.1295675474814465</v>
       </c>
     </row>
     <row r="61" spans="1:64">
       <c r="A61" s="1">
-        <v>36342</v>
+        <v>37803</v>
       </c>
       <c r="AZ61">
-        <v>0.2590304689838107</v>
+        <v>0.2889033955290484</v>
       </c>
       <c r="BA61">
-        <v>0.6546750680543985</v>
+        <v>0.1841664103337133</v>
       </c>
       <c r="BB61">
-        <v>0.8963072768758295</v>
+        <v>-0.08566364240572692</v>
       </c>
       <c r="BC61">
-        <v>0.4927914526996163</v>
+        <v>-0.2107155258033867</v>
       </c>
       <c r="BD61">
-        <v>0.6289573203813391</v>
+        <v>-0.04215687686304349</v>
       </c>
       <c r="BE61">
-        <v>0.7727312346850435</v>
+        <v>0.2778303786338436</v>
       </c>
       <c r="BF61">
-        <v>0.4535218834435705</v>
+        <v>0.2096354475585487</v>
       </c>
       <c r="BG61">
-        <v>0.2537974936422204</v>
+        <v>0.1370272145569384</v>
       </c>
       <c r="BH61">
-        <v>0.1493575413061861</v>
+        <v>-0.1295675474814465</v>
       </c>
       <c r="BI61">
-        <v>0.2478976165325543</v>
+        <v>-0.1514837876116187</v>
       </c>
     </row>
     <row r="62" spans="1:64">
       <c r="A62" s="1">
-        <v>36434</v>
+        <v>37895</v>
       </c>
       <c r="BA62">
-        <v>0.6546750680543985</v>
+        <v>0.1841664103337133</v>
       </c>
       <c r="BB62">
-        <v>0.8963072768758295</v>
+        <v>-0.08566364240572692</v>
       </c>
       <c r="BC62">
-        <v>0.4927914526996163</v>
+        <v>-0.2107155258033867</v>
       </c>
       <c r="BD62">
-        <v>0.6289573203813391</v>
+        <v>-0.04215687686304349</v>
       </c>
       <c r="BE62">
-        <v>0.7727312346850435</v>
+        <v>0.2778303786338436</v>
       </c>
       <c r="BF62">
-        <v>0.4535218834435705</v>
+        <v>0.2096354475585487</v>
       </c>
       <c r="BG62">
-        <v>0.2537974936422204</v>
+        <v>0.1370272145569384</v>
       </c>
       <c r="BH62">
-        <v>0.1493575413061861</v>
+        <v>-0.1295675474814465</v>
       </c>
       <c r="BI62">
-        <v>0.2478976165325543</v>
+        <v>-0.1514837876116187</v>
       </c>
       <c r="BJ62">
-        <v>0.4120567045008888</v>
+        <v>0.02832221795719639</v>
       </c>
     </row>
     <row r="63" spans="1:64">
       <c r="A63" s="1">
-        <v>36526</v>
+        <v>37987</v>
       </c>
       <c r="BB63">
-        <v>0.8963072768758295</v>
+        <v>-0.08566364240572692</v>
       </c>
       <c r="BC63">
-        <v>0.4927914526996163</v>
+        <v>-0.2107155258033867</v>
       </c>
       <c r="BD63">
-        <v>0.6289573203813391</v>
+        <v>-0.04215687686304349</v>
       </c>
       <c r="BE63">
-        <v>0.7727312346850435</v>
+        <v>0.2778303786338436</v>
       </c>
       <c r="BF63">
-        <v>0.4535218834435705</v>
+        <v>0.2096354475585487</v>
       </c>
       <c r="BG63">
-        <v>0.2537974936422204</v>
+        <v>0.1370272145569384</v>
       </c>
       <c r="BH63">
-        <v>0.1493575413061861</v>
+        <v>-0.1295675474814465</v>
       </c>
       <c r="BI63">
-        <v>0.2478976165325543</v>
+        <v>-0.1514837876116187</v>
       </c>
       <c r="BJ63">
-        <v>0.4120567045008888</v>
+        <v>0.02832221795719639</v>
       </c>
       <c r="BK63">
-        <v>0.7785873385578803</v>
+        <v>0.2071793764104207</v>
       </c>
     </row>
     <row r="64" spans="1:64">
       <c r="A64" s="1">
-        <v>36617</v>
+        <v>38078</v>
       </c>
       <c r="BC64">
-        <v>0.4927914526996163</v>
+        <v>-0.2107155258033867</v>
       </c>
       <c r="BD64">
-        <v>0.6289573203813391</v>
+        <v>-0.04215687686304349</v>
       </c>
       <c r="BE64">
-        <v>0.7727312346850435</v>
+        <v>0.2778303786338436</v>
       </c>
       <c r="BF64">
-        <v>0.4535218834435705</v>
+        <v>0.2096354475585487</v>
       </c>
       <c r="BG64">
-        <v>0.2537974936422204</v>
+        <v>0.1370272145569384</v>
       </c>
       <c r="BH64">
-        <v>0.1493575413061861</v>
+        <v>-0.1295675474814465</v>
       </c>
       <c r="BI64">
-        <v>0.2478976165325543</v>
+        <v>-0.1514837876116187</v>
       </c>
       <c r="BJ64">
-        <v>0.4120567045008888</v>
+        <v>0.02832221795719639</v>
       </c>
       <c r="BK64">
-        <v>0.7785873385578803</v>
+        <v>0.2071793764104207</v>
       </c>
       <c r="BL64">
-        <v>0.683959016830631</v>
+        <v>0.3511455218491039</v>
       </c>
     </row>
     <row r="65" spans="1:80">
       <c r="A65" s="1">
-        <v>36708</v>
+        <v>38169</v>
       </c>
       <c r="BD65">
-        <v>0.6289573203813391</v>
+        <v>-0.04215687686304349</v>
       </c>
       <c r="BE65">
-        <v>0.7727312346850435</v>
+        <v>0.2778303786338436</v>
       </c>
       <c r="BF65">
-        <v>0.4535218834435705</v>
+        <v>0.2096354475585487</v>
       </c>
       <c r="BG65">
-        <v>0.2537974936422204</v>
+        <v>0.1370272145569384</v>
       </c>
       <c r="BH65">
-        <v>0.1493575413061861</v>
+        <v>-0.1295675474814465</v>
       </c>
       <c r="BI65">
-        <v>0.2478976165325543</v>
+        <v>-0.1514837876116187</v>
       </c>
       <c r="BJ65">
-        <v>0.4120567045008888</v>
+        <v>0.02832221795719639</v>
       </c>
       <c r="BK65">
-        <v>0.7785873385578803</v>
+        <v>0.2071793764104207</v>
       </c>
       <c r="BL65">
-        <v>0.683959016830631</v>
+        <v>0.3511455218491039</v>
       </c>
       <c r="BM65">
-        <v>0.9602071422528702</v>
+        <v>0.4523940095631491</v>
       </c>
     </row>
     <row r="66" spans="1:80">
       <c r="A66" s="1">
-        <v>36800</v>
+        <v>38261</v>
       </c>
       <c r="BE66">
-        <v>0.7727312346850435</v>
+        <v>0.2778303786338436</v>
       </c>
       <c r="BF66">
-        <v>0.4535218834435705</v>
+        <v>0.2096354475585487</v>
       </c>
       <c r="BG66">
-        <v>0.2537974936422204</v>
+        <v>0.1370272145569384</v>
       </c>
       <c r="BH66">
-        <v>0.1493575413061861</v>
+        <v>-0.1295675474814465</v>
       </c>
       <c r="BI66">
-        <v>0.2478976165325543</v>
+        <v>-0.1514837876116187</v>
       </c>
       <c r="BJ66">
-        <v>0.4120567045008888</v>
+        <v>0.02832221795719639</v>
       </c>
       <c r="BK66">
-        <v>0.7785873385578803</v>
+        <v>0.2071793764104207</v>
       </c>
       <c r="BL66">
-        <v>0.683959016830631</v>
+        <v>0.3511455218491039</v>
       </c>
       <c r="BM66">
-        <v>0.9602071422528702</v>
+        <v>0.4523940095631491</v>
       </c>
       <c r="BN66">
-        <v>0.8526959775178222</v>
+        <v>0.2564965553118657</v>
       </c>
     </row>
     <row r="67" spans="1:80">
       <c r="A67" s="1">
-        <v>36892</v>
+        <v>38353</v>
       </c>
       <c r="BF67">
-        <v>0.4535218834435705</v>
+        <v>0.2096354475585487</v>
       </c>
       <c r="BG67">
-        <v>0.2537974936422204</v>
+        <v>0.1370272145569384</v>
       </c>
       <c r="BH67">
-        <v>0.1493575413061861</v>
+        <v>-0.1295675474814465</v>
       </c>
       <c r="BI67">
-        <v>0.2478976165325543</v>
+        <v>-0.1514837876116187</v>
       </c>
       <c r="BJ67">
-        <v>0.4120567045008888</v>
+        <v>0.02832221795719639</v>
       </c>
       <c r="BK67">
-        <v>0.7785873385578803</v>
+        <v>0.2071793764104207</v>
       </c>
       <c r="BL67">
-        <v>0.683959016830631</v>
+        <v>0.3511455218491039</v>
       </c>
       <c r="BM67">
-        <v>0.9602071422528702</v>
+        <v>0.4523940095631491</v>
       </c>
       <c r="BN67">
-        <v>0.8526959775178222</v>
+        <v>0.2564965553118657</v>
       </c>
       <c r="BO67">
-        <v>0.244003832487703</v>
+        <v>-0.1054136014542132</v>
       </c>
     </row>
     <row r="68" spans="1:80">
       <c r="A68" s="1">
-        <v>36982</v>
+        <v>38443</v>
       </c>
       <c r="BG68">
-        <v>0.2537974936422204</v>
+        <v>0.1370272145569384</v>
       </c>
       <c r="BH68">
-        <v>0.1493575413061861</v>
+        <v>-0.1295675474814465</v>
       </c>
       <c r="BI68">
-        <v>0.2478976165325543</v>
+        <v>-0.1514837876116187</v>
       </c>
       <c r="BJ68">
-        <v>0.4120567045008888</v>
+        <v>0.02832221795719639</v>
       </c>
       <c r="BK68">
-        <v>0.7785873385578803</v>
+        <v>0.2071793764104207</v>
       </c>
       <c r="BL68">
-        <v>0.683959016830631</v>
+        <v>0.3511455218491039</v>
       </c>
       <c r="BM68">
-        <v>0.9602071422528702</v>
+        <v>0.4523940095631491</v>
       </c>
       <c r="BN68">
-        <v>0.8526959775178222</v>
+        <v>0.2564965553118657</v>
       </c>
       <c r="BO68">
-        <v>0.244003832487703</v>
+        <v>-0.1054136014542132</v>
       </c>
       <c r="BP68">
-        <v>0.2889033955290484</v>
+        <v>0.4538402595175757</v>
       </c>
     </row>
     <row r="69" spans="1:80">
       <c r="A69" s="1">
-        <v>37073</v>
+        <v>38534</v>
       </c>
       <c r="BH69">
-        <v>0.1493575413061861</v>
+        <v>-0.1295675474814465</v>
       </c>
       <c r="BI69">
-        <v>0.2478976165325543</v>
+        <v>-0.1514837876116187</v>
       </c>
       <c r="BJ69">
-        <v>0.4120567045008888</v>
+        <v>0.02832221795719639</v>
       </c>
       <c r="BK69">
-        <v>0.7785873385578803</v>
+        <v>0.2071793764104207</v>
       </c>
       <c r="BL69">
-        <v>0.683959016830631</v>
+        <v>0.3511455218491039</v>
       </c>
       <c r="BM69">
-        <v>0.9602071422528702</v>
+        <v>0.4523940095631491</v>
       </c>
       <c r="BN69">
-        <v>0.8526959775178222</v>
+        <v>0.2564965553118657</v>
       </c>
       <c r="BO69">
-        <v>0.244003832487703</v>
+        <v>-0.1054136014542132</v>
       </c>
       <c r="BP69">
-        <v>0.2889033955290484</v>
+        <v>0.4538402595175757</v>
       </c>
       <c r="BQ69">
-        <v>0.1841664103337133</v>
+        <v>0.3811579028136509</v>
       </c>
     </row>
     <row r="70" spans="1:80">
       <c r="A70" s="1">
-        <v>37165</v>
+        <v>38626</v>
       </c>
       <c r="BI70">
-        <v>0.2478976165325543</v>
+        <v>-0.1514837876116187</v>
       </c>
       <c r="BJ70">
-        <v>0.4120567045008888</v>
+        <v>0.02832221795719639</v>
       </c>
       <c r="BK70">
-        <v>0.7785873385578803</v>
+        <v>0.2071793764104207</v>
       </c>
       <c r="BL70">
-        <v>0.683959016830631</v>
+        <v>0.3511455218491039</v>
       </c>
       <c r="BM70">
-        <v>0.9602071422528702</v>
+        <v>0.4523940095631491</v>
       </c>
       <c r="BN70">
-        <v>0.8526959775178222</v>
+        <v>0.2564965553118657</v>
       </c>
       <c r="BO70">
-        <v>0.244003832487703</v>
+        <v>-0.1054136014542132</v>
       </c>
       <c r="BP70">
-        <v>0.2889033955290484</v>
+        <v>0.4538402595175757</v>
       </c>
       <c r="BQ70">
-        <v>0.1841664103337133</v>
+        <v>0.3811579028136509</v>
       </c>
       <c r="BR70">
-        <v>-0.08566364240572692</v>
+        <v>0.4219650952252419</v>
       </c>
     </row>
     <row r="71" spans="1:80">
       <c r="A71" s="1">
-        <v>37257</v>
+        <v>38718</v>
       </c>
       <c r="BJ71">
-        <v>0.4120567045008888</v>
+        <v>0.02832221795719639</v>
       </c>
       <c r="BK71">
-        <v>0.7785873385578803</v>
+        <v>0.2071793764104207</v>
       </c>
       <c r="BL71">
-        <v>0.683959016830631</v>
+        <v>0.3511455218491039</v>
       </c>
       <c r="BM71">
-        <v>0.9602071422528702</v>
+        <v>0.4523940095631491</v>
       </c>
       <c r="BN71">
-        <v>0.8526959775178222</v>
+        <v>0.2564965553118657</v>
       </c>
       <c r="BO71">
-        <v>0.244003832487703</v>
+        <v>-0.1054136014542132</v>
       </c>
       <c r="BP71">
-        <v>0.2889033955290484</v>
+        <v>0.4538402595175757</v>
       </c>
       <c r="BQ71">
-        <v>0.1841664103337133</v>
+        <v>0.3811579028136509</v>
       </c>
       <c r="BR71">
-        <v>-0.08566364240572692</v>
+        <v>0.4219650952252419</v>
       </c>
       <c r="BS71">
-        <v>-0.2107155258033867</v>
+        <v>0.3147401435258078</v>
       </c>
     </row>
     <row r="72" spans="1:80">
       <c r="A72" s="1">
-        <v>37347</v>
+        <v>38808</v>
       </c>
       <c r="BK72">
-        <v>0.7785873385578803</v>
+        <v>0.2071793764104207</v>
       </c>
       <c r="BL72">
-        <v>0.683959016830631</v>
+        <v>0.3511455218491039</v>
       </c>
       <c r="BM72">
-        <v>0.9602071422528702</v>
+        <v>0.4523940095631491</v>
       </c>
       <c r="BN72">
-        <v>0.8526959775178222</v>
+        <v>0.2564965553118657</v>
       </c>
       <c r="BO72">
-        <v>0.244003832487703</v>
+        <v>-0.1054136014542132</v>
       </c>
       <c r="BP72">
-        <v>0.2889033955290484</v>
+        <v>0.4538402595175757</v>
       </c>
       <c r="BQ72">
-        <v>0.1841664103337133</v>
+        <v>0.3811579028136509</v>
       </c>
       <c r="BR72">
-        <v>-0.08566364240572692</v>
+        <v>0.4219650952252419</v>
       </c>
       <c r="BS72">
-        <v>-0.2107155258033867</v>
+        <v>0.3147401435258078</v>
       </c>
       <c r="BT72">
-        <v>-0.04215687686304349</v>
+        <v>0.1874824351208836</v>
       </c>
     </row>
     <row r="73" spans="1:80">
       <c r="A73" s="1">
-        <v>37438</v>
+        <v>38899</v>
       </c>
       <c r="BL73">
-        <v>0.683959016830631</v>
+        <v>0.3511455218491039</v>
       </c>
       <c r="BM73">
-        <v>0.9602071422528702</v>
+        <v>0.4523940095631491</v>
       </c>
       <c r="BN73">
-        <v>0.8526959775178222</v>
+        <v>0.2564965553118657</v>
       </c>
       <c r="BO73">
-        <v>0.244003832487703</v>
+        <v>-0.1054136014542132</v>
       </c>
       <c r="BP73">
-        <v>0.2889033955290484</v>
+        <v>0.4538402595175757</v>
       </c>
       <c r="BQ73">
-        <v>0.1841664103337133</v>
+        <v>0.3811579028136509</v>
       </c>
       <c r="BR73">
-        <v>-0.08566364240572692</v>
+        <v>0.4219650952252419</v>
       </c>
       <c r="BS73">
-        <v>-0.2107155258033867</v>
+        <v>0.3147401435258078</v>
       </c>
       <c r="BT73">
-        <v>-0.04215687686304349</v>
+        <v>0.1874824351208836</v>
       </c>
       <c r="BU73">
-        <v>0.2778303786338436</v>
+        <v>0.7883094405822125</v>
       </c>
     </row>
     <row r="74" spans="1:80">
       <c r="A74" s="1">
-        <v>37530</v>
+        <v>38991</v>
       </c>
       <c r="BM74">
-        <v>0.9602071422528702</v>
+        <v>0.4523940095631491</v>
       </c>
       <c r="BN74">
-        <v>0.8526959775178222</v>
+        <v>0.2564965553118657</v>
       </c>
       <c r="BO74">
-        <v>0.244003832487703</v>
+        <v>-0.1054136014542132</v>
       </c>
       <c r="BP74">
-        <v>0.2889033955290484</v>
+        <v>0.4538402595175757</v>
       </c>
       <c r="BQ74">
-        <v>0.1841664103337133</v>
+        <v>0.3811579028136509</v>
       </c>
       <c r="BR74">
-        <v>-0.08566364240572692</v>
+        <v>0.4219650952252419</v>
       </c>
       <c r="BS74">
-        <v>-0.2107155258033867</v>
+        <v>0.3147401435258078</v>
       </c>
       <c r="BT74">
-        <v>-0.04215687686304349</v>
+        <v>0.1874824351208836</v>
       </c>
       <c r="BU74">
-        <v>0.2778303786338436</v>
+        <v>0.7883094405822125</v>
       </c>
       <c r="BV74">
-        <v>0.2096354475585487</v>
+        <v>0.8534666922226123</v>
       </c>
     </row>
     <row r="75" spans="1:80">
       <c r="A75" s="1">
-        <v>37622</v>
+        <v>39083</v>
       </c>
       <c r="BN75">
-        <v>0.8526959775178222</v>
+        <v>0.2564965553118657</v>
       </c>
       <c r="BO75">
-        <v>0.244003832487703</v>
+        <v>-0.1054136014542132</v>
       </c>
       <c r="BP75">
-        <v>0.2889033955290484</v>
+        <v>0.4538402595175757</v>
       </c>
       <c r="BQ75">
-        <v>0.1841664103337133</v>
+        <v>0.3811579028136509</v>
       </c>
       <c r="BR75">
-        <v>-0.08566364240572692</v>
+        <v>0.4219650952252419</v>
       </c>
       <c r="BS75">
-        <v>-0.2107155258033867</v>
+        <v>0.3147401435258078</v>
       </c>
       <c r="BT75">
-        <v>-0.04215687686304349</v>
+        <v>0.1874824351208836</v>
       </c>
       <c r="BU75">
-        <v>0.2778303786338436</v>
+        <v>0.7883094405822125</v>
       </c>
       <c r="BV75">
-        <v>0.2096354475585487</v>
+        <v>0.8534666922226123</v>
       </c>
       <c r="BW75">
-        <v>0.1370272145569384</v>
+        <v>0.8289611775649219</v>
       </c>
     </row>
     <row r="76" spans="1:80">
       <c r="A76" s="1">
-        <v>37712</v>
+        <v>39173</v>
       </c>
       <c r="BO76">
-        <v>0.244003832487703</v>
+        <v>-0.1054136014542132</v>
       </c>
       <c r="BP76">
-        <v>0.2889033955290484</v>
+        <v>0.4538402595175757</v>
       </c>
       <c r="BQ76">
-        <v>0.1841664103337133</v>
+        <v>0.3811579028136509</v>
       </c>
       <c r="BR76">
-        <v>-0.08566364240572692</v>
+        <v>0.4219650952252419</v>
       </c>
       <c r="BS76">
-        <v>-0.2107155258033867</v>
+        <v>0.3147401435258078</v>
       </c>
       <c r="BT76">
-        <v>-0.04215687686304349</v>
+        <v>0.1874824351208836</v>
       </c>
       <c r="BU76">
-        <v>0.2778303786338436</v>
+        <v>0.7883094405822125</v>
       </c>
       <c r="BV76">
-        <v>0.2096354475585487</v>
+        <v>0.8534666922226123</v>
       </c>
       <c r="BW76">
-        <v>0.1370272145569384</v>
+        <v>0.8289611775649219</v>
       </c>
       <c r="BX76">
-        <v>-0.1295675474814465</v>
+        <v>0.7476033206790205</v>
       </c>
     </row>
     <row r="77" spans="1:80">
       <c r="A77" s="1">
-        <v>37803</v>
+        <v>39264</v>
       </c>
       <c r="BP77">
-        <v>0.2889033955290484</v>
+        <v>0.4538402595175757</v>
       </c>
       <c r="BQ77">
-        <v>0.1841664103337133</v>
+        <v>0.3811579028136509</v>
       </c>
       <c r="BR77">
-        <v>-0.08566364240572692</v>
+        <v>0.4219650952252419</v>
       </c>
       <c r="BS77">
-        <v>-0.2107155258033867</v>
+        <v>0.3147401435258078</v>
       </c>
       <c r="BT77">
-        <v>-0.04215687686304349</v>
+        <v>0.1874824351208836</v>
       </c>
       <c r="BU77">
-        <v>0.2778303786338436</v>
+        <v>0.7883094405822125</v>
       </c>
       <c r="BV77">
-        <v>0.2096354475585487</v>
+        <v>0.8534666922226123</v>
       </c>
       <c r="BW77">
-        <v>0.1370272145569384</v>
+        <v>0.8289611775649219</v>
       </c>
       <c r="BX77">
-        <v>-0.1295675474814465</v>
+        <v>0.7476033206790205</v>
       </c>
       <c r="BY77">
-        <v>-0.1514837876116187</v>
+        <v>0.3996351164005113</v>
       </c>
     </row>
     <row r="78" spans="1:80">
       <c r="A78" s="1">
-        <v>37895</v>
+        <v>39356</v>
       </c>
       <c r="BQ78">
-        <v>0.1841664103337133</v>
+        <v>0.3811579028136509</v>
       </c>
       <c r="BR78">
-        <v>-0.08566364240572692</v>
+        <v>0.4219650952252419</v>
       </c>
       <c r="BS78">
-        <v>-0.2107155258033867</v>
+        <v>0.3147401435258078</v>
       </c>
       <c r="BT78">
-        <v>-0.04215687686304349</v>
+        <v>0.1874824351208836</v>
       </c>
       <c r="BU78">
-        <v>0.2778303786338436</v>
+        <v>0.7883094405822125</v>
       </c>
       <c r="BV78">
-        <v>0.2096354475585487</v>
+        <v>0.8534666922226123</v>
       </c>
       <c r="BW78">
-        <v>0.1370272145569384</v>
+        <v>0.8289611775649219</v>
       </c>
       <c r="BX78">
-        <v>-0.1295675474814465</v>
+        <v>0.7476033206790205</v>
       </c>
       <c r="BY78">
-        <v>-0.1514837876116187</v>
+        <v>0.3996351164005113</v>
       </c>
       <c r="BZ78">
-        <v>0.02832221795719639</v>
+        <v>0.4713798804597414</v>
       </c>
     </row>
     <row r="79" spans="1:80">
       <c r="A79" s="1">
-        <v>37987</v>
+        <v>39448</v>
       </c>
       <c r="BR79">
-        <v>-0.08566364240572692</v>
+        <v>0.4219650952252419</v>
       </c>
       <c r="BS79">
-        <v>-0.2107155258033867</v>
+        <v>0.3147401435258078</v>
       </c>
       <c r="BT79">
-        <v>-0.04215687686304349</v>
+        <v>0.1874824351208836</v>
       </c>
       <c r="BU79">
-        <v>0.2778303786338436</v>
+        <v>0.7883094405822125</v>
       </c>
       <c r="BV79">
-        <v>0.2096354475585487</v>
+        <v>0.8534666922226123</v>
       </c>
       <c r="BW79">
-        <v>0.1370272145569384</v>
+        <v>0.8289611775649219</v>
       </c>
       <c r="BX79">
-        <v>-0.1295675474814465</v>
+        <v>0.7476033206790205</v>
       </c>
       <c r="BY79">
-        <v>-0.1514837876116187</v>
+        <v>0.3996351164005113</v>
       </c>
       <c r="BZ79">
-        <v>0.02832221795719639</v>
+        <v>0.4713798804597414</v>
       </c>
       <c r="CA79">
-        <v>0.2071793764104207</v>
+        <v>0.465498893456654</v>
       </c>
     </row>
     <row r="80" spans="1:80">
       <c r="A80" s="1">
-        <v>38078</v>
+        <v>39539</v>
       </c>
       <c r="BS80">
-        <v>-0.2107155258033867</v>
+        <v>0.3147401435258078</v>
       </c>
       <c r="BT80">
-        <v>-0.04215687686304349</v>
+        <v>0.1874824351208836</v>
       </c>
       <c r="BU80">
-        <v>0.2778303786338436</v>
+        <v>0.7883094405822125</v>
       </c>
       <c r="BV80">
-        <v>0.2096354475585487</v>
+        <v>0.8534666922226123</v>
       </c>
       <c r="BW80">
-        <v>0.1370272145569384</v>
+        <v>0.8289611775649219</v>
       </c>
       <c r="BX80">
-        <v>-0.1295675474814465</v>
+        <v>0.7476033206790205</v>
       </c>
       <c r="BY80">
-        <v>-0.1514837876116187</v>
+        <v>0.3996351164005113</v>
       </c>
       <c r="BZ80">
-        <v>0.02832221795719639</v>
+        <v>0.4713798804597414</v>
       </c>
       <c r="CA80">
-        <v>0.2071793764104207</v>
+        <v>0.465498893456654</v>
       </c>
       <c r="CB80">
-        <v>0.3511455218491039</v>
+        <v>0.8970498488576362</v>
       </c>
     </row>
     <row r="81" spans="1:96">
       <c r="A81" s="1">
-        <v>38169</v>
+        <v>39630</v>
       </c>
       <c r="BT81">
-        <v>-0.04215687686304349</v>
+        <v>0.1874824351208836</v>
       </c>
       <c r="BU81">
-        <v>0.2778303786338436</v>
+        <v>0.7883094405822125</v>
       </c>
       <c r="BV81">
-        <v>0.2096354475585487</v>
+        <v>0.8534666922226123</v>
       </c>
       <c r="BW81">
-        <v>0.1370272145569384</v>
+        <v>0.8289611775649219</v>
       </c>
       <c r="BX81">
-        <v>-0.1295675474814465</v>
+        <v>0.7476033206790205</v>
       </c>
       <c r="BY81">
-        <v>-0.1514837876116187</v>
+        <v>0.3996351164005113</v>
       </c>
       <c r="BZ81">
-        <v>0.02832221795719639</v>
+        <v>0.4713798804597414</v>
       </c>
       <c r="CA81">
-        <v>0.2071793764104207</v>
+        <v>0.465498893456654</v>
       </c>
       <c r="CB81">
-        <v>0.3511455218491039</v>
+        <v>0.8970498488576362</v>
       </c>
       <c r="CC81">
-        <v>0.4523940095631491</v>
+        <v>0.3865317719365428</v>
       </c>
     </row>
     <row r="82" spans="1:96">
       <c r="A82" s="1">
-        <v>38261</v>
+        <v>39722</v>
       </c>
       <c r="BU82">
-        <v>0.2778303786338436</v>
+        <v>0.7883094405822125</v>
       </c>
       <c r="BV82">
-        <v>0.2096354475585487</v>
+        <v>0.8534666922226123</v>
       </c>
       <c r="BW82">
-        <v>0.1370272145569384</v>
+        <v>0.8289611775649219</v>
       </c>
       <c r="BX82">
-        <v>-0.1295675474814465</v>
+        <v>0.7476033206790205</v>
       </c>
       <c r="BY82">
-        <v>-0.1514837876116187</v>
+        <v>0.3996351164005113</v>
       </c>
       <c r="BZ82">
-        <v>0.02832221795719639</v>
+        <v>0.4713798804597414</v>
       </c>
       <c r="CA82">
-        <v>0.2071793764104207</v>
+        <v>0.465498893456654</v>
       </c>
       <c r="CB82">
-        <v>0.3511455218491039</v>
+        <v>0.8970498488576362</v>
       </c>
       <c r="CC82">
-        <v>0.4523940095631491</v>
+        <v>0.3865317719365428</v>
       </c>
       <c r="CD82">
-        <v>0.2564965553118657</v>
+        <v>-0.4737844322471635</v>
       </c>
     </row>
     <row r="83" spans="1:96">
       <c r="A83" s="1">
-        <v>38353</v>
+        <v>39814</v>
       </c>
       <c r="BV83">
-        <v>0.2096354475585487</v>
+        <v>0.8534666922226123</v>
       </c>
       <c r="BW83">
-        <v>0.1370272145569384</v>
+        <v>0.8289611775649219</v>
       </c>
       <c r="BX83">
-        <v>-0.1295675474814465</v>
+        <v>0.7476033206790205</v>
       </c>
       <c r="BY83">
-        <v>-0.1514837876116187</v>
+        <v>0.3996351164005113</v>
       </c>
       <c r="BZ83">
-        <v>0.02832221795719639</v>
+        <v>0.4713798804597414</v>
       </c>
       <c r="CA83">
-        <v>0.2071793764104207</v>
+        <v>0.465498893456654</v>
       </c>
       <c r="CB83">
-        <v>0.3511455218491039</v>
+        <v>0.8970498488576362</v>
       </c>
       <c r="CC83">
-        <v>0.4523940095631491</v>
+        <v>0.3865317719365428</v>
       </c>
       <c r="CD83">
-        <v>0.2564965553118657</v>
+        <v>-0.4737844322471635</v>
       </c>
       <c r="CE83">
-        <v>-0.1054136014542132</v>
+        <v>-1.325071230226886</v>
       </c>
     </row>
     <row r="84" spans="1:96">
       <c r="A84" s="1">
-        <v>38443</v>
+        <v>39904</v>
       </c>
       <c r="BW84">
-        <v>0.1370272145569384</v>
+        <v>0.8289611775649219</v>
       </c>
       <c r="BX84">
-        <v>-0.1295675474814465</v>
+        <v>0.7476033206790205</v>
       </c>
       <c r="BY84">
-        <v>-0.1514837876116187</v>
+        <v>0.3996351164005113</v>
       </c>
       <c r="BZ84">
-        <v>0.02832221795719639</v>
+        <v>0.4713798804597414</v>
       </c>
       <c r="CA84">
-        <v>0.2071793764104207</v>
+        <v>0.465498893456654</v>
       </c>
       <c r="CB84">
-        <v>0.3511455218491039</v>
+        <v>0.8970498488576362</v>
       </c>
       <c r="CC84">
-        <v>0.4523940095631491</v>
+        <v>0.3865317719365428</v>
       </c>
       <c r="CD84">
-        <v>0.2564965553118657</v>
+        <v>-0.4737844322471635</v>
       </c>
       <c r="CE84">
-        <v>-0.1054136014542132</v>
+        <v>-1.325071230226886</v>
       </c>
       <c r="CF84">
-        <v>0.4538402595175757</v>
+        <v>-3.0134102622518</v>
       </c>
     </row>
     <row r="85" spans="1:96">
       <c r="A85" s="1">
-        <v>38534</v>
+        <v>39995</v>
       </c>
       <c r="BX85">
-        <v>-0.1295675474814465</v>
+        <v>0.7476033206790205</v>
       </c>
       <c r="BY85">
-        <v>-0.1514837876116187</v>
+        <v>0.3996351164005113</v>
       </c>
       <c r="BZ85">
-        <v>0.02832221795719639</v>
+        <v>0.4713798804597414</v>
       </c>
       <c r="CA85">
-        <v>0.2071793764104207</v>
+        <v>0.465498893456654</v>
       </c>
       <c r="CB85">
-        <v>0.3511455218491039</v>
+        <v>0.8970498488576362</v>
       </c>
       <c r="CC85">
-        <v>0.4523940095631491</v>
+        <v>0.3865317719365428</v>
       </c>
       <c r="CD85">
-        <v>0.2564965553118657</v>
+        <v>-0.4737844322471635</v>
       </c>
       <c r="CE85">
-        <v>-0.1054136014542132</v>
+        <v>-1.325071230226886</v>
       </c>
       <c r="CF85">
-        <v>0.4538402595175757</v>
+        <v>-3.0134102622518</v>
       </c>
       <c r="CG85">
-        <v>0.3811579028136509</v>
+        <v>-1.609384831228322</v>
       </c>
     </row>
     <row r="86" spans="1:96">
       <c r="A86" s="1">
-        <v>38626</v>
+        <v>40087</v>
       </c>
       <c r="BY86">
-        <v>-0.1514837876116187</v>
+        <v>0.3996351164005113</v>
       </c>
       <c r="BZ86">
-        <v>0.02832221795719639</v>
+        <v>0.4713798804597414</v>
       </c>
       <c r="CA86">
-        <v>0.2071793764104207</v>
+        <v>0.465498893456654</v>
       </c>
       <c r="CB86">
-        <v>0.3511455218491039</v>
+        <v>0.8970498488576362</v>
       </c>
       <c r="CC86">
-        <v>0.4523940095631491</v>
+        <v>0.3865317719365428</v>
       </c>
       <c r="CD86">
-        <v>0.2564965553118657</v>
+        <v>-0.4737844322471635</v>
       </c>
       <c r="CE86">
-        <v>-0.1054136014542132</v>
+        <v>-1.325071230226886</v>
       </c>
       <c r="CF86">
-        <v>0.4538402595175757</v>
+        <v>-3.0134102622518</v>
       </c>
       <c r="CG86">
-        <v>0.3811579028136509</v>
+        <v>-1.609384831228322</v>
       </c>
       <c r="CH86">
-        <v>0.4219650952252419</v>
+        <v>0.585322342063246</v>
       </c>
     </row>
     <row r="87" spans="1:96">
       <c r="A87" s="1">
-        <v>38718</v>
+        <v>40179</v>
       </c>
       <c r="BZ87">
-        <v>0.02832221795719639</v>
+        <v>0.4713798804597414</v>
       </c>
       <c r="CA87">
-        <v>0.2071793764104207</v>
+        <v>0.465498893456654</v>
       </c>
       <c r="CB87">
-        <v>0.3511455218491039</v>
+        <v>0.8970498488576362</v>
       </c>
       <c r="CC87">
-        <v>0.4523940095631491</v>
+        <v>0.3865317719365428</v>
       </c>
       <c r="CD87">
-        <v>0.2564965553118657</v>
+        <v>-0.4737844322471635</v>
       </c>
       <c r="CE87">
-        <v>-0.1054136014542132</v>
+        <v>-1.325071230226886</v>
       </c>
       <c r="CF87">
-        <v>0.4538402595175757</v>
+        <v>-3.0134102622518</v>
       </c>
       <c r="CG87">
-        <v>0.3811579028136509</v>
+        <v>-1.609384831228322</v>
       </c>
       <c r="CH87">
-        <v>0.4219650952252419</v>
+        <v>0.585322342063246</v>
       </c>
       <c r="CI87">
-        <v>0.3147401435258078</v>
+        <v>0.3687040207098991</v>
       </c>
     </row>
     <row r="88" spans="1:96">
       <c r="A88" s="1">
-        <v>38808</v>
+        <v>40269</v>
       </c>
       <c r="CA88">
-        <v>0.2071793764104207</v>
+        <v>0.465498893456654</v>
       </c>
       <c r="CB88">
-        <v>0.3511455218491039</v>
+        <v>0.8970498488576362</v>
       </c>
       <c r="CC88">
-        <v>0.4523940095631491</v>
+        <v>0.3865317719365428</v>
       </c>
       <c r="CD88">
-        <v>0.2564965553118657</v>
+        <v>-0.4737844322471635</v>
       </c>
       <c r="CE88">
-        <v>-0.1054136014542132</v>
+        <v>-1.325071230226886</v>
       </c>
       <c r="CF88">
-        <v>0.4538402595175757</v>
+        <v>-3.0134102622518</v>
       </c>
       <c r="CG88">
-        <v>0.3811579028136509</v>
+        <v>-1.609384831228322</v>
       </c>
       <c r="CH88">
-        <v>0.4219650952252419</v>
+        <v>0.585322342063246</v>
       </c>
       <c r="CI88">
-        <v>0.3147401435258078</v>
+        <v>0.3687040207098991</v>
       </c>
       <c r="CJ88">
-        <v>0.1874824351208836</v>
+        <v>0.1710057202826473</v>
       </c>
     </row>
     <row r="89" spans="1:96">
       <c r="A89" s="1">
-        <v>38899</v>
+        <v>40360</v>
       </c>
       <c r="CB89">
-        <v>0.3511455218491039</v>
+        <v>0.8970498488576362</v>
       </c>
       <c r="CC89">
-        <v>0.4523940095631491</v>
+        <v>0.3865317719365428</v>
       </c>
       <c r="CD89">
-        <v>0.2564965553118657</v>
+        <v>-0.4737844322471635</v>
       </c>
       <c r="CE89">
-        <v>-0.1054136014542132</v>
+        <v>-1.325071230226886</v>
       </c>
       <c r="CF89">
-        <v>0.4538402595175757</v>
+        <v>-3.0134102622518</v>
       </c>
       <c r="CG89">
-        <v>0.3811579028136509</v>
+        <v>-1.609384831228322</v>
       </c>
       <c r="CH89">
-        <v>0.4219650952252419</v>
+        <v>0.585322342063246</v>
       </c>
       <c r="CI89">
-        <v>0.3147401435258078</v>
+        <v>0.3687040207098991</v>
       </c>
       <c r="CJ89">
-        <v>0.1874824351208836</v>
+        <v>0.1710057202826473</v>
       </c>
       <c r="CK89">
-        <v>0.7883094405822125</v>
+        <v>1.322549253608671</v>
       </c>
     </row>
     <row r="90" spans="1:96">
       <c r="A90" s="1">
-        <v>38991</v>
+        <v>40452</v>
       </c>
       <c r="CC90">
-        <v>0.4523940095631491</v>
+        <v>0.3865317719365428</v>
       </c>
       <c r="CD90">
-        <v>0.2564965553118657</v>
+        <v>-0.4737844322471635</v>
       </c>
       <c r="CE90">
-        <v>-0.1054136014542132</v>
+        <v>-1.325071230226886</v>
       </c>
       <c r="CF90">
-        <v>0.4538402595175757</v>
+        <v>-3.0134102622518</v>
       </c>
       <c r="CG90">
-        <v>0.3811579028136509</v>
+        <v>-1.609384831228322</v>
       </c>
       <c r="CH90">
-        <v>0.4219650952252419</v>
+        <v>0.585322342063246</v>
       </c>
       <c r="CI90">
-        <v>0.3147401435258078</v>
+        <v>0.3687040207098991</v>
       </c>
       <c r="CJ90">
-        <v>0.1874824351208836</v>
+        <v>0.1710057202826473</v>
       </c>
       <c r="CK90">
-        <v>0.7883094405822125</v>
+        <v>1.322549253608671</v>
       </c>
       <c r="CL90">
-        <v>0.8534666922226123</v>
+        <v>1.499999344154686</v>
       </c>
     </row>
     <row r="91" spans="1:96">
       <c r="A91" s="1">
-        <v>39083</v>
+        <v>40544</v>
       </c>
       <c r="CD91">
-        <v>0.2564965553118657</v>
+        <v>-0.4737844322471635</v>
       </c>
       <c r="CE91">
-        <v>-0.1054136014542132</v>
+        <v>-1.325071230226886</v>
       </c>
       <c r="CF91">
-        <v>0.4538402595175757</v>
+        <v>-3.0134102622518</v>
       </c>
       <c r="CG91">
-        <v>0.3811579028136509</v>
+        <v>-1.609384831228322</v>
       </c>
       <c r="CH91">
-        <v>0.4219650952252419</v>
+        <v>0.585322342063246</v>
       </c>
       <c r="CI91">
-        <v>0.3147401435258078</v>
+        <v>0.3687040207098991</v>
       </c>
       <c r="CJ91">
-        <v>0.1874824351208836</v>
+        <v>0.1710057202826473</v>
       </c>
       <c r="CK91">
-        <v>0.7883094405822125</v>
+        <v>1.322549253608671</v>
       </c>
       <c r="CL91">
-        <v>0.8534666922226123</v>
+        <v>1.499999344154686</v>
       </c>
       <c r="CM91">
-        <v>0.8289611775649219</v>
+        <v>0.5313745716684999</v>
       </c>
     </row>
     <row r="92" spans="1:96">
       <c r="A92" s="1">
-        <v>39173</v>
+        <v>40634</v>
       </c>
       <c r="CE92">
-        <v>-0.1054136014542132</v>
+        <v>-1.325071230226886</v>
       </c>
       <c r="CF92">
-        <v>0.4538402595175757</v>
+        <v>-3.0134102622518</v>
       </c>
       <c r="CG92">
-        <v>0.3811579028136509</v>
+        <v>-1.609384831228322</v>
       </c>
       <c r="CH92">
-        <v>0.4219650952252419</v>
+        <v>0.585322342063246</v>
       </c>
       <c r="CI92">
-        <v>0.3147401435258078</v>
+        <v>0.3687040207098991</v>
       </c>
       <c r="CJ92">
-        <v>0.1874824351208836</v>
+        <v>0.1710057202826473</v>
       </c>
       <c r="CK92">
-        <v>0.7883094405822125</v>
+        <v>1.322549253608671</v>
       </c>
       <c r="CL92">
-        <v>0.8534666922226123</v>
+        <v>1.499999344154686</v>
       </c>
       <c r="CM92">
-        <v>0.8289611775649219</v>
+        <v>0.5313745716684999</v>
       </c>
       <c r="CN92">
-        <v>0.7476033206790205</v>
+        <v>0.9319730398245117</v>
       </c>
     </row>
     <row r="93" spans="1:96">
       <c r="A93" s="1">
-        <v>39264</v>
+        <v>40725</v>
       </c>
       <c r="CF93">
-        <v>0.4538402595175757</v>
+        <v>-3.0134102622518</v>
       </c>
       <c r="CG93">
-        <v>0.3811579028136509</v>
+        <v>-1.609384831228322</v>
       </c>
       <c r="CH93">
-        <v>0.4219650952252419</v>
+        <v>0.585322342063246</v>
       </c>
       <c r="CI93">
-        <v>0.3147401435258078</v>
+        <v>0.3687040207098991</v>
       </c>
       <c r="CJ93">
-        <v>0.1874824351208836</v>
+        <v>0.1710057202826473</v>
       </c>
       <c r="CK93">
-        <v>0.7883094405822125</v>
+        <v>1.322549253608671</v>
       </c>
       <c r="CL93">
-        <v>0.8534666922226123</v>
+        <v>1.499999344154686</v>
       </c>
       <c r="CM93">
-        <v>0.8289611775649219</v>
+        <v>0.5313745716684999</v>
       </c>
       <c r="CN93">
-        <v>0.7476033206790205</v>
+        <v>0.9319730398245117</v>
       </c>
       <c r="CO93">
-        <v>0.3996351164005113</v>
+        <v>0.7334655993102255</v>
       </c>
     </row>
     <row r="94" spans="1:96">
       <c r="A94" s="1">
-        <v>39356</v>
+        <v>40817</v>
       </c>
       <c r="CG94">
-        <v>0.3811579028136509</v>
+        <v>-1.609384831228322</v>
       </c>
       <c r="CH94">
-        <v>0.4219650952252419</v>
+        <v>0.585322342063246</v>
       </c>
       <c r="CI94">
-        <v>0.3147401435258078</v>
+        <v>0.3687040207098991</v>
       </c>
       <c r="CJ94">
-        <v>0.1874824351208836</v>
+        <v>0.1710057202826473</v>
       </c>
       <c r="CK94">
-        <v>0.7883094405822125</v>
+        <v>1.322549253608671</v>
       </c>
       <c r="CL94">
-        <v>0.8534666922226123</v>
+        <v>1.499999344154686</v>
       </c>
       <c r="CM94">
-        <v>0.8289611775649219</v>
+        <v>0.5313745716684999</v>
       </c>
       <c r="CN94">
-        <v>0.7476033206790205</v>
+        <v>0.9319730398245117</v>
       </c>
       <c r="CO94">
-        <v>0.3996351164005113</v>
+        <v>0.7334655993102255</v>
       </c>
       <c r="CP94">
-        <v>0.4713798804597414</v>
+        <v>0.3890732509510448</v>
       </c>
     </row>
     <row r="95" spans="1:96">
       <c r="A95" s="1">
-        <v>39448</v>
+        <v>40909</v>
       </c>
       <c r="CH95">
-        <v>0.4219650952252419</v>
+        <v>0.585322342063246</v>
       </c>
       <c r="CI95">
-        <v>0.3147401435258078</v>
+        <v>0.3687040207098991</v>
       </c>
       <c r="CJ95">
-        <v>0.1874824351208836</v>
+        <v>0.1710057202826473</v>
       </c>
       <c r="CK95">
-        <v>0.7883094405822125</v>
+        <v>1.322549253608671</v>
       </c>
       <c r="CL95">
-        <v>0.8534666922226123</v>
+        <v>1.499999344154686</v>
       </c>
       <c r="CM95">
-        <v>0.8289611775649219</v>
+        <v>0.5313745716684999</v>
       </c>
       <c r="CN95">
-        <v>0.7476033206790205</v>
+        <v>0.9319730398245117</v>
       </c>
       <c r="CO95">
-        <v>0.3996351164005113</v>
+        <v>0.7334655993102255</v>
       </c>
       <c r="CP95">
-        <v>0.4713798804597414</v>
+        <v>0.3890732509510448</v>
       </c>
       <c r="CQ95">
-        <v>0.465498893456654</v>
+        <v>0.1971582984394383</v>
       </c>
     </row>
     <row r="96" spans="1:96">
       <c r="A96" s="1">
-        <v>39539</v>
+        <v>41000</v>
       </c>
       <c r="CI96">
-        <v>0.3147401435258078</v>
+        <v>0.3687040207098991</v>
       </c>
       <c r="CJ96">
-        <v>0.1874824351208836</v>
+        <v>0.1710057202826473</v>
       </c>
       <c r="CK96">
-        <v>0.7883094405822125</v>
+        <v>1.322549253608671</v>
       </c>
       <c r="CL96">
-        <v>0.8534666922226123</v>
+        <v>1.499999344154686</v>
       </c>
       <c r="CM96">
-        <v>0.8289611775649219</v>
+        <v>0.5313745716684999</v>
       </c>
       <c r="CN96">
-        <v>0.7476033206790205</v>
+        <v>0.9319730398245117</v>
       </c>
       <c r="CO96">
-        <v>0.3996351164005113</v>
+        <v>0.7334655993102255</v>
       </c>
       <c r="CP96">
-        <v>0.4713798804597414</v>
+        <v>0.3890732509510448</v>
       </c>
       <c r="CQ96">
-        <v>0.465498893456654</v>
+        <v>0.1971582984394383</v>
       </c>
       <c r="CR96">
-        <v>0.8970498488576362</v>
+        <v>0.164144910068436</v>
       </c>
     </row>
     <row r="97" spans="1:112">
       <c r="A97" s="1">
-        <v>39630</v>
+        <v>41091</v>
       </c>
       <c r="CJ97">
-        <v>0.1874824351208836</v>
+        <v>0.1710057202826473</v>
       </c>
       <c r="CK97">
-        <v>0.7883094405822125</v>
+        <v>1.322549253608671</v>
       </c>
       <c r="CL97">
-        <v>0.8534666922226123</v>
+        <v>1.499999344154686</v>
       </c>
       <c r="CM97">
-        <v>0.8289611775649219</v>
+        <v>0.5313745716684999</v>
       </c>
       <c r="CN97">
-        <v>0.7476033206790205</v>
+        <v>0.9319730398245117</v>
       </c>
       <c r="CO97">
-        <v>0.3996351164005113</v>
+        <v>0.7334655993102255</v>
       </c>
       <c r="CP97">
-        <v>0.4713798804597414</v>
+        <v>0.3890732509510448</v>
       </c>
       <c r="CQ97">
-        <v>0.465498893456654</v>
+        <v>0.1971582984394383</v>
       </c>
       <c r="CR97">
-        <v>0.8970498488576362</v>
+        <v>0.164144910068436</v>
       </c>
       <c r="CS97">
-        <v>0.3865317719365428</v>
+        <v>0.3847424952750509</v>
       </c>
     </row>
     <row r="98" spans="1:112">
       <c r="A98" s="1">
-        <v>39722</v>
+        <v>41183</v>
       </c>
       <c r="CK98">
-        <v>0.7883094405822125</v>
+        <v>1.322549253608671</v>
       </c>
       <c r="CL98">
-        <v>0.8534666922226123</v>
+        <v>1.499999344154686</v>
       </c>
       <c r="CM98">
-        <v>0.8289611775649219</v>
+        <v>0.5313745716684999</v>
       </c>
       <c r="CN98">
-        <v>0.7476033206790205</v>
+        <v>0.9319730398245117</v>
       </c>
       <c r="CO98">
-        <v>0.3996351164005113</v>
+        <v>0.7334655993102255</v>
       </c>
       <c r="CP98">
-        <v>0.4713798804597414</v>
+        <v>0.3890732509510448</v>
       </c>
       <c r="CQ98">
-        <v>0.465498893456654</v>
+        <v>0.1971582984394383</v>
       </c>
       <c r="CR98">
-        <v>0.8970498488576362</v>
+        <v>0.164144910068436</v>
       </c>
       <c r="CS98">
-        <v>0.3865317719365428</v>
+        <v>0.3847424952750509</v>
       </c>
       <c r="CT98">
-        <v>-0.4737844322471635</v>
+        <v>0.2523452698770574</v>
       </c>
     </row>
     <row r="99" spans="1:112">
       <c r="A99" s="1">
-        <v>39814</v>
+        <v>41275</v>
       </c>
       <c r="CL99">
-        <v>0.8534666922226123</v>
+        <v>1.499999344154686</v>
       </c>
       <c r="CM99">
-        <v>0.8289611775649219</v>
+        <v>0.5313745716684999</v>
       </c>
       <c r="CN99">
-        <v>0.7476033206790205</v>
+        <v>0.9319730398245117</v>
       </c>
       <c r="CO99">
-        <v>0.3996351164005113</v>
+        <v>0.7334655993102255</v>
       </c>
       <c r="CP99">
-        <v>0.4713798804597414</v>
+        <v>0.3890732509510448</v>
       </c>
       <c r="CQ99">
-        <v>0.465498893456654</v>
+        <v>0.1971582984394383</v>
       </c>
       <c r="CR99">
-        <v>0.8970498488576362</v>
+        <v>0.164144910068436</v>
       </c>
       <c r="CS99">
-        <v>0.3865317719365428</v>
+        <v>0.3847424952750509</v>
       </c>
       <c r="CT99">
-        <v>-0.4737844322471635</v>
+        <v>0.2523452698770574</v>
       </c>
       <c r="CU99">
-        <v>-1.325071230226886</v>
+        <v>-0.1792762830641941</v>
       </c>
     </row>
     <row r="100" spans="1:112">
       <c r="A100" s="1">
-        <v>39904</v>
+        <v>41365</v>
       </c>
       <c r="CM100">
-        <v>0.8289611775649219</v>
+        <v>0.5313745716684999</v>
       </c>
       <c r="CN100">
-        <v>0.7476033206790205</v>
+        <v>0.9319730398245117</v>
       </c>
       <c r="CO100">
-        <v>0.3996351164005113</v>
+        <v>0.7334655993102255</v>
       </c>
       <c r="CP100">
-        <v>0.4713798804597414</v>
+        <v>0.3890732509510448</v>
       </c>
       <c r="CQ100">
-        <v>0.465498893456654</v>
+        <v>0.1971582984394383</v>
       </c>
       <c r="CR100">
-        <v>0.8970498488576362</v>
+        <v>0.164144910068436</v>
       </c>
       <c r="CS100">
-        <v>0.3865317719365428</v>
+        <v>0.3847424952750509</v>
       </c>
       <c r="CT100">
-        <v>-0.4737844322471635</v>
+        <v>0.2523452698770574</v>
       </c>
       <c r="CU100">
-        <v>-1.325071230226886</v>
+        <v>-0.1792762830641941</v>
       </c>
       <c r="CV100">
-        <v>-3.0134102622518</v>
+        <v>-0.3140207857278257</v>
       </c>
     </row>
     <row r="101" spans="1:112">
       <c r="A101" s="1">
-        <v>39995</v>
+        <v>41456</v>
       </c>
       <c r="CN101">
-        <v>0.7476033206790205</v>
+        <v>0.9319730398245117</v>
       </c>
       <c r="CO101">
-        <v>0.3996351164005113</v>
+        <v>0.7334655993102255</v>
       </c>
       <c r="CP101">
-        <v>0.4713798804597414</v>
+        <v>0.3890732509510448</v>
       </c>
       <c r="CQ101">
-        <v>0.465498893456654</v>
+        <v>0.1971582984394383</v>
       </c>
       <c r="CR101">
-        <v>0.8970498488576362</v>
+        <v>0.164144910068436</v>
       </c>
       <c r="CS101">
-        <v>0.3865317719365428</v>
+        <v>0.3847424952750509</v>
       </c>
       <c r="CT101">
-        <v>-0.4737844322471635</v>
+        <v>0.2523452698770574</v>
       </c>
       <c r="CU101">
-        <v>-1.325071230226886</v>
+        <v>-0.1792762830641941</v>
       </c>
       <c r="CV101">
-        <v>-3.0134102622518</v>
+        <v>-0.3140207857278257</v>
       </c>
       <c r="CW101">
-        <v>-1.609384831228322</v>
+        <v>0.3607178284786713</v>
       </c>
     </row>
     <row r="102" spans="1:112">
       <c r="A102" s="1">
-        <v>40087</v>
+        <v>41548</v>
       </c>
       <c r="CO102">
-        <v>0.3996351164005113</v>
+        <v>0.7334655993102255</v>
       </c>
       <c r="CP102">
-        <v>0.4713798804597414</v>
+        <v>0.3890732509510448</v>
       </c>
       <c r="CQ102">
-        <v>0.465498893456654</v>
+        <v>0.1971582984394383</v>
       </c>
       <c r="CR102">
-        <v>0.8970498488576362</v>
+        <v>0.164144910068436</v>
       </c>
       <c r="CS102">
-        <v>0.3865317719365428</v>
+        <v>0.3847424952750509</v>
       </c>
       <c r="CT102">
-        <v>-0.4737844322471635</v>
+        <v>0.2523452698770574</v>
       </c>
       <c r="CU102">
-        <v>-1.325071230226886</v>
+        <v>-0.1792762830641941</v>
       </c>
       <c r="CV102">
-        <v>-3.0134102622518</v>
+        <v>-0.3140207857278257</v>
       </c>
       <c r="CW102">
-        <v>-1.609384831228322</v>
+        <v>0.3607178284786713</v>
       </c>
       <c r="CX102">
-        <v>0.585322342063246</v>
+        <v>0.5218781830314511</v>
       </c>
     </row>
     <row r="103" spans="1:112">
       <c r="A103" s="1">
-        <v>40179</v>
+        <v>41640</v>
       </c>
       <c r="CP103">
-        <v>0.4713798804597414</v>
+        <v>0.3890732509510448</v>
       </c>
       <c r="CQ103">
-        <v>0.465498893456654</v>
+        <v>0.1971582984394383</v>
       </c>
       <c r="CR103">
-        <v>0.8970498488576362</v>
+        <v>0.164144910068436</v>
       </c>
       <c r="CS103">
-        <v>0.3865317719365428</v>
+        <v>0.3847424952750509</v>
       </c>
       <c r="CT103">
-        <v>-0.4737844322471635</v>
+        <v>0.2523452698770574</v>
       </c>
       <c r="CU103">
-        <v>-1.325071230226886</v>
+        <v>-0.1792762830641941</v>
       </c>
       <c r="CV103">
-        <v>-3.0134102622518</v>
+        <v>-0.3140207857278257</v>
       </c>
       <c r="CW103">
-        <v>-1.609384831228322</v>
+        <v>0.3607178284786713</v>
       </c>
       <c r="CX103">
-        <v>0.585322342063246</v>
+        <v>0.5218781830314511</v>
       </c>
       <c r="CY103">
-        <v>0.3687040207098991</v>
+        <v>0.3530389801663482</v>
       </c>
     </row>
     <row r="104" spans="1:112">
       <c r="A104" s="1">
-        <v>40269</v>
+        <v>41730</v>
       </c>
       <c r="CQ104">
-        <v>0.465498893456654</v>
+        <v>0.1971582984394383</v>
       </c>
       <c r="CR104">
-        <v>0.8970498488576362</v>
+        <v>0.164144910068436</v>
       </c>
       <c r="CS104">
-        <v>0.3865317719365428</v>
+        <v>0.3847424952750509</v>
       </c>
       <c r="CT104">
-        <v>-0.4737844322471635</v>
+        <v>0.2523452698770574</v>
       </c>
       <c r="CU104">
-        <v>-1.325071230226886</v>
+        <v>-0.1792762830641941</v>
       </c>
       <c r="CV104">
-        <v>-3.0134102622518</v>
+        <v>-0.3140207857278257</v>
       </c>
       <c r="CW104">
-        <v>-1.609384831228322</v>
+        <v>0.3607178284786713</v>
       </c>
       <c r="CX104">
-        <v>0.585322342063246</v>
+        <v>0.5218781830314511</v>
       </c>
       <c r="CY104">
-        <v>0.3687040207098991</v>
+        <v>0.3530389801663482</v>
       </c>
       <c r="CZ104">
-        <v>0.1710057202826473</v>
+        <v>0.6008402187856887</v>
       </c>
     </row>
     <row r="105" spans="1:112">
       <c r="A105" s="1">
-        <v>40360</v>
+        <v>41821</v>
       </c>
       <c r="CR105">
-        <v>0.8970498488576362</v>
+        <v>0.164144910068436</v>
       </c>
       <c r="CS105">
-        <v>0.3865317719365428</v>
+        <v>0.3847424952750509</v>
       </c>
       <c r="CT105">
-        <v>-0.4737844322471635</v>
+        <v>0.2523452698770574</v>
       </c>
       <c r="CU105">
-        <v>-1.325071230226886</v>
+        <v>-0.1792762830641941</v>
       </c>
       <c r="CV105">
-        <v>-3.0134102622518</v>
+        <v>-0.3140207857278257</v>
       </c>
       <c r="CW105">
-        <v>-1.609384831228322</v>
+        <v>0.3607178284786713</v>
       </c>
       <c r="CX105">
-        <v>0.585322342063246</v>
+        <v>0.5218781830314511</v>
       </c>
       <c r="CY105">
-        <v>0.3687040207098991</v>
+        <v>0.3530389801663482</v>
       </c>
       <c r="CZ105">
-        <v>0.1710057202826473</v>
+        <v>0.6008402187856887</v>
       </c>
       <c r="DA105">
-        <v>1.322549253608671</v>
+        <v>0.2529894957798157</v>
       </c>
     </row>
     <row r="106" spans="1:112">
       <c r="A106" s="1">
-        <v>40452</v>
+        <v>41913</v>
       </c>
       <c r="CS106">
-        <v>0.3865317719365428</v>
+        <v>0.3847424952750509</v>
       </c>
       <c r="CT106">
-        <v>-0.4737844322471635</v>
+        <v>0.2523452698770574</v>
       </c>
       <c r="CU106">
-        <v>-1.325071230226886</v>
+        <v>-0.1792762830641941</v>
       </c>
       <c r="CV106">
-        <v>-3.0134102622518</v>
+        <v>-0.3140207857278257</v>
       </c>
       <c r="CW106">
-        <v>-1.609384831228322</v>
+        <v>0.3607178284786713</v>
       </c>
       <c r="CX106">
-        <v>0.585322342063246</v>
+        <v>0.5218781830314511</v>
       </c>
       <c r="CY106">
-        <v>0.3687040207098991</v>
+        <v>0.3530389801663482</v>
       </c>
       <c r="CZ106">
-        <v>0.1710057202826473</v>
+        <v>0.6008402187856887</v>
       </c>
       <c r="DA106">
-        <v>1.322549253608671</v>
+        <v>0.2529894957798157</v>
       </c>
       <c r="DB106">
-        <v>1.499999344154686</v>
+        <v>-0.009426295769667317</v>
       </c>
     </row>
     <row r="107" spans="1:112">
       <c r="A107" s="1">
-        <v>40544</v>
+        <v>42005</v>
       </c>
       <c r="CT107">
-        <v>-0.4737844322471635</v>
+        <v>0.2523452698770574</v>
       </c>
       <c r="CU107">
-        <v>-1.325071230226886</v>
+        <v>-0.1792762830641941</v>
       </c>
       <c r="CV107">
-        <v>-3.0134102622518</v>
+        <v>-0.3140207857278257</v>
       </c>
       <c r="CW107">
-        <v>-1.609384831228322</v>
+        <v>0.3607178284786713</v>
       </c>
       <c r="CX107">
-        <v>0.585322342063246</v>
+        <v>0.5218781830314511</v>
       </c>
       <c r="CY107">
-        <v>0.3687040207098991</v>
+        <v>0.3530389801663482</v>
       </c>
       <c r="CZ107">
-        <v>0.1710057202826473</v>
+        <v>0.6008402187856887</v>
       </c>
       <c r="DA107">
-        <v>1.322549253608671</v>
+        <v>0.2529894957798157</v>
       </c>
       <c r="DB107">
-        <v>1.499999344154686</v>
+        <v>-0.009426295769667317</v>
       </c>
       <c r="DC107">
-        <v>0.5313745716684999</v>
+        <v>0.382964429842135</v>
       </c>
     </row>
     <row r="108" spans="1:112">
       <c r="A108" s="1">
-        <v>40634</v>
+        <v>42095</v>
       </c>
       <c r="CU108">
-        <v>-1.325071230226886</v>
+        <v>-0.1792762830641941</v>
       </c>
       <c r="CV108">
-        <v>-3.0134102622518</v>
+        <v>-0.3140207857278257</v>
       </c>
       <c r="CW108">
-        <v>-1.609384831228322</v>
+        <v>0.3607178284786713</v>
       </c>
       <c r="CX108">
-        <v>0.585322342063246</v>
+        <v>0.5218781830314511</v>
       </c>
       <c r="CY108">
-        <v>0.3687040207098991</v>
+        <v>0.3530389801663482</v>
       </c>
       <c r="CZ108">
-        <v>0.1710057202826473</v>
+        <v>0.6008402187856887</v>
       </c>
       <c r="DA108">
-        <v>1.322549253608671</v>
+        <v>0.2529894957798157</v>
       </c>
       <c r="DB108">
-        <v>1.499999344154686</v>
+        <v>-0.009426295769667317</v>
       </c>
       <c r="DC108">
-        <v>0.5313745716684999</v>
+        <v>0.382964429842135</v>
       </c>
       <c r="DD108">
-        <v>0.9319730398245117</v>
+        <v>0.4859989488113761</v>
       </c>
     </row>
     <row r="109" spans="1:112">
       <c r="A109" s="1">
-        <v>40725</v>
+        <v>42186</v>
       </c>
       <c r="CV109">
-        <v>-3.0134102622518</v>
+        <v>-0.3140207857278257</v>
       </c>
       <c r="CW109">
-        <v>-1.609384831228322</v>
+        <v>0.3607178284786713</v>
       </c>
       <c r="CX109">
-        <v>0.585322342063246</v>
+        <v>0.5218781830314511</v>
       </c>
       <c r="CY109">
-        <v>0.3687040207098991</v>
+        <v>0.3530389801663482</v>
       </c>
       <c r="CZ109">
-        <v>0.1710057202826473</v>
+        <v>0.6008402187856887</v>
       </c>
       <c r="DA109">
-        <v>1.322549253608671</v>
+        <v>0.2529894957798157</v>
       </c>
       <c r="DB109">
-        <v>1.499999344154686</v>
+        <v>-0.009426295769667317</v>
       </c>
       <c r="DC109">
-        <v>0.5313745716684999</v>
+        <v>0.382964429842135</v>
       </c>
       <c r="DD109">
-        <v>0.9319730398245117</v>
+        <v>0.4859989488113761</v>
       </c>
       <c r="DE109">
-        <v>0.7334655993102255</v>
+        <v>0.3925721303289792</v>
       </c>
     </row>
     <row r="110" spans="1:112">
       <c r="A110" s="1">
-        <v>40817</v>
+        <v>42278</v>
       </c>
       <c r="CW110">
-        <v>-1.609384831228322</v>
+        <v>0.3607178284786713</v>
       </c>
       <c r="CX110">
-        <v>0.585322342063246</v>
+        <v>0.5218781830314511</v>
       </c>
       <c r="CY110">
-        <v>0.3687040207098991</v>
+        <v>0.3530389801663482</v>
       </c>
       <c r="CZ110">
-        <v>0.1710057202826473</v>
+        <v>0.6008402187856887</v>
       </c>
       <c r="DA110">
-        <v>1.322549253608671</v>
+        <v>0.2529894957798157</v>
       </c>
       <c r="DB110">
-        <v>1.499999344154686</v>
+        <v>-0.009426295769667317</v>
       </c>
       <c r="DC110">
-        <v>0.5313745716684999</v>
+        <v>0.382964429842135</v>
       </c>
       <c r="DD110">
-        <v>0.9319730398245117</v>
+        <v>0.4859989488113761</v>
       </c>
       <c r="DE110">
-        <v>0.7334655993102255</v>
+        <v>0.3925721303289792</v>
       </c>
       <c r="DF110">
-        <v>0.3890732509510448</v>
+        <v>0.3772819159513079</v>
       </c>
     </row>
     <row r="111" spans="1:112">
       <c r="A111" s="1">
-        <v>40909</v>
+        <v>42370</v>
       </c>
       <c r="CX111">
-        <v>0.585322342063246</v>
+        <v>0.5218781830314511</v>
       </c>
       <c r="CY111">
-        <v>0.3687040207098991</v>
+        <v>0.3530389801663482</v>
       </c>
       <c r="CZ111">
-        <v>0.1710057202826473</v>
+        <v>0.6008402187856887</v>
       </c>
       <c r="DA111">
-        <v>1.322549253608671</v>
+        <v>0.2529894957798157</v>
       </c>
       <c r="DB111">
-        <v>1.499999344154686</v>
+        <v>-0.009426295769667317</v>
       </c>
       <c r="DC111">
-        <v>0.5313745716684999</v>
+        <v>0.382964429842135</v>
       </c>
       <c r="DD111">
-        <v>0.9319730398245117</v>
+        <v>0.4859989488113761</v>
       </c>
       <c r="DE111">
-        <v>0.7334655993102255</v>
+        <v>0.3925721303289792</v>
       </c>
       <c r="DF111">
-        <v>0.3890732509510448</v>
+        <v>0.3772819159513079</v>
       </c>
       <c r="DG111">
-        <v>0.1971582984394383</v>
+        <v>0.2737126832604646</v>
       </c>
     </row>
     <row r="112" spans="1:112">
       <c r="A112" s="1">
-        <v>41000</v>
+        <v>42461</v>
       </c>
       <c r="CY112">
-        <v>0.3687040207098991</v>
+        <v>0.3530389801663482</v>
       </c>
       <c r="CZ112">
-        <v>0.1710057202826473</v>
+        <v>0.6008402187856887</v>
       </c>
       <c r="DA112">
-        <v>1.322549253608671</v>
+        <v>0.2529894957798157</v>
       </c>
       <c r="DB112">
-        <v>1.499999344154686</v>
+        <v>-0.009426295769667317</v>
       </c>
       <c r="DC112">
-        <v>0.5313745716684999</v>
+        <v>0.382964429842135</v>
       </c>
       <c r="DD112">
-        <v>0.9319730398245117</v>
+        <v>0.4859989488113761</v>
       </c>
       <c r="DE112">
-        <v>0.7334655993102255</v>
+        <v>0.3925721303289792</v>
       </c>
       <c r="DF112">
-        <v>0.3890732509510448</v>
+        <v>0.3772819159513079</v>
       </c>
       <c r="DG112">
-        <v>0.1971582984394383</v>
+        <v>0.2737126832604646</v>
       </c>
       <c r="DH112">
-        <v>0.164144910068436</v>
+        <v>0.4670020369369805</v>
       </c>
     </row>
     <row r="113" spans="1:128">
       <c r="A113" s="1">
-        <v>41091</v>
+        <v>42552</v>
       </c>
       <c r="CZ113">
-        <v>0.1710057202826473</v>
+        <v>0.6008402187856887</v>
       </c>
       <c r="DA113">
-        <v>1.322549253608671</v>
+        <v>0.2529894957798157</v>
       </c>
       <c r="DB113">
-        <v>1.499999344154686</v>
+        <v>-0.009426295769667317</v>
       </c>
       <c r="DC113">
-        <v>0.5313745716684999</v>
+        <v>0.382964429842135</v>
       </c>
       <c r="DD113">
-        <v>0.9319730398245117</v>
+        <v>0.4859989488113761</v>
       </c>
       <c r="DE113">
-        <v>0.7334655993102255</v>
+        <v>0.3925721303289792</v>
       </c>
       <c r="DF113">
-        <v>0.3890732509510448</v>
+        <v>0.3772819159513079</v>
       </c>
       <c r="DG113">
-        <v>0.1971582984394383</v>
+        <v>0.2737126832604646</v>
       </c>
       <c r="DH113">
-        <v>0.164144910068436</v>
+        <v>0.4670020369369805</v>
       </c>
       <c r="DI113">
-        <v>0.3847424952750509</v>
+        <v>0.5599785102943742</v>
       </c>
     </row>
     <row r="114" spans="1:128">
       <c r="A114" s="1">
-        <v>41183</v>
+        <v>42644</v>
       </c>
       <c r="DA114">
-        <v>1.322549253608671</v>
+        <v>0.2529894957798157</v>
       </c>
       <c r="DB114">
-        <v>1.499999344154686</v>
+        <v>-0.009426295769667317</v>
       </c>
       <c r="DC114">
-        <v>0.5313745716684999</v>
+        <v>0.382964429842135</v>
       </c>
       <c r="DD114">
-        <v>0.9319730398245117</v>
+        <v>0.4859989488113761</v>
       </c>
       <c r="DE114">
-        <v>0.7334655993102255</v>
+        <v>0.3925721303289792</v>
       </c>
       <c r="DF114">
-        <v>0.3890732509510448</v>
+        <v>0.3772819159513079</v>
       </c>
       <c r="DG114">
-        <v>0.1971582984394383</v>
+        <v>0.2737126832604646</v>
       </c>
       <c r="DH114">
-        <v>0.164144910068436</v>
+        <v>0.4670020369369805</v>
       </c>
       <c r="DI114">
-        <v>0.3847424952750509</v>
+        <v>0.5599785102943742</v>
       </c>
       <c r="DJ114">
-        <v>0.2523452698770574</v>
+        <v>0.3011971726376999</v>
       </c>
     </row>
     <row r="115" spans="1:128">
       <c r="A115" s="1">
-        <v>41275</v>
+        <v>42736</v>
       </c>
       <c r="DB115">
-        <v>1.499999344154686</v>
+        <v>-0.009426295769667317</v>
       </c>
       <c r="DC115">
-        <v>0.5313745716684999</v>
+        <v>0.382964429842135</v>
       </c>
       <c r="DD115">
-        <v>0.9319730398245117</v>
+        <v>0.4859989488113761</v>
       </c>
       <c r="DE115">
-        <v>0.7334655993102255</v>
+        <v>0.3925721303289792</v>
       </c>
       <c r="DF115">
-        <v>0.3890732509510448</v>
+        <v>0.3772819159513079</v>
       </c>
       <c r="DG115">
-        <v>0.1971582984394383</v>
+        <v>0.2737126832604646</v>
       </c>
       <c r="DH115">
-        <v>0.164144910068436</v>
+        <v>0.4670020369369805</v>
       </c>
       <c r="DI115">
-        <v>0.3847424952750509</v>
+        <v>0.5599785102943742</v>
       </c>
       <c r="DJ115">
-        <v>0.2523452698770574</v>
+        <v>0.3011971726376999</v>
       </c>
       <c r="DK115">
-        <v>-0.1792762830641941</v>
+        <v>0.2816807417048267</v>
       </c>
     </row>
     <row r="116" spans="1:128">
       <c r="A116" s="1">
-        <v>41365</v>
+        <v>42826</v>
       </c>
       <c r="DC116">
-        <v>0.5313745716684999</v>
+        <v>0.382964429842135</v>
       </c>
       <c r="DD116">
-        <v>0.9319730398245117</v>
+        <v>0.4859989488113761</v>
       </c>
       <c r="DE116">
-        <v>0.7334655993102255</v>
+        <v>0.3925721303289792</v>
       </c>
       <c r="DF116">
-        <v>0.3890732509510448</v>
+        <v>0.3772819159513079</v>
       </c>
       <c r="DG116">
-        <v>0.1971582984394383</v>
+        <v>0.2737126832604646</v>
       </c>
       <c r="DH116">
-        <v>0.164144910068436</v>
+        <v>0.4670020369369805</v>
       </c>
       <c r="DI116">
-        <v>0.3847424952750509</v>
+        <v>0.5599785102943742</v>
       </c>
       <c r="DJ116">
-        <v>0.2523452698770574</v>
+        <v>0.3011971726376999</v>
       </c>
       <c r="DK116">
-        <v>-0.1792762830641941</v>
+        <v>0.2816807417048267</v>
       </c>
       <c r="DL116">
-        <v>-0.3140207857278257</v>
+        <v>0.5118111503608368</v>
       </c>
     </row>
     <row r="117" spans="1:128">
       <c r="A117" s="1">
-        <v>41456</v>
+        <v>42917</v>
       </c>
       <c r="DD117">
-        <v>0.9319730398245117</v>
+        <v>0.4859989488113761</v>
       </c>
       <c r="DE117">
-        <v>0.7334655993102255</v>
+        <v>0.3925721303289792</v>
       </c>
       <c r="DF117">
-        <v>0.3890732509510448</v>
+        <v>0.3772819159513079</v>
       </c>
       <c r="DG117">
-        <v>0.1971582984394383</v>
+        <v>0.2737126832604646</v>
       </c>
       <c r="DH117">
-        <v>0.164144910068436</v>
+        <v>0.4670020369369805</v>
       </c>
       <c r="DI117">
-        <v>0.3847424952750509</v>
+        <v>0.5599785102943742</v>
       </c>
       <c r="DJ117">
-        <v>0.2523452698770574</v>
+        <v>0.3011971726376999</v>
       </c>
       <c r="DK117">
-        <v>-0.1792762830641941</v>
+        <v>0.2816807417048267</v>
       </c>
       <c r="DL117">
-        <v>-0.3140207857278257</v>
+        <v>0.5118111503608368</v>
       </c>
       <c r="DM117">
-        <v>0.3607178284786713</v>
+        <v>0.6636359510343999</v>
       </c>
     </row>
     <row r="118" spans="1:128">
       <c r="A118" s="1">
-        <v>41548</v>
+        <v>43009</v>
       </c>
       <c r="DE118">
-        <v>0.7334655993102255</v>
+        <v>0.3925721303289792</v>
       </c>
       <c r="DF118">
-        <v>0.3890732509510448</v>
+        <v>0.3772819159513079</v>
       </c>
       <c r="DG118">
-        <v>0.1971582984394383</v>
+        <v>0.2737126832604646</v>
       </c>
       <c r="DH118">
-        <v>0.164144910068436</v>
+        <v>0.4670020369369805</v>
       </c>
       <c r="DI118">
-        <v>0.3847424952750509</v>
+        <v>0.5599785102943742</v>
       </c>
       <c r="DJ118">
-        <v>0.2523452698770574</v>
+        <v>0.3011971726376999</v>
       </c>
       <c r="DK118">
-        <v>-0.1792762830641941</v>
+        <v>0.2816807417048267</v>
       </c>
       <c r="DL118">
-        <v>-0.3140207857278257</v>
+        <v>0.5118111503608368</v>
       </c>
       <c r="DM118">
-        <v>0.3607178284786713</v>
+        <v>0.6636359510343999</v>
       </c>
       <c r="DN118">
-        <v>0.5218781830314511</v>
+        <v>0.7286847193651798</v>
       </c>
     </row>
     <row r="119" spans="1:128">
       <c r="A119" s="1">
-        <v>41640</v>
+        <v>43101</v>
       </c>
       <c r="DF119">
-        <v>0.3890732509510448</v>
+        <v>0.3772819159513079</v>
       </c>
       <c r="DG119">
-        <v>0.1971582984394383</v>
+        <v>0.2737126832604646</v>
       </c>
       <c r="DH119">
-        <v>0.164144910068436</v>
+        <v>0.4670020369369805</v>
       </c>
       <c r="DI119">
-        <v>0.3847424952750509</v>
+        <v>0.5599785102943742</v>
       </c>
       <c r="DJ119">
-        <v>0.2523452698770574</v>
+        <v>0.3011971726376999</v>
       </c>
       <c r="DK119">
-        <v>-0.1792762830641941</v>
+        <v>0.2816807417048267</v>
       </c>
       <c r="DL119">
-        <v>-0.3140207857278257</v>
+        <v>0.5118111503608368</v>
       </c>
       <c r="DM119">
-        <v>0.3607178284786713</v>
+        <v>0.6636359510343999</v>
       </c>
       <c r="DN119">
-        <v>0.5218781830314511</v>
+        <v>0.7286847193651798</v>
       </c>
       <c r="DO119">
-        <v>0.3530389801663482</v>
+        <v>0.6712282563247641</v>
       </c>
     </row>
     <row r="120" spans="1:128">
       <c r="A120" s="1">
-        <v>41730</v>
+        <v>43191</v>
       </c>
       <c r="DG120">
-        <v>0.1971582984394383</v>
+        <v>0.2737126832604646</v>
       </c>
       <c r="DH120">
-        <v>0.164144910068436</v>
+        <v>0.4670020369369805</v>
       </c>
       <c r="DI120">
-        <v>0.3847424952750509</v>
+        <v>0.5599785102943742</v>
       </c>
       <c r="DJ120">
-        <v>0.2523452698770574</v>
+        <v>0.3011971726376999</v>
       </c>
       <c r="DK120">
-        <v>-0.1792762830641941</v>
+        <v>0.2816807417048267</v>
       </c>
       <c r="DL120">
-        <v>-0.3140207857278257</v>
+        <v>0.5118111503608368</v>
       </c>
       <c r="DM120">
-        <v>0.3607178284786713</v>
+        <v>0.6636359510343999</v>
       </c>
       <c r="DN120">
-        <v>0.5218781830314511</v>
+        <v>0.7286847193651798</v>
       </c>
       <c r="DO120">
-        <v>0.3530389801663482</v>
+        <v>0.6712282563247641</v>
       </c>
       <c r="DP120">
-        <v>0.6008402187856887</v>
+        <v>0.4521238400718821</v>
       </c>
     </row>
     <row r="121" spans="1:128">
       <c r="A121" s="1">
-        <v>41821</v>
+        <v>43282</v>
       </c>
       <c r="DH121">
-        <v>0.164144910068436</v>
+        <v>0.4670020369369805</v>
       </c>
       <c r="DI121">
-        <v>0.3847424952750509</v>
+        <v>0.5599785102943742</v>
       </c>
       <c r="DJ121">
-        <v>0.2523452698770574</v>
+        <v>0.3011971726376999</v>
       </c>
       <c r="DK121">
-        <v>-0.1792762830641941</v>
+        <v>0.2816807417048267</v>
       </c>
       <c r="DL121">
-        <v>-0.3140207857278257</v>
+        <v>0.5118111503608368</v>
       </c>
       <c r="DM121">
-        <v>0.3607178284786713</v>
+        <v>0.6636359510343999</v>
       </c>
       <c r="DN121">
-        <v>0.5218781830314511</v>
+        <v>0.7286847193651798</v>
       </c>
       <c r="DO121">
-        <v>0.3530389801663482</v>
+        <v>0.6712282563247641</v>
       </c>
       <c r="DP121">
-        <v>0.6008402187856887</v>
+        <v>0.4521238400718821</v>
       </c>
       <c r="DQ121">
-        <v>0.2529894957798157</v>
+        <v>0.4088308827094236</v>
       </c>
     </row>
     <row r="122" spans="1:128">
       <c r="A122" s="1">
-        <v>41913</v>
+        <v>43374</v>
       </c>
       <c r="DI122">
-        <v>0.3847424952750509</v>
+        <v>0.5599785102943742</v>
       </c>
       <c r="DJ122">
-        <v>0.2523452698770574</v>
+        <v>0.3011971726376999</v>
       </c>
       <c r="DK122">
-        <v>-0.1792762830641941</v>
+        <v>0.2816807417048267</v>
       </c>
       <c r="DL122">
-        <v>-0.3140207857278257</v>
+        <v>0.5118111503608368</v>
       </c>
       <c r="DM122">
-        <v>0.3607178284786713</v>
+        <v>0.6636359510343999</v>
       </c>
       <c r="DN122">
-        <v>0.5218781830314511</v>
+        <v>0.7286847193651798</v>
       </c>
       <c r="DO122">
-        <v>0.3530389801663482</v>
+        <v>0.6712282563247641</v>
       </c>
       <c r="DP122">
-        <v>0.6008402187856887</v>
+        <v>0.4521238400718821</v>
       </c>
       <c r="DQ122">
-        <v>0.2529894957798157</v>
+        <v>0.4088308827094236</v>
       </c>
       <c r="DR122">
-        <v>-0.009426295769667317</v>
+        <v>0.1263716786652638</v>
       </c>
     </row>
     <row r="123" spans="1:128">
       <c r="A123" s="1">
-        <v>42005</v>
+        <v>43466</v>
       </c>
       <c r="DJ123">
-        <v>0.2523452698770574</v>
+        <v>0.3011971726376999</v>
       </c>
       <c r="DK123">
-        <v>-0.1792762830641941</v>
+        <v>0.2816807417048267</v>
       </c>
       <c r="DL123">
-        <v>-0.3140207857278257</v>
+        <v>0.5118111503608368</v>
       </c>
       <c r="DM123">
-        <v>0.3607178284786713</v>
+        <v>0.6636359510343999</v>
       </c>
       <c r="DN123">
-        <v>0.5218781830314511</v>
+        <v>0.7286847193651798</v>
       </c>
       <c r="DO123">
-        <v>0.3530389801663482</v>
+        <v>0.6712282563247641</v>
       </c>
       <c r="DP123">
-        <v>0.6008402187856887</v>
+        <v>0.4521238400718821</v>
       </c>
       <c r="DQ123">
-        <v>0.2529894957798157</v>
+        <v>0.4088308827094236</v>
       </c>
       <c r="DR123">
-        <v>-0.009426295769667317</v>
+        <v>0.1263716786652638</v>
       </c>
       <c r="DS123">
-        <v>0.382964429842135</v>
+        <v>-0.09075041317066823</v>
       </c>
     </row>
     <row r="124" spans="1:128">
       <c r="A124" s="1">
-        <v>42095</v>
+        <v>43556</v>
       </c>
       <c r="DK124">
-        <v>-0.1792762830641941</v>
+        <v>0.2816807417048267</v>
       </c>
       <c r="DL124">
-        <v>-0.3140207857278257</v>
+        <v>0.5118111503608368</v>
       </c>
       <c r="DM124">
-        <v>0.3607178284786713</v>
+        <v>0.6636359510343999</v>
       </c>
       <c r="DN124">
-        <v>0.5218781830314511</v>
+        <v>0.7286847193651798</v>
       </c>
       <c r="DO124">
-        <v>0.3530389801663482</v>
+        <v>0.6712282563247641</v>
       </c>
       <c r="DP124">
-        <v>0.6008402187856887</v>
+        <v>0.4521238400718821</v>
       </c>
       <c r="DQ124">
-        <v>0.2529894957798157</v>
+        <v>0.4088308827094236</v>
       </c>
       <c r="DR124">
-        <v>-0.009426295769667317</v>
+        <v>0.1263716786652638</v>
       </c>
       <c r="DS124">
-        <v>0.382964429842135</v>
+        <v>-0.09075041317066823</v>
       </c>
       <c r="DT124">
-        <v>0.4859989488113761</v>
+        <v>0.2208380811913595</v>
       </c>
     </row>
     <row r="125" spans="1:128">
       <c r="A125" s="1">
-        <v>42186</v>
+        <v>43647</v>
       </c>
       <c r="DL125">
-        <v>-0.3140207857278257</v>
+        <v>0.5118111503608368</v>
       </c>
       <c r="DM125">
-        <v>0.3607178284786713</v>
+        <v>0.6636359510343999</v>
       </c>
       <c r="DN125">
-        <v>0.5218781830314511</v>
+        <v>0.7286847193651798</v>
       </c>
       <c r="DO125">
-        <v>0.3530389801663482</v>
+        <v>0.6712282563247641</v>
       </c>
       <c r="DP125">
-        <v>0.6008402187856887</v>
+        <v>0.4521238400718821</v>
       </c>
       <c r="DQ125">
-        <v>0.2529894957798157</v>
+        <v>0.4088308827094236</v>
       </c>
       <c r="DR125">
-        <v>-0.009426295769667317</v>
+        <v>0.1263716786652638</v>
       </c>
       <c r="DS125">
-        <v>0.382964429842135</v>
+        <v>-0.09075041317066823</v>
       </c>
       <c r="DT125">
-        <v>0.4859989488113761</v>
+        <v>0.2208380811913595</v>
       </c>
       <c r="DU125">
-        <v>0.3925721303289792</v>
+        <v>0.1547826744344046</v>
       </c>
     </row>
     <row r="126" spans="1:128">
       <c r="A126" s="1">
-        <v>42278</v>
+        <v>43739</v>
       </c>
       <c r="DM126">
-        <v>0.3607178284786713</v>
+        <v>0.6636359510343999</v>
       </c>
       <c r="DN126">
-        <v>0.5218781830314511</v>
+        <v>0.7286847193651798</v>
       </c>
       <c r="DO126">
-        <v>0.3530389801663482</v>
+        <v>0.6712282563247641</v>
       </c>
       <c r="DP126">
-        <v>0.6008402187856887</v>
+        <v>0.4521238400718821</v>
       </c>
       <c r="DQ126">
-        <v>0.2529894957798157</v>
+        <v>0.4088308827094236</v>
       </c>
       <c r="DR126">
-        <v>-0.009426295769667317</v>
+        <v>0.1263716786652638</v>
       </c>
       <c r="DS126">
-        <v>0.382964429842135</v>
+        <v>-0.09075041317066823</v>
       </c>
       <c r="DT126">
-        <v>0.4859989488113761</v>
+        <v>0.2208380811913595</v>
       </c>
       <c r="DU126">
-        <v>0.3925721303289792</v>
+        <v>0.1547826744344046</v>
       </c>
       <c r="DV126">
-        <v>0.3772819159513079</v>
+        <v>-0.07918898587295509</v>
       </c>
     </row>
     <row r="127" spans="1:128">
       <c r="A127" s="1">
-        <v>42370</v>
+        <v>43831</v>
       </c>
       <c r="DN127">
-        <v>0.5218781830314511</v>
+        <v>0.7286847193651798</v>
       </c>
       <c r="DO127">
-        <v>0.3530389801663482</v>
+        <v>0.6712282563247641</v>
       </c>
       <c r="DP127">
-        <v>0.6008402187856887</v>
+        <v>0.4521238400718821</v>
       </c>
       <c r="DQ127">
-        <v>0.2529894957798157</v>
+        <v>0.4088308827094236</v>
       </c>
       <c r="DR127">
-        <v>-0.009426295769667317</v>
+        <v>0.1263716786652638</v>
       </c>
       <c r="DS127">
-        <v>0.382964429842135</v>
+        <v>-0.09075041317066823</v>
       </c>
       <c r="DT127">
-        <v>0.4859989488113761</v>
+        <v>0.2208380811913595</v>
       </c>
       <c r="DU127">
-        <v>0.3925721303289792</v>
+        <v>0.1547826744344046</v>
       </c>
       <c r="DV127">
-        <v>0.3772819159513079</v>
+        <v>-0.07918898587295509</v>
       </c>
       <c r="DW127">
-        <v>0.2737126832604646</v>
+        <v>0.1121744784509069</v>
       </c>
     </row>
     <row r="128" spans="1:128">
       <c r="A128" s="1">
-        <v>42461</v>
+        <v>43922</v>
       </c>
       <c r="DO128">
-        <v>0.3530389801663482</v>
+        <v>0.6712282563247641</v>
       </c>
       <c r="DP128">
-        <v>0.6008402187856887</v>
+        <v>0.4521238400718821</v>
       </c>
       <c r="DQ128">
-        <v>0.2529894957798157</v>
+        <v>0.4088308827094236</v>
       </c>
       <c r="DR128">
-        <v>-0.009426295769667317</v>
+        <v>0.1263716786652638</v>
       </c>
       <c r="DS128">
-        <v>0.382964429842135</v>
+        <v>-0.09075041317066823</v>
       </c>
       <c r="DT128">
-        <v>0.4859989488113761</v>
+        <v>0.2208380811913595</v>
       </c>
       <c r="DU128">
-        <v>0.3925721303289792</v>
+        <v>0.1547826744344046</v>
       </c>
       <c r="DV128">
-        <v>0.3772819159513079</v>
+        <v>-0.07918898587295509</v>
       </c>
       <c r="DW128">
-        <v>0.2737126832604646</v>
+        <v>0.1121744784509069</v>
       </c>
       <c r="DX128">
-        <v>0.4670020369369805</v>
+        <v>-1.162195275599549</v>
       </c>
     </row>
     <row r="129" spans="1:144">
       <c r="A129" s="1">
-        <v>42552</v>
+        <v>44013</v>
       </c>
       <c r="DP129">
-        <v>0.6008402187856887</v>
+        <v>0.4521238400718821</v>
       </c>
       <c r="DQ129">
-        <v>0.2529894957798157</v>
+        <v>0.4088308827094236</v>
       </c>
       <c r="DR129">
-        <v>-0.009426295769667317</v>
+        <v>0.1263716786652638</v>
       </c>
       <c r="DS129">
-        <v>0.382964429842135</v>
+        <v>-0.09075041317066823</v>
       </c>
       <c r="DT129">
-        <v>0.4859989488113761</v>
+        <v>0.2208380811913595</v>
       </c>
       <c r="DU129">
-        <v>0.3925721303289792</v>
+        <v>0.1547826744344046</v>
       </c>
       <c r="DV129">
-        <v>0.3772819159513079</v>
+        <v>-0.07918898587295509</v>
       </c>
       <c r="DW129">
-        <v>0.2737126832604646</v>
+        <v>0.1121744784509069</v>
       </c>
       <c r="DX129">
-        <v>0.4670020369369805</v>
+        <v>-1.162195275599549</v>
       </c>
       <c r="DY129">
-        <v>0.5599785102943742</v>
+        <v>-5.854824619268521</v>
       </c>
     </row>
     <row r="130" spans="1:144">
       <c r="A130" s="1">
-        <v>42644</v>
+        <v>44105</v>
       </c>
       <c r="DQ130">
-        <v>0.2529894957798157</v>
+        <v>0.4088308827094236</v>
       </c>
       <c r="DR130">
-        <v>-0.009426295769667317</v>
+        <v>0.1263716786652638</v>
       </c>
       <c r="DS130">
-        <v>0.382964429842135</v>
+        <v>-0.09075041317066823</v>
       </c>
       <c r="DT130">
-        <v>0.4859989488113761</v>
+        <v>0.2208380811913595</v>
       </c>
       <c r="DU130">
-        <v>0.3925721303289792</v>
+        <v>0.1547826744344046</v>
       </c>
       <c r="DV130">
-        <v>0.3772819159513079</v>
+        <v>-0.07918898587295509</v>
       </c>
       <c r="DW130">
-        <v>0.2737126832604646</v>
+        <v>0.1121744784509069</v>
       </c>
       <c r="DX130">
-        <v>0.4670020369369805</v>
+        <v>-1.162195275599549</v>
       </c>
       <c r="DY130">
-        <v>0.5599785102943742</v>
+        <v>-5.854824619268521</v>
       </c>
       <c r="DZ130">
-        <v>0.3011971726376999</v>
+        <v>-0.6564850592266236</v>
       </c>
     </row>
     <row r="131" spans="1:144">
       <c r="A131" s="1">
-        <v>42736</v>
+        <v>44197</v>
       </c>
       <c r="DR131">
-        <v>-0.009426295769667317</v>
+        <v>0.1263716786652638</v>
       </c>
       <c r="DS131">
-        <v>0.382964429842135</v>
+        <v>-0.09075041317066823</v>
       </c>
       <c r="DT131">
-        <v>0.4859989488113761</v>
+        <v>0.2208380811913595</v>
       </c>
       <c r="DU131">
-        <v>0.3925721303289792</v>
+        <v>0.1547826744344046</v>
       </c>
       <c r="DV131">
-        <v>0.3772819159513079</v>
+        <v>-0.07918898587295509</v>
       </c>
       <c r="DW131">
-        <v>0.2737126832604646</v>
+        <v>0.1121744784509069</v>
       </c>
       <c r="DX131">
-        <v>0.4670020369369805</v>
+        <v>-1.162195275599549</v>
       </c>
       <c r="DY131">
-        <v>0.5599785102943742</v>
+        <v>-5.854824619268521</v>
       </c>
       <c r="DZ131">
-        <v>0.3011971726376999</v>
+        <v>-0.6564850592266236</v>
       </c>
       <c r="EA131">
-        <v>0.2816807417048267</v>
+        <v>4.426309542805707</v>
       </c>
     </row>
     <row r="132" spans="1:144">
       <c r="A132" s="1">
-        <v>42826</v>
+        <v>44287</v>
       </c>
       <c r="DS132">
-        <v>0.382964429842135</v>
+        <v>-0.09075041317066823</v>
       </c>
       <c r="DT132">
-        <v>0.4859989488113761</v>
+        <v>0.2208380811913595</v>
       </c>
       <c r="DU132">
-        <v>0.3925721303289792</v>
+        <v>0.1547826744344046</v>
       </c>
       <c r="DV132">
-        <v>0.3772819159513079</v>
+        <v>-0.07918898587295509</v>
       </c>
       <c r="DW132">
-        <v>0.2737126832604646</v>
+        <v>0.1121744784509069</v>
       </c>
       <c r="DX132">
-        <v>0.4670020369369805</v>
+        <v>-1.162195275599549</v>
       </c>
       <c r="DY132">
-        <v>0.5599785102943742</v>
+        <v>-5.854824619268521</v>
       </c>
       <c r="DZ132">
-        <v>0.3011971726376999</v>
+        <v>-0.6564850592266236</v>
       </c>
       <c r="EA132">
-        <v>0.2816807417048267</v>
+        <v>4.426309542805707</v>
       </c>
       <c r="EB132">
-        <v>0.5118111503608368</v>
+        <v>-0.6363230239575632</v>
       </c>
     </row>
     <row r="133" spans="1:144">
       <c r="A133" s="1">
-        <v>42917</v>
+        <v>44378</v>
       </c>
       <c r="DT133">
-        <v>0.4859989488113761</v>
+        <v>0.2208380811913595</v>
       </c>
       <c r="DU133">
-        <v>0.3925721303289792</v>
+        <v>0.1547826744344046</v>
       </c>
       <c r="DV133">
-        <v>0.3772819159513079</v>
+        <v>-0.07918898587295509</v>
       </c>
       <c r="DW133">
-        <v>0.2737126832604646</v>
+        <v>0.1121744784509069</v>
       </c>
       <c r="DX133">
-        <v>0.4670020369369805</v>
+        <v>-1.162195275599549</v>
       </c>
       <c r="DY133">
-        <v>0.5599785102943742</v>
+        <v>-5.854824619268521</v>
       </c>
       <c r="DZ133">
-        <v>0.3011971726376999</v>
+        <v>-0.6564850592266236</v>
       </c>
       <c r="EA133">
-        <v>0.2816807417048267</v>
+        <v>4.426309542805707</v>
       </c>
       <c r="EB133">
-        <v>0.5118111503608368</v>
+        <v>-0.6363230239575632</v>
       </c>
       <c r="EC133">
-        <v>0.6636359510343999</v>
+        <v>-0.184891410987573</v>
       </c>
     </row>
     <row r="134" spans="1:144">
       <c r="A134" s="1">
-        <v>43009</v>
+        <v>44470</v>
       </c>
       <c r="DU134">
-        <v>0.3925721303289792</v>
+        <v>0.1547826744344046</v>
       </c>
       <c r="DV134">
-        <v>0.3772819159513079</v>
+        <v>-0.07918898587295509</v>
       </c>
       <c r="DW134">
-        <v>0.2737126832604646</v>
+        <v>0.1121744784509069</v>
       </c>
       <c r="DX134">
-        <v>0.4670020369369805</v>
+        <v>-1.162195275599549</v>
       </c>
       <c r="DY134">
-        <v>0.5599785102943742</v>
+        <v>-5.854824619268521</v>
       </c>
       <c r="DZ134">
-        <v>0.3011971726376999</v>
+        <v>-0.6564850592266236</v>
       </c>
       <c r="EA134">
-        <v>0.2816807417048267</v>
+        <v>4.426309542805707</v>
       </c>
       <c r="EB134">
-        <v>0.5118111503608368</v>
+        <v>-0.6363230239575632</v>
       </c>
       <c r="EC134">
-        <v>0.6636359510343999</v>
+        <v>-0.184891410987573</v>
       </c>
       <c r="ED134">
-        <v>0.7286847193651798</v>
+        <v>1.857875335772226</v>
       </c>
     </row>
     <row r="135" spans="1:144">
       <c r="A135" s="1">
-        <v>43101</v>
+        <v>44562</v>
       </c>
       <c r="DV135">
-        <v>0.3772819159513079</v>
+        <v>-0.07918898587295509</v>
       </c>
       <c r="DW135">
-        <v>0.2737126832604646</v>
+        <v>0.1121744784509069</v>
       </c>
       <c r="DX135">
-        <v>0.4670020369369805</v>
+        <v>-1.162195275599549</v>
       </c>
       <c r="DY135">
-        <v>0.5599785102943742</v>
+        <v>-5.854824619268521</v>
       </c>
       <c r="DZ135">
-        <v>0.3011971726376999</v>
+        <v>-0.6564850592266236</v>
       </c>
       <c r="EA135">
-        <v>0.2816807417048267</v>
+        <v>4.426309542805707</v>
       </c>
       <c r="EB135">
-        <v>0.5118111503608368</v>
+        <v>-0.6363230239575632</v>
       </c>
       <c r="EC135">
-        <v>0.6636359510343999</v>
+        <v>-0.184891410987573</v>
       </c>
       <c r="ED135">
-        <v>0.7286847193651798</v>
+        <v>1.857875335772226</v>
       </c>
       <c r="EE135">
-        <v>0.6712282563247641</v>
+        <v>0.6611695376410593</v>
       </c>
     </row>
     <row r="136" spans="1:144">
       <c r="A136" s="1">
-        <v>43191</v>
+        <v>44652</v>
       </c>
       <c r="DW136">
-        <v>0.2737126832604646</v>
+        <v>0.1121744784509069</v>
       </c>
       <c r="DX136">
-        <v>0.4670020369369805</v>
+        <v>-1.162195275599549</v>
       </c>
       <c r="DY136">
-        <v>0.5599785102943742</v>
+        <v>-5.854824619268521</v>
       </c>
       <c r="DZ136">
-        <v>0.3011971726376999</v>
+        <v>-0.6564850592266236</v>
       </c>
       <c r="EA136">
-        <v>0.2816807417048267</v>
+        <v>4.426309542805707</v>
       </c>
       <c r="EB136">
-        <v>0.5118111503608368</v>
+        <v>-0.6363230239575632</v>
       </c>
       <c r="EC136">
-        <v>0.6636359510343999</v>
+        <v>-0.184891410987573</v>
       </c>
       <c r="ED136">
-        <v>0.7286847193651798</v>
+        <v>1.857875335772226</v>
       </c>
       <c r="EE136">
-        <v>0.6712282563247641</v>
+        <v>0.6611695376410593</v>
       </c>
       <c r="EF136">
-        <v>0.4521238400718821</v>
+        <v>-0.05589237209497491</v>
       </c>
     </row>
     <row r="137" spans="1:144">
       <c r="A137" s="1">
-        <v>43282</v>
+        <v>44743</v>
       </c>
       <c r="DX137">
-        <v>0.4670020369369805</v>
+        <v>-1.162195275599549</v>
       </c>
       <c r="DY137">
-        <v>0.5599785102943742</v>
+        <v>-5.854824619268521</v>
       </c>
       <c r="DZ137">
-        <v>0.3011971726376999</v>
+        <v>-0.6564850592266236</v>
       </c>
       <c r="EA137">
-        <v>0.2816807417048267</v>
+        <v>4.426309542805707</v>
       </c>
       <c r="EB137">
-        <v>0.5118111503608368</v>
+        <v>-0.6363230239575632</v>
       </c>
       <c r="EC137">
-        <v>0.6636359510343999</v>
+        <v>-0.184891410987573</v>
       </c>
       <c r="ED137">
-        <v>0.7286847193651798</v>
+        <v>1.857875335772226</v>
       </c>
       <c r="EE137">
-        <v>0.6712282563247641</v>
+        <v>0.6611695376410593</v>
       </c>
       <c r="EF137">
-        <v>0.4521238400718821</v>
+        <v>-0.05589237209497491</v>
       </c>
       <c r="EG137">
-        <v>0.4088308827094236</v>
+        <v>0.468925960670091</v>
       </c>
     </row>
     <row r="138" spans="1:144">
       <c r="A138" s="1">
-        <v>43374</v>
+        <v>44835</v>
       </c>
       <c r="DY138">
-        <v>0.5599785102943742</v>
+        <v>-5.854824619268521</v>
       </c>
       <c r="DZ138">
-        <v>0.3011971726376999</v>
+        <v>-0.6564850592266236</v>
       </c>
       <c r="EA138">
-        <v>0.2816807417048267</v>
+        <v>4.426309542805707</v>
       </c>
       <c r="EB138">
-        <v>0.5118111503608368</v>
+        <v>-0.6363230239575632</v>
       </c>
       <c r="EC138">
-        <v>0.6636359510343999</v>
+        <v>-0.184891410987573</v>
       </c>
       <c r="ED138">
-        <v>0.7286847193651798</v>
+        <v>1.857875335772226</v>
       </c>
       <c r="EE138">
-        <v>0.6712282563247641</v>
+        <v>0.6611695376410593</v>
       </c>
       <c r="EF138">
-        <v>0.4521238400718821</v>
+        <v>-0.05589237209497491</v>
       </c>
       <c r="EG138">
-        <v>0.4088308827094236</v>
+        <v>0.468925960670091</v>
       </c>
       <c r="EH138">
-        <v>0.1263716786652638</v>
+        <v>0.2513087266968487</v>
       </c>
     </row>
     <row r="139" spans="1:144">
       <c r="A139" s="1">
-        <v>43466</v>
+        <v>44927</v>
       </c>
       <c r="DZ139">
-        <v>0.3011971726376999</v>
+        <v>-0.6564850592266236</v>
       </c>
       <c r="EA139">
-        <v>0.2816807417048267</v>
+        <v>4.426309542805707</v>
       </c>
       <c r="EB139">
-        <v>0.5118111503608368</v>
+        <v>-0.6363230239575632</v>
       </c>
       <c r="EC139">
-        <v>0.6636359510343999</v>
+        <v>-0.184891410987573</v>
       </c>
       <c r="ED139">
-        <v>0.7286847193651798</v>
+        <v>1.857875335772226</v>
       </c>
       <c r="EE139">
-        <v>0.6712282563247641</v>
+        <v>0.6611695376410593</v>
       </c>
       <c r="EF139">
-        <v>0.4521238400718821</v>
+        <v>-0.05589237209497491</v>
       </c>
       <c r="EG139">
-        <v>0.4088308827094236</v>
+        <v>0.468925960670091</v>
       </c>
       <c r="EH139">
-        <v>0.1263716786652638</v>
+        <v>0.2513087266968487</v>
       </c>
       <c r="EI139">
-        <v>-0.09075041317066823</v>
+        <v>0.01964454733300644</v>
       </c>
     </row>
     <row r="140" spans="1:144">
       <c r="A140" s="1">
-        <v>43556</v>
+        <v>45017</v>
       </c>
       <c r="EA140">
-        <v>0.2816807417048267</v>
+        <v>4.426309542805707</v>
       </c>
       <c r="EB140">
-        <v>0.5118111503608368</v>
+        <v>-0.6363230239575632</v>
       </c>
       <c r="EC140">
-        <v>0.6636359510343999</v>
+        <v>-0.184891410987573</v>
       </c>
       <c r="ED140">
-        <v>0.7286847193651798</v>
+        <v>1.857875335772226</v>
       </c>
       <c r="EE140">
-        <v>0.6712282563247641</v>
+        <v>0.6611695376410593</v>
       </c>
       <c r="EF140">
-        <v>0.4521238400718821</v>
+        <v>-0.05589237209497491</v>
       </c>
       <c r="EG140">
-        <v>0.4088308827094236</v>
+        <v>0.468925960670091</v>
       </c>
       <c r="EH140">
-        <v>0.1263716786652638</v>
+        <v>0.2513087266968487</v>
       </c>
       <c r="EI140">
-        <v>-0.09075041317066823</v>
+        <v>0.01964454733300644</v>
       </c>
       <c r="EJ140">
-        <v>0.2208380811913595</v>
+        <v>-0.4362064995429919</v>
       </c>
     </row>
     <row r="141" spans="1:144">
       <c r="A141" s="1">
-        <v>43647</v>
+        <v>45108</v>
       </c>
       <c r="EB141">
-        <v>0.5118111503608368</v>
+        <v>-0.6363230239575632</v>
       </c>
       <c r="EC141">
-        <v>0.6636359510343999</v>
+        <v>-0.184891410987573</v>
       </c>
       <c r="ED141">
-        <v>0.7286847193651798</v>
+        <v>1.857875335772226</v>
       </c>
       <c r="EE141">
-        <v>0.6712282563247641</v>
+        <v>0.6611695376410593</v>
       </c>
       <c r="EF141">
-        <v>0.4521238400718821</v>
+        <v>-0.05589237209497491</v>
       </c>
       <c r="EG141">
-        <v>0.4088308827094236</v>
+        <v>0.468925960670091</v>
       </c>
       <c r="EH141">
-        <v>0.1263716786652638</v>
+        <v>0.2513087266968487</v>
       </c>
       <c r="EI141">
-        <v>-0.09075041317066823</v>
+        <v>0.01964454733300644</v>
       </c>
       <c r="EJ141">
-        <v>0.2208380811913595</v>
+        <v>-0.4362064995429919</v>
       </c>
       <c r="EK141">
-        <v>0.1547826744344046</v>
+        <v>-0.03707650669273283</v>
       </c>
     </row>
     <row r="142" spans="1:144">
       <c r="A142" s="1">
-        <v>43739</v>
+        <v>45200</v>
       </c>
       <c r="EC142">
-        <v>0.6636359510343999</v>
+        <v>-0.184891410987573</v>
       </c>
       <c r="ED142">
-        <v>0.7286847193651798</v>
+        <v>1.857875335772226</v>
       </c>
       <c r="EE142">
-        <v>0.6712282563247641</v>
+        <v>0.6611695376410593</v>
       </c>
       <c r="EF142">
-        <v>0.4521238400718821</v>
+        <v>-0.05589237209497491</v>
       </c>
       <c r="EG142">
-        <v>0.4088308827094236</v>
+        <v>0.468925960670091</v>
       </c>
       <c r="EH142">
-        <v>0.1263716786652638</v>
+        <v>0.2513087266968487</v>
       </c>
       <c r="EI142">
-        <v>-0.09075041317066823</v>
+        <v>0.01964454733300644</v>
       </c>
       <c r="EJ142">
-        <v>0.2208380811913595</v>
+        <v>-0.4362064995429919</v>
       </c>
       <c r="EK142">
-        <v>0.1547826744344046</v>
+        <v>-0.03707650669273283</v>
       </c>
       <c r="EL142">
-        <v>-0.07918898587295509</v>
+        <v>0.004725767866679595</v>
       </c>
     </row>
     <row r="143" spans="1:144">
       <c r="A143" s="1">
-        <v>43831</v>
+        <v>45292</v>
       </c>
       <c r="ED143">
-        <v>0.7286847193651798</v>
+        <v>1.857875335772226</v>
       </c>
       <c r="EE143">
-        <v>0.6712282563247641</v>
+        <v>0.6611695376410593</v>
       </c>
       <c r="EF143">
-        <v>0.4521238400718821</v>
+        <v>-0.05589237209497491</v>
       </c>
       <c r="EG143">
-        <v>0.4088308827094236</v>
+        <v>0.468925960670091</v>
       </c>
       <c r="EH143">
-        <v>0.1263716786652638</v>
+        <v>0.2513087266968487</v>
       </c>
       <c r="EI143">
-        <v>-0.09075041317066823</v>
+        <v>0.01964454733300644</v>
       </c>
       <c r="EJ143">
-        <v>0.2208380811913595</v>
+        <v>-0.4362064995429919</v>
       </c>
       <c r="EK143">
-        <v>0.1547826744344046</v>
+        <v>-0.03707650669273283</v>
       </c>
       <c r="EL143">
-        <v>-0.07918898587295509</v>
+        <v>0.004725767866679595</v>
       </c>
       <c r="EM143">
-        <v>0.1121744784509069</v>
+        <v>-0.1481614381304136</v>
       </c>
     </row>
     <row r="144" spans="1:144">
       <c r="A144" s="1">
-        <v>43922</v>
+        <v>45383</v>
       </c>
       <c r="EE144">
-        <v>0.6712282563247641</v>
+        <v>0.6611695376410593</v>
       </c>
       <c r="EF144">
-        <v>0.4521238400718821</v>
+        <v>-0.05589237209497491</v>
       </c>
       <c r="EG144">
-        <v>0.4088308827094236</v>
+        <v>0.468925960670091</v>
       </c>
       <c r="EH144">
-        <v>0.1263716786652638</v>
+        <v>0.2513087266968487</v>
       </c>
       <c r="EI144">
-        <v>-0.09075041317066823</v>
+        <v>0.01964454733300644</v>
       </c>
       <c r="EJ144">
-        <v>0.2208380811913595</v>
+        <v>-0.4362064995429919</v>
       </c>
       <c r="EK144">
-        <v>0.1547826744344046</v>
+        <v>-0.03707650669273283</v>
       </c>
       <c r="EL144">
-        <v>-0.07918898587295509</v>
+        <v>0.004725767866679595</v>
       </c>
       <c r="EM144">
-        <v>0.1121744784509069</v>
+        <v>-0.1481614381304136</v>
       </c>
       <c r="EN144">
-        <v>-1.162195275599549</v>
-      </c>
-    </row>
-    <row r="145" spans="1:160">
+        <v>-0.1426938562495702</v>
+      </c>
+    </row>
+    <row r="145" spans="1:148">
       <c r="A145" s="1">
-        <v>44013</v>
+        <v>45474</v>
       </c>
       <c r="EF145">
-        <v>0.4521238400718821</v>
+        <v>-0.05589237209497491</v>
       </c>
       <c r="EG145">
-        <v>0.4088308827094236</v>
+        <v>0.468925960670091</v>
       </c>
       <c r="EH145">
-        <v>0.1263716786652638</v>
+        <v>0.2513087266968487</v>
       </c>
       <c r="EI145">
-        <v>-0.09075041317066823</v>
+        <v>0.01964454733300644</v>
       </c>
       <c r="EJ145">
-        <v>0.2208380811913595</v>
+        <v>-0.4362064995429919</v>
       </c>
       <c r="EK145">
-        <v>0.1547826744344046</v>
+        <v>-0.03707650669273283</v>
       </c>
       <c r="EL145">
-        <v>-0.07918898587295509</v>
+        <v>0.004725767866679595</v>
       </c>
       <c r="EM145">
-        <v>0.1121744784509069</v>
+        <v>-0.1481614381304136</v>
       </c>
       <c r="EN145">
-        <v>-1.162195275599549</v>
+        <v>-0.1426938562495702</v>
       </c>
       <c r="EO145">
-        <v>-5.854824619268521</v>
-      </c>
-    </row>
-    <row r="146" spans="1:160">
+        <v>0.08133076613059367</v>
+      </c>
+    </row>
+    <row r="146" spans="1:148">
       <c r="A146" s="1">
-        <v>44105</v>
+        <v>45566</v>
       </c>
       <c r="EG146">
-        <v>0.4088308827094236</v>
+        <v>0.468925960670091</v>
       </c>
       <c r="EH146">
-        <v>0.1263716786652638</v>
+        <v>0.2513087266968487</v>
       </c>
       <c r="EI146">
-        <v>-0.09075041317066823</v>
+        <v>0.01964454733300644</v>
       </c>
       <c r="EJ146">
-        <v>0.2208380811913595</v>
+        <v>-0.4362064995429919</v>
       </c>
       <c r="EK146">
-        <v>0.1547826744344046</v>
+        <v>-0.03707650669273283</v>
       </c>
       <c r="EL146">
-        <v>-0.07918898587295509</v>
+        <v>0.004725767866679595</v>
       </c>
       <c r="EM146">
-        <v>0.1121744784509069</v>
+        <v>-0.1481614381304136</v>
       </c>
       <c r="EN146">
-        <v>-1.162195275599549</v>
+        <v>-0.1426938562495702</v>
       </c>
       <c r="EO146">
-        <v>-5.854824619268521</v>
+        <v>0.08133076613059367</v>
       </c>
       <c r="EP146">
-        <v>-0.6564850592266236</v>
-      </c>
-    </row>
-    <row r="147" spans="1:160">
+        <v>-0.090455108035048</v>
+      </c>
+    </row>
+    <row r="147" spans="1:148">
       <c r="A147" s="1">
-        <v>44197</v>
+        <v>45658</v>
       </c>
       <c r="EH147">
-        <v>0.1263716786652638</v>
+        <v>0.2513087266968487</v>
       </c>
       <c r="EI147">
-        <v>-0.09075041317066823</v>
+        <v>0.01964454733300644</v>
       </c>
       <c r="EJ147">
-        <v>0.2208380811913595</v>
+        <v>-0.4362064995429919</v>
       </c>
       <c r="EK147">
-        <v>0.1547826744344046</v>
+        <v>-0.03707650669273283</v>
       </c>
       <c r="EL147">
-        <v>-0.07918898587295509</v>
+        <v>0.004725767866679595</v>
       </c>
       <c r="EM147">
-        <v>0.1121744784509069</v>
+        <v>-0.1481614381304136</v>
       </c>
       <c r="EN147">
-        <v>-1.162195275599549</v>
+        <v>-0.1426938562495702</v>
       </c>
       <c r="EO147">
-        <v>-5.854824619268521</v>
+        <v>0.08133076613059367</v>
       </c>
       <c r="EP147">
-        <v>-0.6564850592266236</v>
+        <v>-0.090455108035048</v>
       </c>
       <c r="EQ147">
-        <v>4.426309542805707</v>
-      </c>
-    </row>
-    <row r="148" spans="1:160">
+        <v>-0.04771845303911565</v>
+      </c>
+    </row>
+    <row r="148" spans="1:148">
       <c r="A148" s="1">
-        <v>44287</v>
+        <v>45748</v>
       </c>
       <c r="EI148">
-        <v>-0.09075041317066823</v>
+        <v>0.01964454733300644</v>
       </c>
       <c r="EJ148">
-        <v>0.2208380811913595</v>
+        <v>-0.4362064995429919</v>
       </c>
       <c r="EK148">
-        <v>0.1547826744344046</v>
+        <v>-0.03707650669273283</v>
       </c>
       <c r="EL148">
-        <v>-0.07918898587295509</v>
+        <v>0.004725767866679595</v>
       </c>
       <c r="EM148">
-        <v>0.1121744784509069</v>
+        <v>-0.1481614381304136</v>
       </c>
       <c r="EN148">
-        <v>-1.162195275599549</v>
+        <v>-0.1426938562495702</v>
       </c>
       <c r="EO148">
-        <v>-5.854824619268521</v>
+        <v>0.08133076613059367</v>
       </c>
       <c r="EP148">
-        <v>-0.6564850592266236</v>
+        <v>-0.090455108035048</v>
       </c>
       <c r="EQ148">
-        <v>4.426309542805707</v>
+        <v>-0.04771845303911565</v>
       </c>
       <c r="ER148">
-        <v>-0.6363230239575632</v>
-      </c>
-    </row>
-    <row r="149" spans="1:160">
+        <v>0.1055152534313617</v>
+      </c>
+    </row>
+    <row r="149" spans="1:148">
       <c r="A149" s="1">
-        <v>44378</v>
+        <v>45839</v>
       </c>
       <c r="EJ149">
-        <v>0.2208380811913595</v>
+        <v>-0.4362064995429919</v>
       </c>
       <c r="EK149">
-        <v>0.1547826744344046</v>
+        <v>-0.03707650669273283</v>
       </c>
       <c r="EL149">
-        <v>-0.07918898587295509</v>
+        <v>0.004725767866679595</v>
       </c>
       <c r="EM149">
-        <v>0.1121744784509069</v>
+        <v>-0.1481614381304136</v>
       </c>
       <c r="EN149">
-        <v>-1.162195275599549</v>
+        <v>-0.1426938562495702</v>
       </c>
       <c r="EO149">
-        <v>-5.854824619268521</v>
+        <v>0.08133076613059367</v>
       </c>
       <c r="EP149">
-        <v>-0.6564850592266236</v>
+        <v>-0.090455108035048</v>
       </c>
       <c r="EQ149">
-        <v>4.426309542805707</v>
+        <v>-0.04771845303911565</v>
       </c>
       <c r="ER149">
-        <v>-0.6363230239575632</v>
-      </c>
-      <c r="ES149">
-        <v>-0.184891410987573</v>
-      </c>
-    </row>
-    <row r="150" spans="1:160">
+        <v>0.1055152534313617</v>
+      </c>
+    </row>
+    <row r="150" spans="1:148">
       <c r="A150" s="1">
-        <v>44470</v>
+        <v>45931</v>
       </c>
       <c r="EK150">
-        <v>0.1547826744344046</v>
+        <v>-0.03707650669273283</v>
       </c>
       <c r="EL150">
-        <v>-0.07918898587295509</v>
+        <v>0.004725767866679595</v>
       </c>
       <c r="EM150">
-        <v>0.1121744784509069</v>
+        <v>-0.1481614381304136</v>
       </c>
       <c r="EN150">
-        <v>-1.162195275599549</v>
+        <v>-0.1426938562495702</v>
       </c>
       <c r="EO150">
-        <v>-5.854824619268521</v>
+        <v>0.08133076613059367</v>
       </c>
       <c r="EP150">
-        <v>-0.6564850592266236</v>
+        <v>-0.090455108035048</v>
       </c>
       <c r="EQ150">
-        <v>4.426309542805707</v>
+        <v>-0.04771845303911565</v>
       </c>
       <c r="ER150">
-        <v>-0.6363230239575632</v>
-      </c>
-      <c r="ES150">
-        <v>-0.184891410987573</v>
-      </c>
-      <c r="ET150">
-        <v>1.857875335772226</v>
-      </c>
-    </row>
-    <row r="151" spans="1:160">
+        <v>0.1055152534313617</v>
+      </c>
+    </row>
+    <row r="151" spans="1:148">
       <c r="A151" s="1">
-        <v>44562</v>
+        <v>46023</v>
       </c>
       <c r="EL151">
-        <v>-0.07918898587295509</v>
+        <v>0.004725767866679595</v>
       </c>
       <c r="EM151">
-        <v>0.1121744784509069</v>
+        <v>-0.1481614381304136</v>
       </c>
       <c r="EN151">
-        <v>-1.162195275599549</v>
+        <v>-0.1426938562495702</v>
       </c>
       <c r="EO151">
-        <v>-5.854824619268521</v>
+        <v>0.08133076613059367</v>
       </c>
       <c r="EP151">
-        <v>-0.6564850592266236</v>
+        <v>-0.090455108035048</v>
       </c>
       <c r="EQ151">
-        <v>4.426309542805707</v>
+        <v>-0.04771845303911565</v>
       </c>
       <c r="ER151">
-        <v>-0.6363230239575632</v>
-      </c>
-      <c r="ES151">
-        <v>-0.184891410987573</v>
-      </c>
-      <c r="ET151">
-        <v>1.857875335772226</v>
-      </c>
-      <c r="EU151">
-        <v>0.6611695376410593</v>
-      </c>
-    </row>
-    <row r="152" spans="1:160">
+        <v>0.1055152534313617</v>
+      </c>
+    </row>
+    <row r="152" spans="1:148">
       <c r="A152" s="1">
-        <v>44652</v>
+        <v>46113</v>
       </c>
       <c r="EM152">
-        <v>0.1121744784509069</v>
+        <v>-0.1481614381304136</v>
       </c>
       <c r="EN152">
-        <v>-1.162195275599549</v>
+        <v>-0.1426938562495702</v>
       </c>
       <c r="EO152">
-        <v>-5.854824619268521</v>
+        <v>0.08133076613059367</v>
       </c>
       <c r="EP152">
-        <v>-0.6564850592266236</v>
+        <v>-0.090455108035048</v>
       </c>
       <c r="EQ152">
-        <v>4.426309542805707</v>
+        <v>-0.04771845303911565</v>
       </c>
       <c r="ER152">
-        <v>-0.6363230239575632</v>
-      </c>
-      <c r="ES152">
-        <v>-0.184891410987573</v>
-      </c>
-      <c r="ET152">
-        <v>1.857875335772226</v>
-      </c>
-      <c r="EU152">
-        <v>0.6611695376410593</v>
-      </c>
-      <c r="EV152">
-        <v>-0.05589237209497491</v>
-      </c>
-    </row>
-    <row r="153" spans="1:160">
+        <v>0.1055152534313617</v>
+      </c>
+    </row>
+    <row r="153" spans="1:148">
       <c r="A153" s="1">
-        <v>44743</v>
+        <v>46204</v>
       </c>
       <c r="EN153">
-        <v>-1.162195275599549</v>
+        <v>-0.1426938562495702</v>
       </c>
       <c r="EO153">
-        <v>-5.854824619268521</v>
+        <v>0.08133076613059367</v>
       </c>
       <c r="EP153">
-        <v>-0.6564850592266236</v>
+        <v>-0.090455108035048</v>
       </c>
       <c r="EQ153">
-        <v>4.426309542805707</v>
+        <v>-0.04771845303911565</v>
       </c>
       <c r="ER153">
-        <v>-0.6363230239575632</v>
-      </c>
-      <c r="ES153">
-        <v>-0.184891410987573</v>
-      </c>
-      <c r="ET153">
-        <v>1.857875335772226</v>
-      </c>
-      <c r="EU153">
-        <v>0.6611695376410593</v>
-      </c>
-      <c r="EV153">
-        <v>-0.05589237209497491</v>
-      </c>
-      <c r="EW153">
-        <v>0.468925960670091</v>
-      </c>
-    </row>
-    <row r="154" spans="1:160">
+        <v>0.1055152534313617</v>
+      </c>
+    </row>
+    <row r="154" spans="1:148">
       <c r="A154" s="1">
-        <v>44835</v>
+        <v>46296</v>
       </c>
       <c r="EO154">
-        <v>-5.854824619268521</v>
+        <v>0.08133076613059367</v>
       </c>
       <c r="EP154">
-        <v>-0.6564850592266236</v>
+        <v>-0.090455108035048</v>
       </c>
       <c r="EQ154">
-        <v>4.426309542805707</v>
+        <v>-0.04771845303911565</v>
       </c>
       <c r="ER154">
-        <v>-0.6363230239575632</v>
-      </c>
-      <c r="ES154">
-        <v>-0.184891410987573</v>
-      </c>
-      <c r="ET154">
-        <v>1.857875335772226</v>
-      </c>
-      <c r="EU154">
-        <v>0.6611695376410593</v>
-      </c>
-      <c r="EV154">
-        <v>-0.05589237209497491</v>
-      </c>
-      <c r="EW154">
-        <v>0.468925960670091</v>
-      </c>
-      <c r="EX154">
-        <v>0.2513087266968487</v>
-      </c>
-    </row>
-    <row r="155" spans="1:160">
+        <v>0.1055152534313617</v>
+      </c>
+    </row>
+    <row r="155" spans="1:148">
       <c r="A155" s="1">
-        <v>44927</v>
+        <v>46388</v>
       </c>
       <c r="EP155">
-        <v>-0.6564850592266236</v>
+        <v>-0.090455108035048</v>
       </c>
       <c r="EQ155">
-        <v>4.426309542805707</v>
+        <v>-0.04771845303911565</v>
       </c>
       <c r="ER155">
-        <v>-0.6363230239575632</v>
-      </c>
-      <c r="ES155">
-        <v>-0.184891410987573</v>
-      </c>
-      <c r="ET155">
-        <v>1.857875335772226</v>
-      </c>
-      <c r="EU155">
-        <v>0.6611695376410593</v>
-      </c>
-      <c r="EV155">
-        <v>-0.05589237209497491</v>
-      </c>
-      <c r="EW155">
-        <v>0.468925960670091</v>
-      </c>
-      <c r="EX155">
-        <v>0.2513087266968487</v>
-      </c>
-      <c r="EY155">
-        <v>0.01964454733300644</v>
-      </c>
-    </row>
-    <row r="156" spans="1:160">
+        <v>0.1055152534313617</v>
+      </c>
+    </row>
+    <row r="156" spans="1:148">
       <c r="A156" s="1">
-        <v>45017</v>
+        <v>46478</v>
       </c>
       <c r="EQ156">
-        <v>4.426309542805707</v>
+        <v>-0.04771845303911565</v>
       </c>
       <c r="ER156">
-        <v>-0.6363230239575632</v>
-      </c>
-      <c r="ES156">
-        <v>-0.184891410987573</v>
-      </c>
-      <c r="ET156">
-        <v>1.857875335772226</v>
-      </c>
-      <c r="EU156">
-        <v>0.6611695376410593</v>
-      </c>
-      <c r="EV156">
-        <v>-0.05589237209497491</v>
-      </c>
-      <c r="EW156">
-        <v>0.468925960670091</v>
-      </c>
-      <c r="EX156">
-        <v>0.2513087266968487</v>
-      </c>
-      <c r="EY156">
-        <v>0.01964454733300644</v>
-      </c>
-      <c r="EZ156">
-        <v>-0.4362064995429919</v>
-      </c>
-    </row>
-    <row r="157" spans="1:160">
+        <v>0.1055152534313617</v>
+      </c>
+    </row>
+    <row r="157" spans="1:148">
       <c r="A157" s="1">
-        <v>45108</v>
+        <v>46569</v>
       </c>
       <c r="ER157">
-        <v>-0.6363230239575632</v>
-      </c>
-      <c r="ES157">
-        <v>-0.184891410987573</v>
-      </c>
-      <c r="ET157">
-        <v>1.857875335772226</v>
-      </c>
-      <c r="EU157">
-        <v>0.6611695376410593</v>
-      </c>
-      <c r="EV157">
-        <v>-0.05589237209497491</v>
-      </c>
-      <c r="EW157">
-        <v>0.468925960670091</v>
-      </c>
-      <c r="EX157">
-        <v>0.2513087266968487</v>
-      </c>
-      <c r="EY157">
-        <v>0.01964454733300644</v>
-      </c>
-      <c r="EZ157">
-        <v>-0.4362064995429919</v>
-      </c>
-      <c r="FA157">
-        <v>-0.03707650669273283</v>
-      </c>
-    </row>
-    <row r="158" spans="1:160">
-      <c r="A158" s="1">
-        <v>45200</v>
-      </c>
-      <c r="ES158">
-        <v>-0.184891410987573</v>
-      </c>
-      <c r="ET158">
-        <v>1.857875335772226</v>
-      </c>
-      <c r="EU158">
-        <v>0.6611695376410593</v>
-      </c>
-      <c r="EV158">
-        <v>-0.05589237209497491</v>
-      </c>
-      <c r="EW158">
-        <v>0.468925960670091</v>
-      </c>
-      <c r="EX158">
-        <v>0.2513087266968487</v>
-      </c>
-      <c r="EY158">
-        <v>0.01964454733300644</v>
-      </c>
-      <c r="EZ158">
-        <v>-0.4362064995429919</v>
-      </c>
-      <c r="FA158">
-        <v>-0.03707650669273283</v>
-      </c>
-      <c r="FB158">
-        <v>0.004725767866679595</v>
-      </c>
-    </row>
-    <row r="159" spans="1:160">
-      <c r="A159" s="1">
-        <v>45292</v>
-      </c>
-      <c r="ET159">
-        <v>1.857875335772226</v>
-      </c>
-      <c r="EU159">
-        <v>0.6611695376410593</v>
-      </c>
-      <c r="EV159">
-        <v>-0.05589237209497491</v>
-      </c>
-      <c r="EW159">
-        <v>0.468925960670091</v>
-      </c>
-      <c r="EX159">
-        <v>0.2513087266968487</v>
-      </c>
-      <c r="EY159">
-        <v>0.01964454733300644</v>
-      </c>
-      <c r="EZ159">
-        <v>-0.4362064995429919</v>
-      </c>
-      <c r="FA159">
-        <v>-0.03707650669273283</v>
-      </c>
-      <c r="FB159">
-        <v>0.004725767866679595</v>
-      </c>
-      <c r="FC159">
-        <v>-0.1481614381304136</v>
-      </c>
-    </row>
-    <row r="160" spans="1:160">
-      <c r="A160" s="1">
-        <v>45383</v>
-      </c>
-      <c r="EU160">
-        <v>0.6611695376410593</v>
-      </c>
-      <c r="EV160">
-        <v>-0.05589237209497491</v>
-      </c>
-      <c r="EW160">
-        <v>0.468925960670091</v>
-      </c>
-      <c r="EX160">
-        <v>0.2513087266968487</v>
-      </c>
-      <c r="EY160">
-        <v>0.01964454733300644</v>
-      </c>
-      <c r="EZ160">
-        <v>-0.4362064995429919</v>
-      </c>
-      <c r="FA160">
-        <v>-0.03707650669273283</v>
-      </c>
-      <c r="FB160">
-        <v>0.004725767866679595</v>
-      </c>
-      <c r="FC160">
-        <v>-0.1481614381304136</v>
-      </c>
-      <c r="FD160">
-        <v>-0.1426938562495702</v>
-      </c>
-    </row>
-    <row r="161" spans="1:164">
-      <c r="A161" s="1">
-        <v>45474</v>
-      </c>
-      <c r="EV161">
-        <v>-0.05589237209497491</v>
-      </c>
-      <c r="EW161">
-        <v>0.468925960670091</v>
-      </c>
-      <c r="EX161">
-        <v>0.2513087266968487</v>
-      </c>
-      <c r="EY161">
-        <v>0.01964454733300644</v>
-      </c>
-      <c r="EZ161">
-        <v>-0.4362064995429919</v>
-      </c>
-      <c r="FA161">
-        <v>-0.03707650669273283</v>
-      </c>
-      <c r="FB161">
-        <v>0.004725767866679595</v>
-      </c>
-      <c r="FC161">
-        <v>-0.1481614381304136</v>
-      </c>
-      <c r="FD161">
-        <v>-0.1426938562495702</v>
-      </c>
-      <c r="FE161">
-        <v>0.08133076613059367</v>
-      </c>
-    </row>
-    <row r="162" spans="1:164">
-      <c r="A162" s="1">
-        <v>45566</v>
-      </c>
-      <c r="EW162">
-        <v>0.468925960670091</v>
-      </c>
-      <c r="EX162">
-        <v>0.2513087266968487</v>
-      </c>
-      <c r="EY162">
-        <v>0.01964454733300644</v>
-      </c>
-      <c r="EZ162">
-        <v>-0.4362064995429919</v>
-      </c>
-      <c r="FA162">
-        <v>-0.03707650669273283</v>
-      </c>
-      <c r="FB162">
-        <v>0.004725767866679595</v>
-      </c>
-      <c r="FC162">
-        <v>-0.1481614381304136</v>
-      </c>
-      <c r="FD162">
-        <v>-0.1426938562495702</v>
-      </c>
-      <c r="FE162">
-        <v>0.08133076613059367</v>
-      </c>
-      <c r="FF162">
-        <v>-0.090455108035048</v>
-      </c>
-    </row>
-    <row r="163" spans="1:164">
-      <c r="A163" s="1">
-        <v>45658</v>
-      </c>
-      <c r="EX163">
-        <v>0.2513087266968487</v>
-      </c>
-      <c r="EY163">
-        <v>0.01964454733300644</v>
-      </c>
-      <c r="EZ163">
-        <v>-0.4362064995429919</v>
-      </c>
-      <c r="FA163">
-        <v>-0.03707650669273283</v>
-      </c>
-      <c r="FB163">
-        <v>0.004725767866679595</v>
-      </c>
-      <c r="FC163">
-        <v>-0.1481614381304136</v>
-      </c>
-      <c r="FD163">
-        <v>-0.1426938562495702</v>
-      </c>
-      <c r="FE163">
-        <v>0.08133076613059367</v>
-      </c>
-      <c r="FF163">
-        <v>-0.090455108035048</v>
-      </c>
-      <c r="FG163">
-        <v>-0.04771845303911565</v>
-      </c>
-    </row>
-    <row r="164" spans="1:164">
-      <c r="A164" s="1">
-        <v>45748</v>
-      </c>
-      <c r="EY164">
-        <v>0.01964454733300644</v>
-      </c>
-      <c r="EZ164">
-        <v>-0.4362064995429919</v>
-      </c>
-      <c r="FA164">
-        <v>-0.03707650669273283</v>
-      </c>
-      <c r="FB164">
-        <v>0.004725767866679595</v>
-      </c>
-      <c r="FC164">
-        <v>-0.1481614381304136</v>
-      </c>
-      <c r="FD164">
-        <v>-0.1426938562495702</v>
-      </c>
-      <c r="FE164">
-        <v>0.08133076613059367</v>
-      </c>
-      <c r="FF164">
-        <v>-0.090455108035048</v>
-      </c>
-      <c r="FG164">
-        <v>-0.04771845303911565</v>
-      </c>
-      <c r="FH164">
-        <v>0.1055152534313617</v>
-      </c>
-    </row>
-    <row r="165" spans="1:164">
-      <c r="A165" s="1">
-        <v>45839</v>
-      </c>
-      <c r="EZ165">
-        <v>-0.4362064995429919</v>
-      </c>
-      <c r="FA165">
-        <v>-0.03707650669273283</v>
-      </c>
-      <c r="FB165">
-        <v>0.004725767866679595</v>
-      </c>
-      <c r="FC165">
-        <v>-0.1481614381304136</v>
-      </c>
-      <c r="FD165">
-        <v>-0.1426938562495702</v>
-      </c>
-      <c r="FE165">
-        <v>0.08133076613059367</v>
-      </c>
-      <c r="FF165">
-        <v>-0.090455108035048</v>
-      </c>
-      <c r="FG165">
-        <v>-0.04771845303911565</v>
-      </c>
-      <c r="FH165">
-        <v>0.1055152534313617</v>
-      </c>
-    </row>
-    <row r="166" spans="1:164">
-      <c r="A166" s="1">
-        <v>45931</v>
-      </c>
-      <c r="FA166">
-        <v>-0.03707650669273283</v>
-      </c>
-      <c r="FB166">
-        <v>0.004725767866679595</v>
-      </c>
-      <c r="FC166">
-        <v>-0.1481614381304136</v>
-      </c>
-      <c r="FD166">
-        <v>-0.1426938562495702</v>
-      </c>
-      <c r="FE166">
-        <v>0.08133076613059367</v>
-      </c>
-      <c r="FF166">
-        <v>-0.090455108035048</v>
-      </c>
-      <c r="FG166">
-        <v>-0.04771845303911565</v>
-      </c>
-      <c r="FH166">
-        <v>0.1055152534313617</v>
-      </c>
-    </row>
-    <row r="167" spans="1:164">
-      <c r="A167" s="1">
-        <v>46023</v>
-      </c>
-      <c r="FB167">
-        <v>0.004725767866679595</v>
-      </c>
-      <c r="FC167">
-        <v>-0.1481614381304136</v>
-      </c>
-      <c r="FD167">
-        <v>-0.1426938562495702</v>
-      </c>
-      <c r="FE167">
-        <v>0.08133076613059367</v>
-      </c>
-      <c r="FF167">
-        <v>-0.090455108035048</v>
-      </c>
-      <c r="FG167">
-        <v>-0.04771845303911565</v>
-      </c>
-      <c r="FH167">
-        <v>0.1055152534313617</v>
-      </c>
-    </row>
-    <row r="168" spans="1:164">
-      <c r="A168" s="1">
-        <v>46113</v>
-      </c>
-      <c r="FC168">
-        <v>-0.1481614381304136</v>
-      </c>
-      <c r="FD168">
-        <v>-0.1426938562495702</v>
-      </c>
-      <c r="FE168">
-        <v>0.08133076613059367</v>
-      </c>
-      <c r="FF168">
-        <v>-0.090455108035048</v>
-      </c>
-      <c r="FG168">
-        <v>-0.04771845303911565</v>
-      </c>
-      <c r="FH168">
-        <v>0.1055152534313617</v>
-      </c>
-    </row>
-    <row r="169" spans="1:164">
-      <c r="A169" s="1">
-        <v>46204</v>
-      </c>
-      <c r="FD169">
-        <v>-0.1426938562495702</v>
-      </c>
-      <c r="FE169">
-        <v>0.08133076613059367</v>
-      </c>
-      <c r="FF169">
-        <v>-0.090455108035048</v>
-      </c>
-      <c r="FG169">
-        <v>-0.04771845303911565</v>
-      </c>
-      <c r="FH169">
-        <v>0.1055152534313617</v>
-      </c>
-    </row>
-    <row r="170" spans="1:164">
-      <c r="A170" s="1">
-        <v>46296</v>
-      </c>
-      <c r="FE170">
-        <v>0.08133076613059367</v>
-      </c>
-      <c r="FF170">
-        <v>-0.090455108035048</v>
-      </c>
-      <c r="FG170">
-        <v>-0.04771845303911565</v>
-      </c>
-      <c r="FH170">
-        <v>0.1055152534313617</v>
-      </c>
-    </row>
-    <row r="171" spans="1:164">
-      <c r="A171" s="1">
-        <v>46388</v>
-      </c>
-      <c r="FF171">
-        <v>-0.090455108035048</v>
-      </c>
-      <c r="FG171">
-        <v>-0.04771845303911565</v>
-      </c>
-      <c r="FH171">
-        <v>0.1055152534313617</v>
-      </c>
-    </row>
-    <row r="172" spans="1:164">
-      <c r="A172" s="1">
-        <v>46478</v>
-      </c>
-      <c r="FG172">
-        <v>-0.04771845303911565</v>
-      </c>
-      <c r="FH172">
-        <v>0.1055152534313617</v>
-      </c>
-    </row>
-    <row r="173" spans="1:164">
-      <c r="A173" s="1">
-        <v>46569</v>
-      </c>
-      <c r="FH173">
         <v>0.1055152534313617</v>
       </c>
     </row>
